--- a/outcome/appendix/Figure Data/Fig.7 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.7 data.xlsx
@@ -401,13 +401,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.186942978702827</v>
+        <v>0.0973146703941468</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -415,13 +415,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0540203396680991</v>
+        <v>-0.180438398918667</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0871253792772864</v>
+        <v>-0.0899301341759446</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0413761154142823</v>
+        <v>0.0840156807561714</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.124773944946987</v>
+        <v>0.138142758435655</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>0.128286567387358</v>
+        <v>0.115471403714571</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0497152194634939</v>
+        <v>-0.0111601792799192</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>

--- a/outcome/appendix/Figure Data/Fig.7 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.7 data.xlsx
@@ -401,13 +401,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0973146703941468</v>
+        <v>0.216939747451051</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -415,13 +415,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.180438398918667</v>
+        <v>0.0861990286954311</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0899301341759446</v>
+        <v>0.0575003770438947</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0840156807561714</v>
+        <v>0.154798528676857</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.138142758435655</v>
+        <v>0.11364700783807</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115471403714571</v>
+        <v>0.0194520317475085</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0111601792799192</v>
+        <v>0.0511379452685869</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -1031,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.182175756110518</v>
+        <v>0.229029212386673</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.112934691385751</v>
+        <v>0.123448771374053</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.074925396619684</v>
+        <v>0.0617109572388622</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0135811597773838</v>
+        <v>0.00655713410152944</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -1087,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0759505362202335</v>
+        <v>-0.0788252318799469</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -1101,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0877524811627296</v>
+        <v>-0.0870163930938611</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -1115,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0122470770101432</v>
+        <v>-0.000905623158233447</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -1157,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.393330231238288</v>
+        <v>0.420931077904948</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0524717477739908</v>
+        <v>0.0650556906153634</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0105087524686004</v>
+        <v>0.00673352426610154</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -1199,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.134381245068502</v>
+        <v>0.144666200779204</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0969348173865604</v>
+        <v>0.100522731118742</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0642408517545338</v>
+        <v>0.0578901765644766</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -1241,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0782598463745474</v>
+        <v>0.0746769182729149</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>

--- a/outcome/appendix/Figure Data/Fig.7 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.7 data.xlsx
@@ -527,13 +527,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.159572295523369</v>
+        <v>0.150631698876498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0626598001098378</v>
+        <v>0.0529835311549665</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.119995168720021</v>
+        <v>0.122958956068533</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -569,13 +569,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.150296526113181</v>
+        <v>0.154748127599502</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -583,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0268366225428293</v>
+        <v>0.0258459254745544</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0273455971019051</v>
+        <v>-0.0403159408546249</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.000494070540026111</v>
+        <v>-0.0212030706158458</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201915884521576</v>
+        <v>0.242445082931604</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.148301271962253</v>
+        <v>0.146500322423866</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0744612976183656</v>
+        <v>0.0772100219537156</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -947,7 +947,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0239657489141593</v>
+        <v>0.00181102526538396</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -961,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0862154046235212</v>
+        <v>-0.050003734385143</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0754111914832931</v>
+        <v>-0.0379935169391277</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -989,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0331658994529364</v>
+        <v>-0.0282670855208234</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -1031,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.229029212386673</v>
+        <v>0.232445713359403</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.123448771374053</v>
+        <v>0.124503061791495</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0617109572388622</v>
+        <v>0.0609250764972083</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00655713410152944</v>
+        <v>0.00478931354550423</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -1087,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0788252318799469</v>
+        <v>-0.0805333748598492</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -1101,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0870163930938611</v>
+        <v>-0.0861996414477951</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -1115,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.000905623158233447</v>
+        <v>0.00137533202201168</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -1157,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.420931077904948</v>
+        <v>0.420041608323615</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0650556906153634</v>
+        <v>0.0652885562574674</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00673352426610154</v>
+        <v>0.0066095554141697</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -1199,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.144666200779204</v>
+        <v>0.144127757649976</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.100522731118742</v>
+        <v>0.100008192260929</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0578901765644766</v>
+        <v>0.0578649923427377</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -1241,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0746769182729149</v>
+        <v>0.0747932659081916</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>

--- a/outcome/appendix/Figure Data/Fig.7 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.7 data.xlsx
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.242445082931604</v>
+        <v>0.249470684345819</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.146500322423866</v>
+        <v>0.152273071511874</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0772100219537156</v>
+        <v>0.0792393819018424</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -947,7 +947,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00181102526538396</v>
+        <v>-0.00264186100154154</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -961,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.050003734385143</v>
+        <v>-0.0601783805887382</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0379935169391277</v>
+        <v>-0.0466871165075032</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -989,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0282670855208234</v>
+        <v>-0.0291766687304755</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -1031,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.232445713359403</v>
+        <v>0.232823251341875</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.124503061791495</v>
+        <v>0.124385783899241</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0609250764972083</v>
+        <v>0.0613220882100216</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00478931354550423</v>
+        <v>0.00463650194317341</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -1087,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0805333748598492</v>
+        <v>-0.0807610990053768</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -1101,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0861996414477951</v>
+        <v>-0.0861254323536415</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -1115,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00137533202201168</v>
+        <v>0.00200840602309486</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -1157,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.420041608323615</v>
+        <v>0.420284152003716</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0652885562574674</v>
+        <v>0.0652106539319341</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0066095554141697</v>
+        <v>0.0066264972109498</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -1199,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.144127757649976</v>
+        <v>0.144265506295645</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.100008192260929</v>
+        <v>0.100171969912806</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0578649923427377</v>
+        <v>0.0578993985738962</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -1241,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0747932659081916</v>
+        <v>0.0747675455823083</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>

--- a/outcome/appendix/Figure Data/Fig.7 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.7 data.xlsx
@@ -12018,7 +12018,7 @@
         <v>157</v>
       </c>
       <c r="B2" t="n">
-        <v>0.420284152003716</v>
+        <v>0.676357450359586</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>157</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0652106539319341</v>
+        <v>0.13202638183951</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -12046,7 +12046,7 @@
         <v>157</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0066264972109498</v>
+        <v>0.0693342671009599</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -12060,7 +12060,7 @@
         <v>157</v>
       </c>
       <c r="B5" t="n">
-        <v>0.144265506295645</v>
+        <v>0.22099911154817</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -12074,7 +12074,7 @@
         <v>157</v>
       </c>
       <c r="B6" t="n">
-        <v>0.100171969912806</v>
+        <v>0.110716432749145</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -12088,7 +12088,7 @@
         <v>157</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0578993985738962</v>
+        <v>0.030071891384306</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -12102,7 +12102,7 @@
         <v>157</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0747675455823083</v>
+        <v>0.0495698236169596</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -12249,118 +12249,118 @@
         <v>168</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.142052507282421</v>
+        <v>0.315811897171963</v>
       </c>
       <c r="D2" t="n">
-        <v>0.757903769436536</v>
+        <v>0.843966155581639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.394678892161227</v>
+        <v>0.37344026734281</v>
       </c>
       <c r="F2" t="n">
-        <v>0.278196236859533</v>
+        <v>0.27959322944577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.342779105605697</v>
+        <v>0.344763073286142</v>
       </c>
       <c r="H2" t="n">
-        <v>0.28902556845554</v>
+        <v>0.269309087699605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.069814721265744</v>
+        <v>0.122920237771008</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0098460570474862</v>
+        <v>0.120975817951058</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.369779228251582</v>
+        <v>-0.115911166318337</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.160817720730684</v>
+        <v>0.0340601787590035</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0157615646938367</v>
+        <v>0.244404067025143</v>
       </c>
       <c r="N2" t="n">
-        <v>0.199202477272422</v>
+        <v>0.33191739835863</v>
       </c>
       <c r="O2" t="n">
-        <v>0.391583512456065</v>
+        <v>0.449983017754709</v>
       </c>
       <c r="P2" t="n">
-        <v>0.522895299612274</v>
+        <v>0.498240432082183</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.424531520744246</v>
+        <v>0.364959444112395</v>
       </c>
       <c r="R2" t="n">
-        <v>0.265924876083112</v>
+        <v>0.224907837660199</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0769224345803048</v>
+        <v>0.12020759370001</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0169196578606597</v>
+        <v>0.023472068603836</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00437615507626549</v>
+        <v>0.0630461484473585</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.147141920507019</v>
+        <v>-0.0427805354635572</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.182890018659705</v>
+        <v>-0.0338620206943176</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.181410761041374</v>
+        <v>0.0480240287411272</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.000779464313595856</v>
+        <v>0.157593783864313</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.123584268664562</v>
+        <v>0.232524341918607</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.170574220198894</v>
+        <v>0.220289374585252</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.288186690723183</v>
+        <v>0.289552835806442</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.345088693243996</v>
+        <v>0.254967527765052</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.282060938625912</v>
+        <v>0.231817171615408</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.153508982584117</v>
+        <v>0.176273076390374</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0862545184447048</v>
+        <v>0.13125244233893</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0298306196276998</v>
+        <v>0.0677977130223224</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.128247332403735</v>
+        <v>-0.0290197997057591</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.239414609712327</v>
+        <v>-0.051443824759745</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.212269656475031</v>
+        <v>0.0691600957601061</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.0928205709809474</v>
+        <v>0.15271950899421</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.284641930836603</v>
+        <v>0.323833986109454</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.263230303201223</v>
+        <v>0.295247491765555</v>
       </c>
     </row>
     <row r="3">
@@ -12368,118 +12368,118 @@
         <v>146</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.227816929826454</v>
+        <v>-0.084612057090489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.298358301110273</v>
+        <v>0.397980647205367</v>
       </c>
       <c r="E3" t="n">
-        <v>0.502243207526516</v>
+        <v>0.586516083022124</v>
       </c>
       <c r="F3" t="n">
-        <v>0.587577566253604</v>
+        <v>0.61907338711961</v>
       </c>
       <c r="G3" t="n">
-        <v>0.589906197016183</v>
+        <v>0.619086853017352</v>
       </c>
       <c r="H3" t="n">
-        <v>0.656581980248618</v>
+        <v>0.638153150629753</v>
       </c>
       <c r="I3" t="n">
-        <v>0.516036023093684</v>
+        <v>0.482307457063291</v>
       </c>
       <c r="J3" t="n">
-        <v>0.517489915113713</v>
+        <v>0.503541540200215</v>
       </c>
       <c r="K3" t="n">
-        <v>0.63028572578685</v>
+        <v>0.555572144813399</v>
       </c>
       <c r="L3" t="n">
-        <v>0.212845452492165</v>
+        <v>0.250356760848417</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0837587522599972</v>
+        <v>0.289780918230744</v>
       </c>
       <c r="N3" t="n">
-        <v>0.22961264848359</v>
+        <v>0.383021592362611</v>
       </c>
       <c r="O3" t="n">
-        <v>0.263999994215984</v>
+        <v>0.36856754428464</v>
       </c>
       <c r="P3" t="n">
-        <v>0.354454351689327</v>
+        <v>0.392892978679295</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.361422294705439</v>
+        <v>0.405002079827941</v>
       </c>
       <c r="R3" t="n">
-        <v>0.315823371301284</v>
+        <v>0.338176864954786</v>
       </c>
       <c r="S3" t="n">
-        <v>0.230921823858566</v>
+        <v>0.308981894640224</v>
       </c>
       <c r="T3" t="n">
-        <v>0.374341338959565</v>
+        <v>0.360423628466529</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0208092419268101</v>
+        <v>0.098914257461055</v>
       </c>
       <c r="V3" t="n">
-        <v>0.320100688564388</v>
+        <v>0.34804461852049</v>
       </c>
       <c r="W3" t="n">
-        <v>0.244189047374268</v>
+        <v>0.28441338043829</v>
       </c>
       <c r="X3" t="n">
-        <v>0.17616997442029</v>
+        <v>0.374780554775159</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.187352237924412</v>
+        <v>0.338343973003982</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.216015369040344</v>
+        <v>0.349407224787969</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.149481377705007</v>
+        <v>0.24269953492374</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.281764797990003</v>
+        <v>0.331542772714929</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.190575586032634</v>
+        <v>0.259892001357059</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.178347708155676</v>
+        <v>0.251357192998495</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.201815129278093</v>
+        <v>0.271751462139807</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.244201846032698</v>
+        <v>0.299913616927582</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.172052330334773</v>
+        <v>0.245766576359896</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.179842361234565</v>
+        <v>0.250593600754847</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.168323275941123</v>
+        <v>0.23149330261107</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.152461001955852</v>
+        <v>0.230927718836964</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.00834865553584805</v>
+        <v>0.214518257610008</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.458318858561271</v>
+        <v>0.481826694109741</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.153869376301927</v>
+        <v>0.257674957250013</v>
       </c>
     </row>
     <row r="4">
@@ -12487,118 +12487,118 @@
         <v>149</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.209146766568107</v>
+        <v>0.503904157344022</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.205848230540262</v>
+        <v>-0.169657905504366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.509317262990794</v>
+        <v>0.597167696387007</v>
       </c>
       <c r="F4" t="n">
-        <v>0.604042503517689</v>
+        <v>0.637345205375673</v>
       </c>
       <c r="G4" t="n">
-        <v>0.579555721874318</v>
+        <v>0.61898976525886</v>
       </c>
       <c r="H4" t="n">
-        <v>0.614748112497021</v>
+        <v>0.614039877072675</v>
       </c>
       <c r="I4" t="n">
-        <v>0.556211405112284</v>
+        <v>0.545806043991785</v>
       </c>
       <c r="J4" t="n">
-        <v>0.617190520365443</v>
+        <v>0.623364423200868</v>
       </c>
       <c r="K4" t="n">
-        <v>0.662835943963762</v>
+        <v>0.629573981392636</v>
       </c>
       <c r="L4" t="n">
-        <v>0.580233822145835</v>
+        <v>0.636126144125787</v>
       </c>
       <c r="M4" t="n">
-        <v>0.430003163957094</v>
+        <v>0.714814437213349</v>
       </c>
       <c r="N4" t="n">
-        <v>0.480339738085847</v>
+        <v>0.652793589068983</v>
       </c>
       <c r="O4" t="n">
-        <v>0.563168339433167</v>
+        <v>0.684570063723412</v>
       </c>
       <c r="P4" t="n">
-        <v>0.686345115351629</v>
+        <v>0.718818763335399</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.72888320243146</v>
+        <v>0.726627757299202</v>
       </c>
       <c r="R4" t="n">
-        <v>0.731331544801236</v>
+        <v>0.627735430860111</v>
       </c>
       <c r="S4" t="n">
-        <v>0.658125577603062</v>
+        <v>0.597547083378712</v>
       </c>
       <c r="T4" t="n">
-        <v>0.865147059155404</v>
+        <v>0.695445061576603</v>
       </c>
       <c r="U4" t="n">
-        <v>0.852641843785247</v>
+        <v>0.782831557261801</v>
       </c>
       <c r="V4" t="n">
-        <v>0.775068273873596</v>
+        <v>0.738504460914825</v>
       </c>
       <c r="W4" t="n">
-        <v>0.741664515115225</v>
+        <v>0.71905083760602</v>
       </c>
       <c r="X4" t="n">
-        <v>0.371877657771148</v>
+        <v>0.592372425852885</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.419122892164102</v>
+        <v>0.586337517184775</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.613843998957819</v>
+        <v>0.709205699968716</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.630224641069786</v>
+        <v>0.700406198546634</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.746320473136365</v>
+        <v>0.750474328522252</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.717510220998084</v>
+        <v>0.620639269541468</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.735705415157557</v>
+        <v>0.563912324200485</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.810714308553047</v>
+        <v>0.540543631479494</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.801321604988507</v>
+        <v>0.606702586342545</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.909197825152953</v>
+        <v>0.714560125626292</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.754896741122296</v>
+        <v>0.7020106681442</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.964704705879686</v>
+        <v>0.743612123867899</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.736840776496064</v>
+        <v>0.484536436601087</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.665066200370685</v>
+        <v>0.541090748606368</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.490856506513121</v>
+        <v>0.50972177735789</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.665809427808503</v>
+        <v>0.663812457915978</v>
       </c>
     </row>
     <row r="5">
@@ -12606,118 +12606,118 @@
         <v>151</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.74120424988557</v>
+        <v>-3.96015906684522</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.94269966448799</v>
+        <v>-3.38344607775983</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.11410268954538</v>
+        <v>-2.27387687364705</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.89444417497231</v>
+        <v>-2.11639649425073</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.93070369343405</v>
+        <v>-2.01116475904036</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.97190637722895</v>
+        <v>-2.21235402872972</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.54796258874962</v>
+        <v>-1.37238345267531</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.64170105548363</v>
+        <v>-1.88168933878274</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.57417978514073</v>
+        <v>-1.80778176366102</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.9723980721415</v>
+        <v>-2.13772471847246</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.04284281316363</v>
+        <v>-2.44774525177845</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.59787335319871</v>
+        <v>-2.60699619655418</v>
       </c>
       <c r="O5" t="n">
-        <v>-3.88560640049435</v>
+        <v>-2.91985977141963</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.94931689689652</v>
+        <v>-2.8572737338258</v>
       </c>
       <c r="Q5" t="n">
-        <v>-4.09177590009593</v>
+        <v>-2.83698255492569</v>
       </c>
       <c r="R5" t="n">
-        <v>-3.76322040950547</v>
+        <v>-2.00535809952579</v>
       </c>
       <c r="S5" t="n">
-        <v>-3.80148931790297</v>
+        <v>-1.86936407982121</v>
       </c>
       <c r="T5" t="n">
-        <v>-3.8056897756722</v>
+        <v>-1.8569725311114</v>
       </c>
       <c r="U5" t="n">
-        <v>-3.96166592453928</v>
+        <v>-2.53116069124798</v>
       </c>
       <c r="V5" t="n">
-        <v>-4.12383431753355</v>
+        <v>-2.9687692078349</v>
       </c>
       <c r="W5" t="n">
-        <v>-4.2383925772241</v>
+        <v>-3.35576761166691</v>
       </c>
       <c r="X5" t="n">
-        <v>-3.74483495026155</v>
+        <v>-3.35363461728754</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3.89629535555699</v>
+        <v>-2.94930804800494</v>
       </c>
       <c r="Z5" t="n">
-        <v>-4.18608333624121</v>
+        <v>-2.65910959817198</v>
       </c>
       <c r="AA5" t="n">
-        <v>-4.08023386796915</v>
+        <v>-2.96902144662102</v>
       </c>
       <c r="AB5" t="n">
-        <v>-4.23218938160821</v>
+        <v>-2.96723940224113</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.0889443617859</v>
+        <v>-2.02360338397157</v>
       </c>
       <c r="AD5" t="n">
-        <v>-4.10723584415569</v>
+        <v>-1.82095838875594</v>
       </c>
       <c r="AE5" t="n">
-        <v>-3.97529344991283</v>
+        <v>-1.27705123947802</v>
       </c>
       <c r="AF5" t="n">
-        <v>-4.21802633064262</v>
+        <v>-1.82620846610483</v>
       </c>
       <c r="AG5" t="n">
-        <v>-3.94634002952176</v>
+        <v>-2.04567250884134</v>
       </c>
       <c r="AH5" t="n">
-        <v>-4.25619699263145</v>
+        <v>-2.95533353920059</v>
       </c>
       <c r="AI5" t="n">
-        <v>-3.99938335987836</v>
+        <v>-2.34641337491473</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-3.49810981213751</v>
+        <v>-1.17709983863054</v>
       </c>
       <c r="AK5" t="n">
-        <v>-3.04577606641845</v>
+        <v>-0.682883003933189</v>
       </c>
       <c r="AL5" t="n">
-        <v>-3.5283225626228</v>
+        <v>-1.42310522020745</v>
       </c>
       <c r="AM5" t="n">
-        <v>-3.42464009737254</v>
+        <v>-2.05504958917668</v>
       </c>
     </row>
     <row r="6">
@@ -12725,118 +12725,118 @@
         <v>160</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.291230782578319</v>
+        <v>0.598958914910989</v>
       </c>
       <c r="D6" t="n">
-        <v>0.370769518625198</v>
+        <v>0.481489750803344</v>
       </c>
       <c r="E6" t="n">
-        <v>0.479200029032127</v>
+        <v>0.564936442366924</v>
       </c>
       <c r="F6" t="n">
-        <v>0.430790165958371</v>
+        <v>0.474888444353306</v>
       </c>
       <c r="G6" t="n">
-        <v>0.577414454569676</v>
+        <v>0.607730024927397</v>
       </c>
       <c r="H6" t="n">
-        <v>0.616352521689802</v>
+        <v>0.60191881005427</v>
       </c>
       <c r="I6" t="n">
-        <v>0.558209631209257</v>
+        <v>0.516924996035842</v>
       </c>
       <c r="J6" t="n">
-        <v>0.491839142037763</v>
+        <v>0.480763602274864</v>
       </c>
       <c r="K6" t="n">
-        <v>0.329580153433705</v>
+        <v>0.305672134796987</v>
       </c>
       <c r="L6" t="n">
-        <v>0.297609354629165</v>
+        <v>0.317532198830614</v>
       </c>
       <c r="M6" t="n">
-        <v>0.139313743471567</v>
+        <v>0.347486649771238</v>
       </c>
       <c r="N6" t="n">
-        <v>0.283882597361725</v>
+        <v>0.433676324861738</v>
       </c>
       <c r="O6" t="n">
-        <v>0.344941599903387</v>
+        <v>0.448245221061097</v>
       </c>
       <c r="P6" t="n">
-        <v>0.484554213279176</v>
+        <v>0.512457859133723</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.427056296699495</v>
+        <v>0.461682092376658</v>
       </c>
       <c r="R6" t="n">
-        <v>0.382006448799471</v>
+        <v>0.383821430808011</v>
       </c>
       <c r="S6" t="n">
-        <v>0.310517521071864</v>
+        <v>0.360815458244711</v>
       </c>
       <c r="T6" t="n">
-        <v>0.424555756412459</v>
+        <v>0.393326648174645</v>
       </c>
       <c r="U6" t="n">
-        <v>0.437958317987265</v>
+        <v>0.442369285399127</v>
       </c>
       <c r="V6" t="n">
-        <v>0.271689785057712</v>
+        <v>0.305372720001345</v>
       </c>
       <c r="W6" t="n">
-        <v>0.275314293947304</v>
+        <v>0.309790251586681</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0697088573170503</v>
+        <v>0.266657191498507</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0955756107315439</v>
+        <v>0.25100444788416</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.191905373977409</v>
+        <v>0.327079747475627</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.231649374870747</v>
+        <v>0.316240601103541</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.297542108785622</v>
+        <v>0.343829581932892</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.35363774017913</v>
+        <v>0.36789849088301</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.280038069532178</v>
+        <v>0.307948273750382</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.239906724512566</v>
+        <v>0.287431710518534</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.244792316393684</v>
+        <v>0.298952729577917</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.27264184330692</v>
+        <v>0.309305396988717</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.152864638236522</v>
+        <v>0.226867114717663</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0465243521436841</v>
+        <v>0.146229550498836</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0325153542499809</v>
+        <v>0.173648445320598</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.136055144397366</v>
+        <v>0.281482277999795</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.162577610769144</v>
+        <v>0.297698964623169</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.595432590846561</v>
+        <v>0.59355251631122</v>
       </c>
     </row>
     <row r="7">
@@ -12844,118 +12844,118 @@
         <v>166</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.177753108777793</v>
+        <v>0.0737342611631326</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.154015580503952</v>
+        <v>-0.22547571994195</v>
       </c>
       <c r="E7" t="n">
-        <v>0.221249560262554</v>
+        <v>0.350478252552688</v>
       </c>
       <c r="F7" t="n">
-        <v>0.67600896365614</v>
+        <v>0.597767778085714</v>
       </c>
       <c r="G7" t="n">
-        <v>0.61709260762242</v>
+        <v>0.532710968636921</v>
       </c>
       <c r="H7" t="n">
-        <v>0.65265616685156</v>
+        <v>0.521442377857037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.613188269838557</v>
+        <v>0.579938967308877</v>
       </c>
       <c r="J7" t="n">
-        <v>0.623471165629811</v>
+        <v>0.447896329843623</v>
       </c>
       <c r="K7" t="n">
-        <v>0.624019629619902</v>
+        <v>0.508549743108916</v>
       </c>
       <c r="L7" t="n">
-        <v>1.12240882603935</v>
+        <v>0.753194748131429</v>
       </c>
       <c r="M7" t="n">
-        <v>0.327258364212319</v>
+        <v>0.468868587136217</v>
       </c>
       <c r="N7" t="n">
-        <v>0.335044624600937</v>
+        <v>0.320173735645678</v>
       </c>
       <c r="O7" t="n">
-        <v>0.451266533319881</v>
+        <v>0.573607351212477</v>
       </c>
       <c r="P7" t="n">
-        <v>0.59291672390744</v>
+        <v>0.467795090056448</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.449999671497849</v>
+        <v>0.473813671527795</v>
       </c>
       <c r="R7" t="n">
-        <v>0.470187865509669</v>
+        <v>0.325698433441075</v>
       </c>
       <c r="S7" t="n">
-        <v>0.448228585779513</v>
+        <v>0.308896751733265</v>
       </c>
       <c r="T7" t="n">
-        <v>0.506989542208016</v>
+        <v>0.317997569276122</v>
       </c>
       <c r="U7" t="n">
-        <v>0.549597901502794</v>
+        <v>0.500404125809687</v>
       </c>
       <c r="V7" t="n">
-        <v>0.475920494026581</v>
+        <v>0.314902525128948</v>
       </c>
       <c r="W7" t="n">
-        <v>0.507458386025293</v>
+        <v>0.4194320593795</v>
       </c>
       <c r="X7" t="n">
-        <v>0.265342999437472</v>
+        <v>0.240902214706046</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.0682138846993516</v>
+        <v>0.021202866886596</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.150364639437958</v>
+        <v>0.144166217246684</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.383508897177835</v>
+        <v>0.419919702214395</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.573856819246601</v>
+        <v>0.370441276564108</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.341429537412057</v>
+        <v>0.32884521177906</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.602241583269958</v>
+        <v>0.357705187965196</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.579328264662384</v>
+        <v>0.298169517747892</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.607846250903516</v>
+        <v>0.34303756437349</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.703267021336623</v>
+        <v>0.477389165944551</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.539678495658272</v>
+        <v>0.327777759023749</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.181122288132993</v>
+        <v>0.0494402909784931</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.325061028315473</v>
+        <v>-0.0637833667163329</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.740820776928686</v>
+        <v>-0.284103739406017</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.172844178170743</v>
+        <v>0.106904489759694</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.667649722621047</v>
+        <v>0.538844643879973</v>
       </c>
     </row>
     <row r="8">
@@ -12963,118 +12963,118 @@
         <v>158</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.276582416828851</v>
+        <v>-0.154887758313789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.354864698096952</v>
+        <v>0.473655351226997</v>
       </c>
       <c r="E8" t="n">
-        <v>0.282577369512621</v>
+        <v>0.352959558247265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.143501609584938</v>
+        <v>0.20434802904374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.427080375068233</v>
+        <v>0.469064631987722</v>
       </c>
       <c r="H8" t="n">
-        <v>0.537685693232011</v>
+        <v>0.526582097788836</v>
       </c>
       <c r="I8" t="n">
-        <v>0.596759722497286</v>
+        <v>0.547776076869346</v>
       </c>
       <c r="J8" t="n">
-        <v>0.56709688444629</v>
+        <v>0.546617257578555</v>
       </c>
       <c r="K8" t="n">
-        <v>0.561364342834782</v>
+        <v>0.506074644669986</v>
       </c>
       <c r="L8" t="n">
-        <v>0.424331119469415</v>
+        <v>0.438412389043761</v>
       </c>
       <c r="M8" t="n">
-        <v>0.134245692872573</v>
+        <v>0.346289045059164</v>
       </c>
       <c r="N8" t="n">
-        <v>0.232863602047511</v>
+        <v>0.388821041927706</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.0832248711789342</v>
+        <v>0.0212147952864516</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00362471908964464</v>
+        <v>0.0792425279578459</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.274242712695883</v>
+        <v>0.311175458256614</v>
       </c>
       <c r="R8" t="n">
-        <v>0.17562284272495</v>
+        <v>0.235634253361033</v>
       </c>
       <c r="S8" t="n">
-        <v>0.256895849319524</v>
+        <v>0.322517992612581</v>
       </c>
       <c r="T8" t="n">
-        <v>0.441578308870142</v>
+        <v>0.404337467838974</v>
       </c>
       <c r="U8" t="n">
-        <v>0.540199768518445</v>
+        <v>0.525502980232541</v>
       </c>
       <c r="V8" t="n">
-        <v>0.570768562914658</v>
+        <v>0.560198515074695</v>
       </c>
       <c r="W8" t="n">
-        <v>0.433666955152363</v>
+        <v>0.454140056126699</v>
       </c>
       <c r="X8" t="n">
-        <v>0.202649145956883</v>
+        <v>0.419872445543027</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.222812388155671</v>
+        <v>0.378427418448192</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.198960474700618</v>
+        <v>0.335934602614245</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0237621378953732</v>
+        <v>0.125772405634017</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.170480395313137</v>
+        <v>-0.052758378421743</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.110985893834433</v>
+        <v>0.186180319602795</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.22074392793328</v>
+        <v>0.25986001918491</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.312033123326641</v>
+        <v>0.318191259169011</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.333353080026287</v>
+        <v>0.354198158891914</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.401422075823965</v>
+        <v>0.404093559579408</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.340784938846457</v>
+        <v>0.384212042168603</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.431419608858243</v>
+        <v>0.417317694861524</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.403231454031237</v>
+        <v>0.379483186194864</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.447187438143724</v>
+        <v>0.445175517913988</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.192360998949064</v>
+        <v>0.315583148263491</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.0705474489869138</v>
+        <v>0.0832602050353186</v>
       </c>
     </row>
     <row r="9">
@@ -13082,118 +13082,118 @@
         <v>154</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0661784363698099</v>
+        <v>0.300496366886432</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113382725969914</v>
+        <v>0.134764397877634</v>
       </c>
       <c r="E9" t="n">
-        <v>0.152587576933764</v>
+        <v>0.248323590489392</v>
       </c>
       <c r="F9" t="n">
-        <v>0.329961285130155</v>
+        <v>0.38584328033354</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5448112693559</v>
+        <v>0.600697140282484</v>
       </c>
       <c r="H9" t="n">
-        <v>0.603746621718619</v>
+        <v>0.612713634551445</v>
       </c>
       <c r="I9" t="n">
-        <v>0.784935316483721</v>
+        <v>0.757738318639828</v>
       </c>
       <c r="J9" t="n">
-        <v>0.711928831239305</v>
+        <v>0.737273246524364</v>
       </c>
       <c r="K9" t="n">
-        <v>0.69536587160978</v>
+        <v>0.662799718114738</v>
       </c>
       <c r="L9" t="n">
-        <v>0.613192523019587</v>
+        <v>0.632868160307256</v>
       </c>
       <c r="M9" t="n">
-        <v>0.379953456834185</v>
+        <v>0.654928933677502</v>
       </c>
       <c r="N9" t="n">
-        <v>0.438084931849875</v>
+        <v>0.614425804531706</v>
       </c>
       <c r="O9" t="n">
-        <v>0.513008224504309</v>
+        <v>0.635414802321587</v>
       </c>
       <c r="P9" t="n">
-        <v>0.584083008176313</v>
+        <v>0.581981148397255</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.546860497865142</v>
+        <v>0.57801963751094</v>
       </c>
       <c r="R9" t="n">
-        <v>0.556627146194773</v>
+        <v>0.526538531465152</v>
       </c>
       <c r="S9" t="n">
-        <v>0.504405650568042</v>
+        <v>0.521525008184929</v>
       </c>
       <c r="T9" t="n">
-        <v>0.615295605148444</v>
+        <v>0.562129456689609</v>
       </c>
       <c r="U9" t="n">
-        <v>0.635140232311103</v>
+        <v>0.664902093658568</v>
       </c>
       <c r="V9" t="n">
-        <v>0.678032605602256</v>
+        <v>0.721766433742936</v>
       </c>
       <c r="W9" t="n">
-        <v>0.573569491489705</v>
+        <v>0.628503921463768</v>
       </c>
       <c r="X9" t="n">
-        <v>0.331644038799528</v>
+        <v>0.587281106688959</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.375592017323445</v>
+        <v>0.561826544490405</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.358738629616283</v>
+        <v>0.506549959376482</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.370836654722873</v>
+        <v>0.454451950155386</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.436898148349947</v>
+        <v>0.435498553609791</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.443187657543084</v>
+        <v>0.437024552601531</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.439278492210242</v>
+        <v>0.403934271045771</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.437310586743173</v>
+        <v>0.385605082909597</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.425533127212041</v>
+        <v>0.415384976082666</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.472646158937566</v>
+        <v>0.462470949590491</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.402990791301357</v>
+        <v>0.477566073070902</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.535161724238947</v>
+        <v>0.549999208958469</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.72274630358203</v>
+        <v>0.548581575565558</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.548566587989672</v>
+        <v>0.540445789952866</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.48091666918556</v>
+        <v>0.532808255910738</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.376515468677237</v>
+        <v>0.442412641016957</v>
       </c>
     </row>
     <row r="10">
@@ -13201,118 +13201,118 @@
         <v>153</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.428880712805324</v>
+        <v>0.775177575740808</v>
       </c>
       <c r="D10" t="n">
-        <v>1.11082058999839</v>
+        <v>1.33887239376439</v>
       </c>
       <c r="E10" t="n">
-        <v>0.842700711029667</v>
+        <v>0.937520737322887</v>
       </c>
       <c r="F10" t="n">
-        <v>0.542613792800973</v>
+        <v>0.582876182119267</v>
       </c>
       <c r="G10" t="n">
-        <v>0.596064552676414</v>
+        <v>0.634055382911413</v>
       </c>
       <c r="H10" t="n">
-        <v>0.649191766637481</v>
+        <v>0.645427124853394</v>
       </c>
       <c r="I10" t="n">
-        <v>0.823678593568497</v>
+        <v>0.76417953788773</v>
       </c>
       <c r="J10" t="n">
-        <v>0.736731687515557</v>
+        <v>0.725270732798045</v>
       </c>
       <c r="K10" t="n">
-        <v>0.549867362857739</v>
+        <v>0.514851882828066</v>
       </c>
       <c r="L10" t="n">
-        <v>0.482571567572364</v>
+        <v>0.490977359163247</v>
       </c>
       <c r="M10" t="n">
-        <v>0.276087388650973</v>
+        <v>0.500261426471068</v>
       </c>
       <c r="N10" t="n">
-        <v>0.314988718775797</v>
+        <v>0.460851831028172</v>
       </c>
       <c r="O10" t="n">
-        <v>0.330973002380134</v>
+        <v>0.432920733017697</v>
       </c>
       <c r="P10" t="n">
-        <v>0.314044165142168</v>
+        <v>0.358004921362081</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.343148002384721</v>
+        <v>0.397635439232763</v>
       </c>
       <c r="R10" t="n">
-        <v>0.374794458614562</v>
+        <v>0.383213344492979</v>
       </c>
       <c r="S10" t="n">
-        <v>0.356283069697779</v>
+        <v>0.400422096836175</v>
       </c>
       <c r="T10" t="n">
-        <v>0.440188462760557</v>
+        <v>0.416961905050668</v>
       </c>
       <c r="U10" t="n">
-        <v>0.394995853786071</v>
+        <v>0.423074280191287</v>
       </c>
       <c r="V10" t="n">
-        <v>0.413540119520399</v>
+        <v>0.446470801991784</v>
       </c>
       <c r="W10" t="n">
-        <v>0.347973787209592</v>
+        <v>0.390349513116468</v>
       </c>
       <c r="X10" t="n">
-        <v>0.121062057636699</v>
+        <v>0.331856444815731</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.181294929296099</v>
+        <v>0.337796417816337</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.196198665567806</v>
+        <v>0.329024265544657</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.286936810932401</v>
+        <v>0.365821904857159</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.318655814655894</v>
+        <v>0.365008854615809</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.298652882091506</v>
+        <v>0.338929198624342</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.334355527850413</v>
+        <v>0.34207604642359</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3767325660097</v>
+        <v>0.354122104352605</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.372785684618713</v>
+        <v>0.380224320799379</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.414791184184002</v>
+        <v>0.41594999046734</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.366800559241219</v>
+        <v>0.418433417971288</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.377386942140762</v>
+        <v>0.389724861586273</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.286709081412604</v>
+        <v>0.304939721085297</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.238956512688145</v>
+        <v>0.337895083980961</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.22315018904222</v>
+        <v>0.333845854083567</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.324539836178846</v>
+        <v>0.386196846149933</v>
       </c>
     </row>
     <row r="11">
@@ -13320,118 +13320,118 @@
         <v>162</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0862191960708645</v>
+        <v>0.328458496188255</v>
       </c>
       <c r="D11" t="n">
-        <v>0.225598223514632</v>
+        <v>0.314259927972895</v>
       </c>
       <c r="E11" t="n">
-        <v>0.485604631609775</v>
+        <v>0.570094293983828</v>
       </c>
       <c r="F11" t="n">
-        <v>0.543182577047987</v>
+        <v>0.578267964905633</v>
       </c>
       <c r="G11" t="n">
-        <v>0.617600085629609</v>
+        <v>0.643120215300064</v>
       </c>
       <c r="H11" t="n">
-        <v>0.633945586324273</v>
+        <v>0.617825289025532</v>
       </c>
       <c r="I11" t="n">
-        <v>0.729135347700527</v>
+        <v>0.663297496667362</v>
       </c>
       <c r="J11" t="n">
-        <v>0.670179214312303</v>
+        <v>0.640352820589467</v>
       </c>
       <c r="K11" t="n">
-        <v>0.624761136666397</v>
+        <v>0.550985528886197</v>
       </c>
       <c r="L11" t="n">
-        <v>0.522052695031479</v>
+        <v>0.502055059839236</v>
       </c>
       <c r="M11" t="n">
-        <v>0.285732981635514</v>
+        <v>0.50148483709745</v>
       </c>
       <c r="N11" t="n">
-        <v>0.344858823925334</v>
+        <v>0.493267669296672</v>
       </c>
       <c r="O11" t="n">
-        <v>0.388224742204797</v>
+        <v>0.49194988389447</v>
       </c>
       <c r="P11" t="n">
-        <v>0.430685346790621</v>
+        <v>0.46338235362754</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.435446743589774</v>
+        <v>0.468977749855502</v>
       </c>
       <c r="R11" t="n">
-        <v>0.436016187136224</v>
+        <v>0.422523475119486</v>
       </c>
       <c r="S11" t="n">
-        <v>0.414715005385991</v>
+        <v>0.431436676073208</v>
       </c>
       <c r="T11" t="n">
-        <v>0.508133628962696</v>
+        <v>0.450665180163821</v>
       </c>
       <c r="U11" t="n">
-        <v>0.573419416705198</v>
+        <v>0.556318088533426</v>
       </c>
       <c r="V11" t="n">
-        <v>0.539090986191351</v>
+        <v>0.536919949143137</v>
       </c>
       <c r="W11" t="n">
-        <v>0.477742613492175</v>
+        <v>0.486557872109317</v>
       </c>
       <c r="X11" t="n">
-        <v>0.257081184604543</v>
+        <v>0.455406780149886</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.302935734166948</v>
+        <v>0.446746765515498</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.327755757354803</v>
+        <v>0.444420603985436</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.375932485447272</v>
+        <v>0.448654625974028</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.432029237861889</v>
+        <v>0.461055168074968</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.399808877665053</v>
+        <v>0.399316832440765</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.431369390091418</v>
+        <v>0.394756412327909</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.483882185362954</v>
+        <v>0.396874772926507</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.481036723679377</v>
+        <v>0.432296130404297</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.561410812925677</v>
+        <v>0.500413760952375</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.506785410838074</v>
+        <v>0.517944591240519</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.65521623274372</v>
+        <v>0.56187614669388</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.840647688126412</v>
+        <v>0.539819035482491</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.636433870118165</v>
+        <v>0.52337347651907</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.443386280206236</v>
+        <v>0.472624091415996</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.535547041180719</v>
+        <v>0.549407991677346</v>
       </c>
     </row>
     <row r="12">
@@ -13439,118 +13439,118 @@
         <v>148</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0525716197752381</v>
+        <v>0.145890727172327</v>
       </c>
       <c r="D12" t="n">
-        <v>0.108909507709601</v>
+        <v>0.18000830162918</v>
       </c>
       <c r="E12" t="n">
-        <v>0.364368648129356</v>
+        <v>0.450524332243699</v>
       </c>
       <c r="F12" t="n">
-        <v>0.491982336373876</v>
+        <v>0.531217277436966</v>
       </c>
       <c r="G12" t="n">
-        <v>0.582908833083124</v>
+        <v>0.61300578344463</v>
       </c>
       <c r="H12" t="n">
-        <v>0.610178481535446</v>
+        <v>0.596489927390678</v>
       </c>
       <c r="I12" t="n">
-        <v>0.730222908019553</v>
+        <v>0.664221188116379</v>
       </c>
       <c r="J12" t="n">
-        <v>0.67108784029713</v>
+        <v>0.641166854020725</v>
       </c>
       <c r="K12" t="n">
-        <v>0.615027112467957</v>
+        <v>0.54292562373556</v>
       </c>
       <c r="L12" t="n">
-        <v>0.592732724493769</v>
+        <v>0.559592633936916</v>
       </c>
       <c r="M12" t="n">
-        <v>0.257156101424911</v>
+        <v>0.471530163209753</v>
       </c>
       <c r="N12" t="n">
-        <v>0.305848939511856</v>
+        <v>0.455945217653947</v>
       </c>
       <c r="O12" t="n">
-        <v>0.304554093543146</v>
+        <v>0.408833200832013</v>
       </c>
       <c r="P12" t="n">
-        <v>0.396310984244033</v>
+        <v>0.431589170955626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.376732011270004</v>
+        <v>0.418221315965684</v>
       </c>
       <c r="R12" t="n">
-        <v>0.401913184865467</v>
+        <v>0.398586587573016</v>
       </c>
       <c r="S12" t="n">
-        <v>0.358824773066622</v>
+        <v>0.394194780338284</v>
       </c>
       <c r="T12" t="n">
-        <v>0.490037395922482</v>
+        <v>0.438457365497192</v>
       </c>
       <c r="U12" t="n">
-        <v>0.566883182483613</v>
+        <v>0.550907441600084</v>
       </c>
       <c r="V12" t="n">
-        <v>0.502755674538647</v>
+        <v>0.505577792557785</v>
       </c>
       <c r="W12" t="n">
-        <v>0.444950469092994</v>
+        <v>0.45817331428204</v>
       </c>
       <c r="X12" t="n">
-        <v>0.247702313582804</v>
+        <v>0.446058791064169</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.231909311056241</v>
+        <v>0.38012530538123</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.267932014191263</v>
+        <v>0.393542468014167</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.256026697977524</v>
+        <v>0.339589073806284</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.377903397680241</v>
+        <v>0.414395709820212</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.311244917762884</v>
+        <v>0.34029296582339</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.329379792531692</v>
+        <v>0.336947551627136</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.358928502425912</v>
+        <v>0.341440361810852</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.421378631568743</v>
+        <v>0.398945410450937</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.489892750995746</v>
+        <v>0.453634741541854</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.436792205981342</v>
+        <v>0.460703661152996</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.544881765945841</v>
+        <v>0.487002481936819</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.615517446411554</v>
+        <v>0.438759422790052</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.358413516920143</v>
+        <v>0.390190919442881</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.338123124104557</v>
+        <v>0.407902667999028</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.406207073412492</v>
+        <v>0.450537990365314</v>
       </c>
     </row>
     <row r="13">
@@ -13558,118 +13558,118 @@
         <v>159</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.294706433571971</v>
+        <v>-0.177439726487593</v>
       </c>
       <c r="D13" t="n">
-        <v>0.033345465637493</v>
+        <v>0.0965041643498893</v>
       </c>
       <c r="E13" t="n">
-        <v>0.174112875128859</v>
+        <v>0.265045861399518</v>
       </c>
       <c r="F13" t="n">
-        <v>0.254255865913825</v>
+        <v>0.324423858895541</v>
       </c>
       <c r="G13" t="n">
-        <v>0.364170267344451</v>
+        <v>0.425250118915179</v>
       </c>
       <c r="H13" t="n">
-        <v>0.474255724285083</v>
+        <v>0.464160081074628</v>
       </c>
       <c r="I13" t="n">
-        <v>0.573855043490378</v>
+        <v>0.50756568111923</v>
       </c>
       <c r="J13" t="n">
-        <v>0.523712153715621</v>
+        <v>0.493589325971034</v>
       </c>
       <c r="K13" t="n">
-        <v>0.472077768051495</v>
+        <v>0.421278610440408</v>
       </c>
       <c r="L13" t="n">
-        <v>0.324349706625288</v>
+        <v>0.319384865493943</v>
       </c>
       <c r="M13" t="n">
-        <v>0.138289811056267</v>
+        <v>0.328891524282891</v>
       </c>
       <c r="N13" t="n">
-        <v>0.285457363583136</v>
+        <v>0.435257103141287</v>
       </c>
       <c r="O13" t="n">
-        <v>0.267916643408718</v>
+        <v>0.376384556666381</v>
       </c>
       <c r="P13" t="n">
-        <v>0.379779772158406</v>
+        <v>0.43127272907826</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.421234105220293</v>
+        <v>0.455621735358564</v>
       </c>
       <c r="R13" t="n">
-        <v>0.422808002107534</v>
+        <v>0.424996706212931</v>
       </c>
       <c r="S13" t="n">
-        <v>0.408094497354139</v>
+        <v>0.433033086018365</v>
       </c>
       <c r="T13" t="n">
-        <v>0.525820654781293</v>
+        <v>0.457952546609038</v>
       </c>
       <c r="U13" t="n">
-        <v>0.546255259997651</v>
+        <v>0.521260575961105</v>
       </c>
       <c r="V13" t="n">
-        <v>0.580275382263354</v>
+        <v>0.560363344715672</v>
       </c>
       <c r="W13" t="n">
-        <v>0.499350080444063</v>
+        <v>0.50311800453371</v>
       </c>
       <c r="X13" t="n">
-        <v>0.29088981417034</v>
+        <v>0.48518565072861</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.360564432314899</v>
+        <v>0.484624607879233</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.424438619449747</v>
+        <v>0.527233730397732</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.418108638946285</v>
+        <v>0.494956884571122</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.480428199180964</v>
+        <v>0.515318565763542</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.463797662090344</v>
+        <v>0.440554017817083</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.463769993757773</v>
+        <v>0.422447411053711</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.505726777136202</v>
+        <v>0.410998795505174</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.514279384624688</v>
+        <v>0.440607391136404</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.574924770424338</v>
+        <v>0.491049536414766</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.523044355198617</v>
+        <v>0.522004119443952</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.677298500543076</v>
+        <v>0.572737880955206</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.927717786516753</v>
+        <v>0.564350298095174</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.779693272816056</v>
+        <v>0.57747953724723</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.502737869191489</v>
+        <v>0.50696086178791</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.355989261606786</v>
+        <v>0.411498610027108</v>
       </c>
     </row>
     <row r="14">
@@ -13677,118 +13677,118 @@
         <v>163</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.267904066919245</v>
+        <v>0.185251675345801</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.3185960981735</v>
+        <v>-0.963899971861078</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.70693958317019</v>
+        <v>-1.50788239511026</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.8913895071004</v>
+        <v>-1.6767332256062</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.96427069022926</v>
+        <v>-1.66498573617429</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.80150942046025</v>
+        <v>-1.63005356474881</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.549263006150669</v>
+        <v>-0.459950832778383</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.193188138226366</v>
+        <v>-0.100746569061933</v>
       </c>
       <c r="K14" t="n">
-        <v>0.254748324682158</v>
+        <v>0.208444261222317</v>
       </c>
       <c r="L14" t="n">
-        <v>0.998771111370605</v>
+        <v>0.736142004148632</v>
       </c>
       <c r="M14" t="n">
-        <v>0.743077674161709</v>
+        <v>0.890399433579548</v>
       </c>
       <c r="N14" t="n">
-        <v>0.669114014775589</v>
+        <v>0.752719609229149</v>
       </c>
       <c r="O14" t="n">
-        <v>0.596530331319151</v>
+        <v>0.740631425364499</v>
       </c>
       <c r="P14" t="n">
-        <v>0.234439453190697</v>
+        <v>0.543506802645892</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.159998401894322</v>
+        <v>0.388228448445641</v>
       </c>
       <c r="R14" t="n">
-        <v>0.394667420842369</v>
+        <v>0.467420867300894</v>
       </c>
       <c r="S14" t="n">
-        <v>0.315013039750962</v>
+        <v>0.382874138194982</v>
       </c>
       <c r="T14" t="n">
-        <v>0.244869935092806</v>
+        <v>0.280017344713396</v>
       </c>
       <c r="U14" t="n">
-        <v>0.204926819496603</v>
+        <v>0.253670026583577</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.0270216901734127</v>
+        <v>0.104986777969894</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0362780344406174</v>
+        <v>0.118727164010719</v>
       </c>
       <c r="X14" t="n">
-        <v>0.206186422158822</v>
+        <v>0.407178262083364</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.226494876347189</v>
+        <v>0.435942464065473</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0866913856585831</v>
+        <v>0.355610222365228</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.159282141138081</v>
+        <v>0.456191256959447</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0432490424763135</v>
+        <v>0.505756247398134</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0205589612124922</v>
+        <v>0.353006863447973</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.230726726024358</v>
+        <v>0.100092421911839</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.432668142906689</v>
+        <v>0.0181498548115814</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.0991062646743459</v>
+        <v>0.134695710875974</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.132706075187278</v>
+        <v>0.0879231513370861</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.306697471394533</v>
+        <v>-0.0304117043369162</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.588613233926098</v>
+        <v>-0.1876468433727</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.909559163556035</v>
+        <v>-0.155560605522842</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.47085554993974</v>
+        <v>0.140151350632734</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.247321338066443</v>
+        <v>0.227872218521672</v>
       </c>
       <c r="AM14" t="n">
-        <v>-1.27447414535202</v>
+        <v>-0.543198535343511</v>
       </c>
     </row>
     <row r="15">
@@ -13796,118 +13796,118 @@
         <v>150</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.542960867409613</v>
+        <v>-0.485207065525995</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0909173469897598</v>
+        <v>0.158483193632879</v>
       </c>
       <c r="E15" t="n">
-        <v>0.271114840928857</v>
+        <v>0.356118081157501</v>
       </c>
       <c r="F15" t="n">
-        <v>0.408820901603918</v>
+        <v>0.453815020097613</v>
       </c>
       <c r="G15" t="n">
-        <v>0.546058965990726</v>
+        <v>0.577687400304789</v>
       </c>
       <c r="H15" t="n">
-        <v>0.579602276844163</v>
+        <v>0.562670319293604</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.00157890839811546</v>
+        <v>0.0384299755482956</v>
       </c>
       <c r="J15" t="n">
-        <v>0.369024702245361</v>
+        <v>0.370072680031237</v>
       </c>
       <c r="K15" t="n">
-        <v>0.432932357807154</v>
+        <v>0.396602771758686</v>
       </c>
       <c r="L15" t="n">
-        <v>0.588952130755992</v>
+        <v>0.552348566455917</v>
       </c>
       <c r="M15" t="n">
-        <v>0.655750417616004</v>
+        <v>0.882542209445945</v>
       </c>
       <c r="N15" t="n">
-        <v>0.450771076925094</v>
+        <v>0.591408682406378</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.0953425991908405</v>
+        <v>0.0182314793492276</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.0384020248340452</v>
+        <v>0.0332699224735241</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0993691193661827</v>
+        <v>0.176461354588328</v>
       </c>
       <c r="R15" t="n">
-        <v>0.200899343623584</v>
+        <v>0.255688152316182</v>
       </c>
       <c r="S15" t="n">
-        <v>0.336164838244073</v>
+        <v>0.374793417115265</v>
       </c>
       <c r="T15" t="n">
-        <v>0.402524230947261</v>
+        <v>0.370281024470997</v>
       </c>
       <c r="U15" t="n">
-        <v>0.233286052622421</v>
+        <v>0.268257798720261</v>
       </c>
       <c r="V15" t="n">
-        <v>0.110267360501829</v>
+        <v>0.161436780029526</v>
       </c>
       <c r="W15" t="n">
-        <v>0.29317444015961</v>
+        <v>0.329553512182748</v>
       </c>
       <c r="X15" t="n">
-        <v>0.421228680829339</v>
+        <v>0.606817706545782</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.777789162152791</v>
+        <v>0.879476900497695</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.772705532315716</v>
+        <v>0.818576109105934</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.142112680142404</v>
+        <v>0.240991510747006</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.163946447266439</v>
+        <v>-0.0402736740957132</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.0952973932398598</v>
+        <v>0.0684850824223089</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0589228488841552</v>
+        <v>0.181790162747868</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.318927651320575</v>
+        <v>0.320508656400047</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.238577521321211</v>
+        <v>0.289061377704863</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.114322827044874</v>
+        <v>0.200331864350261</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.0538951665613539</v>
+        <v>0.0474689141741426</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.0684146619720121</v>
+        <v>0.163492762321862</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.743690563778499</v>
+        <v>0.481662183155053</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.85260346268465</v>
+        <v>0.612419646443948</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.267492380050724</v>
+        <v>0.361644276019678</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.223546525250862</v>
+        <v>-0.0255097313919742</v>
       </c>
     </row>
     <row r="16">
@@ -13915,118 +13915,118 @@
         <v>164</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0796931000063366</v>
+        <v>0.319873974023437</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.16794655235499</v>
+        <v>-0.13851821031735</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0120467662442666</v>
+        <v>0.103045559767759</v>
       </c>
       <c r="F16" t="n">
-        <v>0.319083677881574</v>
+        <v>0.37233183892466</v>
       </c>
       <c r="G16" t="n">
-        <v>0.603797881383651</v>
+        <v>0.631139046813798</v>
       </c>
       <c r="H16" t="n">
-        <v>0.638395146887579</v>
+        <v>0.621819592773899</v>
       </c>
       <c r="I16" t="n">
-        <v>0.612893752362661</v>
+        <v>0.564559564953127</v>
       </c>
       <c r="J16" t="n">
-        <v>0.553990018927329</v>
+        <v>0.536235166380094</v>
       </c>
       <c r="K16" t="n">
-        <v>0.465979610882728</v>
+        <v>0.419512703679142</v>
       </c>
       <c r="L16" t="n">
-        <v>0.299378627750245</v>
+        <v>0.320785865076144</v>
       </c>
       <c r="M16" t="n">
-        <v>0.141291978156759</v>
+        <v>0.35008090214404</v>
       </c>
       <c r="N16" t="n">
-        <v>0.201434253922893</v>
+        <v>0.356047563209379</v>
       </c>
       <c r="O16" t="n">
-        <v>0.585066132551726</v>
+        <v>0.687487895518719</v>
       </c>
       <c r="P16" t="n">
-        <v>0.628990092320585</v>
+        <v>0.646796962533498</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.551191744624875</v>
+        <v>0.569033880236063</v>
       </c>
       <c r="R16" t="n">
-        <v>0.560705848640653</v>
+        <v>0.510042481920467</v>
       </c>
       <c r="S16" t="n">
-        <v>0.505118603642224</v>
+        <v>0.491675960290623</v>
       </c>
       <c r="T16" t="n">
-        <v>0.510346175834963</v>
+        <v>0.452157770621968</v>
       </c>
       <c r="U16" t="n">
-        <v>0.493928851982686</v>
+        <v>0.490518892020524</v>
       </c>
       <c r="V16" t="n">
-        <v>0.402754965913046</v>
+        <v>0.419319766635615</v>
       </c>
       <c r="W16" t="n">
-        <v>0.342176202591917</v>
+        <v>0.369213267663893</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0954908078420192</v>
+        <v>0.294349250804207</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.000361476022025356</v>
+        <v>0.162938319652952</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.0470147710921228</v>
+        <v>0.125691099152662</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.015930447841957</v>
+        <v>0.12119930845951</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.235795975930699</v>
+        <v>0.291891140441281</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.451650629880649</v>
+        <v>0.433866823925157</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.370204865094512</v>
+        <v>0.360087774849252</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.359446895293855</v>
+        <v>0.341670495351274</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.293661459345044</v>
+        <v>0.327547889664048</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.337365552265682</v>
+        <v>0.353869235808319</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.269304801096626</v>
+        <v>0.323731924167565</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.306533939986503</v>
+        <v>0.325258539042255</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.18979738394199</v>
+        <v>0.247656422236672</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0.0889583213996302</v>
+        <v>0.175882983874042</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.402517672203475</v>
+        <v>-0.0474817647572048</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.00259513083178143</v>
+        <v>0.138042163148455</v>
       </c>
     </row>
     <row r="17">
@@ -14034,118 +14034,118 @@
         <v>155</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>2.44668629387225</v>
+        <v>-0.450825680930454</v>
       </c>
       <c r="D17" t="n">
-        <v>0.903903658406605</v>
+        <v>0.0844947505743112</v>
       </c>
       <c r="E17" t="n">
-        <v>1.94260071306497</v>
+        <v>1.08493213434313</v>
       </c>
       <c r="F17" t="n">
-        <v>1.64482843010794</v>
+        <v>1.05459009500741</v>
       </c>
       <c r="G17" t="n">
-        <v>0.685488581865061</v>
+        <v>-0.298030789979341</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.693013096800706</v>
+        <v>-0.236554993957992</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.273899400981984</v>
+        <v>0.121758978348808</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.2295487643052</v>
+        <v>-0.632735511623859</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.49872718643455</v>
+        <v>0.303035438825613</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.458005050919908</v>
+        <v>0.362699627880559</v>
       </c>
       <c r="M17" t="n">
-        <v>2.58913052220642</v>
+        <v>-0.024544098922948</v>
       </c>
       <c r="N17" t="n">
-        <v>2.05862472753513</v>
+        <v>0.018743720893058</v>
       </c>
       <c r="O17" t="n">
-        <v>1.62372776178671</v>
+        <v>0.348621651459093</v>
       </c>
       <c r="P17" t="n">
-        <v>0.552637461523872</v>
+        <v>0.063176414849279</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.448256710787913</v>
+        <v>-0.0628208111520947</v>
       </c>
       <c r="R17" t="n">
-        <v>0.447001383139078</v>
+        <v>-0.0021426982303082</v>
       </c>
       <c r="S17" t="n">
-        <v>1.24220056543737</v>
+        <v>0.111914388485448</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.290335849005846</v>
+        <v>-0.0826889651561376</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.14005069476811</v>
+        <v>-0.654801582240202</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.752189015363805</v>
+        <v>-0.347939496101781</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.4089549862687</v>
+        <v>-0.0971116396670176</v>
       </c>
       <c r="X17" t="n">
-        <v>2.5316703291132</v>
+        <v>0.345128354372179</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.16129056808046</v>
+        <v>0.316112852331481</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.42834365009514</v>
+        <v>-0.305574541095396</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.66383872281119</v>
+        <v>0.658722424812497</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.873539211578093</v>
+        <v>0.421611407473606</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.18030585366449</v>
+        <v>0.446600671226263</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.536725545093948</v>
+        <v>0.153773608187362</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.554694566877742</v>
+        <v>-0.120732810675143</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.173378555954639</v>
+        <v>-0.0805803968915958</v>
       </c>
       <c r="AG17" t="n">
-        <v>-1.17162861768982</v>
+        <v>-0.594625553803402</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.982585647069316</v>
+        <v>-0.418270686368533</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.897931347483945</v>
+        <v>-0.130183292077903</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.417190315215812</v>
+        <v>0.221440575936451</v>
       </c>
       <c r="AK17" t="n">
-        <v>1.91679426316234</v>
+        <v>-0.796394633570604</v>
       </c>
       <c r="AL17" t="n">
-        <v>2.11062085496984</v>
+        <v>0.0171082258314187</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.72778649746387</v>
+        <v>0.603780892211289</v>
       </c>
     </row>
     <row r="18">
@@ -14153,118 +14153,118 @@
         <v>157</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.629081251412663</v>
+        <v>1.23746754923342</v>
       </c>
       <c r="D18" t="n">
-        <v>0.178609581481138</v>
+        <v>0.374256439379682</v>
       </c>
       <c r="E18" t="n">
-        <v>0.108966628862762</v>
+        <v>0.216158170201422</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.289970514197965</v>
+        <v>-0.19546852058032</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.428468616882142</v>
+        <v>-0.301520532006739</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.13851269014614</v>
+        <v>-0.12332673344002</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.621059293906573</v>
+        <v>-0.540494045031524</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.598714782986174</v>
+        <v>-0.568240670341432</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.548807085289157</v>
+        <v>-0.482956512843433</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.622507707717099</v>
+        <v>-0.506504865937394</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.86818730240629</v>
+        <v>-0.739913209634683</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.397976312774326</v>
+        <v>-0.261704358353775</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.534264658380182</v>
+        <v>-0.404868250863109</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.391523258053492</v>
+        <v>-0.275441811314279</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.186510896024941</v>
+        <v>-0.0868022000778559</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.255116745318179</v>
+        <v>-0.103128179519964</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.163525265546527</v>
+        <v>-0.0319840869819184</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0915743860749814</v>
+        <v>-0.0566736965895914</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.128898432764774</v>
+        <v>-0.132849330250974</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.339875463387992</v>
+        <v>-0.337334454577432</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.523334438252369</v>
+        <v>-0.474162705980861</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.584175528770257</v>
+        <v>-0.477779059863984</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.502148885973711</v>
+        <v>-0.3752372278009</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.369092183431293</v>
+        <v>-0.223932746254725</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.884967793145867</v>
+        <v>-0.724134344378335</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.73750753076313</v>
+        <v>-0.562878927789515</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.702047889148853</v>
+        <v>-0.378550212484553</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.513540348960076</v>
+        <v>-0.196462515030965</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.660958307243026</v>
+        <v>-0.195932555315203</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.411192727386424</v>
+        <v>-0.19426436032778</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.232785167998531</v>
+        <v>-0.175594896838753</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.492807920979336</v>
+        <v>0.338321131600125</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.00936245017318929</v>
+        <v>-0.0561762910656874</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.103493556866781</v>
+        <v>-0.0664882039779899</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.441408622352075</v>
+        <v>-0.120351970768214</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.210323807253712</v>
+        <v>0.219973076928068</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.47460609290998</v>
+        <v>0.438045663872685</v>
       </c>
     </row>
     <row r="19">
@@ -14272,118 +14272,118 @@
         <v>165</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.270107026224717</v>
+        <v>-0.148031149137907</v>
       </c>
       <c r="D19" t="n">
-        <v>0.316886456756054</v>
+        <v>0.428133570414049</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.228287092188495</v>
+        <v>-0.132962371670545</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.381203625872547</v>
+        <v>-0.263858721375567</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.181553611612876</v>
+        <v>-0.0426328821234923</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0978629251648399</v>
+        <v>-0.0350608150105827</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.39204930892175</v>
+        <v>-0.286439923186696</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0670652546804644</v>
+        <v>-0.0239765535409531</v>
       </c>
       <c r="K19" t="n">
-        <v>0.16613891876176</v>
+        <v>0.169674151287231</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00397379106858874</v>
+        <v>0.0762540677225293</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.14978779557283</v>
+        <v>0.0360791939709767</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.308054542172846</v>
+        <v>-0.130875252657585</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.458818416647551</v>
+        <v>-0.353065200602657</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.251838040859986</v>
+        <v>-0.156799445490565</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0630943340369354</v>
+        <v>0.149383660159528</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.135329997064466</v>
+        <v>0.027421804306835</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.320653150989578</v>
+        <v>-0.0526947460397002</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.331656862381483</v>
+        <v>-0.113075196507264</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.26508061273668</v>
+        <v>-0.135665054413819</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.0644823659518854</v>
+        <v>0.0141276280313366</v>
       </c>
       <c r="W19" t="n">
-        <v>0.182471612112771</v>
+        <v>0.229204598754026</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.0786966026674219</v>
+        <v>0.116943857126001</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.16648450696336</v>
+        <v>-0.000869917749519817</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.322009918816275</v>
+        <v>-0.109188212076729</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.361692076164676</v>
+        <v>-0.225911191448237</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.294453798608319</v>
+        <v>-0.159788817628921</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0196343086810106</v>
+        <v>0.147578382571343</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.0583989904840225</v>
+        <v>0.120948310469882</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.225898934729337</v>
+        <v>0.0852200046549948</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.263740170848478</v>
+        <v>0.0168944782782183</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.277532349476047</v>
+        <v>-0.04799339181136</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.0929388403712787</v>
+        <v>0.024816734120283</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.164315988352341</v>
+        <v>0.227227221376374</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.161137420974622</v>
+        <v>0.0863096841119394</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.479842557502114</v>
+        <v>-0.0192039453046981</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.705133264111218</v>
+        <v>-0.235158014987286</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.617194144022358</v>
+        <v>-0.335894431649479</v>
       </c>
     </row>
     <row r="20">
@@ -14391,118 +14391,118 @@
         <v>147</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0398317798537977</v>
+        <v>0.267650599869832</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0866161992201764</v>
+        <v>0.154494825096794</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.194066758305104</v>
+        <v>-0.100320925487512</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.519076498653364</v>
+        <v>-0.397827487010907</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.795734921271512</v>
+        <v>-0.583813820599926</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.25730354305765</v>
+        <v>-1.08015757504822</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.26613583318072</v>
+        <v>-1.88143299898798</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.63669694137006</v>
+        <v>-2.32372301803728</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.66066568070592</v>
+        <v>-2.16972889455987</v>
       </c>
       <c r="L20" t="n">
-        <v>-2.07984070122503</v>
+        <v>-1.61609939230586</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.5217207454189</v>
+        <v>-1.39314457815573</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.08589136754715</v>
+        <v>-0.87576912345071</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.14252462678188</v>
+        <v>-1.0287074797479</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.4156707840459</v>
+        <v>-1.24444511359485</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1.1664866552263</v>
+        <v>-0.916142564364886</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.22725255351221</v>
+        <v>-0.74512405596722</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.13906143313757</v>
+        <v>-0.604264943745607</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.08461608274318</v>
+        <v>-0.624359173843267</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.715768120926984</v>
+        <v>-0.51165646486307</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.614044922862044</v>
+        <v>-0.458878870074471</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.542705452906659</v>
+        <v>-0.397418268962458</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.493554946465336</v>
+        <v>-0.293065316168386</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.255183253318098</v>
+        <v>-0.0770522209027096</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.204915871498923</v>
+        <v>0.339584599649571</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.352049576888432</v>
+        <v>0.42672589539059</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.401350270193185</v>
+        <v>0.434301717887481</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.295965730885744</v>
+        <v>0.329507422144709</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.347025670067214</v>
+        <v>0.346560789162652</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.358241069921025</v>
+        <v>0.340667007374863</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.271511312953221</v>
+        <v>0.314446457774826</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.201282325855521</v>
+        <v>0.263719096050435</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.162184044353985</v>
+        <v>0.234552076813803</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.213427158922792</v>
+        <v>0.260774294477243</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.358040020419373</v>
+        <v>0.322350852962458</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.227718708549062</v>
+        <v>0.326899469743279</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.0950606291474349</v>
+        <v>0.257847405056635</v>
       </c>
       <c r="AM20" t="n">
-        <v>-0.0127085434799633</v>
+        <v>0.129896741067199</v>
       </c>
     </row>
     <row r="21">
@@ -14510,118 +14510,118 @@
         <v>169</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.19602295906276</v>
+        <v>-1.34604487156454</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247961441102436</v>
+        <v>-1.70636494231424</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.09978672616837</v>
+        <v>-2.8863478413762</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.50175096650023</v>
+        <v>-2.96817134074543</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.60689497995572</v>
+        <v>-3.04189828403242</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.19206366124741</v>
+        <v>-2.746280770465</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.49712552176551</v>
+        <v>-3.2353708097589</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.03683708873355</v>
+        <v>-2.77481489434625</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.26987105718093</v>
+        <v>-3.03029759900745</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.899649129937045</v>
+        <v>-3.07065721570556</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.443696939209798</v>
+        <v>-2.83429419545558</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.23411423835955</v>
+        <v>-3.30935733937383</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.777256680515822</v>
+        <v>-2.93621040939437</v>
       </c>
       <c r="P21" t="n">
-        <v>-1.15133671945125</v>
+        <v>-3.01584152429849</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1.30952717208316</v>
+        <v>-3.27774307760157</v>
       </c>
       <c r="R21" t="n">
-        <v>-1.83682976659112</v>
+        <v>-3.91227602635452</v>
       </c>
       <c r="S21" t="n">
-        <v>-1.64394411709023</v>
+        <v>-4.03835680415234</v>
       </c>
       <c r="T21" t="n">
-        <v>-1.69500434501734</v>
+        <v>-3.99544557735051</v>
       </c>
       <c r="U21" t="n">
-        <v>-1.1108512039828</v>
+        <v>-3.45922478844275</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.989433336322836</v>
+        <v>-3.13636416885564</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.74325073059813</v>
+        <v>-2.74736124961411</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.690223445275435</v>
+        <v>-2.82898572431785</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.779388250918035</v>
+        <v>-3.21639688356456</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.843823021136275</v>
+        <v>-3.49040525099971</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.90023544052442</v>
+        <v>-3.2018627383858</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.938932278584812</v>
+        <v>-3.23906119636847</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.41883357291507</v>
+        <v>-4.03417560809848</v>
       </c>
       <c r="AD21" t="n">
-        <v>-1.49566147148396</v>
+        <v>-4.15961003428798</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1.56773132063836</v>
+        <v>-4.36933893229541</v>
       </c>
       <c r="AF21" t="n">
-        <v>-1.20876009786442</v>
+        <v>-4.1335752667641</v>
       </c>
       <c r="AG21" t="n">
-        <v>-1.14107489589891</v>
+        <v>-3.89517226637275</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.541592515728055</v>
+        <v>-3.27787138157372</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.864059467594614</v>
+        <v>-3.71042419685112</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-1.26544203442647</v>
+        <v>-4.31119445272425</v>
       </c>
       <c r="AK21" t="n">
-        <v>-1.27951893099411</v>
+        <v>-4.26221365613121</v>
       </c>
       <c r="AL21" t="n">
-        <v>-1.11939996069883</v>
+        <v>-4.21409055771755</v>
       </c>
       <c r="AM21" t="n">
-        <v>-0.909778505929621</v>
+        <v>-3.68175511441923</v>
       </c>
     </row>
     <row r="22">
@@ -14629,118 +14629,118 @@
         <v>161</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.194940270521768</v>
+        <v>-0.0413206361884287</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.05169511825044</v>
+        <v>-1.15517859843098</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.59543142241449</v>
+        <v>-1.48227832749201</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.40451304252054</v>
+        <v>-1.21155472965077</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.37649858108681</v>
+        <v>-1.08788751137776</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.29976723456616</v>
+        <v>-1.11804170893321</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.3049475464305</v>
+        <v>-1.06446060095701</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.667384416195962</v>
+        <v>-0.558184794967491</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.21181430218346</v>
+        <v>-0.969651536214116</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.6072765250439</v>
+        <v>-1.23130044484677</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.3437264414987</v>
+        <v>-1.20653847700066</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.917343187260957</v>
+        <v>-0.714358072092988</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.559724859374611</v>
+        <v>-0.449727047557591</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.308864619447057</v>
+        <v>-0.22059992525653</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.275878435428509</v>
+        <v>-0.14590889294267</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.428973308827227</v>
+        <v>-0.184600747029285</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.497434125587342</v>
+        <v>-0.176365160708581</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.463293642032941</v>
+        <v>-0.20466677414134</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.235324628968977</v>
+        <v>-0.113112880067006</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.180120720441725</v>
+        <v>-0.0834166108529202</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.398002452255782</v>
+        <v>-0.271445083237368</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.596973024104461</v>
+        <v>-0.395814173010072</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.720314977026719</v>
+        <v>-0.513057747883079</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.666778950999924</v>
+        <v>-0.401425142755058</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.342682669944333</v>
+        <v>-0.204998366197118</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.347890436631219</v>
+        <v>-0.211261921952341</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.427762263854394</v>
+        <v>-0.152213085156848</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.565378798441324</v>
+        <v>-0.170213688941867</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.63836119489762</v>
+        <v>-0.101007997378425</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.627435981140471</v>
+        <v>-0.18738963541884</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.543857255439938</v>
+        <v>-0.222522231085648</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.378083078517391</v>
+        <v>-0.205685148749715</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.732201335233827</v>
+        <v>-0.379612096608644</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-1.6499389651389</v>
+        <v>-0.578178790796493</v>
       </c>
       <c r="AK22" t="n">
-        <v>-1.78590797252548</v>
+        <v>-0.637042778204635</v>
       </c>
       <c r="AL22" t="n">
-        <v>-1.4623542677654</v>
+        <v>-0.69915436495512</v>
       </c>
       <c r="AM22" t="n">
-        <v>-1.49268743353787</v>
+        <v>-1.00101526241834</v>
       </c>
     </row>
     <row r="23">
@@ -14748,118 +14748,118 @@
         <v>156</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0238582224237219</v>
+        <v>0.224740549586969</v>
       </c>
       <c r="D23" t="n">
-        <v>0.206360620122087</v>
+        <v>0.235637829983193</v>
       </c>
       <c r="E23" t="n">
-        <v>0.493940825123678</v>
+        <v>0.580292290504562</v>
       </c>
       <c r="F23" t="n">
-        <v>0.505821992631051</v>
+        <v>0.544854661858724</v>
       </c>
       <c r="G23" t="n">
-        <v>0.577923369483758</v>
+        <v>0.608812964763207</v>
       </c>
       <c r="H23" t="n">
-        <v>0.563441190788509</v>
+        <v>0.558880595984117</v>
       </c>
       <c r="I23" t="n">
-        <v>0.617228329594716</v>
+        <v>0.560035864197727</v>
       </c>
       <c r="J23" t="n">
-        <v>0.552521787723947</v>
+        <v>0.537562301829285</v>
       </c>
       <c r="K23" t="n">
-        <v>0.446595892789664</v>
+        <v>0.411578214138718</v>
       </c>
       <c r="L23" t="n">
-        <v>0.348901134084142</v>
+        <v>0.363805081871349</v>
       </c>
       <c r="M23" t="n">
-        <v>0.156621336075026</v>
+        <v>0.362008440230718</v>
       </c>
       <c r="N23" t="n">
-        <v>0.238409106620021</v>
+        <v>0.39755110328897</v>
       </c>
       <c r="O23" t="n">
-        <v>0.278445256413589</v>
+        <v>0.363973631543492</v>
       </c>
       <c r="P23" t="n">
-        <v>0.352798527255374</v>
+        <v>0.367523120552479</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.361416793369262</v>
+        <v>0.398616489327622</v>
       </c>
       <c r="R23" t="n">
-        <v>0.343666306615919</v>
+        <v>0.355715678185657</v>
       </c>
       <c r="S23" t="n">
-        <v>0.303466423267518</v>
+        <v>0.353418139089779</v>
       </c>
       <c r="T23" t="n">
-        <v>0.397382487400384</v>
+        <v>0.372269052858151</v>
       </c>
       <c r="U23" t="n">
-        <v>0.466789047628606</v>
+        <v>0.460060964670735</v>
       </c>
       <c r="V23" t="n">
-        <v>0.416154768891758</v>
+        <v>0.426514484518909</v>
       </c>
       <c r="W23" t="n">
-        <v>0.319950641038293</v>
+        <v>0.348081423570938</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0998040120199669</v>
+        <v>0.300333673983654</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.127937655139132</v>
+        <v>0.26830860952153</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.116404962554692</v>
+        <v>0.253057778028699</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.198036513631656</v>
+        <v>0.266890913979484</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.25023173982119</v>
+        <v>0.28440248386359</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.272632856336096</v>
+        <v>0.299753493369786</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.282453588196739</v>
+        <v>0.305626788185976</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.308544670384962</v>
+        <v>0.313873464113353</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.338042872903764</v>
+        <v>0.345380688303203</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.422596239046945</v>
+        <v>0.403234443801478</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.353897867692309</v>
+        <v>0.384338892292873</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.400556757004516</v>
+        <v>0.375590635393739</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.412795205303554</v>
+        <v>0.331649619298828</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.225934374232306</v>
+        <v>0.304683386633112</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.193247529122933</v>
+        <v>0.309011257783374</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.358292119639118</v>
+        <v>0.39879526159143</v>
       </c>
     </row>
     <row r="24">
@@ -14867,118 +14867,118 @@
         <v>152</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0862247043915546</v>
+        <v>0.328465741920295</v>
       </c>
       <c r="D24" t="n">
-        <v>0.418699449401569</v>
+        <v>0.536425277402066</v>
       </c>
       <c r="E24" t="n">
-        <v>0.486160207622218</v>
+        <v>0.570642233521676</v>
       </c>
       <c r="F24" t="n">
-        <v>0.521953329968002</v>
+        <v>0.558759305002648</v>
       </c>
       <c r="G24" t="n">
-        <v>0.624088362426965</v>
+        <v>0.648752448333592</v>
       </c>
       <c r="H24" t="n">
-        <v>0.641048738949574</v>
+        <v>0.624201670115562</v>
       </c>
       <c r="I24" t="n">
-        <v>0.686000975280044</v>
+        <v>0.626658299338197</v>
       </c>
       <c r="J24" t="n">
-        <v>0.675553749876784</v>
+        <v>0.645168965859416</v>
       </c>
       <c r="K24" t="n">
-        <v>0.556693019919926</v>
+        <v>0.49462438149504</v>
       </c>
       <c r="L24" t="n">
-        <v>0.527390657286398</v>
+        <v>0.50640046160775</v>
       </c>
       <c r="M24" t="n">
-        <v>0.274189776255879</v>
+        <v>0.489385176621596</v>
       </c>
       <c r="N24" t="n">
-        <v>0.28649076096043</v>
+        <v>0.43742456962446</v>
       </c>
       <c r="O24" t="n">
-        <v>0.36012942831652</v>
+        <v>0.464040602879074</v>
       </c>
       <c r="P24" t="n">
-        <v>0.432388472813836</v>
+        <v>0.464957596781463</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.358693190804922</v>
+        <v>0.402627903807086</v>
       </c>
       <c r="R24" t="n">
-        <v>0.362302304273458</v>
+        <v>0.370784104937502</v>
       </c>
       <c r="S24" t="n">
-        <v>0.343269709019065</v>
+        <v>0.383830027127028</v>
       </c>
       <c r="T24" t="n">
-        <v>0.449301715425728</v>
+        <v>0.410977207302088</v>
       </c>
       <c r="U24" t="n">
-        <v>0.532793944513362</v>
+        <v>0.522689904307363</v>
       </c>
       <c r="V24" t="n">
-        <v>0.514211365148498</v>
+        <v>0.515459384714611</v>
       </c>
       <c r="W24" t="n">
-        <v>0.445097224998927</v>
+        <v>0.458300424891352</v>
       </c>
       <c r="X24" t="n">
-        <v>0.249606264399008</v>
+        <v>0.447956507581323</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.252827647086484</v>
+        <v>0.399746403752637</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.260592295543244</v>
+        <v>0.387300377524479</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.315472936075423</v>
+        <v>0.393661045815465</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.369404161796528</v>
+        <v>0.407068856333249</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.320612454216117</v>
+        <v>0.346536300010951</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.331177897979644</v>
+        <v>0.337966892371658</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.371346158641176</v>
+        <v>0.34694945535197</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.389889372380136</v>
+        <v>0.381342098610943</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.522682126441948</v>
+        <v>0.475081929359114</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.467192730945115</v>
+        <v>0.485565527457147</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.55962638376498</v>
+        <v>0.497008375946894</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.773538591251667</v>
+        <v>0.509694180281456</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.560699122050535</v>
+        <v>0.487093644132937</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.436464157978214</v>
+        <v>0.468368009712401</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.671811264828821</v>
+        <v>0.653570883176097</v>
       </c>
     </row>
     <row r="25">
@@ -14986,118 +14986,118 @@
         <v>167</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.321440277043297</v>
+        <v>1.24264552552673</v>
       </c>
       <c r="D25" t="n">
-        <v>1.01689369073232</v>
+        <v>1.50911444923548</v>
       </c>
       <c r="E25" t="n">
-        <v>0.215143525628018</v>
+        <v>0.175473149929376</v>
       </c>
       <c r="F25" t="n">
-        <v>0.599727094527775</v>
+        <v>0.630014961214113</v>
       </c>
       <c r="G25" t="n">
-        <v>0.407384463476201</v>
+        <v>0.457068497150784</v>
       </c>
       <c r="H25" t="n">
-        <v>0.691083371726828</v>
+        <v>0.706196554168507</v>
       </c>
       <c r="I25" t="n">
-        <v>0.985851368968539</v>
+        <v>0.776413979518979</v>
       </c>
       <c r="J25" t="n">
-        <v>0.779472771487556</v>
+        <v>0.814260285649091</v>
       </c>
       <c r="K25" t="n">
-        <v>1.04557115305057</v>
+        <v>0.974571537410589</v>
       </c>
       <c r="L25" t="n">
-        <v>0.860799663880773</v>
+        <v>0.709290464025544</v>
       </c>
       <c r="M25" t="n">
-        <v>0.342339311729114</v>
+        <v>0.766943865780705</v>
       </c>
       <c r="N25" t="n">
-        <v>0.186224595076353</v>
+        <v>0.37501378595455</v>
       </c>
       <c r="O25" t="n">
-        <v>0.273227516806886</v>
+        <v>0.577760303416214</v>
       </c>
       <c r="P25" t="n">
-        <v>0.556004637042852</v>
+        <v>0.71549275927872</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.19860170487012</v>
+        <v>0.180311983176445</v>
       </c>
       <c r="R25" t="n">
-        <v>0.804424245545326</v>
+        <v>0.673723821710769</v>
       </c>
       <c r="S25" t="n">
-        <v>0.496939442607605</v>
+        <v>0.474945329385768</v>
       </c>
       <c r="T25" t="n">
-        <v>0.582578302906429</v>
+        <v>0.527010616785874</v>
       </c>
       <c r="U25" t="n">
-        <v>0.503637728363453</v>
+        <v>0.413742370667308</v>
       </c>
       <c r="V25" t="n">
-        <v>0.667512719536193</v>
+        <v>0.695517360069197</v>
       </c>
       <c r="W25" t="n">
-        <v>0.872502861480326</v>
+        <v>0.870518978106877</v>
       </c>
       <c r="X25" t="n">
-        <v>0.43175469852672</v>
+        <v>0.582173643587217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.464947640808415</v>
+        <v>0.725366847729223</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.495410673092184</v>
+        <v>0.6107264441967</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.426046892275303</v>
+        <v>0.632743474494956</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.478244179368547</v>
+        <v>0.611112817675544</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.195605017214276</v>
+        <v>0.188666862357407</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.747140925117123</v>
+        <v>0.567636016937276</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.769823187293745</v>
+        <v>0.515622822134268</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.590417309205785</v>
+        <v>0.511134096969007</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.905259166762443</v>
+        <v>0.654989611558548</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.79036918195102</v>
+        <v>0.789684011620577</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.03605151743114</v>
+        <v>0.863114548143691</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.695831238998115</v>
+        <v>0.417335804653394</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.840135550454242</v>
+        <v>0.750692127591137</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.401925491415306</v>
+        <v>0.467454661350689</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.450885898086805</v>
+        <v>0.607844707937344</v>
       </c>
     </row>
   </sheetData>
@@ -15238,118 +15238,118 @@
         <v>168</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.142052507282421</v>
+        <v>0.315811897171963</v>
       </c>
       <c r="D2" t="n">
-        <v>0.757903769436536</v>
+        <v>0.843966155581639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.394678892161227</v>
+        <v>0.37344026734281</v>
       </c>
       <c r="F2" t="n">
-        <v>0.278196236859533</v>
+        <v>0.27959322944577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.342779105605697</v>
+        <v>0.344763073286142</v>
       </c>
       <c r="H2" t="n">
-        <v>0.28902556845554</v>
+        <v>0.269309087699605</v>
       </c>
       <c r="I2" t="n">
-        <v>0.069814721265744</v>
+        <v>0.122920237771008</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0098460570474862</v>
+        <v>0.120975817951058</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.369779228251582</v>
+        <v>-0.115911166318337</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.160817720730684</v>
+        <v>0.0340601787590035</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0157615646938367</v>
+        <v>0.244404067025143</v>
       </c>
       <c r="N2" t="n">
-        <v>0.199202477272422</v>
+        <v>0.33191739835863</v>
       </c>
       <c r="O2" t="n">
-        <v>0.391583512456065</v>
+        <v>0.449983017754709</v>
       </c>
       <c r="P2" t="n">
-        <v>0.522895299612274</v>
+        <v>0.498240432082183</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.424531520744246</v>
+        <v>0.364959444112395</v>
       </c>
       <c r="R2" t="n">
-        <v>0.265924876083112</v>
+        <v>0.224907837660199</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0769224345803048</v>
+        <v>0.12020759370001</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0169196578606597</v>
+        <v>0.023472068603836</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00437615507626549</v>
+        <v>0.0630461484473585</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.147141920507019</v>
+        <v>-0.0427805354635572</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.182890018659705</v>
+        <v>-0.0338620206943176</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.181410761041374</v>
+        <v>0.0480240287411272</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.000779464313595856</v>
+        <v>0.157593783864313</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.123584268664562</v>
+        <v>0.232524341918607</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.170574220198894</v>
+        <v>0.220289374585252</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.288186690723183</v>
+        <v>0.289552835806442</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.345088693243996</v>
+        <v>0.254967527765052</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.282060938625912</v>
+        <v>0.231817171615408</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.153508982584117</v>
+        <v>0.176273076390374</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0862545184447048</v>
+        <v>0.13125244233893</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0298306196276998</v>
+        <v>0.0677977130223224</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.128247332403735</v>
+        <v>-0.0290197997057591</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.239414609712327</v>
+        <v>-0.051443824759745</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.212269656475031</v>
+        <v>0.0691600957601061</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.0928205709809474</v>
+        <v>0.15271950899421</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.284641930836603</v>
+        <v>0.323833986109454</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.263230303201223</v>
+        <v>0.295247491765555</v>
       </c>
     </row>
     <row r="3">
@@ -15357,118 +15357,118 @@
         <v>146</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.227816929826454</v>
+        <v>-0.084612057090489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.298358301110273</v>
+        <v>0.397980647205367</v>
       </c>
       <c r="E3" t="n">
-        <v>0.502243207526516</v>
+        <v>0.586516083022124</v>
       </c>
       <c r="F3" t="n">
-        <v>0.587577566253604</v>
+        <v>0.61907338711961</v>
       </c>
       <c r="G3" t="n">
-        <v>0.589906197016183</v>
+        <v>0.619086853017352</v>
       </c>
       <c r="H3" t="n">
-        <v>0.656581980248618</v>
+        <v>0.638153150629753</v>
       </c>
       <c r="I3" t="n">
-        <v>0.516036023093684</v>
+        <v>0.482307457063291</v>
       </c>
       <c r="J3" t="n">
-        <v>0.517489915113713</v>
+        <v>0.503541540200215</v>
       </c>
       <c r="K3" t="n">
-        <v>0.63028572578685</v>
+        <v>0.555572144813399</v>
       </c>
       <c r="L3" t="n">
-        <v>0.212845452492165</v>
+        <v>0.250356760848417</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0837587522599972</v>
+        <v>0.289780918230744</v>
       </c>
       <c r="N3" t="n">
-        <v>0.22961264848359</v>
+        <v>0.383021592362611</v>
       </c>
       <c r="O3" t="n">
-        <v>0.263999994215984</v>
+        <v>0.36856754428464</v>
       </c>
       <c r="P3" t="n">
-        <v>0.354454351689327</v>
+        <v>0.392892978679295</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.361422294705439</v>
+        <v>0.405002079827941</v>
       </c>
       <c r="R3" t="n">
-        <v>0.315823371301284</v>
+        <v>0.338176864954786</v>
       </c>
       <c r="S3" t="n">
-        <v>0.230921823858566</v>
+        <v>0.308981894640224</v>
       </c>
       <c r="T3" t="n">
-        <v>0.374341338959565</v>
+        <v>0.360423628466529</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0208092419268101</v>
+        <v>0.098914257461055</v>
       </c>
       <c r="V3" t="n">
-        <v>0.320100688564388</v>
+        <v>0.34804461852049</v>
       </c>
       <c r="W3" t="n">
-        <v>0.244189047374268</v>
+        <v>0.28441338043829</v>
       </c>
       <c r="X3" t="n">
-        <v>0.17616997442029</v>
+        <v>0.374780554775159</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.187352237924412</v>
+        <v>0.338343973003982</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.216015369040344</v>
+        <v>0.349407224787969</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.149481377705007</v>
+        <v>0.24269953492374</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.281764797990003</v>
+        <v>0.331542772714929</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.190575586032634</v>
+        <v>0.259892001357059</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.178347708155676</v>
+        <v>0.251357192998495</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.201815129278093</v>
+        <v>0.271751462139807</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.244201846032698</v>
+        <v>0.299913616927582</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.172052330334773</v>
+        <v>0.245766576359896</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.179842361234565</v>
+        <v>0.250593600754847</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.168323275941123</v>
+        <v>0.23149330261107</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.152461001955852</v>
+        <v>0.230927718836964</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.00834865553584805</v>
+        <v>0.214518257610008</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.458318858561271</v>
+        <v>0.481826694109741</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.153869376301927</v>
+        <v>0.257674957250013</v>
       </c>
     </row>
     <row r="4">
@@ -15476,118 +15476,118 @@
         <v>149</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.209146766568107</v>
+        <v>0.503904157344022</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.205848230540262</v>
+        <v>-0.169657905504366</v>
       </c>
       <c r="E4" t="n">
-        <v>0.509317262990794</v>
+        <v>0.597167696387007</v>
       </c>
       <c r="F4" t="n">
-        <v>0.604042503517689</v>
+        <v>0.637345205375673</v>
       </c>
       <c r="G4" t="n">
-        <v>0.579555721874318</v>
+        <v>0.61898976525886</v>
       </c>
       <c r="H4" t="n">
-        <v>0.614748112497021</v>
+        <v>0.614039877072675</v>
       </c>
       <c r="I4" t="n">
-        <v>0.556211405112284</v>
+        <v>0.545806043991785</v>
       </c>
       <c r="J4" t="n">
-        <v>0.617190520365443</v>
+        <v>0.623364423200868</v>
       </c>
       <c r="K4" t="n">
-        <v>0.662835943963762</v>
+        <v>0.629573981392636</v>
       </c>
       <c r="L4" t="n">
-        <v>0.580233822145835</v>
+        <v>0.636126144125787</v>
       </c>
       <c r="M4" t="n">
-        <v>0.430003163957094</v>
+        <v>0.714814437213349</v>
       </c>
       <c r="N4" t="n">
-        <v>0.480339738085847</v>
+        <v>0.652793589068983</v>
       </c>
       <c r="O4" t="n">
-        <v>0.563168339433167</v>
+        <v>0.684570063723412</v>
       </c>
       <c r="P4" t="n">
-        <v>0.686345115351629</v>
+        <v>0.718818763335399</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.72888320243146</v>
+        <v>0.726627757299202</v>
       </c>
       <c r="R4" t="n">
-        <v>0.731331544801236</v>
+        <v>0.627735430860111</v>
       </c>
       <c r="S4" t="n">
-        <v>0.658125577603062</v>
+        <v>0.597547083378712</v>
       </c>
       <c r="T4" t="n">
-        <v>0.865147059155404</v>
+        <v>0.695445061576603</v>
       </c>
       <c r="U4" t="n">
-        <v>0.852641843785247</v>
+        <v>0.782831557261801</v>
       </c>
       <c r="V4" t="n">
-        <v>0.775068273873596</v>
+        <v>0.738504460914825</v>
       </c>
       <c r="W4" t="n">
-        <v>0.741664515115225</v>
+        <v>0.71905083760602</v>
       </c>
       <c r="X4" t="n">
-        <v>0.371877657771148</v>
+        <v>0.592372425852885</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.419122892164102</v>
+        <v>0.586337517184775</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.613843998957819</v>
+        <v>0.709205699968716</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.630224641069786</v>
+        <v>0.700406198546634</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.746320473136365</v>
+        <v>0.750474328522252</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.717510220998084</v>
+        <v>0.620639269541468</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.735705415157557</v>
+        <v>0.563912324200485</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.810714308553047</v>
+        <v>0.540543631479494</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.801321604988507</v>
+        <v>0.606702586342545</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.909197825152953</v>
+        <v>0.714560125626292</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.754896741122296</v>
+        <v>0.7020106681442</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.964704705879686</v>
+        <v>0.743612123867899</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.736840776496064</v>
+        <v>0.484536436601087</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.665066200370685</v>
+        <v>0.541090748606368</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.490856506513121</v>
+        <v>0.50972177735789</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.665809427808503</v>
+        <v>0.663812457915978</v>
       </c>
     </row>
     <row r="5">
@@ -15595,118 +15595,118 @@
         <v>151</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.74120424988557</v>
+        <v>-3.96015906684522</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.94269966448799</v>
+        <v>-3.38344607775983</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.11410268954538</v>
+        <v>-2.27387687364705</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.89444417497231</v>
+        <v>-2.11639649425073</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.93070369343405</v>
+        <v>-2.01116475904036</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.97190637722895</v>
+        <v>-2.21235402872972</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.54796258874962</v>
+        <v>-1.37238345267531</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.64170105548363</v>
+        <v>-1.88168933878274</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.57417978514073</v>
+        <v>-1.80778176366102</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.9723980721415</v>
+        <v>-2.13772471847246</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.04284281316363</v>
+        <v>-2.44774525177845</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.59787335319871</v>
+        <v>-2.60699619655418</v>
       </c>
       <c r="O5" t="n">
-        <v>-3.88560640049435</v>
+        <v>-2.91985977141963</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.94931689689652</v>
+        <v>-2.8572737338258</v>
       </c>
       <c r="Q5" t="n">
-        <v>-4.09177590009593</v>
+        <v>-2.83698255492569</v>
       </c>
       <c r="R5" t="n">
-        <v>-3.76322040950547</v>
+        <v>-2.00535809952579</v>
       </c>
       <c r="S5" t="n">
-        <v>-3.80148931790297</v>
+        <v>-1.86936407982121</v>
       </c>
       <c r="T5" t="n">
-        <v>-3.8056897756722</v>
+        <v>-1.8569725311114</v>
       </c>
       <c r="U5" t="n">
-        <v>-3.96166592453928</v>
+        <v>-2.53116069124798</v>
       </c>
       <c r="V5" t="n">
-        <v>-4.12383431753355</v>
+        <v>-2.9687692078349</v>
       </c>
       <c r="W5" t="n">
-        <v>-4.2383925772241</v>
+        <v>-3.35576761166691</v>
       </c>
       <c r="X5" t="n">
-        <v>-3.74483495026155</v>
+        <v>-3.35363461728754</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3.89629535555699</v>
+        <v>-2.94930804800494</v>
       </c>
       <c r="Z5" t="n">
-        <v>-4.18608333624121</v>
+        <v>-2.65910959817198</v>
       </c>
       <c r="AA5" t="n">
-        <v>-4.08023386796915</v>
+        <v>-2.96902144662102</v>
       </c>
       <c r="AB5" t="n">
-        <v>-4.23218938160821</v>
+        <v>-2.96723940224113</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.0889443617859</v>
+        <v>-2.02360338397157</v>
       </c>
       <c r="AD5" t="n">
-        <v>-4.10723584415569</v>
+        <v>-1.82095838875594</v>
       </c>
       <c r="AE5" t="n">
-        <v>-3.97529344991283</v>
+        <v>-1.27705123947802</v>
       </c>
       <c r="AF5" t="n">
-        <v>-4.21802633064262</v>
+        <v>-1.82620846610483</v>
       </c>
       <c r="AG5" t="n">
-        <v>-3.94634002952176</v>
+        <v>-2.04567250884134</v>
       </c>
       <c r="AH5" t="n">
-        <v>-4.25619699263145</v>
+        <v>-2.95533353920059</v>
       </c>
       <c r="AI5" t="n">
-        <v>-3.99938335987836</v>
+        <v>-2.34641337491473</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-3.49810981213751</v>
+        <v>-1.17709983863054</v>
       </c>
       <c r="AK5" t="n">
-        <v>-3.04577606641845</v>
+        <v>-0.682883003933189</v>
       </c>
       <c r="AL5" t="n">
-        <v>-3.5283225626228</v>
+        <v>-1.42310522020745</v>
       </c>
       <c r="AM5" t="n">
-        <v>-3.42464009737254</v>
+        <v>-2.05504958917668</v>
       </c>
     </row>
     <row r="6">
@@ -15714,118 +15714,118 @@
         <v>160</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.291230782578319</v>
+        <v>0.598958914910989</v>
       </c>
       <c r="D6" t="n">
-        <v>0.370769518625198</v>
+        <v>0.481489750803344</v>
       </c>
       <c r="E6" t="n">
-        <v>0.479200029032127</v>
+        <v>0.564936442366924</v>
       </c>
       <c r="F6" t="n">
-        <v>0.430790165958371</v>
+        <v>0.474888444353306</v>
       </c>
       <c r="G6" t="n">
-        <v>0.577414454569676</v>
+        <v>0.607730024927397</v>
       </c>
       <c r="H6" t="n">
-        <v>0.616352521689802</v>
+        <v>0.60191881005427</v>
       </c>
       <c r="I6" t="n">
-        <v>0.558209631209257</v>
+        <v>0.516924996035842</v>
       </c>
       <c r="J6" t="n">
-        <v>0.491839142037763</v>
+        <v>0.480763602274864</v>
       </c>
       <c r="K6" t="n">
-        <v>0.329580153433705</v>
+        <v>0.305672134796987</v>
       </c>
       <c r="L6" t="n">
-        <v>0.297609354629165</v>
+        <v>0.317532198830614</v>
       </c>
       <c r="M6" t="n">
-        <v>0.139313743471567</v>
+        <v>0.347486649771238</v>
       </c>
       <c r="N6" t="n">
-        <v>0.283882597361725</v>
+        <v>0.433676324861738</v>
       </c>
       <c r="O6" t="n">
-        <v>0.344941599903387</v>
+        <v>0.448245221061097</v>
       </c>
       <c r="P6" t="n">
-        <v>0.484554213279176</v>
+        <v>0.512457859133723</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.427056296699495</v>
+        <v>0.461682092376658</v>
       </c>
       <c r="R6" t="n">
-        <v>0.382006448799471</v>
+        <v>0.383821430808011</v>
       </c>
       <c r="S6" t="n">
-        <v>0.310517521071864</v>
+        <v>0.360815458244711</v>
       </c>
       <c r="T6" t="n">
-        <v>0.424555756412459</v>
+        <v>0.393326648174645</v>
       </c>
       <c r="U6" t="n">
-        <v>0.437958317987265</v>
+        <v>0.442369285399127</v>
       </c>
       <c r="V6" t="n">
-        <v>0.271689785057712</v>
+        <v>0.305372720001345</v>
       </c>
       <c r="W6" t="n">
-        <v>0.275314293947304</v>
+        <v>0.309790251586681</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0697088573170503</v>
+        <v>0.266657191498507</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0955756107315439</v>
+        <v>0.25100444788416</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.191905373977409</v>
+        <v>0.327079747475627</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.231649374870747</v>
+        <v>0.316240601103541</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.297542108785622</v>
+        <v>0.343829581932892</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.35363774017913</v>
+        <v>0.36789849088301</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.280038069532178</v>
+        <v>0.307948273750382</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.239906724512566</v>
+        <v>0.287431710518534</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.244792316393684</v>
+        <v>0.298952729577917</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.27264184330692</v>
+        <v>0.309305396988717</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.152864638236522</v>
+        <v>0.226867114717663</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0465243521436841</v>
+        <v>0.146229550498836</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0325153542499809</v>
+        <v>0.173648445320598</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.136055144397366</v>
+        <v>0.281482277999795</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.162577610769144</v>
+        <v>0.297698964623169</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.595432590846561</v>
+        <v>0.59355251631122</v>
       </c>
     </row>
     <row r="7">
@@ -15833,118 +15833,118 @@
         <v>166</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.177753108777793</v>
+        <v>0.0737342611631326</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.154015580503952</v>
+        <v>-0.22547571994195</v>
       </c>
       <c r="E7" t="n">
-        <v>0.221249560262554</v>
+        <v>0.350478252552688</v>
       </c>
       <c r="F7" t="n">
-        <v>0.67600896365614</v>
+        <v>0.597767778085714</v>
       </c>
       <c r="G7" t="n">
-        <v>0.61709260762242</v>
+        <v>0.532710968636921</v>
       </c>
       <c r="H7" t="n">
-        <v>0.65265616685156</v>
+        <v>0.521442377857037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.613188269838557</v>
+        <v>0.579938967308877</v>
       </c>
       <c r="J7" t="n">
-        <v>0.623471165629811</v>
+        <v>0.447896329843623</v>
       </c>
       <c r="K7" t="n">
-        <v>0.624019629619902</v>
+        <v>0.508549743108916</v>
       </c>
       <c r="L7" t="n">
-        <v>1.12240882603935</v>
+        <v>0.753194748131429</v>
       </c>
       <c r="M7" t="n">
-        <v>0.327258364212319</v>
+        <v>0.468868587136217</v>
       </c>
       <c r="N7" t="n">
-        <v>0.335044624600937</v>
+        <v>0.320173735645678</v>
       </c>
       <c r="O7" t="n">
-        <v>0.451266533319881</v>
+        <v>0.573607351212477</v>
       </c>
       <c r="P7" t="n">
-        <v>0.59291672390744</v>
+        <v>0.467795090056448</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.449999671497849</v>
+        <v>0.473813671527795</v>
       </c>
       <c r="R7" t="n">
-        <v>0.470187865509669</v>
+        <v>0.325698433441075</v>
       </c>
       <c r="S7" t="n">
-        <v>0.448228585779513</v>
+        <v>0.308896751733265</v>
       </c>
       <c r="T7" t="n">
-        <v>0.506989542208016</v>
+        <v>0.317997569276122</v>
       </c>
       <c r="U7" t="n">
-        <v>0.549597901502794</v>
+        <v>0.500404125809687</v>
       </c>
       <c r="V7" t="n">
-        <v>0.475920494026581</v>
+        <v>0.314902525128948</v>
       </c>
       <c r="W7" t="n">
-        <v>0.507458386025293</v>
+        <v>0.4194320593795</v>
       </c>
       <c r="X7" t="n">
-        <v>0.265342999437472</v>
+        <v>0.240902214706046</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.0682138846993516</v>
+        <v>0.021202866886596</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.150364639437958</v>
+        <v>0.144166217246684</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.383508897177835</v>
+        <v>0.419919702214395</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.573856819246601</v>
+        <v>0.370441276564108</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.341429537412057</v>
+        <v>0.32884521177906</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.602241583269958</v>
+        <v>0.357705187965196</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.579328264662384</v>
+        <v>0.298169517747892</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.607846250903516</v>
+        <v>0.34303756437349</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.703267021336623</v>
+        <v>0.477389165944551</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.539678495658272</v>
+        <v>0.327777759023749</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.181122288132993</v>
+        <v>0.0494402909784931</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.325061028315473</v>
+        <v>-0.0637833667163329</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.740820776928686</v>
+        <v>-0.284103739406017</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.172844178170743</v>
+        <v>0.106904489759694</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.667649722621047</v>
+        <v>0.538844643879973</v>
       </c>
     </row>
     <row r="8">
@@ -15952,118 +15952,118 @@
         <v>158</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.276582416828851</v>
+        <v>-0.154887758313789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.354864698096952</v>
+        <v>0.473655351226997</v>
       </c>
       <c r="E8" t="n">
-        <v>0.282577369512621</v>
+        <v>0.352959558247265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.143501609584938</v>
+        <v>0.20434802904374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.427080375068233</v>
+        <v>0.469064631987722</v>
       </c>
       <c r="H8" t="n">
-        <v>0.537685693232011</v>
+        <v>0.526582097788836</v>
       </c>
       <c r="I8" t="n">
-        <v>0.596759722497286</v>
+        <v>0.547776076869346</v>
       </c>
       <c r="J8" t="n">
-        <v>0.56709688444629</v>
+        <v>0.546617257578555</v>
       </c>
       <c r="K8" t="n">
-        <v>0.561364342834782</v>
+        <v>0.506074644669986</v>
       </c>
       <c r="L8" t="n">
-        <v>0.424331119469415</v>
+        <v>0.438412389043761</v>
       </c>
       <c r="M8" t="n">
-        <v>0.134245692872573</v>
+        <v>0.346289045059164</v>
       </c>
       <c r="N8" t="n">
-        <v>0.232863602047511</v>
+        <v>0.388821041927706</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.0832248711789342</v>
+        <v>0.0212147952864516</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00362471908964464</v>
+        <v>0.0792425279578459</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.274242712695883</v>
+        <v>0.311175458256614</v>
       </c>
       <c r="R8" t="n">
-        <v>0.17562284272495</v>
+        <v>0.235634253361033</v>
       </c>
       <c r="S8" t="n">
-        <v>0.256895849319524</v>
+        <v>0.322517992612581</v>
       </c>
       <c r="T8" t="n">
-        <v>0.441578308870142</v>
+        <v>0.404337467838974</v>
       </c>
       <c r="U8" t="n">
-        <v>0.540199768518445</v>
+        <v>0.525502980232541</v>
       </c>
       <c r="V8" t="n">
-        <v>0.570768562914658</v>
+        <v>0.560198515074695</v>
       </c>
       <c r="W8" t="n">
-        <v>0.433666955152363</v>
+        <v>0.454140056126699</v>
       </c>
       <c r="X8" t="n">
-        <v>0.202649145956883</v>
+        <v>0.419872445543027</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.222812388155671</v>
+        <v>0.378427418448192</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.198960474700618</v>
+        <v>0.335934602614245</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0237621378953732</v>
+        <v>0.125772405634017</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.170480395313137</v>
+        <v>-0.052758378421743</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.110985893834433</v>
+        <v>0.186180319602795</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.22074392793328</v>
+        <v>0.25986001918491</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.312033123326641</v>
+        <v>0.318191259169011</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.333353080026287</v>
+        <v>0.354198158891914</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.401422075823965</v>
+        <v>0.404093559579408</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.340784938846457</v>
+        <v>0.384212042168603</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.431419608858243</v>
+        <v>0.417317694861524</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.403231454031237</v>
+        <v>0.379483186194864</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.447187438143724</v>
+        <v>0.445175517913988</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.192360998949064</v>
+        <v>0.315583148263491</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.0705474489869138</v>
+        <v>0.0832602050353186</v>
       </c>
     </row>
     <row r="9">
@@ -16071,118 +16071,118 @@
         <v>154</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0661784363698099</v>
+        <v>0.300496366886432</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113382725969914</v>
+        <v>0.134764397877634</v>
       </c>
       <c r="E9" t="n">
-        <v>0.152587576933764</v>
+        <v>0.248323590489392</v>
       </c>
       <c r="F9" t="n">
-        <v>0.329961285130155</v>
+        <v>0.38584328033354</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5448112693559</v>
+        <v>0.600697140282484</v>
       </c>
       <c r="H9" t="n">
-        <v>0.603746621718619</v>
+        <v>0.612713634551445</v>
       </c>
       <c r="I9" t="n">
-        <v>0.784935316483721</v>
+        <v>0.757738318639828</v>
       </c>
       <c r="J9" t="n">
-        <v>0.711928831239305</v>
+        <v>0.737273246524364</v>
       </c>
       <c r="K9" t="n">
-        <v>0.69536587160978</v>
+        <v>0.662799718114738</v>
       </c>
       <c r="L9" t="n">
-        <v>0.613192523019587</v>
+        <v>0.632868160307256</v>
       </c>
       <c r="M9" t="n">
-        <v>0.379953456834185</v>
+        <v>0.654928933677502</v>
       </c>
       <c r="N9" t="n">
-        <v>0.438084931849875</v>
+        <v>0.614425804531706</v>
       </c>
       <c r="O9" t="n">
-        <v>0.513008224504309</v>
+        <v>0.635414802321587</v>
       </c>
       <c r="P9" t="n">
-        <v>0.584083008176313</v>
+        <v>0.581981148397255</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.546860497865142</v>
+        <v>0.57801963751094</v>
       </c>
       <c r="R9" t="n">
-        <v>0.556627146194773</v>
+        <v>0.526538531465152</v>
       </c>
       <c r="S9" t="n">
-        <v>0.504405650568042</v>
+        <v>0.521525008184929</v>
       </c>
       <c r="T9" t="n">
-        <v>0.615295605148444</v>
+        <v>0.562129456689609</v>
       </c>
       <c r="U9" t="n">
-        <v>0.635140232311103</v>
+        <v>0.664902093658568</v>
       </c>
       <c r="V9" t="n">
-        <v>0.678032605602256</v>
+        <v>0.721766433742936</v>
       </c>
       <c r="W9" t="n">
-        <v>0.573569491489705</v>
+        <v>0.628503921463768</v>
       </c>
       <c r="X9" t="n">
-        <v>0.331644038799528</v>
+        <v>0.587281106688959</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.375592017323445</v>
+        <v>0.561826544490405</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.358738629616283</v>
+        <v>0.506549959376482</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.370836654722873</v>
+        <v>0.454451950155386</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.436898148349947</v>
+        <v>0.435498553609791</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.443187657543084</v>
+        <v>0.437024552601531</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.439278492210242</v>
+        <v>0.403934271045771</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.437310586743173</v>
+        <v>0.385605082909597</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.425533127212041</v>
+        <v>0.415384976082666</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.472646158937566</v>
+        <v>0.462470949590491</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.402990791301357</v>
+        <v>0.477566073070902</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.535161724238947</v>
+        <v>0.549999208958469</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.72274630358203</v>
+        <v>0.548581575565558</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.548566587989672</v>
+        <v>0.540445789952866</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.48091666918556</v>
+        <v>0.532808255910738</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.376515468677237</v>
+        <v>0.442412641016957</v>
       </c>
     </row>
     <row r="10">
@@ -16190,118 +16190,118 @@
         <v>153</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.428880712805324</v>
+        <v>0.775177575740808</v>
       </c>
       <c r="D10" t="n">
-        <v>1.11082058999839</v>
+        <v>1.33887239376439</v>
       </c>
       <c r="E10" t="n">
-        <v>0.842700711029667</v>
+        <v>0.937520737322887</v>
       </c>
       <c r="F10" t="n">
-        <v>0.542613792800973</v>
+        <v>0.582876182119267</v>
       </c>
       <c r="G10" t="n">
-        <v>0.596064552676414</v>
+        <v>0.634055382911413</v>
       </c>
       <c r="H10" t="n">
-        <v>0.649191766637481</v>
+        <v>0.645427124853394</v>
       </c>
       <c r="I10" t="n">
-        <v>0.823678593568497</v>
+        <v>0.76417953788773</v>
       </c>
       <c r="J10" t="n">
-        <v>0.736731687515557</v>
+        <v>0.725270732798045</v>
       </c>
       <c r="K10" t="n">
-        <v>0.549867362857739</v>
+        <v>0.514851882828066</v>
       </c>
       <c r="L10" t="n">
-        <v>0.482571567572364</v>
+        <v>0.490977359163247</v>
       </c>
       <c r="M10" t="n">
-        <v>0.276087388650973</v>
+        <v>0.500261426471068</v>
       </c>
       <c r="N10" t="n">
-        <v>0.314988718775797</v>
+        <v>0.460851831028172</v>
       </c>
       <c r="O10" t="n">
-        <v>0.330973002380134</v>
+        <v>0.432920733017697</v>
       </c>
       <c r="P10" t="n">
-        <v>0.314044165142168</v>
+        <v>0.358004921362081</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.343148002384721</v>
+        <v>0.397635439232763</v>
       </c>
       <c r="R10" t="n">
-        <v>0.374794458614562</v>
+        <v>0.383213344492979</v>
       </c>
       <c r="S10" t="n">
-        <v>0.356283069697779</v>
+        <v>0.400422096836175</v>
       </c>
       <c r="T10" t="n">
-        <v>0.440188462760557</v>
+        <v>0.416961905050668</v>
       </c>
       <c r="U10" t="n">
-        <v>0.394995853786071</v>
+        <v>0.423074280191287</v>
       </c>
       <c r="V10" t="n">
-        <v>0.413540119520399</v>
+        <v>0.446470801991784</v>
       </c>
       <c r="W10" t="n">
-        <v>0.347973787209592</v>
+        <v>0.390349513116468</v>
       </c>
       <c r="X10" t="n">
-        <v>0.121062057636699</v>
+        <v>0.331856444815731</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.181294929296099</v>
+        <v>0.337796417816337</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.196198665567806</v>
+        <v>0.329024265544657</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.286936810932401</v>
+        <v>0.365821904857159</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.318655814655894</v>
+        <v>0.365008854615809</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.298652882091506</v>
+        <v>0.338929198624342</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.334355527850413</v>
+        <v>0.34207604642359</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3767325660097</v>
+        <v>0.354122104352605</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.372785684618713</v>
+        <v>0.380224320799379</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.414791184184002</v>
+        <v>0.41594999046734</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.366800559241219</v>
+        <v>0.418433417971288</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.377386942140762</v>
+        <v>0.389724861586273</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.286709081412604</v>
+        <v>0.304939721085297</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.238956512688145</v>
+        <v>0.337895083980961</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.22315018904222</v>
+        <v>0.333845854083567</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.324539836178846</v>
+        <v>0.386196846149933</v>
       </c>
     </row>
     <row r="11">
@@ -16309,118 +16309,118 @@
         <v>162</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0862191960708645</v>
+        <v>0.328458496188255</v>
       </c>
       <c r="D11" t="n">
-        <v>0.225598223514632</v>
+        <v>0.314259927972895</v>
       </c>
       <c r="E11" t="n">
-        <v>0.485604631609775</v>
+        <v>0.570094293983828</v>
       </c>
       <c r="F11" t="n">
-        <v>0.543182577047987</v>
+        <v>0.578267964905633</v>
       </c>
       <c r="G11" t="n">
-        <v>0.617600085629609</v>
+        <v>0.643120215300064</v>
       </c>
       <c r="H11" t="n">
-        <v>0.633945586324273</v>
+        <v>0.617825289025532</v>
       </c>
       <c r="I11" t="n">
-        <v>0.729135347700527</v>
+        <v>0.663297496667362</v>
       </c>
       <c r="J11" t="n">
-        <v>0.670179214312303</v>
+        <v>0.640352820589467</v>
       </c>
       <c r="K11" t="n">
-        <v>0.624761136666397</v>
+        <v>0.550985528886197</v>
       </c>
       <c r="L11" t="n">
-        <v>0.522052695031479</v>
+        <v>0.502055059839236</v>
       </c>
       <c r="M11" t="n">
-        <v>0.285732981635514</v>
+        <v>0.50148483709745</v>
       </c>
       <c r="N11" t="n">
-        <v>0.344858823925334</v>
+        <v>0.493267669296672</v>
       </c>
       <c r="O11" t="n">
-        <v>0.388224742204797</v>
+        <v>0.49194988389447</v>
       </c>
       <c r="P11" t="n">
-        <v>0.430685346790621</v>
+        <v>0.46338235362754</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.435446743589774</v>
+        <v>0.468977749855502</v>
       </c>
       <c r="R11" t="n">
-        <v>0.436016187136224</v>
+        <v>0.422523475119486</v>
       </c>
       <c r="S11" t="n">
-        <v>0.414715005385991</v>
+        <v>0.431436676073208</v>
       </c>
       <c r="T11" t="n">
-        <v>0.508133628962696</v>
+        <v>0.450665180163821</v>
       </c>
       <c r="U11" t="n">
-        <v>0.573419416705198</v>
+        <v>0.556318088533426</v>
       </c>
       <c r="V11" t="n">
-        <v>0.539090986191351</v>
+        <v>0.536919949143137</v>
       </c>
       <c r="W11" t="n">
-        <v>0.477742613492175</v>
+        <v>0.486557872109317</v>
       </c>
       <c r="X11" t="n">
-        <v>0.257081184604543</v>
+        <v>0.455406780149886</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.302935734166948</v>
+        <v>0.446746765515498</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.327755757354803</v>
+        <v>0.444420603985436</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.375932485447272</v>
+        <v>0.448654625974028</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.432029237861889</v>
+        <v>0.461055168074968</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.399808877665053</v>
+        <v>0.399316832440765</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.431369390091418</v>
+        <v>0.394756412327909</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.483882185362954</v>
+        <v>0.396874772926507</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.481036723679377</v>
+        <v>0.432296130404297</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.561410812925677</v>
+        <v>0.500413760952375</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.506785410838074</v>
+        <v>0.517944591240519</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.65521623274372</v>
+        <v>0.56187614669388</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.840647688126412</v>
+        <v>0.539819035482491</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.636433870118165</v>
+        <v>0.52337347651907</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.443386280206236</v>
+        <v>0.472624091415996</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.535547041180719</v>
+        <v>0.549407991677346</v>
       </c>
     </row>
     <row r="12">
@@ -16428,118 +16428,118 @@
         <v>148</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0525716197752381</v>
+        <v>0.145890727172327</v>
       </c>
       <c r="D12" t="n">
-        <v>0.108909507709601</v>
+        <v>0.18000830162918</v>
       </c>
       <c r="E12" t="n">
-        <v>0.364368648129356</v>
+        <v>0.450524332243699</v>
       </c>
       <c r="F12" t="n">
-        <v>0.491982336373876</v>
+        <v>0.531217277436966</v>
       </c>
       <c r="G12" t="n">
-        <v>0.582908833083124</v>
+        <v>0.61300578344463</v>
       </c>
       <c r="H12" t="n">
-        <v>0.610178481535446</v>
+        <v>0.596489927390678</v>
       </c>
       <c r="I12" t="n">
-        <v>0.730222908019553</v>
+        <v>0.664221188116379</v>
       </c>
       <c r="J12" t="n">
-        <v>0.67108784029713</v>
+        <v>0.641166854020725</v>
       </c>
       <c r="K12" t="n">
-        <v>0.615027112467957</v>
+        <v>0.54292562373556</v>
       </c>
       <c r="L12" t="n">
-        <v>0.592732724493769</v>
+        <v>0.559592633936916</v>
       </c>
       <c r="M12" t="n">
-        <v>0.257156101424911</v>
+        <v>0.471530163209753</v>
       </c>
       <c r="N12" t="n">
-        <v>0.305848939511856</v>
+        <v>0.455945217653947</v>
       </c>
       <c r="O12" t="n">
-        <v>0.304554093543146</v>
+        <v>0.408833200832013</v>
       </c>
       <c r="P12" t="n">
-        <v>0.396310984244033</v>
+        <v>0.431589170955626</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.376732011270004</v>
+        <v>0.418221315965684</v>
       </c>
       <c r="R12" t="n">
-        <v>0.401913184865467</v>
+        <v>0.398586587573016</v>
       </c>
       <c r="S12" t="n">
-        <v>0.358824773066622</v>
+        <v>0.394194780338284</v>
       </c>
       <c r="T12" t="n">
-        <v>0.490037395922482</v>
+        <v>0.438457365497192</v>
       </c>
       <c r="U12" t="n">
-        <v>0.566883182483613</v>
+        <v>0.550907441600084</v>
       </c>
       <c r="V12" t="n">
-        <v>0.502755674538647</v>
+        <v>0.505577792557785</v>
       </c>
       <c r="W12" t="n">
-        <v>0.444950469092994</v>
+        <v>0.45817331428204</v>
       </c>
       <c r="X12" t="n">
-        <v>0.247702313582804</v>
+        <v>0.446058791064169</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.231909311056241</v>
+        <v>0.38012530538123</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.267932014191263</v>
+        <v>0.393542468014167</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.256026697977524</v>
+        <v>0.339589073806284</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.377903397680241</v>
+        <v>0.414395709820212</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.311244917762884</v>
+        <v>0.34029296582339</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.329379792531692</v>
+        <v>0.336947551627136</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.358928502425912</v>
+        <v>0.341440361810852</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.421378631568743</v>
+        <v>0.398945410450937</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.489892750995746</v>
+        <v>0.453634741541854</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.436792205981342</v>
+        <v>0.460703661152996</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.544881765945841</v>
+        <v>0.487002481936819</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.615517446411554</v>
+        <v>0.438759422790052</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.358413516920143</v>
+        <v>0.390190919442881</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.338123124104557</v>
+        <v>0.407902667999028</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.406207073412492</v>
+        <v>0.450537990365314</v>
       </c>
     </row>
     <row r="13">
@@ -16547,118 +16547,118 @@
         <v>159</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.294706433571971</v>
+        <v>-0.177439726487593</v>
       </c>
       <c r="D13" t="n">
-        <v>0.033345465637493</v>
+        <v>0.0965041643498893</v>
       </c>
       <c r="E13" t="n">
-        <v>0.174112875128859</v>
+        <v>0.265045861399518</v>
       </c>
       <c r="F13" t="n">
-        <v>0.254255865913825</v>
+        <v>0.324423858895541</v>
       </c>
       <c r="G13" t="n">
-        <v>0.364170267344451</v>
+        <v>0.425250118915179</v>
       </c>
       <c r="H13" t="n">
-        <v>0.474255724285083</v>
+        <v>0.464160081074628</v>
       </c>
       <c r="I13" t="n">
-        <v>0.573855043490378</v>
+        <v>0.50756568111923</v>
       </c>
       <c r="J13" t="n">
-        <v>0.523712153715621</v>
+        <v>0.493589325971034</v>
       </c>
       <c r="K13" t="n">
-        <v>0.472077768051495</v>
+        <v>0.421278610440408</v>
       </c>
       <c r="L13" t="n">
-        <v>0.324349706625288</v>
+        <v>0.319384865493943</v>
       </c>
       <c r="M13" t="n">
-        <v>0.138289811056267</v>
+        <v>0.328891524282891</v>
       </c>
       <c r="N13" t="n">
-        <v>0.285457363583136</v>
+        <v>0.435257103141287</v>
       </c>
       <c r="O13" t="n">
-        <v>0.267916643408718</v>
+        <v>0.376384556666381</v>
       </c>
       <c r="P13" t="n">
-        <v>0.379779772158406</v>
+        <v>0.43127272907826</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.421234105220293</v>
+        <v>0.455621735358564</v>
       </c>
       <c r="R13" t="n">
-        <v>0.422808002107534</v>
+        <v>0.424996706212931</v>
       </c>
       <c r="S13" t="n">
-        <v>0.408094497354139</v>
+        <v>0.433033086018365</v>
       </c>
       <c r="T13" t="n">
-        <v>0.525820654781293</v>
+        <v>0.457952546609038</v>
       </c>
       <c r="U13" t="n">
-        <v>0.546255259997651</v>
+        <v>0.521260575961105</v>
       </c>
       <c r="V13" t="n">
-        <v>0.580275382263354</v>
+        <v>0.560363344715672</v>
       </c>
       <c r="W13" t="n">
-        <v>0.499350080444063</v>
+        <v>0.50311800453371</v>
       </c>
       <c r="X13" t="n">
-        <v>0.29088981417034</v>
+        <v>0.48518565072861</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.360564432314899</v>
+        <v>0.484624607879233</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.424438619449747</v>
+        <v>0.527233730397732</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.418108638946285</v>
+        <v>0.494956884571122</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.480428199180964</v>
+        <v>0.515318565763542</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.463797662090344</v>
+        <v>0.440554017817083</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.463769993757773</v>
+        <v>0.422447411053711</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.505726777136202</v>
+        <v>0.410998795505174</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.514279384624688</v>
+        <v>0.440607391136404</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.574924770424338</v>
+        <v>0.491049536414766</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.523044355198617</v>
+        <v>0.522004119443952</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.677298500543076</v>
+        <v>0.572737880955206</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.927717786516753</v>
+        <v>0.564350298095174</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.779693272816056</v>
+        <v>0.57747953724723</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.502737869191489</v>
+        <v>0.50696086178791</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.355989261606786</v>
+        <v>0.411498610027108</v>
       </c>
     </row>
     <row r="14">
@@ -16666,118 +16666,118 @@
         <v>163</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.267904066919245</v>
+        <v>0.185251675345801</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.3185960981735</v>
+        <v>-0.963899971861078</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.70693958317019</v>
+        <v>-1.50788239511026</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.8913895071004</v>
+        <v>-1.6767332256062</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.96427069022926</v>
+        <v>-1.66498573617429</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.80150942046025</v>
+        <v>-1.63005356474881</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.549263006150669</v>
+        <v>-0.459950832778383</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.193188138226366</v>
+        <v>-0.100746569061933</v>
       </c>
       <c r="K14" t="n">
-        <v>0.254748324682158</v>
+        <v>0.208444261222317</v>
       </c>
       <c r="L14" t="n">
-        <v>0.998771111370605</v>
+        <v>0.736142004148632</v>
       </c>
       <c r="M14" t="n">
-        <v>0.743077674161709</v>
+        <v>0.890399433579548</v>
       </c>
       <c r="N14" t="n">
-        <v>0.669114014775589</v>
+        <v>0.752719609229149</v>
       </c>
       <c r="O14" t="n">
-        <v>0.596530331319151</v>
+        <v>0.740631425364499</v>
       </c>
       <c r="P14" t="n">
-        <v>0.234439453190697</v>
+        <v>0.543506802645892</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.159998401894322</v>
+        <v>0.388228448445641</v>
       </c>
       <c r="R14" t="n">
-        <v>0.394667420842369</v>
+        <v>0.467420867300894</v>
       </c>
       <c r="S14" t="n">
-        <v>0.315013039750962</v>
+        <v>0.382874138194982</v>
       </c>
       <c r="T14" t="n">
-        <v>0.244869935092806</v>
+        <v>0.280017344713396</v>
       </c>
       <c r="U14" t="n">
-        <v>0.204926819496603</v>
+        <v>0.253670026583577</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.0270216901734127</v>
+        <v>0.104986777969894</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0362780344406174</v>
+        <v>0.118727164010719</v>
       </c>
       <c r="X14" t="n">
-        <v>0.206186422158822</v>
+        <v>0.407178262083364</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.226494876347189</v>
+        <v>0.435942464065473</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0866913856585831</v>
+        <v>0.355610222365228</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.159282141138081</v>
+        <v>0.456191256959447</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0432490424763135</v>
+        <v>0.505756247398134</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0205589612124922</v>
+        <v>0.353006863447973</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.230726726024358</v>
+        <v>0.100092421911839</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.432668142906689</v>
+        <v>0.0181498548115814</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.0991062646743459</v>
+        <v>0.134695710875974</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.132706075187278</v>
+        <v>0.0879231513370861</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.306697471394533</v>
+        <v>-0.0304117043369162</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.588613233926098</v>
+        <v>-0.1876468433727</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.909559163556035</v>
+        <v>-0.155560605522842</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.47085554993974</v>
+        <v>0.140151350632734</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.247321338066443</v>
+        <v>0.227872218521672</v>
       </c>
       <c r="AM14" t="n">
-        <v>-1.27447414535202</v>
+        <v>-0.543198535343511</v>
       </c>
     </row>
     <row r="15">
@@ -16785,118 +16785,118 @@
         <v>150</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.542960867409613</v>
+        <v>-0.485207065525995</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0909173469897598</v>
+        <v>0.158483193632879</v>
       </c>
       <c r="E15" t="n">
-        <v>0.271114840928857</v>
+        <v>0.356118081157501</v>
       </c>
       <c r="F15" t="n">
-        <v>0.408820901603918</v>
+        <v>0.453815020097613</v>
       </c>
       <c r="G15" t="n">
-        <v>0.546058965990726</v>
+        <v>0.577687400304789</v>
       </c>
       <c r="H15" t="n">
-        <v>0.579602276844163</v>
+        <v>0.562670319293604</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.00157890839811546</v>
+        <v>0.0384299755482956</v>
       </c>
       <c r="J15" t="n">
-        <v>0.369024702245361</v>
+        <v>0.370072680031237</v>
       </c>
       <c r="K15" t="n">
-        <v>0.432932357807154</v>
+        <v>0.396602771758686</v>
       </c>
       <c r="L15" t="n">
-        <v>0.588952130755992</v>
+        <v>0.552348566455917</v>
       </c>
       <c r="M15" t="n">
-        <v>0.655750417616004</v>
+        <v>0.882542209445945</v>
       </c>
       <c r="N15" t="n">
-        <v>0.450771076925094</v>
+        <v>0.591408682406378</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.0953425991908405</v>
+        <v>0.0182314793492276</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.0384020248340452</v>
+        <v>0.0332699224735241</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0993691193661827</v>
+        <v>0.176461354588328</v>
       </c>
       <c r="R15" t="n">
-        <v>0.200899343623584</v>
+        <v>0.255688152316182</v>
       </c>
       <c r="S15" t="n">
-        <v>0.336164838244073</v>
+        <v>0.374793417115265</v>
       </c>
       <c r="T15" t="n">
-        <v>0.402524230947261</v>
+        <v>0.370281024470997</v>
       </c>
       <c r="U15" t="n">
-        <v>0.233286052622421</v>
+        <v>0.268257798720261</v>
       </c>
       <c r="V15" t="n">
-        <v>0.110267360501829</v>
+        <v>0.161436780029526</v>
       </c>
       <c r="W15" t="n">
-        <v>0.29317444015961</v>
+        <v>0.329553512182748</v>
       </c>
       <c r="X15" t="n">
-        <v>0.421228680829339</v>
+        <v>0.606817706545782</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.777789162152791</v>
+        <v>0.879476900497695</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.772705532315716</v>
+        <v>0.818576109105934</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.142112680142404</v>
+        <v>0.240991510747006</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.163946447266439</v>
+        <v>-0.0402736740957132</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.0952973932398598</v>
+        <v>0.0684850824223089</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0589228488841552</v>
+        <v>0.181790162747868</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.318927651320575</v>
+        <v>0.320508656400047</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.238577521321211</v>
+        <v>0.289061377704863</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.114322827044874</v>
+        <v>0.200331864350261</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.0538951665613539</v>
+        <v>0.0474689141741426</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.0684146619720121</v>
+        <v>0.163492762321862</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.743690563778499</v>
+        <v>0.481662183155053</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.85260346268465</v>
+        <v>0.612419646443948</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.267492380050724</v>
+        <v>0.361644276019678</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.223546525250862</v>
+        <v>-0.0255097313919742</v>
       </c>
     </row>
     <row r="16">
@@ -16904,118 +16904,118 @@
         <v>164</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0796931000063366</v>
+        <v>0.319873974023437</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.16794655235499</v>
+        <v>-0.13851821031735</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0120467662442666</v>
+        <v>0.103045559767759</v>
       </c>
       <c r="F16" t="n">
-        <v>0.319083677881574</v>
+        <v>0.37233183892466</v>
       </c>
       <c r="G16" t="n">
-        <v>0.603797881383651</v>
+        <v>0.631139046813798</v>
       </c>
       <c r="H16" t="n">
-        <v>0.638395146887579</v>
+        <v>0.621819592773899</v>
       </c>
       <c r="I16" t="n">
-        <v>0.612893752362661</v>
+        <v>0.564559564953127</v>
       </c>
       <c r="J16" t="n">
-        <v>0.553990018927329</v>
+        <v>0.536235166380094</v>
       </c>
       <c r="K16" t="n">
-        <v>0.465979610882728</v>
+        <v>0.419512703679142</v>
       </c>
       <c r="L16" t="n">
-        <v>0.299378627750245</v>
+        <v>0.320785865076144</v>
       </c>
       <c r="M16" t="n">
-        <v>0.141291978156759</v>
+        <v>0.35008090214404</v>
       </c>
       <c r="N16" t="n">
-        <v>0.201434253922893</v>
+        <v>0.356047563209379</v>
       </c>
       <c r="O16" t="n">
-        <v>0.585066132551726</v>
+        <v>0.687487895518719</v>
       </c>
       <c r="P16" t="n">
-        <v>0.628990092320585</v>
+        <v>0.646796962533498</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.551191744624875</v>
+        <v>0.569033880236063</v>
       </c>
       <c r="R16" t="n">
-        <v>0.560705848640653</v>
+        <v>0.510042481920467</v>
       </c>
       <c r="S16" t="n">
-        <v>0.505118603642224</v>
+        <v>0.491675960290623</v>
       </c>
       <c r="T16" t="n">
-        <v>0.510346175834963</v>
+        <v>0.452157770621968</v>
       </c>
       <c r="U16" t="n">
-        <v>0.493928851982686</v>
+        <v>0.490518892020524</v>
       </c>
       <c r="V16" t="n">
-        <v>0.402754965913046</v>
+        <v>0.419319766635615</v>
       </c>
       <c r="W16" t="n">
-        <v>0.342176202591917</v>
+        <v>0.369213267663893</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0954908078420192</v>
+        <v>0.294349250804207</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.000361476022025356</v>
+        <v>0.162938319652952</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.0470147710921228</v>
+        <v>0.125691099152662</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.015930447841957</v>
+        <v>0.12119930845951</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.235795975930699</v>
+        <v>0.291891140441281</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.451650629880649</v>
+        <v>0.433866823925157</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.370204865094512</v>
+        <v>0.360087774849252</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.359446895293855</v>
+        <v>0.341670495351274</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.293661459345044</v>
+        <v>0.327547889664048</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.337365552265682</v>
+        <v>0.353869235808319</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.269304801096626</v>
+        <v>0.323731924167565</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.306533939986503</v>
+        <v>0.325258539042255</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.18979738394199</v>
+        <v>0.247656422236672</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0.0889583213996302</v>
+        <v>0.175882983874042</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.402517672203475</v>
+        <v>-0.0474817647572048</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.00259513083178143</v>
+        <v>0.138042163148455</v>
       </c>
     </row>
     <row r="17">
@@ -17023,118 +17023,118 @@
         <v>155</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>2.44668629387225</v>
+        <v>-0.450825680930454</v>
       </c>
       <c r="D17" t="n">
-        <v>0.903903658406605</v>
+        <v>0.0844947505743112</v>
       </c>
       <c r="E17" t="n">
-        <v>1.94260071306497</v>
+        <v>1.08493213434313</v>
       </c>
       <c r="F17" t="n">
-        <v>1.64482843010794</v>
+        <v>1.05459009500741</v>
       </c>
       <c r="G17" t="n">
-        <v>0.685488581865061</v>
+        <v>-0.298030789979341</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.693013096800706</v>
+        <v>-0.236554993957992</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.273899400981984</v>
+        <v>0.121758978348808</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.2295487643052</v>
+        <v>-0.632735511623859</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.49872718643455</v>
+        <v>0.303035438825613</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.458005050919908</v>
+        <v>0.362699627880559</v>
       </c>
       <c r="M17" t="n">
-        <v>2.58913052220642</v>
+        <v>-0.024544098922948</v>
       </c>
       <c r="N17" t="n">
-        <v>2.05862472753513</v>
+        <v>0.018743720893058</v>
       </c>
       <c r="O17" t="n">
-        <v>1.62372776178671</v>
+        <v>0.348621651459093</v>
       </c>
       <c r="P17" t="n">
-        <v>0.552637461523872</v>
+        <v>0.063176414849279</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.448256710787913</v>
+        <v>-0.0628208111520947</v>
       </c>
       <c r="R17" t="n">
-        <v>0.447001383139078</v>
+        <v>-0.0021426982303082</v>
       </c>
       <c r="S17" t="n">
-        <v>1.24220056543737</v>
+        <v>0.111914388485448</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.290335849005846</v>
+        <v>-0.0826889651561376</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.14005069476811</v>
+        <v>-0.654801582240202</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.752189015363805</v>
+        <v>-0.347939496101781</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.4089549862687</v>
+        <v>-0.0971116396670176</v>
       </c>
       <c r="X17" t="n">
-        <v>2.5316703291132</v>
+        <v>0.345128354372179</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.16129056808046</v>
+        <v>0.316112852331481</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.42834365009514</v>
+        <v>-0.305574541095396</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.66383872281119</v>
+        <v>0.658722424812497</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.873539211578093</v>
+        <v>0.421611407473606</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.18030585366449</v>
+        <v>0.446600671226263</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.536725545093948</v>
+        <v>0.153773608187362</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.554694566877742</v>
+        <v>-0.120732810675143</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.173378555954639</v>
+        <v>-0.0805803968915958</v>
       </c>
       <c r="AG17" t="n">
-        <v>-1.17162861768982</v>
+        <v>-0.594625553803402</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.982585647069316</v>
+        <v>-0.418270686368533</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.897931347483945</v>
+        <v>-0.130183292077903</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.417190315215812</v>
+        <v>0.221440575936451</v>
       </c>
       <c r="AK17" t="n">
-        <v>1.91679426316234</v>
+        <v>-0.796394633570604</v>
       </c>
       <c r="AL17" t="n">
-        <v>2.11062085496984</v>
+        <v>0.0171082258314187</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.72778649746387</v>
+        <v>0.603780892211289</v>
       </c>
     </row>
     <row r="18">
@@ -17142,118 +17142,118 @@
         <v>157</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.629081251412663</v>
+        <v>1.23746754923342</v>
       </c>
       <c r="D18" t="n">
-        <v>0.178609581481138</v>
+        <v>0.374256439379682</v>
       </c>
       <c r="E18" t="n">
-        <v>0.108966628862762</v>
+        <v>0.216158170201422</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.289970514197965</v>
+        <v>-0.19546852058032</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.428468616882142</v>
+        <v>-0.301520532006739</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.13851269014614</v>
+        <v>-0.12332673344002</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.621059293906573</v>
+        <v>-0.540494045031524</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.598714782986174</v>
+        <v>-0.568240670341432</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.548807085289157</v>
+        <v>-0.482956512843433</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.622507707717099</v>
+        <v>-0.506504865937394</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.86818730240629</v>
+        <v>-0.739913209634683</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.397976312774326</v>
+        <v>-0.261704358353775</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.534264658380182</v>
+        <v>-0.404868250863109</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.391523258053492</v>
+        <v>-0.275441811314279</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.186510896024941</v>
+        <v>-0.0868022000778559</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.255116745318179</v>
+        <v>-0.103128179519964</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.163525265546527</v>
+        <v>-0.0319840869819184</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0915743860749814</v>
+        <v>-0.0566736965895914</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.128898432764774</v>
+        <v>-0.132849330250974</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.339875463387992</v>
+        <v>-0.337334454577432</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.523334438252369</v>
+        <v>-0.474162705980861</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.584175528770257</v>
+        <v>-0.477779059863984</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.502148885973711</v>
+        <v>-0.3752372278009</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.369092183431293</v>
+        <v>-0.223932746254725</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.884967793145867</v>
+        <v>-0.724134344378335</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.73750753076313</v>
+        <v>-0.562878927789515</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.702047889148853</v>
+        <v>-0.378550212484553</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.513540348960076</v>
+        <v>-0.196462515030965</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.660958307243026</v>
+        <v>-0.195932555315203</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.411192727386424</v>
+        <v>-0.19426436032778</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.232785167998531</v>
+        <v>-0.175594896838753</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.492807920979336</v>
+        <v>0.338321131600125</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.00936245017318929</v>
+        <v>-0.0561762910656874</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.103493556866781</v>
+        <v>-0.0664882039779899</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.441408622352075</v>
+        <v>-0.120351970768214</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.210323807253712</v>
+        <v>0.219973076928068</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.47460609290998</v>
+        <v>0.438045663872685</v>
       </c>
     </row>
     <row r="19">
@@ -17261,118 +17261,118 @@
         <v>165</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.270107026224717</v>
+        <v>-0.148031149137907</v>
       </c>
       <c r="D19" t="n">
-        <v>0.316886456756054</v>
+        <v>0.428133570414049</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.228287092188495</v>
+        <v>-0.132962371670545</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.381203625872547</v>
+        <v>-0.263858721375567</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.181553611612876</v>
+        <v>-0.0426328821234923</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0978629251648399</v>
+        <v>-0.0350608150105827</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.39204930892175</v>
+        <v>-0.286439923186696</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0670652546804644</v>
+        <v>-0.0239765535409531</v>
       </c>
       <c r="K19" t="n">
-        <v>0.16613891876176</v>
+        <v>0.169674151287231</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00397379106858874</v>
+        <v>0.0762540677225293</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.14978779557283</v>
+        <v>0.0360791939709767</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.308054542172846</v>
+        <v>-0.130875252657585</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.458818416647551</v>
+        <v>-0.353065200602657</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.251838040859986</v>
+        <v>-0.156799445490565</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0630943340369354</v>
+        <v>0.149383660159528</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.135329997064466</v>
+        <v>0.027421804306835</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.320653150989578</v>
+        <v>-0.0526947460397002</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.331656862381483</v>
+        <v>-0.113075196507264</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.26508061273668</v>
+        <v>-0.135665054413819</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.0644823659518854</v>
+        <v>0.0141276280313366</v>
       </c>
       <c r="W19" t="n">
-        <v>0.182471612112771</v>
+        <v>0.229204598754026</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.0786966026674219</v>
+        <v>0.116943857126001</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.16648450696336</v>
+        <v>-0.000869917749519817</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.322009918816275</v>
+        <v>-0.109188212076729</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.361692076164676</v>
+        <v>-0.225911191448237</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.294453798608319</v>
+        <v>-0.159788817628921</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0196343086810106</v>
+        <v>0.147578382571343</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.0583989904840225</v>
+        <v>0.120948310469882</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.225898934729337</v>
+        <v>0.0852200046549948</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.263740170848478</v>
+        <v>0.0168944782782183</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.277532349476047</v>
+        <v>-0.04799339181136</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.0929388403712787</v>
+        <v>0.024816734120283</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.164315988352341</v>
+        <v>0.227227221376374</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.161137420974622</v>
+        <v>0.0863096841119394</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.479842557502114</v>
+        <v>-0.0192039453046981</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.705133264111218</v>
+        <v>-0.235158014987286</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.617194144022358</v>
+        <v>-0.335894431649479</v>
       </c>
     </row>
     <row r="20">
@@ -17380,118 +17380,118 @@
         <v>147</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0398317798537977</v>
+        <v>0.267650599869832</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0866161992201764</v>
+        <v>0.154494825096794</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.194066758305104</v>
+        <v>-0.100320925487512</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.519076498653364</v>
+        <v>-0.397827487010907</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.795734921271512</v>
+        <v>-0.583813820599926</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.25730354305765</v>
+        <v>-1.08015757504822</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.26613583318072</v>
+        <v>-1.88143299898798</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.63669694137006</v>
+        <v>-2.32372301803728</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.66066568070592</v>
+        <v>-2.16972889455987</v>
       </c>
       <c r="L20" t="n">
-        <v>-2.07984070122503</v>
+        <v>-1.61609939230586</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.5217207454189</v>
+        <v>-1.39314457815573</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.08589136754715</v>
+        <v>-0.87576912345071</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.14252462678188</v>
+        <v>-1.0287074797479</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.4156707840459</v>
+        <v>-1.24444511359485</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1.1664866552263</v>
+        <v>-0.916142564364886</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.22725255351221</v>
+        <v>-0.74512405596722</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.13906143313757</v>
+        <v>-0.604264943745607</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.08461608274318</v>
+        <v>-0.624359173843267</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.715768120926984</v>
+        <v>-0.51165646486307</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.614044922862044</v>
+        <v>-0.458878870074471</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.542705452906659</v>
+        <v>-0.397418268962458</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.493554946465336</v>
+        <v>-0.293065316168386</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.255183253318098</v>
+        <v>-0.0770522209027096</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.204915871498923</v>
+        <v>0.339584599649571</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.352049576888432</v>
+        <v>0.42672589539059</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.401350270193185</v>
+        <v>0.434301717887481</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.295965730885744</v>
+        <v>0.329507422144709</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.347025670067214</v>
+        <v>0.346560789162652</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.358241069921025</v>
+        <v>0.340667007374863</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.271511312953221</v>
+        <v>0.314446457774826</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.201282325855521</v>
+        <v>0.263719096050435</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.162184044353985</v>
+        <v>0.234552076813803</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.213427158922792</v>
+        <v>0.260774294477243</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.358040020419373</v>
+        <v>0.322350852962458</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.227718708549062</v>
+        <v>0.326899469743279</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.0950606291474349</v>
+        <v>0.257847405056635</v>
       </c>
       <c r="AM20" t="n">
-        <v>-0.0127085434799633</v>
+        <v>0.129896741067199</v>
       </c>
     </row>
     <row r="21">
@@ -17499,118 +17499,118 @@
         <v>169</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.19602295906276</v>
+        <v>-1.34604487156454</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247961441102436</v>
+        <v>-1.70636494231424</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.09978672616837</v>
+        <v>-2.8863478413762</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.50175096650023</v>
+        <v>-2.96817134074543</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.60689497995572</v>
+        <v>-3.04189828403242</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.19206366124741</v>
+        <v>-2.746280770465</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.49712552176551</v>
+        <v>-3.2353708097589</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.03683708873355</v>
+        <v>-2.77481489434625</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.26987105718093</v>
+        <v>-3.03029759900745</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.899649129937045</v>
+        <v>-3.07065721570556</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.443696939209798</v>
+        <v>-2.83429419545558</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.23411423835955</v>
+        <v>-3.30935733937383</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.777256680515822</v>
+        <v>-2.93621040939437</v>
       </c>
       <c r="P21" t="n">
-        <v>-1.15133671945125</v>
+        <v>-3.01584152429849</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1.30952717208316</v>
+        <v>-3.27774307760157</v>
       </c>
       <c r="R21" t="n">
-        <v>-1.83682976659112</v>
+        <v>-3.91227602635452</v>
       </c>
       <c r="S21" t="n">
-        <v>-1.64394411709023</v>
+        <v>-4.03835680415234</v>
       </c>
       <c r="T21" t="n">
-        <v>-1.69500434501734</v>
+        <v>-3.99544557735051</v>
       </c>
       <c r="U21" t="n">
-        <v>-1.1108512039828</v>
+        <v>-3.45922478844275</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.989433336322836</v>
+        <v>-3.13636416885564</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.74325073059813</v>
+        <v>-2.74736124961411</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.690223445275435</v>
+        <v>-2.82898572431785</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.779388250918035</v>
+        <v>-3.21639688356456</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.843823021136275</v>
+        <v>-3.49040525099971</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.90023544052442</v>
+        <v>-3.2018627383858</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.938932278584812</v>
+        <v>-3.23906119636847</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.41883357291507</v>
+        <v>-4.03417560809848</v>
       </c>
       <c r="AD21" t="n">
-        <v>-1.49566147148396</v>
+        <v>-4.15961003428798</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1.56773132063836</v>
+        <v>-4.36933893229541</v>
       </c>
       <c r="AF21" t="n">
-        <v>-1.20876009786442</v>
+        <v>-4.1335752667641</v>
       </c>
       <c r="AG21" t="n">
-        <v>-1.14107489589891</v>
+        <v>-3.89517226637275</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.541592515728055</v>
+        <v>-3.27787138157372</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.864059467594614</v>
+        <v>-3.71042419685112</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-1.26544203442647</v>
+        <v>-4.31119445272425</v>
       </c>
       <c r="AK21" t="n">
-        <v>-1.27951893099411</v>
+        <v>-4.26221365613121</v>
       </c>
       <c r="AL21" t="n">
-        <v>-1.11939996069883</v>
+        <v>-4.21409055771755</v>
       </c>
       <c r="AM21" t="n">
-        <v>-0.909778505929621</v>
+        <v>-3.68175511441923</v>
       </c>
     </row>
     <row r="22">
@@ -17618,118 +17618,118 @@
         <v>161</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.194940270521768</v>
+        <v>-0.0413206361884287</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.05169511825044</v>
+        <v>-1.15517859843098</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.59543142241449</v>
+        <v>-1.48227832749201</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.40451304252054</v>
+        <v>-1.21155472965077</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.37649858108681</v>
+        <v>-1.08788751137776</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.29976723456616</v>
+        <v>-1.11804170893321</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.3049475464305</v>
+        <v>-1.06446060095701</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.667384416195962</v>
+        <v>-0.558184794967491</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.21181430218346</v>
+        <v>-0.969651536214116</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.6072765250439</v>
+        <v>-1.23130044484677</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.3437264414987</v>
+        <v>-1.20653847700066</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.917343187260957</v>
+        <v>-0.714358072092988</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.559724859374611</v>
+        <v>-0.449727047557591</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.308864619447057</v>
+        <v>-0.22059992525653</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.275878435428509</v>
+        <v>-0.14590889294267</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.428973308827227</v>
+        <v>-0.184600747029285</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.497434125587342</v>
+        <v>-0.176365160708581</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.463293642032941</v>
+        <v>-0.20466677414134</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.235324628968977</v>
+        <v>-0.113112880067006</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.180120720441725</v>
+        <v>-0.0834166108529202</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.398002452255782</v>
+        <v>-0.271445083237368</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.596973024104461</v>
+        <v>-0.395814173010072</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.720314977026719</v>
+        <v>-0.513057747883079</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.666778950999924</v>
+        <v>-0.401425142755058</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.342682669944333</v>
+        <v>-0.204998366197118</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.347890436631219</v>
+        <v>-0.211261921952341</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.427762263854394</v>
+        <v>-0.152213085156848</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.565378798441324</v>
+        <v>-0.170213688941867</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.63836119489762</v>
+        <v>-0.101007997378425</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.627435981140471</v>
+        <v>-0.18738963541884</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.543857255439938</v>
+        <v>-0.222522231085648</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.378083078517391</v>
+        <v>-0.205685148749715</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.732201335233827</v>
+        <v>-0.379612096608644</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-1.6499389651389</v>
+        <v>-0.578178790796493</v>
       </c>
       <c r="AK22" t="n">
-        <v>-1.78590797252548</v>
+        <v>-0.637042778204635</v>
       </c>
       <c r="AL22" t="n">
-        <v>-1.4623542677654</v>
+        <v>-0.69915436495512</v>
       </c>
       <c r="AM22" t="n">
-        <v>-1.49268743353787</v>
+        <v>-1.00101526241834</v>
       </c>
     </row>
     <row r="23">
@@ -17737,118 +17737,118 @@
         <v>156</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0238582224237219</v>
+        <v>0.224740549586969</v>
       </c>
       <c r="D23" t="n">
-        <v>0.206360620122087</v>
+        <v>0.235637829983193</v>
       </c>
       <c r="E23" t="n">
-        <v>0.493940825123678</v>
+        <v>0.580292290504562</v>
       </c>
       <c r="F23" t="n">
-        <v>0.505821992631051</v>
+        <v>0.544854661858724</v>
       </c>
       <c r="G23" t="n">
-        <v>0.577923369483758</v>
+        <v>0.608812964763207</v>
       </c>
       <c r="H23" t="n">
-        <v>0.563441190788509</v>
+        <v>0.558880595984117</v>
       </c>
       <c r="I23" t="n">
-        <v>0.617228329594716</v>
+        <v>0.560035864197727</v>
       </c>
       <c r="J23" t="n">
-        <v>0.552521787723947</v>
+        <v>0.537562301829285</v>
       </c>
       <c r="K23" t="n">
-        <v>0.446595892789664</v>
+        <v>0.411578214138718</v>
       </c>
       <c r="L23" t="n">
-        <v>0.348901134084142</v>
+        <v>0.363805081871349</v>
       </c>
       <c r="M23" t="n">
-        <v>0.156621336075026</v>
+        <v>0.362008440230718</v>
       </c>
       <c r="N23" t="n">
-        <v>0.238409106620021</v>
+        <v>0.39755110328897</v>
       </c>
       <c r="O23" t="n">
-        <v>0.278445256413589</v>
+        <v>0.363973631543492</v>
       </c>
       <c r="P23" t="n">
-        <v>0.352798527255374</v>
+        <v>0.367523120552479</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.361416793369262</v>
+        <v>0.398616489327622</v>
       </c>
       <c r="R23" t="n">
-        <v>0.343666306615919</v>
+        <v>0.355715678185657</v>
       </c>
       <c r="S23" t="n">
-        <v>0.303466423267518</v>
+        <v>0.353418139089779</v>
       </c>
       <c r="T23" t="n">
-        <v>0.397382487400384</v>
+        <v>0.372269052858151</v>
       </c>
       <c r="U23" t="n">
-        <v>0.466789047628606</v>
+        <v>0.460060964670735</v>
       </c>
       <c r="V23" t="n">
-        <v>0.416154768891758</v>
+        <v>0.426514484518909</v>
       </c>
       <c r="W23" t="n">
-        <v>0.319950641038293</v>
+        <v>0.348081423570938</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0998040120199669</v>
+        <v>0.300333673983654</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.127937655139132</v>
+        <v>0.26830860952153</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.116404962554692</v>
+        <v>0.253057778028699</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.198036513631656</v>
+        <v>0.266890913979484</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.25023173982119</v>
+        <v>0.28440248386359</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.272632856336096</v>
+        <v>0.299753493369786</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.282453588196739</v>
+        <v>0.305626788185976</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.308544670384962</v>
+        <v>0.313873464113353</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.338042872903764</v>
+        <v>0.345380688303203</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.422596239046945</v>
+        <v>0.403234443801478</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.353897867692309</v>
+        <v>0.384338892292873</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.400556757004516</v>
+        <v>0.375590635393739</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.412795205303554</v>
+        <v>0.331649619298828</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.225934374232306</v>
+        <v>0.304683386633112</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.193247529122933</v>
+        <v>0.309011257783374</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.358292119639118</v>
+        <v>0.39879526159143</v>
       </c>
     </row>
     <row r="24">
@@ -17856,118 +17856,118 @@
         <v>152</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0862247043915546</v>
+        <v>0.328465741920295</v>
       </c>
       <c r="D24" t="n">
-        <v>0.418699449401569</v>
+        <v>0.536425277402066</v>
       </c>
       <c r="E24" t="n">
-        <v>0.486160207622218</v>
+        <v>0.570642233521676</v>
       </c>
       <c r="F24" t="n">
-        <v>0.521953329968002</v>
+        <v>0.558759305002648</v>
       </c>
       <c r="G24" t="n">
-        <v>0.624088362426965</v>
+        <v>0.648752448333592</v>
       </c>
       <c r="H24" t="n">
-        <v>0.641048738949574</v>
+        <v>0.624201670115562</v>
       </c>
       <c r="I24" t="n">
-        <v>0.686000975280044</v>
+        <v>0.626658299338197</v>
       </c>
       <c r="J24" t="n">
-        <v>0.675553749876784</v>
+        <v>0.645168965859416</v>
       </c>
       <c r="K24" t="n">
-        <v>0.556693019919926</v>
+        <v>0.49462438149504</v>
       </c>
       <c r="L24" t="n">
-        <v>0.527390657286398</v>
+        <v>0.50640046160775</v>
       </c>
       <c r="M24" t="n">
-        <v>0.274189776255879</v>
+        <v>0.489385176621596</v>
       </c>
       <c r="N24" t="n">
-        <v>0.28649076096043</v>
+        <v>0.43742456962446</v>
       </c>
       <c r="O24" t="n">
-        <v>0.36012942831652</v>
+        <v>0.464040602879074</v>
       </c>
       <c r="P24" t="n">
-        <v>0.432388472813836</v>
+        <v>0.464957596781463</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.358693190804922</v>
+        <v>0.402627903807086</v>
       </c>
       <c r="R24" t="n">
-        <v>0.362302304273458</v>
+        <v>0.370784104937502</v>
       </c>
       <c r="S24" t="n">
-        <v>0.343269709019065</v>
+        <v>0.383830027127028</v>
       </c>
       <c r="T24" t="n">
-        <v>0.449301715425728</v>
+        <v>0.410977207302088</v>
       </c>
       <c r="U24" t="n">
-        <v>0.532793944513362</v>
+        <v>0.522689904307363</v>
       </c>
       <c r="V24" t="n">
-        <v>0.514211365148498</v>
+        <v>0.515459384714611</v>
       </c>
       <c r="W24" t="n">
-        <v>0.445097224998927</v>
+        <v>0.458300424891352</v>
       </c>
       <c r="X24" t="n">
-        <v>0.249606264399008</v>
+        <v>0.447956507581323</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.252827647086484</v>
+        <v>0.399746403752637</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.260592295543244</v>
+        <v>0.387300377524479</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.315472936075423</v>
+        <v>0.393661045815465</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.369404161796528</v>
+        <v>0.407068856333249</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.320612454216117</v>
+        <v>0.346536300010951</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.331177897979644</v>
+        <v>0.337966892371658</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.371346158641176</v>
+        <v>0.34694945535197</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.389889372380136</v>
+        <v>0.381342098610943</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.522682126441948</v>
+        <v>0.475081929359114</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.467192730945115</v>
+        <v>0.485565527457147</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.55962638376498</v>
+        <v>0.497008375946894</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.773538591251667</v>
+        <v>0.509694180281456</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.560699122050535</v>
+        <v>0.487093644132937</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.436464157978214</v>
+        <v>0.468368009712401</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.671811264828821</v>
+        <v>0.653570883176097</v>
       </c>
     </row>
     <row r="25">
@@ -17975,118 +17975,118 @@
         <v>167</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.321440277043297</v>
+        <v>1.24264552552673</v>
       </c>
       <c r="D25" t="n">
-        <v>1.01689369073232</v>
+        <v>1.50911444923548</v>
       </c>
       <c r="E25" t="n">
-        <v>0.215143525628018</v>
+        <v>0.175473149929376</v>
       </c>
       <c r="F25" t="n">
-        <v>0.599727094527775</v>
+        <v>0.630014961214113</v>
       </c>
       <c r="G25" t="n">
-        <v>0.407384463476201</v>
+        <v>0.457068497150784</v>
       </c>
       <c r="H25" t="n">
-        <v>0.691083371726828</v>
+        <v>0.706196554168507</v>
       </c>
       <c r="I25" t="n">
-        <v>0.985851368968539</v>
+        <v>0.776413979518979</v>
       </c>
       <c r="J25" t="n">
-        <v>0.779472771487556</v>
+        <v>0.814260285649091</v>
       </c>
       <c r="K25" t="n">
-        <v>1.04557115305057</v>
+        <v>0.974571537410589</v>
       </c>
       <c r="L25" t="n">
-        <v>0.860799663880773</v>
+        <v>0.709290464025544</v>
       </c>
       <c r="M25" t="n">
-        <v>0.342339311729114</v>
+        <v>0.766943865780705</v>
       </c>
       <c r="N25" t="n">
-        <v>0.186224595076353</v>
+        <v>0.37501378595455</v>
       </c>
       <c r="O25" t="n">
-        <v>0.273227516806886</v>
+        <v>0.577760303416214</v>
       </c>
       <c r="P25" t="n">
-        <v>0.556004637042852</v>
+        <v>0.71549275927872</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.19860170487012</v>
+        <v>0.180311983176445</v>
       </c>
       <c r="R25" t="n">
-        <v>0.804424245545326</v>
+        <v>0.673723821710769</v>
       </c>
       <c r="S25" t="n">
-        <v>0.496939442607605</v>
+        <v>0.474945329385768</v>
       </c>
       <c r="T25" t="n">
-        <v>0.582578302906429</v>
+        <v>0.527010616785874</v>
       </c>
       <c r="U25" t="n">
-        <v>0.503637728363453</v>
+        <v>0.413742370667308</v>
       </c>
       <c r="V25" t="n">
-        <v>0.667512719536193</v>
+        <v>0.695517360069197</v>
       </c>
       <c r="W25" t="n">
-        <v>0.872502861480326</v>
+        <v>0.870518978106877</v>
       </c>
       <c r="X25" t="n">
-        <v>0.43175469852672</v>
+        <v>0.582173643587217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.464947640808415</v>
+        <v>0.725366847729223</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.495410673092184</v>
+        <v>0.6107264441967</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.426046892275303</v>
+        <v>0.632743474494956</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.478244179368547</v>
+        <v>0.611112817675544</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.195605017214276</v>
+        <v>0.188666862357407</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.747140925117123</v>
+        <v>0.567636016937276</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.769823187293745</v>
+        <v>0.515622822134268</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.590417309205785</v>
+        <v>0.511134096969007</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.905259166762443</v>
+        <v>0.654989611558548</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.79036918195102</v>
+        <v>0.789684011620577</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.03605151743114</v>
+        <v>0.863114548143691</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.695831238998115</v>
+        <v>0.417335804653394</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.840135550454242</v>
+        <v>0.750692127591137</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.401925491415306</v>
+        <v>0.467454661350689</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.450885898086805</v>
+        <v>0.607844707937344</v>
       </c>
     </row>
   </sheetData>
@@ -18122,13 +18122,13 @@
         <v>151</v>
       </c>
       <c r="B2" t="n">
-        <v>0.216939747451051</v>
+        <v>0.0506104328798694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -18136,7 +18136,7 @@
         <v>151</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0861990286954311</v>
+        <v>0.0559512417652377</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18150,7 +18150,7 @@
         <v>151</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0575003770438947</v>
+        <v>0.0408364071990652</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18164,13 +18164,13 @@
         <v>151</v>
       </c>
       <c r="B5" t="n">
-        <v>0.154798528676857</v>
+        <v>0.0716829198753344</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -18178,7 +18178,7 @@
         <v>151</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11364700783807</v>
+        <v>0.0596336862976078</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18192,7 +18192,7 @@
         <v>151</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0194520317475085</v>
+        <v>-0.0540607836973307</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18206,7 +18206,7 @@
         <v>151</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0511379452685869</v>
+        <v>-0.0157081255411495</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -18248,7 +18248,7 @@
         <v>169</v>
       </c>
       <c r="B2" t="n">
-        <v>0.150631698876498</v>
+        <v>0.00000254791552955238</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>169</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0529835311549665</v>
+        <v>-0.0190677877019813</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18276,7 +18276,7 @@
         <v>169</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122958956068533</v>
+        <v>-0.0177012228603464</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18290,13 +18290,13 @@
         <v>169</v>
       </c>
       <c r="B5" t="n">
-        <v>0.154748127599502</v>
+        <v>-0.0153741084780115</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -18304,13 +18304,13 @@
         <v>169</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0258459254745544</v>
+        <v>-0.0203689229799539</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -18318,7 +18318,7 @@
         <v>169</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0403159408546249</v>
+        <v>-0.0198784237307329</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18332,7 +18332,7 @@
         <v>169</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0212030706158458</v>
+        <v>-0.017945718389208</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -18374,7 +18374,7 @@
         <v>161</v>
       </c>
       <c r="B2" t="n">
-        <v>0.141666800881619</v>
+        <v>0.141666710197828</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18388,7 +18388,7 @@
         <v>161</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0885695847774205</v>
+        <v>0.0885698887064939</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18402,7 +18402,7 @@
         <v>161</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0901305562957178</v>
+        <v>0.0901312680809082</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18416,7 +18416,7 @@
         <v>161</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0179340971517721</v>
+        <v>-0.0179335197138523</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -18430,7 +18430,7 @@
         <v>161</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.12416371376571</v>
+        <v>-0.12415619809355</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18444,7 +18444,7 @@
         <v>161</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.102116381928718</v>
+        <v>-0.102106292170843</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18458,7 +18458,7 @@
         <v>161</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0515728362938391</v>
+        <v>-0.0515672975918212</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -18500,7 +18500,7 @@
         <v>147</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0646097537387787</v>
+        <v>0.065182661664932</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18514,7 +18514,7 @@
         <v>147</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0809610834806987</v>
+        <v>-0.0804957283603967</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18528,7 +18528,7 @@
         <v>147</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0548598242950685</v>
+        <v>-0.054468112267756</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18542,7 +18542,7 @@
         <v>147</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0126384866021218</v>
+        <v>-0.0124778229933941</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -18556,7 +18556,7 @@
         <v>147</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0421542921934234</v>
+        <v>-0.0423320146763952</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18570,7 +18570,7 @@
         <v>147</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0237800269635134</v>
+        <v>-0.023929965168474</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18584,7 +18584,7 @@
         <v>147</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0261785371467998</v>
+        <v>-0.0262939949998652</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -18626,7 +18626,7 @@
         <v>163</v>
       </c>
       <c r="B2" t="n">
-        <v>0.249470684345819</v>
+        <v>0.201914779288592</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18640,7 +18640,7 @@
         <v>163</v>
       </c>
       <c r="B3" t="n">
-        <v>0.152273071511874</v>
+        <v>0.148300551439477</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18654,7 +18654,7 @@
         <v>163</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0792393819018424</v>
+        <v>0.0744599694531033</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18668,7 +18668,7 @@
         <v>163</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00264186100154154</v>
+        <v>-0.0239669879883275</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -18682,7 +18682,7 @@
         <v>163</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0601783805887382</v>
+        <v>-0.0862158866845298</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18696,7 +18696,7 @@
         <v>163</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0466871165075032</v>
+        <v>-0.075411300118445</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18710,7 +18710,7 @@
         <v>163</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0291766687304755</v>
+        <v>-0.0331661625624169</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -18752,7 +18752,7 @@
         <v>165</v>
       </c>
       <c r="B2" t="n">
-        <v>0.232823251341875</v>
+        <v>0.235308755899629</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18766,7 +18766,7 @@
         <v>165</v>
       </c>
       <c r="B3" t="n">
-        <v>0.124385783899241</v>
+        <v>0.124677278565456</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18780,7 +18780,7 @@
         <v>165</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0613220882100216</v>
+        <v>0.0591319186818869</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18794,7 +18794,7 @@
         <v>165</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00463650194317341</v>
+        <v>0.00332057981768737</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -18808,7 +18808,7 @@
         <v>165</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0807610990053768</v>
+        <v>-0.083179897526407</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18822,7 +18822,7 @@
         <v>165</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0861254323536415</v>
+        <v>-0.0858295665581221</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18836,7 +18836,7 @@
         <v>165</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00200840602309486</v>
+        <v>0.000293829369945932</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>

--- a/outcome/appendix/Figure Data/Fig.7 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.7 data.xlsx
@@ -12018,7 +12018,7 @@
         <v>157</v>
       </c>
       <c r="B2" t="n">
-        <v>0.676357450359586</v>
+        <v>0.417402132826157</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>157</v>
       </c>
       <c r="B3" t="n">
-        <v>0.13202638183951</v>
+        <v>0.0645657491140729</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -12046,7 +12046,7 @@
         <v>157</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0693342671009599</v>
+        <v>0.00552447850340591</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -12060,7 +12060,7 @@
         <v>157</v>
       </c>
       <c r="B5" t="n">
-        <v>0.22099911154817</v>
+        <v>0.143589892917742</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -12074,7 +12074,7 @@
         <v>157</v>
       </c>
       <c r="B6" t="n">
-        <v>0.110716432749145</v>
+        <v>0.101229611648715</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -12088,7 +12088,7 @@
         <v>157</v>
       </c>
       <c r="B7" t="n">
-        <v>0.030071891384306</v>
+        <v>0.0587029751998855</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -12102,7 +12102,7 @@
         <v>157</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0495698236169596</v>
+        <v>0.0756398444406429</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -12249,118 +12249,118 @@
         <v>168</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.315811897171963</v>
+        <v>0.426046949694894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.843966155581639</v>
+        <v>1.0625102112142</v>
       </c>
       <c r="E2" t="n">
-        <v>0.37344026734281</v>
+        <v>0.378647979510593</v>
       </c>
       <c r="F2" t="n">
-        <v>0.27959322944577</v>
+        <v>0.269838230393359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.344763073286142</v>
+        <v>0.367074336730702</v>
       </c>
       <c r="H2" t="n">
-        <v>0.269309087699605</v>
+        <v>0.218236990694101</v>
       </c>
       <c r="I2" t="n">
-        <v>0.122920237771008</v>
+        <v>0.0315553081898409</v>
       </c>
       <c r="J2" t="n">
-        <v>0.120975817951058</v>
+        <v>0.0298476752598454</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.115911166318337</v>
+        <v>-0.261989854160963</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0340601787590035</v>
+        <v>-0.128241016902339</v>
       </c>
       <c r="M2" t="n">
-        <v>0.244404067025143</v>
+        <v>0.151643961492976</v>
       </c>
       <c r="N2" t="n">
-        <v>0.33191739835863</v>
+        <v>0.290047668759947</v>
       </c>
       <c r="O2" t="n">
-        <v>0.449983017754709</v>
+        <v>0.529123747169501</v>
       </c>
       <c r="P2" t="n">
-        <v>0.498240432082183</v>
+        <v>0.643972798790711</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.364959444112395</v>
+        <v>0.423369500460557</v>
       </c>
       <c r="R2" t="n">
-        <v>0.224907837660199</v>
+        <v>0.236246871297102</v>
       </c>
       <c r="S2" t="n">
-        <v>0.12020759370001</v>
+        <v>-0.0361745716006398</v>
       </c>
       <c r="T2" t="n">
-        <v>0.023472068603836</v>
+        <v>-0.194669962399694</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0630461484473585</v>
+        <v>-0.0952376605928651</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0427805354635572</v>
+        <v>-0.196020771330821</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0338620206943176</v>
+        <v>-0.197311374277463</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0480240287411272</v>
+        <v>-0.0969345142510729</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.157593783864313</v>
+        <v>0.0482315258114928</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.232524341918607</v>
+        <v>0.141723366077089</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.220289374585252</v>
+        <v>0.181896488482023</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.289552835806442</v>
+        <v>0.284666813873878</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.254967527765052</v>
+        <v>0.253413544494156</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.231817171615408</v>
+        <v>0.232465582202618</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.176273076390374</v>
+        <v>0.0610977413269705</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.13125244233893</v>
+        <v>-0.0642004628060649</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0677977130223224</v>
+        <v>-0.160531586736722</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.0290197997057591</v>
+        <v>-0.220052356300212</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.051443824759745</v>
+        <v>-0.378506405375448</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0691600957601061</v>
+        <v>-0.278003606308568</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.15271950899421</v>
+        <v>-0.0265751297885489</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.323833986109454</v>
+        <v>0.295451508589945</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.295247491765555</v>
+        <v>0.249293060549643</v>
       </c>
     </row>
     <row r="3">
@@ -12368,118 +12368,118 @@
         <v>146</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.084612057090489</v>
+        <v>-0.333539486623809</v>
       </c>
       <c r="D3" t="n">
-        <v>0.397980647205367</v>
+        <v>0.478836868714389</v>
       </c>
       <c r="E3" t="n">
-        <v>0.586516083022124</v>
+        <v>0.637582623352301</v>
       </c>
       <c r="F3" t="n">
-        <v>0.61907338711961</v>
+        <v>0.690657794563761</v>
       </c>
       <c r="G3" t="n">
-        <v>0.619086853017352</v>
+        <v>0.680527176173379</v>
       </c>
       <c r="H3" t="n">
-        <v>0.638153150629753</v>
+        <v>0.660895290455039</v>
       </c>
       <c r="I3" t="n">
-        <v>0.482307457063291</v>
+        <v>0.492840339678858</v>
       </c>
       <c r="J3" t="n">
-        <v>0.503541540200215</v>
+        <v>0.489628625368052</v>
       </c>
       <c r="K3" t="n">
-        <v>0.555572144813399</v>
+        <v>0.564279292048458</v>
       </c>
       <c r="L3" t="n">
-        <v>0.250356760848417</v>
+        <v>0.198051341625148</v>
       </c>
       <c r="M3" t="n">
-        <v>0.289780918230744</v>
+        <v>0.25283117021525</v>
       </c>
       <c r="N3" t="n">
-        <v>0.383021592362611</v>
+        <v>0.378225330764708</v>
       </c>
       <c r="O3" t="n">
-        <v>0.36856754428464</v>
+        <v>0.415571194740238</v>
       </c>
       <c r="P3" t="n">
-        <v>0.392892978679295</v>
+        <v>0.49524820998746</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.405002079827941</v>
+        <v>0.460192393238629</v>
       </c>
       <c r="R3" t="n">
-        <v>0.338176864954786</v>
+        <v>0.413344718738891</v>
       </c>
       <c r="S3" t="n">
-        <v>0.308981894640224</v>
+        <v>0.317923590674284</v>
       </c>
       <c r="T3" t="n">
-        <v>0.360423628466529</v>
+        <v>0.383597759729229</v>
       </c>
       <c r="U3" t="n">
-        <v>0.098914257461055</v>
+        <v>0.0140998717034119</v>
       </c>
       <c r="V3" t="n">
-        <v>0.34804461852049</v>
+        <v>0.308210429514966</v>
       </c>
       <c r="W3" t="n">
-        <v>0.28441338043829</v>
+        <v>0.245183911657346</v>
       </c>
       <c r="X3" t="n">
-        <v>0.374780554775159</v>
+        <v>0.323871841229985</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.338343973003982</v>
+        <v>0.303228849989014</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.349407224787969</v>
+        <v>0.341286764427152</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.24269953492374</v>
+        <v>0.227299121680478</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.331542772714929</v>
+        <v>0.347079883779876</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.259892001357059</v>
+        <v>0.263036756785703</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.251357192998495</v>
+        <v>0.278541452167201</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.271751462139807</v>
+        <v>0.312108247337968</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.299913616927582</v>
+        <v>0.280898399557068</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.245766576359896</v>
+        <v>0.187822570924726</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.250593600754847</v>
+        <v>0.182774648061316</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.23149330261107</v>
+        <v>0.180568465096126</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.230927718836964</v>
+        <v>0.175057637399552</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.214518257610008</v>
+        <v>0.20467258503988</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.481826694109741</v>
+        <v>0.67741253284327</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.257674957250013</v>
+        <v>0.240400478422615</v>
       </c>
     </row>
     <row r="4">
@@ -12487,118 +12487,118 @@
         <v>149</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.503904157344022</v>
+        <v>0.666882741898576</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.169657905504366</v>
+        <v>-0.247244978053527</v>
       </c>
       <c r="E4" t="n">
-        <v>0.597167696387007</v>
+        <v>0.643144368352392</v>
       </c>
       <c r="F4" t="n">
-        <v>0.637345205375673</v>
+        <v>0.707111095512997</v>
       </c>
       <c r="G4" t="n">
-        <v>0.61898976525886</v>
+        <v>0.666686419675645</v>
       </c>
       <c r="H4" t="n">
-        <v>0.614039877072675</v>
+        <v>0.613457218706329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.545806043991785</v>
+        <v>0.531783556223493</v>
       </c>
       <c r="J4" t="n">
-        <v>0.623364423200868</v>
+        <v>0.578835163889981</v>
       </c>
       <c r="K4" t="n">
-        <v>0.629573981392636</v>
+        <v>0.608905949314496</v>
       </c>
       <c r="L4" t="n">
-        <v>0.636126144125787</v>
+        <v>0.572740666583791</v>
       </c>
       <c r="M4" t="n">
-        <v>0.714814437213349</v>
+        <v>0.664276993383135</v>
       </c>
       <c r="N4" t="n">
-        <v>0.652793589068983</v>
+        <v>0.702041464310658</v>
       </c>
       <c r="O4" t="n">
-        <v>0.684570063723412</v>
+        <v>0.849184539632369</v>
       </c>
       <c r="P4" t="n">
-        <v>0.718818763335399</v>
+        <v>0.912101406511699</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.726627757299202</v>
+        <v>0.842433747497941</v>
       </c>
       <c r="R4" t="n">
-        <v>0.627735430860111</v>
+        <v>0.835602014863872</v>
       </c>
       <c r="S4" t="n">
-        <v>0.597547083378712</v>
+        <v>0.776513538295936</v>
       </c>
       <c r="T4" t="n">
-        <v>0.695445061576603</v>
+        <v>0.851667833172564</v>
       </c>
       <c r="U4" t="n">
-        <v>0.782831557261801</v>
+        <v>0.816640525084861</v>
       </c>
       <c r="V4" t="n">
-        <v>0.738504460914825</v>
+        <v>0.646079348095738</v>
       </c>
       <c r="W4" t="n">
-        <v>0.71905083760602</v>
+        <v>0.604217000970868</v>
       </c>
       <c r="X4" t="n">
-        <v>0.592372425852885</v>
+        <v>0.505007641117465</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.586337517184775</v>
+        <v>0.552556573040205</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.709205699968716</v>
+        <v>0.80609352997936</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.700406198546634</v>
+        <v>0.701361002318812</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.750474328522252</v>
+        <v>0.81702998349044</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.620639269541468</v>
+        <v>0.970792255913596</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.563912324200485</v>
+        <v>0.748866702048144</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.540543631479494</v>
+        <v>0.848919810583926</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.606702586342545</v>
+        <v>0.741790974921698</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.714560125626292</v>
+        <v>0.78856494662275</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.7020106681442</v>
+        <v>0.592758673312471</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.743612123867899</v>
+        <v>0.731423860594118</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.484536436601087</v>
+        <v>0.535633806170235</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.541090748606368</v>
+        <v>0.746031546788487</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.50972177735789</v>
+        <v>0.665319765601511</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.663812457915978</v>
+        <v>0.788980235380392</v>
       </c>
     </row>
     <row r="5">
@@ -12606,118 +12606,118 @@
         <v>151</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.96015906684522</v>
+        <v>-2.90564353462198</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.38344607775983</v>
+        <v>-1.24750922253435</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.27387687364705</v>
+        <v>-0.566402491241396</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.11639649425073</v>
+        <v>-1.67585719545504</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.01116475904036</v>
+        <v>-1.92369119498721</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.21235402872972</v>
+        <v>-2.59321969735042</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.37238345267531</v>
+        <v>-2.05785487809093</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.88168933878274</v>
+        <v>-2.98305477062428</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.80778176366102</v>
+        <v>-2.98063245003017</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.13772471847246</v>
+        <v>-3.10697067299784</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.44774525177845</v>
+        <v>-3.48819312691183</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.60699619655418</v>
+        <v>-3.23131873103309</v>
       </c>
       <c r="O5" t="n">
-        <v>-2.91985977141963</v>
+        <v>-3.01264185163693</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.8572737338258</v>
+        <v>-2.55473104964823</v>
       </c>
       <c r="Q5" t="n">
-        <v>-2.83698255492569</v>
+        <v>-3.47858860547356</v>
       </c>
       <c r="R5" t="n">
-        <v>-2.00535809952579</v>
+        <v>-2.16491211494114</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.86936407982121</v>
+        <v>-2.9493863817829</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.8569725311114</v>
+        <v>-3.10764534189384</v>
       </c>
       <c r="U5" t="n">
-        <v>-2.53116069124798</v>
+        <v>-3.76669736434522</v>
       </c>
       <c r="V5" t="n">
-        <v>-2.9687692078349</v>
+        <v>-4.1179548562989</v>
       </c>
       <c r="W5" t="n">
-        <v>-3.35576761166691</v>
+        <v>-4.26759573664715</v>
       </c>
       <c r="X5" t="n">
-        <v>-3.35363461728754</v>
+        <v>-4.27678131110968</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.94930804800494</v>
+        <v>-4.17901209034066</v>
       </c>
       <c r="Z5" t="n">
-        <v>-2.65910959817198</v>
+        <v>-3.94039905451569</v>
       </c>
       <c r="AA5" t="n">
-        <v>-2.96902144662102</v>
+        <v>-4.18047347762304</v>
       </c>
       <c r="AB5" t="n">
-        <v>-2.96723940224113</v>
+        <v>-4.12124767213248</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.02360338397157</v>
+        <v>-3.0943645788427</v>
       </c>
       <c r="AD5" t="n">
-        <v>-1.82095838875594</v>
+        <v>-3.7442039410595</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1.27705123947802</v>
+        <v>-3.12703092705234</v>
       </c>
       <c r="AF5" t="n">
-        <v>-1.82620846610483</v>
+        <v>-4.00428567279558</v>
       </c>
       <c r="AG5" t="n">
-        <v>-2.04567250884134</v>
+        <v>-3.91114692994197</v>
       </c>
       <c r="AH5" t="n">
-        <v>-2.95533353920059</v>
+        <v>-4.37565229515948</v>
       </c>
       <c r="AI5" t="n">
-        <v>-2.34641337491473</v>
+        <v>-4.18807305291148</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-1.17709983863054</v>
+        <v>-3.78697620387944</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.682883003933189</v>
+        <v>-3.01947339047943</v>
       </c>
       <c r="AL5" t="n">
-        <v>-1.42310522020745</v>
+        <v>-3.26504143972603</v>
       </c>
       <c r="AM5" t="n">
-        <v>-2.05504958917668</v>
+        <v>-3.25555907314248</v>
       </c>
     </row>
     <row r="6">
@@ -12725,118 +12725,118 @@
         <v>160</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.598958914910989</v>
+        <v>0.890591239428844</v>
       </c>
       <c r="D6" t="n">
-        <v>0.481489750803344</v>
+        <v>0.581978765568983</v>
       </c>
       <c r="E6" t="n">
-        <v>0.564936442366924</v>
+        <v>0.60694315856013</v>
       </c>
       <c r="F6" t="n">
-        <v>0.474888444353306</v>
+        <v>0.504963399415994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.607730024927397</v>
+        <v>0.668339450662212</v>
       </c>
       <c r="H6" t="n">
-        <v>0.60191881005427</v>
+        <v>0.620066674859277</v>
       </c>
       <c r="I6" t="n">
-        <v>0.516924996035842</v>
+        <v>0.53553208183547</v>
       </c>
       <c r="J6" t="n">
-        <v>0.480763602274864</v>
+        <v>0.467427804728806</v>
       </c>
       <c r="K6" t="n">
-        <v>0.305672134796987</v>
+        <v>0.304886153192708</v>
       </c>
       <c r="L6" t="n">
-        <v>0.317532198830614</v>
+        <v>0.276469432399001</v>
       </c>
       <c r="M6" t="n">
-        <v>0.347486649771238</v>
+        <v>0.31710600389885</v>
       </c>
       <c r="N6" t="n">
-        <v>0.433676324861738</v>
+        <v>0.448382040157835</v>
       </c>
       <c r="O6" t="n">
-        <v>0.448245221061097</v>
+        <v>0.538617255378813</v>
       </c>
       <c r="P6" t="n">
-        <v>0.512457859133723</v>
+        <v>0.662034854219963</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.461682092376658</v>
+        <v>0.529953182561569</v>
       </c>
       <c r="R6" t="n">
-        <v>0.383821430808011</v>
+        <v>0.48684447945585</v>
       </c>
       <c r="S6" t="n">
-        <v>0.360815458244711</v>
+        <v>0.41235114897598</v>
       </c>
       <c r="T6" t="n">
-        <v>0.393326648174645</v>
+        <v>0.439450808834519</v>
       </c>
       <c r="U6" t="n">
-        <v>0.442369285399127</v>
+        <v>0.447400222547083</v>
       </c>
       <c r="V6" t="n">
-        <v>0.305372720001345</v>
+        <v>0.265847711389694</v>
       </c>
       <c r="W6" t="n">
-        <v>0.309790251586681</v>
+        <v>0.274059833659863</v>
       </c>
       <c r="X6" t="n">
-        <v>0.266657191498507</v>
+        <v>0.213781413812458</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.25100444788416</v>
+        <v>0.208748471105493</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.327079747475627</v>
+        <v>0.314274913242541</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.316240601103541</v>
+        <v>0.312334288346583</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.343829581932892</v>
+        <v>0.36493120607929</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.36789849088301</v>
+        <v>0.487584803623823</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.307948273750382</v>
+        <v>0.37200867816939</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.287431710518534</v>
+        <v>0.350120821651828</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.298952729577917</v>
+        <v>0.283942949725307</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.309305396988717</v>
+        <v>0.281623016723919</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.226867114717663</v>
+        <v>0.162788760424814</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.146229550498836</v>
+        <v>0.089755514048748</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.173648445320598</v>
+        <v>0.0954468299836668</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.281482277999795</v>
+        <v>0.326895684736148</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.297698964623169</v>
+        <v>0.324617521562253</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.59355251631122</v>
+        <v>0.742676814722561</v>
       </c>
     </row>
     <row r="7">
@@ -12844,118 +12844,118 @@
         <v>166</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0737342611631326</v>
+        <v>-0.218558401811398</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.22547571994195</v>
+        <v>-0.170705551818383</v>
       </c>
       <c r="E7" t="n">
-        <v>0.350478252552688</v>
+        <v>0.245920791595946</v>
       </c>
       <c r="F7" t="n">
-        <v>0.597767778085714</v>
+        <v>0.795578796942821</v>
       </c>
       <c r="G7" t="n">
-        <v>0.532710968636921</v>
+        <v>0.707655233503661</v>
       </c>
       <c r="H7" t="n">
-        <v>0.521442377857037</v>
+        <v>0.65679004798484</v>
       </c>
       <c r="I7" t="n">
-        <v>0.579938967308877</v>
+        <v>0.588718673074732</v>
       </c>
       <c r="J7" t="n">
-        <v>0.447896329843623</v>
+        <v>0.586536157578907</v>
       </c>
       <c r="K7" t="n">
-        <v>0.508549743108916</v>
+        <v>0.558899156449614</v>
       </c>
       <c r="L7" t="n">
-        <v>0.753194748131429</v>
+        <v>1.01748543634418</v>
       </c>
       <c r="M7" t="n">
-        <v>0.468868587136217</v>
+        <v>0.528480713455926</v>
       </c>
       <c r="N7" t="n">
-        <v>0.320173735645678</v>
+        <v>0.512450739234954</v>
       </c>
       <c r="O7" t="n">
-        <v>0.573607351212477</v>
+        <v>0.694206729841871</v>
       </c>
       <c r="P7" t="n">
-        <v>0.467795090056448</v>
+        <v>0.798763372672578</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.473813671527795</v>
+        <v>0.552486501408313</v>
       </c>
       <c r="R7" t="n">
-        <v>0.325698433441075</v>
+        <v>0.582962731089098</v>
       </c>
       <c r="S7" t="n">
-        <v>0.308896751733265</v>
+        <v>0.571458002836073</v>
       </c>
       <c r="T7" t="n">
-        <v>0.317997569276122</v>
+        <v>0.524916439875958</v>
       </c>
       <c r="U7" t="n">
-        <v>0.500404125809687</v>
+        <v>0.561196843019303</v>
       </c>
       <c r="V7" t="n">
-        <v>0.314902525128948</v>
+        <v>0.450206761803696</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4194320593795</v>
+        <v>0.473598315808745</v>
       </c>
       <c r="X7" t="n">
-        <v>0.240902214706046</v>
+        <v>0.417603126332784</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.021202866886596</v>
+        <v>0.0340634284500856</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.144166217246684</v>
+        <v>0.262461576756983</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.419919702214395</v>
+        <v>0.463957653256917</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.370441276564108</v>
+        <v>0.649134749428181</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.32884521177906</v>
+        <v>0.467637754114706</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.357705187965196</v>
+        <v>0.663430335369693</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.298169517747892</v>
+        <v>0.669439469535099</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.34303756437349</v>
+        <v>0.619031033262379</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.477389165944551</v>
+        <v>0.671319944124866</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.327777759023749</v>
+        <v>0.479057590070313</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0494402909784931</v>
+        <v>0.188482293539221</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.0637833667163329</v>
+        <v>0.293202843254494</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.284103739406017</v>
+        <v>-0.40284280104778</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.106904489759694</v>
+        <v>0.330332109314975</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.538844643879973</v>
+        <v>0.820953503259188</v>
       </c>
     </row>
     <row r="8">
@@ -12963,118 +12963,118 @@
         <v>158</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.154887758313789</v>
+        <v>-0.451102343918106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.473655351226997</v>
+        <v>0.555676407081991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.352959558247265</v>
+        <v>0.331930851304204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.20434802904374</v>
+        <v>0.164150502896138</v>
       </c>
       <c r="G8" t="n">
-        <v>0.469064631987722</v>
+        <v>0.515284834625333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.526582097788836</v>
+        <v>0.535762889489358</v>
       </c>
       <c r="I8" t="n">
-        <v>0.547776076869346</v>
+        <v>0.568726928013433</v>
       </c>
       <c r="J8" t="n">
-        <v>0.546617257578555</v>
+        <v>0.531912249517135</v>
       </c>
       <c r="K8" t="n">
-        <v>0.506074644669986</v>
+        <v>0.503763536858697</v>
       </c>
       <c r="L8" t="n">
-        <v>0.438412389043761</v>
+        <v>0.391065184022445</v>
       </c>
       <c r="M8" t="n">
-        <v>0.346289045059164</v>
+        <v>0.310775294220102</v>
       </c>
       <c r="N8" t="n">
-        <v>0.388821041927706</v>
+        <v>0.382123417240958</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0212147952864516</v>
+        <v>-0.103318418863897</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0792425279578459</v>
+        <v>0.0462841192013858</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.311175458256614</v>
+        <v>0.368928846890061</v>
       </c>
       <c r="R8" t="n">
-        <v>0.235634253361033</v>
+        <v>0.258868367341034</v>
       </c>
       <c r="S8" t="n">
-        <v>0.322517992612581</v>
+        <v>0.346047215629045</v>
       </c>
       <c r="T8" t="n">
-        <v>0.404337467838974</v>
+        <v>0.451739914776835</v>
       </c>
       <c r="U8" t="n">
-        <v>0.525502980232541</v>
+        <v>0.546962308423651</v>
       </c>
       <c r="V8" t="n">
-        <v>0.560198515074695</v>
+        <v>0.532816540858593</v>
       </c>
       <c r="W8" t="n">
-        <v>0.454140056126699</v>
+        <v>0.40853848795811</v>
       </c>
       <c r="X8" t="n">
-        <v>0.419872445543027</v>
+        <v>0.356592219418224</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.378427418448192</v>
+        <v>0.342468290209901</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.335934602614245</v>
+        <v>0.320072286166633</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.125772405634017</v>
+        <v>0.0989014146742953</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.052758378421743</v>
+        <v>-0.122457890731967</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.186180319602795</v>
+        <v>0.153579063182048</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.25986001918491</v>
+        <v>0.318429020829111</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.318191259169011</v>
+        <v>0.415972126182064</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.354198158891914</v>
+        <v>0.364833656193271</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.404093559579408</v>
+        <v>0.393559901272996</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.384212042168603</v>
+        <v>0.311021282679022</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.417317694861524</v>
+        <v>0.380888688615444</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.379483186194864</v>
+        <v>0.365496236969664</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.445175517913988</v>
+        <v>0.583391493760119</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.315583148263491</v>
+        <v>0.353373033606275</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0832602050353186</v>
+        <v>-0.0165981692511586</v>
       </c>
     </row>
     <row r="9">
@@ -13082,118 +13082,118 @@
         <v>154</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.300496366886432</v>
+        <v>0.357156454002938</v>
       </c>
       <c r="D9" t="n">
-        <v>0.134764397877634</v>
+        <v>0.217038443439895</v>
       </c>
       <c r="E9" t="n">
-        <v>0.248323590489392</v>
+        <v>0.152534240431508</v>
       </c>
       <c r="F9" t="n">
-        <v>0.38584328033354</v>
+        <v>0.385739360145224</v>
       </c>
       <c r="G9" t="n">
-        <v>0.600697140282484</v>
+        <v>0.635186224114055</v>
       </c>
       <c r="H9" t="n">
-        <v>0.612713634551445</v>
+        <v>0.605977987005525</v>
       </c>
       <c r="I9" t="n">
-        <v>0.757738318639828</v>
+        <v>0.759694408532352</v>
       </c>
       <c r="J9" t="n">
-        <v>0.737273246524364</v>
+        <v>0.66801238520552</v>
       </c>
       <c r="K9" t="n">
-        <v>0.662799718114738</v>
+        <v>0.6208003049349</v>
       </c>
       <c r="L9" t="n">
-        <v>0.632868160307256</v>
+        <v>0.55814132761004</v>
       </c>
       <c r="M9" t="n">
-        <v>0.654928933677502</v>
+        <v>0.588111895043843</v>
       </c>
       <c r="N9" t="n">
-        <v>0.614425804531706</v>
+        <v>0.643813660335839</v>
       </c>
       <c r="O9" t="n">
-        <v>0.635414802321587</v>
+        <v>0.786040317897828</v>
       </c>
       <c r="P9" t="n">
-        <v>0.581981148397255</v>
+        <v>0.7873227632267</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.57801963751094</v>
+        <v>0.653400997993475</v>
       </c>
       <c r="R9" t="n">
-        <v>0.526538531465152</v>
+        <v>0.677823611703417</v>
       </c>
       <c r="S9" t="n">
-        <v>0.521525008184929</v>
+        <v>0.637028395013522</v>
       </c>
       <c r="T9" t="n">
-        <v>0.562129456689609</v>
+        <v>0.640604840949695</v>
       </c>
       <c r="U9" t="n">
-        <v>0.664902093658568</v>
+        <v>0.649816346050447</v>
       </c>
       <c r="V9" t="n">
-        <v>0.721766433742936</v>
+        <v>0.63534849156547</v>
       </c>
       <c r="W9" t="n">
-        <v>0.628503921463768</v>
+        <v>0.530933022459895</v>
       </c>
       <c r="X9" t="n">
-        <v>0.587281106688959</v>
+        <v>0.487566706002316</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.561826544490405</v>
+        <v>0.500509086813452</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.506549959376482</v>
+        <v>0.511619445096054</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.454451950155386</v>
+        <v>0.451121967142537</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.435498553609791</v>
+        <v>0.507229012458084</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.437024552601531</v>
+        <v>0.606270115338205</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.403934271045771</v>
+        <v>0.515351078341329</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.385605082909597</v>
+        <v>0.534965065194363</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.415384976082666</v>
+        <v>0.449314191426648</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.462470949590491</v>
+        <v>0.461242600344524</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.477566073070902</v>
+        <v>0.366469771928927</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.549999208958469</v>
+        <v>0.463314649733238</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.548581575565558</v>
+        <v>0.576337504180122</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.540445789952866</v>
+        <v>0.66113965989337</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.532808255910738</v>
+        <v>0.704599879121504</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.442412641016957</v>
+        <v>0.492215377353983</v>
       </c>
     </row>
     <row r="10">
@@ -13201,118 +13201,118 @@
         <v>153</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.775177575740808</v>
+        <v>1.20944393895634</v>
       </c>
       <c r="D10" t="n">
-        <v>1.33887239376439</v>
+        <v>1.6338680186325</v>
       </c>
       <c r="E10" t="n">
-        <v>0.937520737322887</v>
+        <v>1.12087776321937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.582876182119267</v>
+        <v>0.640256765954976</v>
       </c>
       <c r="G10" t="n">
-        <v>0.634055382911413</v>
+        <v>0.692135502877018</v>
       </c>
       <c r="H10" t="n">
-        <v>0.645427124853394</v>
+        <v>0.659913772373629</v>
       </c>
       <c r="I10" t="n">
-        <v>0.76417953788773</v>
+        <v>0.802936169579027</v>
       </c>
       <c r="J10" t="n">
-        <v>0.725270732798045</v>
+        <v>0.691405206583898</v>
       </c>
       <c r="K10" t="n">
-        <v>0.514851882828066</v>
+        <v>0.498609468356782</v>
       </c>
       <c r="L10" t="n">
-        <v>0.490977359163247</v>
+        <v>0.449931350824197</v>
       </c>
       <c r="M10" t="n">
-        <v>0.500261426471068</v>
+        <v>0.471959026987132</v>
       </c>
       <c r="N10" t="n">
-        <v>0.460851831028172</v>
+        <v>0.48539778367253</v>
       </c>
       <c r="O10" t="n">
-        <v>0.432920733017697</v>
+        <v>0.514838850751739</v>
       </c>
       <c r="P10" t="n">
-        <v>0.358004921362081</v>
+        <v>0.44581488584131</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.397635439232763</v>
+        <v>0.446409854861869</v>
       </c>
       <c r="R10" t="n">
-        <v>0.383213344492979</v>
+        <v>0.480648607529869</v>
       </c>
       <c r="S10" t="n">
-        <v>0.400422096836175</v>
+        <v>0.471091577234944</v>
       </c>
       <c r="T10" t="n">
-        <v>0.416961905050668</v>
+        <v>0.461841967481498</v>
       </c>
       <c r="U10" t="n">
-        <v>0.423074280191287</v>
+        <v>0.40474731288332</v>
       </c>
       <c r="V10" t="n">
-        <v>0.446470801991784</v>
+        <v>0.393827579289734</v>
       </c>
       <c r="W10" t="n">
-        <v>0.390349513116468</v>
+        <v>0.337583881694397</v>
       </c>
       <c r="X10" t="n">
-        <v>0.331856444815731</v>
+        <v>0.270875180947109</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.337796417816337</v>
+        <v>0.297573853795821</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.329024265544657</v>
+        <v>0.316067748826758</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.365821904857159</v>
+        <v>0.365983971372054</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.365008854615809</v>
+        <v>0.386511286350852</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.338929198624342</v>
+        <v>0.417418283736331</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.34207604642359</v>
+        <v>0.421740364335549</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.354122104352605</v>
+        <v>0.482754543260689</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.380224320799379</v>
+        <v>0.406231604146817</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.41594999046734</v>
+        <v>0.411624822590542</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.418433417971288</v>
+        <v>0.336790913959481</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.389724861586273</v>
+        <v>0.344309379329855</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.304939721085297</v>
+        <v>0.277962438110489</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.337895083980961</v>
+        <v>0.408018318109366</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.333845854083567</v>
+        <v>0.391729995943539</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.386196846149933</v>
+        <v>0.432550291701741</v>
       </c>
     </row>
     <row r="11">
@@ -13320,118 +13320,118 @@
         <v>162</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.328458496188255</v>
+        <v>0.40426672084997</v>
       </c>
       <c r="D11" t="n">
-        <v>0.314259927972895</v>
+        <v>0.376092821489366</v>
       </c>
       <c r="E11" t="n">
-        <v>0.570094293983828</v>
+        <v>0.614554221925317</v>
       </c>
       <c r="F11" t="n">
-        <v>0.578267964905633</v>
+        <v>0.638116720630725</v>
       </c>
       <c r="G11" t="n">
-        <v>0.643120215300064</v>
+        <v>0.708385283776178</v>
       </c>
       <c r="H11" t="n">
-        <v>0.617825289025532</v>
+        <v>0.637368730870915</v>
       </c>
       <c r="I11" t="n">
-        <v>0.663297496667362</v>
+        <v>0.704328435917921</v>
       </c>
       <c r="J11" t="n">
-        <v>0.640352820589467</v>
+        <v>0.629718294973436</v>
       </c>
       <c r="K11" t="n">
-        <v>0.550985528886197</v>
+        <v>0.559476389903203</v>
       </c>
       <c r="L11" t="n">
-        <v>0.502055059839236</v>
+        <v>0.476176274146164</v>
       </c>
       <c r="M11" t="n">
-        <v>0.50148483709745</v>
+        <v>0.481465387185519</v>
       </c>
       <c r="N11" t="n">
-        <v>0.493267669296672</v>
+        <v>0.525051263950258</v>
       </c>
       <c r="O11" t="n">
-        <v>0.49194988389447</v>
+        <v>0.600416696234587</v>
       </c>
       <c r="P11" t="n">
-        <v>0.46338235362754</v>
+        <v>0.592248018033605</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.468977749855502</v>
+        <v>0.537321439378832</v>
       </c>
       <c r="R11" t="n">
-        <v>0.422523475119486</v>
+        <v>0.545358998134681</v>
       </c>
       <c r="S11" t="n">
-        <v>0.431436676073208</v>
+        <v>0.532384684861556</v>
       </c>
       <c r="T11" t="n">
-        <v>0.450665180163821</v>
+        <v>0.526310160226999</v>
       </c>
       <c r="U11" t="n">
-        <v>0.556318088533426</v>
+        <v>0.585953699671443</v>
       </c>
       <c r="V11" t="n">
-        <v>0.536919949143137</v>
+        <v>0.50837284414428</v>
       </c>
       <c r="W11" t="n">
-        <v>0.486557872109317</v>
+        <v>0.447805259439194</v>
       </c>
       <c r="X11" t="n">
-        <v>0.455406780149886</v>
+        <v>0.409068193781714</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.446746765515498</v>
+        <v>0.424368053464795</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.444420603985436</v>
+        <v>0.47464256276226</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.448654625974028</v>
+        <v>0.456273796791632</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.461055168074968</v>
+        <v>0.502206605427763</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.399316832440765</v>
+        <v>0.547339611979753</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.394756412327909</v>
+        <v>0.508183078778698</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.396874772926507</v>
+        <v>0.579040018772591</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.432296130404297</v>
+        <v>0.500863790581353</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.500413760952375</v>
+        <v>0.541979612593018</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.517944591240519</v>
+        <v>0.451906937006212</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.56187614669388</v>
+        <v>0.555845401320441</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.539819035482491</v>
+        <v>0.659306924350032</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.52337347651907</v>
+        <v>0.733178712513686</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.472624091415996</v>
+        <v>0.659517769406339</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.549407991677346</v>
+        <v>0.672034024329188</v>
       </c>
     </row>
     <row r="12">
@@ -13439,118 +13439,118 @@
         <v>148</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.145890727172327</v>
+        <v>0.0782980764738053</v>
       </c>
       <c r="D12" t="n">
-        <v>0.18000830162918</v>
+        <v>0.210829198904089</v>
       </c>
       <c r="E12" t="n">
-        <v>0.450524332243699</v>
+        <v>0.446375076522306</v>
       </c>
       <c r="F12" t="n">
-        <v>0.531217277436966</v>
+        <v>0.577518445303639</v>
       </c>
       <c r="G12" t="n">
-        <v>0.61300578344463</v>
+        <v>0.673501079764711</v>
       </c>
       <c r="H12" t="n">
-        <v>0.596489927390678</v>
+        <v>0.612665813906062</v>
       </c>
       <c r="I12" t="n">
-        <v>0.664221188116379</v>
+        <v>0.705404985277231</v>
       </c>
       <c r="J12" t="n">
-        <v>0.641166854020725</v>
+        <v>0.630549326557717</v>
       </c>
       <c r="K12" t="n">
-        <v>0.54292562373556</v>
+        <v>0.551023343028312</v>
       </c>
       <c r="L12" t="n">
-        <v>0.559592633936916</v>
+        <v>0.539739899098285</v>
       </c>
       <c r="M12" t="n">
-        <v>0.471530163209753</v>
+        <v>0.449118658400356</v>
       </c>
       <c r="N12" t="n">
-        <v>0.455945217653947</v>
+        <v>0.475355658261942</v>
       </c>
       <c r="O12" t="n">
-        <v>0.408833200832013</v>
+        <v>0.475948866107821</v>
       </c>
       <c r="P12" t="n">
-        <v>0.431589170955626</v>
+        <v>0.548526622942251</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.418221315965684</v>
+        <v>0.476150240596383</v>
       </c>
       <c r="R12" t="n">
-        <v>0.398586587573016</v>
+        <v>0.507905604707149</v>
       </c>
       <c r="S12" t="n">
-        <v>0.394194780338284</v>
+        <v>0.467175828346025</v>
       </c>
       <c r="T12" t="n">
-        <v>0.438457365497192</v>
+        <v>0.507008200701961</v>
       </c>
       <c r="U12" t="n">
-        <v>0.550907441600084</v>
+        <v>0.579190275214338</v>
       </c>
       <c r="V12" t="n">
-        <v>0.505577792557785</v>
+        <v>0.47516424039261</v>
       </c>
       <c r="W12" t="n">
-        <v>0.45817331428204</v>
+        <v>0.419358658534475</v>
       </c>
       <c r="X12" t="n">
-        <v>0.446058791064169</v>
+        <v>0.399192498354967</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.38012530538123</v>
+        <v>0.349934290570791</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.393542468014167</v>
+        <v>0.40324987899512</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.339589073806284</v>
+        <v>0.335053911997897</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.414395709820212</v>
+        <v>0.446339564567048</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.34029296582339</v>
+        <v>0.427014325891427</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.336947551627136</v>
+        <v>0.415632161005695</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.341440361810852</v>
+        <v>0.460805666427913</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.398945410450937</v>
+        <v>0.445459575748408</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.453634741541854</v>
+        <v>0.476933648732884</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.460703661152996</v>
+        <v>0.39429599191155</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.487002481936819</v>
+        <v>0.470812831873045</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.438759422790052</v>
+        <v>0.500912230431266</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.390190919442881</v>
+        <v>0.505322437131709</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.407902667999028</v>
+        <v>0.532876636127725</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.450537990365314</v>
+        <v>0.525816964721206</v>
       </c>
     </row>
     <row r="13">
@@ -13558,118 +13558,118 @@
         <v>159</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.177439726487593</v>
+        <v>-0.571551166353965</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0965041643498893</v>
+        <v>0.0986851178371809</v>
       </c>
       <c r="E13" t="n">
-        <v>0.265045861399518</v>
+        <v>0.187458864136977</v>
       </c>
       <c r="F13" t="n">
-        <v>0.324423858895541</v>
+        <v>0.304551147519004</v>
       </c>
       <c r="G13" t="n">
-        <v>0.425250118915179</v>
+        <v>0.449331223138882</v>
       </c>
       <c r="H13" t="n">
-        <v>0.464160081074628</v>
+        <v>0.463666838105788</v>
       </c>
       <c r="I13" t="n">
-        <v>0.50756568111923</v>
+        <v>0.535292765248639</v>
       </c>
       <c r="J13" t="n">
-        <v>0.493589325971034</v>
+        <v>0.487206410744057</v>
       </c>
       <c r="K13" t="n">
-        <v>0.421278610440408</v>
+        <v>0.430632069855794</v>
       </c>
       <c r="L13" t="n">
-        <v>0.319384865493943</v>
+        <v>0.283012969120963</v>
       </c>
       <c r="M13" t="n">
-        <v>0.328891524282891</v>
+        <v>0.306771355787288</v>
       </c>
       <c r="N13" t="n">
-        <v>0.435257103141287</v>
+        <v>0.454548917708516</v>
       </c>
       <c r="O13" t="n">
-        <v>0.376384556666381</v>
+        <v>0.408579995026013</v>
       </c>
       <c r="P13" t="n">
-        <v>0.43127272907826</v>
+        <v>0.545464779674762</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.455621735358564</v>
+        <v>0.521908737978481</v>
       </c>
       <c r="R13" t="n">
-        <v>0.424996706212931</v>
+        <v>0.537219893031802</v>
       </c>
       <c r="S13" t="n">
-        <v>0.433033086018365</v>
+        <v>0.512614689051601</v>
       </c>
       <c r="T13" t="n">
-        <v>0.457952546609038</v>
+        <v>0.53984999202688</v>
       </c>
       <c r="U13" t="n">
-        <v>0.521260575961105</v>
+        <v>0.54607780799829</v>
       </c>
       <c r="V13" t="n">
-        <v>0.560363344715672</v>
+        <v>0.54908978912316</v>
       </c>
       <c r="W13" t="n">
-        <v>0.50311800453371</v>
+        <v>0.474578314279843</v>
       </c>
       <c r="X13" t="n">
-        <v>0.48518565072861</v>
+        <v>0.442937764732364</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.484624607879233</v>
+        <v>0.484055221457818</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.527233730397732</v>
+        <v>0.603645224949008</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.494956884571122</v>
+        <v>0.499825135867217</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.515318565763542</v>
+        <v>0.567419571021427</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.440554017817083</v>
+        <v>0.631918760936177</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.422447411053711</v>
+        <v>0.548083619418011</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.410998795505174</v>
+        <v>0.575771274768382</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.440607391136404</v>
+        <v>0.516743433709384</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.491049536414766</v>
+        <v>0.539201838463142</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.522004119443952</v>
+        <v>0.476218030939915</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.572737880955206</v>
+        <v>0.589311037412393</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.564350298095174</v>
+        <v>0.741305894372209</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.57747953724723</v>
+        <v>0.860956555990327</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.50696086178791</v>
+        <v>0.746306577249754</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.411498610027108</v>
+        <v>0.471951437506103</v>
       </c>
     </row>
     <row r="14">
@@ -13677,118 +13677,118 @@
         <v>163</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.185251675345801</v>
+        <v>-0.48554756866091</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.963899971861078</v>
+        <v>-1.88837616354531</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.50788239511026</v>
+        <v>-2.42424924695859</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.6767332256062</v>
+        <v>-2.23806880054239</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.66498573617429</v>
+        <v>-1.88339977696663</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.63005356474881</v>
+        <v>-1.88353519027799</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.459950832778383</v>
+        <v>-0.546924526880192</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.100746569061933</v>
+        <v>-0.145722316575185</v>
       </c>
       <c r="K14" t="n">
-        <v>0.208444261222317</v>
+        <v>0.25499991068495</v>
       </c>
       <c r="L14" t="n">
-        <v>0.736142004148632</v>
+        <v>0.927417538637627</v>
       </c>
       <c r="M14" t="n">
-        <v>0.890399433579548</v>
+        <v>1.03780852876711</v>
       </c>
       <c r="N14" t="n">
-        <v>0.752719609229149</v>
+        <v>0.968407799914453</v>
       </c>
       <c r="O14" t="n">
-        <v>0.740631425364499</v>
+        <v>0.932872894692693</v>
       </c>
       <c r="P14" t="n">
-        <v>0.543506802645892</v>
+        <v>0.345018750772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.388228448445641</v>
+        <v>0.252752160506186</v>
       </c>
       <c r="R14" t="n">
-        <v>0.467420867300894</v>
+        <v>0.504409988049966</v>
       </c>
       <c r="S14" t="n">
-        <v>0.382874138194982</v>
+        <v>0.429554962951412</v>
       </c>
       <c r="T14" t="n">
-        <v>0.280017344713396</v>
+        <v>0.269426290938019</v>
       </c>
       <c r="U14" t="n">
-        <v>0.253670026583577</v>
+        <v>0.231653977135078</v>
       </c>
       <c r="V14" t="n">
-        <v>0.104986777969894</v>
+        <v>0.0193313441371781</v>
       </c>
       <c r="W14" t="n">
-        <v>0.118727164010719</v>
+        <v>0.0814346362279376</v>
       </c>
       <c r="X14" t="n">
-        <v>0.407178262083364</v>
+        <v>0.370547055000358</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.435942464065473</v>
+        <v>0.368927563180167</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.355610222365228</v>
+        <v>0.2408222443703</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.456191256959447</v>
+        <v>0.30241419167992</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.505756247398134</v>
+        <v>0.155928030573366</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.353006863447973</v>
+        <v>-0.0110091882025986</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.100092421911839</v>
+        <v>-0.125658740328473</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0181498548115814</v>
+        <v>-0.31686481668349</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.134695710875974</v>
+        <v>-0.0472689172687275</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0879231513370861</v>
+        <v>-0.0732950948966295</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.0304117043369162</v>
+        <v>-0.181524772001959</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.1876468433727</v>
+        <v>-0.367979865682274</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.155560605522842</v>
+        <v>-0.548222470024632</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.140151350632734</v>
+        <v>-0.158276040073575</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.227872218521672</v>
+        <v>-0.132432495300328</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0.543198535343511</v>
+        <v>-1.2848150904941</v>
       </c>
     </row>
     <row r="15">
@@ -13796,118 +13796,118 @@
         <v>150</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.485207065525995</v>
+        <v>-1.05584040121454</v>
       </c>
       <c r="D15" t="n">
-        <v>0.158483193632879</v>
+        <v>0.189138440713365</v>
       </c>
       <c r="E15" t="n">
-        <v>0.356118081157501</v>
+        <v>0.320764714428186</v>
       </c>
       <c r="F15" t="n">
-        <v>0.453815020097613</v>
+        <v>0.484093808816254</v>
       </c>
       <c r="G15" t="n">
-        <v>0.577687400304789</v>
+        <v>0.634451202076889</v>
       </c>
       <c r="H15" t="n">
-        <v>0.562670319293604</v>
+        <v>0.575348156882788</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0384299755482956</v>
+        <v>-0.0203628556556565</v>
       </c>
       <c r="J15" t="n">
-        <v>0.370072680031237</v>
+        <v>0.351467347830549</v>
       </c>
       <c r="K15" t="n">
-        <v>0.396602771758686</v>
+        <v>0.400294714354557</v>
       </c>
       <c r="L15" t="n">
-        <v>0.552348566455917</v>
+        <v>0.522495231293047</v>
       </c>
       <c r="M15" t="n">
-        <v>0.882542209445945</v>
+        <v>0.888641651187097</v>
       </c>
       <c r="N15" t="n">
-        <v>0.591408682406378</v>
+        <v>0.656395575498933</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0182314793492276</v>
+        <v>-0.11194717704895</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0332699224735241</v>
+        <v>0.002474232794863</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.176461354588328</v>
+        <v>0.191241070974852</v>
       </c>
       <c r="R15" t="n">
-        <v>0.255688152316182</v>
+        <v>0.295483819665696</v>
       </c>
       <c r="S15" t="n">
-        <v>0.374793417115265</v>
+        <v>0.439964312385393</v>
       </c>
       <c r="T15" t="n">
-        <v>0.370281024470997</v>
+        <v>0.404651259495188</v>
       </c>
       <c r="U15" t="n">
-        <v>0.268257798720261</v>
+        <v>0.234238810722884</v>
       </c>
       <c r="V15" t="n">
-        <v>0.161436780029526</v>
+        <v>0.110115013778057</v>
       </c>
       <c r="W15" t="n">
-        <v>0.329553512182748</v>
+        <v>0.292012491388422</v>
       </c>
       <c r="X15" t="n">
-        <v>0.606817706545782</v>
+        <v>0.546323914676924</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.879476900497695</v>
+        <v>0.897118769296236</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.818576109105934</v>
+        <v>0.997433698731569</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.240991510747006</v>
+        <v>0.223504410523668</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.0402736740957132</v>
+        <v>-0.0999022477653644</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0684850824223089</v>
+        <v>-0.116991460983007</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.181790162747868</v>
+        <v>0.177046816322032</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.320508656400047</v>
+        <v>0.424703315791792</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.289061377704863</v>
+        <v>0.269216829561883</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.200331864350261</v>
+        <v>0.134634242577612</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0474689141741426</v>
+        <v>-0.0202666378611454</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.163492762321862</v>
+        <v>0.104019605306611</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.481662183155053</v>
+        <v>0.527467527825891</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.612419646443948</v>
+        <v>0.858151080447827</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.361644276019678</v>
+        <v>0.43144297340168</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.0255097313919742</v>
+        <v>-0.184444800911837</v>
       </c>
     </row>
     <row r="16">
@@ -13915,118 +13915,118 @@
         <v>164</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.319873974023437</v>
+        <v>0.388941775062782</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.13851821031735</v>
+        <v>-0.181058118347848</v>
       </c>
       <c r="E16" t="n">
-        <v>0.103045559767759</v>
+        <v>-0.0422995973501399</v>
       </c>
       <c r="F16" t="n">
-        <v>0.37233183892466</v>
+        <v>0.372898627430997</v>
       </c>
       <c r="G16" t="n">
-        <v>0.631139046813798</v>
+        <v>0.694507647140737</v>
       </c>
       <c r="H16" t="n">
-        <v>0.621819592773899</v>
+        <v>0.641993196652921</v>
       </c>
       <c r="I16" t="n">
-        <v>0.564559564953127</v>
+        <v>0.588987086272937</v>
       </c>
       <c r="J16" t="n">
-        <v>0.536235166380094</v>
+        <v>0.523139327920827</v>
       </c>
       <c r="K16" t="n">
-        <v>0.419512703679142</v>
+        <v>0.421580350146332</v>
       </c>
       <c r="L16" t="n">
-        <v>0.320785865076144</v>
+        <v>0.275923303341701</v>
       </c>
       <c r="M16" t="n">
-        <v>0.35008090214404</v>
+        <v>0.317982433358863</v>
       </c>
       <c r="N16" t="n">
-        <v>0.356047563209379</v>
+        <v>0.342349776065166</v>
       </c>
       <c r="O16" t="n">
-        <v>0.687487895518719</v>
+        <v>0.893217765562892</v>
       </c>
       <c r="P16" t="n">
-        <v>0.646796962533498</v>
+        <v>0.8444248302851</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.569033880236063</v>
+        <v>0.657904764769356</v>
       </c>
       <c r="R16" t="n">
-        <v>0.510042481920467</v>
+        <v>0.682293130850913</v>
       </c>
       <c r="S16" t="n">
-        <v>0.491675960290623</v>
+        <v>0.637855665208495</v>
       </c>
       <c r="T16" t="n">
-        <v>0.452157770621968</v>
+        <v>0.528669913315479</v>
       </c>
       <c r="U16" t="n">
-        <v>0.490518892020524</v>
+        <v>0.503709341565888</v>
       </c>
       <c r="V16" t="n">
-        <v>0.419319766635615</v>
+        <v>0.38378231877679</v>
       </c>
       <c r="W16" t="n">
-        <v>0.369213267663893</v>
+        <v>0.330210671422693</v>
       </c>
       <c r="X16" t="n">
-        <v>0.294349250804207</v>
+        <v>0.23895346853589</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.162938319652952</v>
+        <v>0.107293230713445</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.125691099152662</v>
+        <v>0.0274095370733488</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.12119930845951</v>
+        <v>0.0923388946979786</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.291891140441281</v>
+        <v>0.299673391021207</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.433866823925157</v>
+        <v>0.617769675053502</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.360087774849252</v>
+        <v>0.452682635880395</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.341670495351274</v>
+        <v>0.461302133848518</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.327547889664048</v>
+        <v>0.326856221904234</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.353869235808319</v>
+        <v>0.338218052382127</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.323731924167565</v>
+        <v>0.256444798706621</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.325258539042255</v>
+        <v>0.287137430763811</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.247656422236672</v>
+        <v>0.201426312885842</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.175882983874042</v>
+        <v>0.13871971879858</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.0474817647572048</v>
+        <v>-0.357913692844849</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.138042163148455</v>
+        <v>0.0637432951015156</v>
       </c>
     </row>
     <row r="17">
@@ -14034,118 +14034,118 @@
         <v>155</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.450825680930454</v>
+        <v>-1.98626914745867</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0844947505743112</v>
+        <v>-2.92248238104564</v>
       </c>
       <c r="E17" t="n">
-        <v>1.08493213434313</v>
+        <v>1.22154216890602</v>
       </c>
       <c r="F17" t="n">
-        <v>1.05459009500741</v>
+        <v>0.982809738708909</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.298030789979341</v>
+        <v>-1.6478973337988</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.236554993957992</v>
+        <v>-0.172194526908613</v>
       </c>
       <c r="I17" t="n">
-        <v>0.121758978348808</v>
+        <v>0.237380118841006</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.632735511623859</v>
+        <v>-0.49718199719918</v>
       </c>
       <c r="K17" t="n">
-        <v>0.303035438825613</v>
+        <v>0.395354586620561</v>
       </c>
       <c r="L17" t="n">
-        <v>0.362699627880559</v>
+        <v>0.312675721859656</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.024544098922948</v>
+        <v>0.112127001698276</v>
       </c>
       <c r="N17" t="n">
-        <v>0.018743720893058</v>
+        <v>0.0588531166099332</v>
       </c>
       <c r="O17" t="n">
-        <v>0.348621651459093</v>
+        <v>0.247505955436142</v>
       </c>
       <c r="P17" t="n">
-        <v>0.063176414849279</v>
+        <v>-1.71229177364379</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0628208111520947</v>
+        <v>-1.40543818745831</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0021426982303082</v>
+        <v>-1.92248995165824</v>
       </c>
       <c r="S17" t="n">
-        <v>0.111914388485448</v>
+        <v>-0.0310666042276281</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0826889651561376</v>
+        <v>0.0436778982073383</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.654801582240202</v>
+        <v>-0.709957902914167</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.347939496101781</v>
+        <v>-0.210873772546081</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.0971116396670176</v>
+        <v>-0.0316780870425072</v>
       </c>
       <c r="X17" t="n">
-        <v>0.345128354372179</v>
+        <v>0.308670795625278</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.316112852331481</v>
+        <v>0.490941871443014</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.305574541095396</v>
+        <v>-0.430787570851478</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.658722424812497</v>
+        <v>0.709526329893477</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.421611407473606</v>
+        <v>0.24476444719385</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.446600671226263</v>
+        <v>0.475636339741467</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.153773608187362</v>
+        <v>-1.1342954962812</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.120732810675143</v>
+        <v>-1.75047907017762</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.0805803968915958</v>
+        <v>-0.0455088687514438</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.594625553803402</v>
+        <v>-0.713298998157729</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.418270686368533</v>
+        <v>-0.249925890332267</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.130183292077903</v>
+        <v>-0.0375402071145534</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.221440575936451</v>
+        <v>0.237211812220458</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.796394633570604</v>
+        <v>-1.69349965411477</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0171082258314187</v>
+        <v>-0.023581307267186</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.603780892211289</v>
+        <v>0.73450306533942</v>
       </c>
     </row>
     <row r="18">
@@ -14153,118 +14153,118 @@
         <v>157</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1.23746754923342</v>
+        <v>1.67867041166699</v>
       </c>
       <c r="D18" t="n">
-        <v>0.374256439379682</v>
+        <v>0.31196208116072</v>
       </c>
       <c r="E18" t="n">
-        <v>0.216158170201422</v>
+        <v>0.0947149423251784</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.19546852058032</v>
+        <v>-0.348707853198834</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.301520532006739</v>
+        <v>-0.346068788657971</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.12332673344002</v>
+        <v>-0.16040975050865</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.540494045031524</v>
+        <v>-0.63176764999332</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.568240670341432</v>
+        <v>-0.534140986304066</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.482956512843433</v>
+        <v>-0.456106616738649</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.506504865937394</v>
+        <v>-0.552993632447283</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.739913209634683</v>
+        <v>-0.827386275492196</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.261704358353775</v>
+        <v>-0.428482352083307</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.404868250863109</v>
+        <v>-0.782282768090083</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.275441811314279</v>
+        <v>-0.458767205738938</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.0868022000778559</v>
+        <v>-0.112159516330133</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.103128179519964</v>
+        <v>-0.211408452769797</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.0319840869819184</v>
+        <v>-0.135579042295232</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0566736965895914</v>
+        <v>-0.104744112711143</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.132849330250974</v>
+        <v>-0.134402404494129</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.337334454577432</v>
+        <v>-0.294637695263369</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.474162705980861</v>
+        <v>-0.422901164377425</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.477779059863984</v>
+        <v>-0.48169612176467</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.3752372278009</v>
+        <v>-0.421575092381696</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.223932746254725</v>
+        <v>-0.362908389656499</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.724134344378335</v>
+        <v>-0.835155528269304</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.562878927789515</v>
+        <v>-0.717350042802511</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.378550212484553</v>
+        <v>-0.96489216052968</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.196462515030965</v>
+        <v>-0.355546937513791</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.195932555315203</v>
+        <v>-0.509149492985492</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.19426436032778</v>
+        <v>-0.32573587792905</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.175594896838753</v>
+        <v>-0.176253094563928</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.338321131600125</v>
+        <v>0.446096335138868</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.0561762910656874</v>
+        <v>0.0469299661127653</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.0664882039779899</v>
+        <v>-0.00337206652497485</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.120351970768214</v>
+        <v>-0.151227982561489</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.219973076928068</v>
+        <v>0.373413321490023</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.438045663872685</v>
+        <v>0.602467091607509</v>
       </c>
     </row>
     <row r="19">
@@ -14272,118 +14272,118 @@
         <v>165</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.148031149137907</v>
+        <v>-0.432306353998307</v>
       </c>
       <c r="D19" t="n">
-        <v>0.428133570414049</v>
+        <v>0.518138659291438</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.132962371670545</v>
+        <v>-0.373150245995297</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.263858721375567</v>
+        <v>-0.453969922620985</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0426328821234923</v>
+        <v>-0.0925519756499288</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0350608150105827</v>
+        <v>-0.119718844593247</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.286439923186696</v>
+        <v>-0.404136401877787</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0239765535409531</v>
+        <v>-0.0465133301441798</v>
       </c>
       <c r="K19" t="n">
-        <v>0.169674151287231</v>
+        <v>0.160007627327661</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0762540677225293</v>
+        <v>0.0100805281484698</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0360791939709767</v>
+        <v>-0.00940632130853552</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.130875252657585</v>
+        <v>-0.30404441899378</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.353065200602657</v>
+        <v>-0.656775989706218</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.156799445490565</v>
+        <v>-0.250882849364649</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.149383660159528</v>
+        <v>0.155418053957387</v>
       </c>
       <c r="R19" t="n">
-        <v>0.027421804306835</v>
+        <v>-0.0789941516622565</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0526947460397002</v>
+        <v>-0.322818346847307</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.113075196507264</v>
+        <v>-0.364821822074599</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.135665054413819</v>
+        <v>-0.276294983881761</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0141276280313366</v>
+        <v>-0.0381664491495691</v>
       </c>
       <c r="W19" t="n">
-        <v>0.229204598754026</v>
+        <v>0.194468485699597</v>
       </c>
       <c r="X19" t="n">
-        <v>0.116943857126001</v>
+        <v>0.0574334880028914</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.000869917749519817</v>
+        <v>-0.0652263412972565</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.109188212076729</v>
+        <v>-0.297493825198869</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.225911191448237</v>
+        <v>-0.286940814668838</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.159788817628921</v>
+        <v>-0.226628021136373</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.147578382571343</v>
+        <v>0.0450242233246183</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.120948310469882</v>
+        <v>0.0671756800251481</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0852200046549948</v>
+        <v>-0.0898553736186535</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0168944782782183</v>
+        <v>-0.187289279959845</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.04799339181136</v>
+        <v>-0.215761304599449</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.024816734120283</v>
+        <v>-0.0352176908003727</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.227227221376374</v>
+        <v>0.185220829513412</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.0863096841119394</v>
+        <v>-0.0365680867827991</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.0192039453046981</v>
+        <v>-0.174794528594784</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.235158014987286</v>
+        <v>-0.716227963835922</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.335894431649479</v>
+        <v>-0.627085854081372</v>
       </c>
     </row>
     <row r="20">
@@ -14391,118 +14391,118 @@
         <v>147</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0.267650599869832</v>
+        <v>0.294965276135522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.154494825096794</v>
+        <v>0.178376155051656</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.100320925487512</v>
+        <v>-0.329003906569543</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.397827487010907</v>
+        <v>-0.620213828024358</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.583813820599926</v>
+        <v>-0.714523387968411</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.08015757504822</v>
+        <v>-1.33176357269925</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.88143299898798</v>
+        <v>-2.27336232674209</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.32372301803728</v>
+        <v>-2.40903390219762</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.16972889455987</v>
+        <v>-2.29792373851481</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.61609939230586</v>
+        <v>-1.86703357334432</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.39314457815573</v>
+        <v>-1.56708663933055</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.87576912345071</v>
+        <v>-1.30006265291293</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.0287074797479</v>
+        <v>-1.68078136555307</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.24444511359485</v>
+        <v>-1.76204778009632</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.916142564364886</v>
+        <v>-1.13391786712587</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.74512405596722</v>
+        <v>-1.28327620098027</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.604264943745607</v>
+        <v>-1.28197427481955</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.624359173843267</v>
+        <v>-1.17369702282385</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.51165646486307</v>
+        <v>-0.748655588076166</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.458878870074471</v>
+        <v>-0.545925511487797</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.397418268962458</v>
+        <v>-0.437808713584214</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.293065316168386</v>
+        <v>-0.381697883101174</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.0770522209027096</v>
+        <v>-0.160847824142318</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.339584599649571</v>
+        <v>0.327950946176894</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.42672589539059</v>
+        <v>0.43209907544248</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.434301717887481</v>
+        <v>0.470486473239557</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.329507422144709</v>
+        <v>0.40609419686224</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.346560789162652</v>
+        <v>0.431550804657055</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.340667007374863</v>
+        <v>0.46002677661639</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.314446457774826</v>
+        <v>0.306130823930227</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.263719096050435</v>
+        <v>0.214241624280986</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.234552076813803</v>
+        <v>0.168083661193053</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.260774294477243</v>
+        <v>0.215171796229418</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.322350852962458</v>
+        <v>0.319517249178433</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.326899469743279</v>
+        <v>0.397930702805304</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.257847405056635</v>
+        <v>0.240007639085192</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.129896741067199</v>
+        <v>0.0517593037484707</v>
       </c>
     </row>
     <row r="21">
@@ -14513,115 +14513,115 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.34604487156454</v>
+        <v>1.32121858944943</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.70636494231424</v>
+        <v>-0.341085157801372</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.8863478413762</v>
+        <v>-2.36484637485557</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.96817134074543</v>
+        <v>-2.40641525910799</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.04189828403242</v>
+        <v>-2.07814092914791</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.746280770465</v>
+        <v>-1.79948485548301</v>
       </c>
       <c r="I21" t="n">
-        <v>-3.2353708097589</v>
+        <v>-2.16073082507967</v>
       </c>
       <c r="J21" t="n">
-        <v>-2.77481489434625</v>
+        <v>-1.47727800887262</v>
       </c>
       <c r="K21" t="n">
-        <v>-3.03029759900745</v>
+        <v>-1.66845094446634</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.07065721570556</v>
+        <v>-1.47375261394007</v>
       </c>
       <c r="M21" t="n">
-        <v>-2.83429419545558</v>
+        <v>-1.02827731026354</v>
       </c>
       <c r="N21" t="n">
-        <v>-3.30935733937383</v>
+        <v>-2.18042014998121</v>
       </c>
       <c r="O21" t="n">
-        <v>-2.93621040939437</v>
+        <v>-1.88408691154296</v>
       </c>
       <c r="P21" t="n">
-        <v>-3.01584152429849</v>
+        <v>-2.03631284513662</v>
       </c>
       <c r="Q21" t="n">
-        <v>-3.27774307760157</v>
+        <v>-1.82826131715361</v>
       </c>
       <c r="R21" t="n">
-        <v>-3.91227602635452</v>
+        <v>-2.76698928142648</v>
       </c>
       <c r="S21" t="n">
-        <v>-4.03835680415234</v>
+        <v>-2.81070510013548</v>
       </c>
       <c r="T21" t="n">
-        <v>-3.99544557735051</v>
+        <v>-2.6751398531053</v>
       </c>
       <c r="U21" t="n">
-        <v>-3.45922478844275</v>
+        <v>-1.79955751250701</v>
       </c>
       <c r="V21" t="n">
-        <v>-3.13636416885564</v>
+        <v>-1.39815550265929</v>
       </c>
       <c r="W21" t="n">
-        <v>-2.74736124961411</v>
+        <v>-1.0523265735434</v>
       </c>
       <c r="X21" t="n">
-        <v>-2.82898572431785</v>
+        <v>-1.05355977659018</v>
       </c>
       <c r="Y21" t="n">
-        <v>-3.21639688356456</v>
+        <v>-1.25259924927599</v>
       </c>
       <c r="Z21" t="n">
-        <v>-3.49040525099971</v>
+        <v>-1.60927019280224</v>
       </c>
       <c r="AA21" t="n">
-        <v>-3.2018627383858</v>
+        <v>-1.29288291760946</v>
       </c>
       <c r="AB21" t="n">
-        <v>-3.23906119636847</v>
+        <v>-1.41513737214168</v>
       </c>
       <c r="AC21" t="n">
-        <v>-4.03417560809848</v>
+        <v>-2.84225865978205</v>
       </c>
       <c r="AD21" t="n">
-        <v>-4.15961003428798</v>
+        <v>-1.89643473605808</v>
       </c>
       <c r="AE21" t="n">
-        <v>-4.36933893229541</v>
+        <v>-2.17324488564293</v>
       </c>
       <c r="AF21" t="n">
-        <v>-4.1335752667641</v>
+        <v>-1.7793916844939</v>
       </c>
       <c r="AG21" t="n">
-        <v>-3.89517226637275</v>
+        <v>-1.64863372923055</v>
       </c>
       <c r="AH21" t="n">
-        <v>-3.27787138157372</v>
+        <v>-0.864235307636701</v>
       </c>
       <c r="AI21" t="n">
-        <v>-3.71042419685112</v>
+        <v>-1.18376042131083</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-4.31119445272425</v>
+        <v>-1.70928977775176</v>
       </c>
       <c r="AK21" t="n">
-        <v>-4.26221365613121</v>
+        <v>-1.76468687557895</v>
       </c>
       <c r="AL21" t="n">
-        <v>-4.21409055771755</v>
+        <v>-2.13102197031377</v>
       </c>
       <c r="AM21" t="n">
-        <v>-3.68175511441923</v>
+        <v>-1.55104458095953</v>
       </c>
     </row>
     <row r="22">
@@ -14629,118 +14629,118 @@
         <v>161</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0413206361884287</v>
+        <v>-0.256129659848471</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.15517859843098</v>
+        <v>-1.43413422116702</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.48227832749201</v>
+        <v>-2.27418273627021</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.21155472965077</v>
+        <v>-1.66842286105915</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.08788751137776</v>
+        <v>-1.29756048846349</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.11804170893321</v>
+        <v>-1.37316444101943</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.06446060095701</v>
+        <v>-1.31495515963358</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.558184794967491</v>
+        <v>-0.597993407908916</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.969651536214116</v>
+        <v>-1.03630345312126</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.23130044484677</v>
+        <v>-1.43948260808627</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.20653847700066</v>
+        <v>-1.36320691197875</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.714358072092988</v>
+        <v>-1.08306404488151</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.449727047557591</v>
+        <v>-0.809940255668184</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.22059992525653</v>
+        <v>-0.348761514193896</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.14590889294267</v>
+        <v>-0.203944534827938</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.184600747029285</v>
+        <v>-0.404739398916354</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.176365160708581</v>
+        <v>-0.531916960228238</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.20466677414134</v>
+        <v>-0.509850401607726</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.113112880067006</v>
+        <v>-0.25098519518568</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.0834166108529202</v>
+        <v>-0.149213517334331</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.271445083237368</v>
+        <v>-0.312161156104492</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.395814173010072</v>
+        <v>-0.490300142356841</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.513057747883079</v>
+        <v>-0.648096394684801</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.401425142755058</v>
+        <v>-0.712323516946062</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.204998366197118</v>
+        <v>-0.270301144689378</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.211261921952341</v>
+        <v>-0.30315931752244</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.152213085156848</v>
+        <v>-0.57727721432699</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.170213688941867</v>
+        <v>-0.396500318480739</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.101007997378425</v>
+        <v>-0.482978598569143</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.18738963541884</v>
+        <v>-0.528680009032603</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.222522231085648</v>
+        <v>-0.463480927171865</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.205685148749715</v>
+        <v>-0.276773460992689</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.379612096608644</v>
+        <v>-0.513835726284037</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.578178790796493</v>
+        <v>-1.09342527043775</v>
       </c>
       <c r="AK22" t="n">
-        <v>-0.637042778204635</v>
+        <v>-1.25236605094413</v>
       </c>
       <c r="AL22" t="n">
-        <v>-0.69915436495512</v>
+        <v>-1.6334504481994</v>
       </c>
       <c r="AM22" t="n">
-        <v>-1.00101526241834</v>
+        <v>-1.62269479041969</v>
       </c>
     </row>
     <row r="23">
@@ -14748,118 +14748,118 @@
         <v>156</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224740549586969</v>
+        <v>0.219090881270626</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235637829983193</v>
+        <v>0.279328639956569</v>
       </c>
       <c r="E23" t="n">
-        <v>0.580292290504562</v>
+        <v>0.628893015618317</v>
       </c>
       <c r="F23" t="n">
-        <v>0.544854661858724</v>
+        <v>0.595084131323893</v>
       </c>
       <c r="G23" t="n">
-        <v>0.608812964763207</v>
+        <v>0.668646930829115</v>
       </c>
       <c r="H23" t="n">
-        <v>0.558880595984117</v>
+        <v>0.56912397205625</v>
       </c>
       <c r="I23" t="n">
-        <v>0.560035864197727</v>
+        <v>0.583700706466911</v>
       </c>
       <c r="J23" t="n">
-        <v>0.537562301829285</v>
+        <v>0.524496089908499</v>
       </c>
       <c r="K23" t="n">
-        <v>0.411578214138718</v>
+        <v>0.413257206308353</v>
       </c>
       <c r="L23" t="n">
-        <v>0.363805081871349</v>
+        <v>0.323446092730907</v>
       </c>
       <c r="M23" t="n">
-        <v>0.362008440230718</v>
+        <v>0.330859990905542</v>
       </c>
       <c r="N23" t="n">
-        <v>0.39755110328897</v>
+        <v>0.397607833742685</v>
       </c>
       <c r="O23" t="n">
-        <v>0.363973631543492</v>
+        <v>0.4087799444847</v>
       </c>
       <c r="P23" t="n">
-        <v>0.367523120552479</v>
+        <v>0.460447264548296</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.398616489327622</v>
+        <v>0.452524167256265</v>
       </c>
       <c r="R23" t="n">
-        <v>0.355715678185657</v>
+        <v>0.440829085421973</v>
       </c>
       <c r="S23" t="n">
-        <v>0.353418139089779</v>
+        <v>0.395782995044111</v>
       </c>
       <c r="T23" t="n">
-        <v>0.372269052858151</v>
+        <v>0.402367984039999</v>
       </c>
       <c r="U23" t="n">
-        <v>0.460060964670735</v>
+        <v>0.465637850279676</v>
       </c>
       <c r="V23" t="n">
-        <v>0.426514484518909</v>
+        <v>0.391402920473448</v>
       </c>
       <c r="W23" t="n">
-        <v>0.348081423570938</v>
+        <v>0.309032490640573</v>
       </c>
       <c r="X23" t="n">
-        <v>0.300333673983654</v>
+        <v>0.245272663075913</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.26830860952153</v>
+        <v>0.22501272256715</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.253057778028699</v>
+        <v>0.206124653038731</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.266890913979484</v>
+        <v>0.254258840879566</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.28440248386359</v>
+        <v>0.290704314091758</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.299753493369786</v>
+        <v>0.344377465411566</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.305626788185976</v>
+        <v>0.365495401644179</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.313873464113353</v>
+        <v>0.40201575118398</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.345380688303203</v>
+        <v>0.356478739987942</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.403234443801478</v>
+        <v>0.406856181414365</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.384338892292873</v>
+        <v>0.317440543060105</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.375590635393739</v>
+        <v>0.344293692525118</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.331649619298828</v>
+        <v>0.333057554960674</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.304683386633112</v>
+        <v>0.3590562415289</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.309011257783374</v>
+        <v>0.339448421909254</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.39879526159143</v>
+        <v>0.44931602105697</v>
       </c>
     </row>
     <row r="24">
@@ -14867,118 +14867,118 @@
         <v>152</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.328465741920295</v>
+        <v>0.404278215481467</v>
       </c>
       <c r="D24" t="n">
-        <v>0.536425277402066</v>
+        <v>0.64946909380773</v>
       </c>
       <c r="E24" t="n">
-        <v>0.570642233521676</v>
+        <v>0.615324200671067</v>
       </c>
       <c r="F24" t="n">
-        <v>0.558759305002648</v>
+        <v>0.612992193977141</v>
       </c>
       <c r="G24" t="n">
-        <v>0.648752448333592</v>
+        <v>0.714908888325015</v>
       </c>
       <c r="H24" t="n">
-        <v>0.624201670115562</v>
+        <v>0.644751028708507</v>
       </c>
       <c r="I24" t="n">
-        <v>0.626658299338197</v>
+        <v>0.661527726438634</v>
       </c>
       <c r="J24" t="n">
-        <v>0.645168965859416</v>
+        <v>0.634648110459689</v>
       </c>
       <c r="K24" t="n">
-        <v>0.49462438149504</v>
+        <v>0.500361582015275</v>
       </c>
       <c r="L24" t="n">
-        <v>0.50640046160775</v>
+        <v>0.48097656674955</v>
       </c>
       <c r="M24" t="n">
-        <v>0.489385176621596</v>
+        <v>0.468400232126133</v>
       </c>
       <c r="N24" t="n">
-        <v>0.43742456962446</v>
+        <v>0.450698463666896</v>
       </c>
       <c r="O24" t="n">
-        <v>0.464040602879074</v>
+        <v>0.558624339464715</v>
       </c>
       <c r="P24" t="n">
-        <v>0.464957596781463</v>
+        <v>0.59441306504999</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.402627903807086</v>
+        <v>0.45735916277336</v>
       </c>
       <c r="R24" t="n">
-        <v>0.370784104937502</v>
+        <v>0.464406272516939</v>
       </c>
       <c r="S24" t="n">
-        <v>0.383830027127028</v>
+        <v>0.449031386987378</v>
       </c>
       <c r="T24" t="n">
-        <v>0.410977207302088</v>
+        <v>0.463564968471568</v>
       </c>
       <c r="U24" t="n">
-        <v>0.522689904307363</v>
+        <v>0.543920596914211</v>
       </c>
       <c r="V24" t="n">
-        <v>0.515459384714611</v>
+        <v>0.485636222973795</v>
       </c>
       <c r="W24" t="n">
-        <v>0.458300424891352</v>
+        <v>0.419487426393621</v>
       </c>
       <c r="X24" t="n">
-        <v>0.447956507581323</v>
+        <v>0.401198686358646</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.399746403752637</v>
+        <v>0.371858276363592</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.387300377524479</v>
+        <v>0.394492548516742</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.393661045815465</v>
+        <v>0.395153423002034</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.407068856333249</v>
+        <v>0.437570283499074</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.346536300010951</v>
+        <v>0.439745952681708</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.337966892371658</v>
+        <v>0.417269471329133</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.34694945535197</v>
+        <v>0.472560439222236</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.381342098610943</v>
+        <v>0.416218656833313</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.475081929359114</v>
+        <v>0.506756922152028</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.485565527457147</v>
+        <v>0.419319373616515</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.497008375946894</v>
+        <v>0.482179595001378</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.509694180281456</v>
+        <v>0.612093471021346</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.487093644132937</v>
+        <v>0.671112042329743</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.468368009712401</v>
+        <v>0.651186840327012</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.653570883176097</v>
+        <v>0.826059711668484</v>
       </c>
     </row>
     <row r="25">
@@ -14986,118 +14986,118 @@
         <v>167</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1.24264552552673</v>
+        <v>0.356636794137979</v>
       </c>
       <c r="D25" t="n">
-        <v>1.50911444923548</v>
+        <v>1.09066687144938</v>
       </c>
       <c r="E25" t="n">
-        <v>0.175473149929376</v>
+        <v>0.126925618380933</v>
       </c>
       <c r="F25" t="n">
-        <v>0.630014961214113</v>
+        <v>0.685294960472915</v>
       </c>
       <c r="G25" t="n">
-        <v>0.457068497150784</v>
+        <v>0.507212442226824</v>
       </c>
       <c r="H25" t="n">
-        <v>0.706196554168507</v>
+        <v>0.717472270089269</v>
       </c>
       <c r="I25" t="n">
-        <v>0.776413979518979</v>
+        <v>1.08168533436274</v>
       </c>
       <c r="J25" t="n">
-        <v>0.814260285649091</v>
+        <v>0.866088543299129</v>
       </c>
       <c r="K25" t="n">
-        <v>0.974571537410589</v>
+        <v>0.954275415631533</v>
       </c>
       <c r="L25" t="n">
-        <v>0.709290464025544</v>
+        <v>0.952645253182943</v>
       </c>
       <c r="M25" t="n">
-        <v>0.766943865780705</v>
+        <v>0.605196287172002</v>
       </c>
       <c r="N25" t="n">
-        <v>0.37501378595455</v>
+        <v>0.355641839989612</v>
       </c>
       <c r="O25" t="n">
-        <v>0.577760303416214</v>
+        <v>0.188245645688367</v>
       </c>
       <c r="P25" t="n">
-        <v>0.71549275927872</v>
+        <v>0.399235043269357</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.180311983176445</v>
+        <v>0.182555205265907</v>
       </c>
       <c r="R25" t="n">
-        <v>0.673723821710769</v>
+        <v>0.882561357956286</v>
       </c>
       <c r="S25" t="n">
-        <v>0.474945329385768</v>
+        <v>0.702843288441212</v>
       </c>
       <c r="T25" t="n">
-        <v>0.527010616785874</v>
+        <v>0.691222284372412</v>
       </c>
       <c r="U25" t="n">
-        <v>0.413742370667308</v>
+        <v>0.650542822783121</v>
       </c>
       <c r="V25" t="n">
-        <v>0.695517360069197</v>
+        <v>0.795716519752947</v>
       </c>
       <c r="W25" t="n">
-        <v>0.870518978106877</v>
+        <v>0.879279917341068</v>
       </c>
       <c r="X25" t="n">
-        <v>0.582173643587217</v>
+        <v>0.786073092168328</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.725366847729223</v>
+        <v>0.720466913850254</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.6107264441967</v>
+        <v>0.6638116247843</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.632743474494956</v>
+        <v>0.36244996481045</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.611112817675544</v>
+        <v>0.234206948137167</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.188666862357407</v>
+        <v>0.0521401335960032</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.567636016937276</v>
+        <v>0.718687287198405</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.515622822134268</v>
+        <v>0.937999963024953</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.511134096969007</v>
+        <v>0.698349891547278</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.654989611558548</v>
+        <v>1.00782174009836</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.789684011620577</v>
+        <v>0.862181099075644</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.863114548143691</v>
+        <v>1.01003064166348</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.417335804653394</v>
+        <v>1.00442120839555</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.750692127591137</v>
+        <v>1.18916567331001</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.467454661350689</v>
+        <v>0.542632791907228</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.607844707937344</v>
+        <v>0.377521682791167</v>
       </c>
     </row>
   </sheetData>
@@ -15238,118 +15238,118 @@
         <v>168</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.315811897171963</v>
+        <v>0.426046949694894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.843966155581639</v>
+        <v>1.0625102112142</v>
       </c>
       <c r="E2" t="n">
-        <v>0.37344026734281</v>
+        <v>0.378647979510593</v>
       </c>
       <c r="F2" t="n">
-        <v>0.27959322944577</v>
+        <v>0.269838230393359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.344763073286142</v>
+        <v>0.367074336730702</v>
       </c>
       <c r="H2" t="n">
-        <v>0.269309087699605</v>
+        <v>0.218236990694101</v>
       </c>
       <c r="I2" t="n">
-        <v>0.122920237771008</v>
+        <v>0.0315553081898409</v>
       </c>
       <c r="J2" t="n">
-        <v>0.120975817951058</v>
+        <v>0.0298476752598454</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.115911166318337</v>
+        <v>-0.261989854160963</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0340601787590035</v>
+        <v>-0.128241016902339</v>
       </c>
       <c r="M2" t="n">
-        <v>0.244404067025143</v>
+        <v>0.151643961492976</v>
       </c>
       <c r="N2" t="n">
-        <v>0.33191739835863</v>
+        <v>0.290047668759947</v>
       </c>
       <c r="O2" t="n">
-        <v>0.449983017754709</v>
+        <v>0.529123747169501</v>
       </c>
       <c r="P2" t="n">
-        <v>0.498240432082183</v>
+        <v>0.643972798790711</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.364959444112395</v>
+        <v>0.423369500460557</v>
       </c>
       <c r="R2" t="n">
-        <v>0.224907837660199</v>
+        <v>0.236246871297102</v>
       </c>
       <c r="S2" t="n">
-        <v>0.12020759370001</v>
+        <v>-0.0361745716006398</v>
       </c>
       <c r="T2" t="n">
-        <v>0.023472068603836</v>
+        <v>-0.194669962399694</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0630461484473585</v>
+        <v>-0.0952376605928651</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0427805354635572</v>
+        <v>-0.196020771330821</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0338620206943176</v>
+        <v>-0.197311374277463</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0480240287411272</v>
+        <v>-0.0969345142510729</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.157593783864313</v>
+        <v>0.0482315258114928</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.232524341918607</v>
+        <v>0.141723366077089</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.220289374585252</v>
+        <v>0.181896488482023</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.289552835806442</v>
+        <v>0.284666813873878</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.254967527765052</v>
+        <v>0.253413544494156</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.231817171615408</v>
+        <v>0.232465582202618</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.176273076390374</v>
+        <v>0.0610977413269705</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.13125244233893</v>
+        <v>-0.0642004628060649</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0677977130223224</v>
+        <v>-0.160531586736722</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.0290197997057591</v>
+        <v>-0.220052356300212</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.051443824759745</v>
+        <v>-0.378506405375448</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0691600957601061</v>
+        <v>-0.278003606308568</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.15271950899421</v>
+        <v>-0.0265751297885489</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.323833986109454</v>
+        <v>0.295451508589945</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.295247491765555</v>
+        <v>0.249293060549643</v>
       </c>
     </row>
     <row r="3">
@@ -15357,118 +15357,118 @@
         <v>146</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.084612057090489</v>
+        <v>-0.333539486623809</v>
       </c>
       <c r="D3" t="n">
-        <v>0.397980647205367</v>
+        <v>0.478836868714389</v>
       </c>
       <c r="E3" t="n">
-        <v>0.586516083022124</v>
+        <v>0.637582623352301</v>
       </c>
       <c r="F3" t="n">
-        <v>0.61907338711961</v>
+        <v>0.690657794563761</v>
       </c>
       <c r="G3" t="n">
-        <v>0.619086853017352</v>
+        <v>0.680527176173379</v>
       </c>
       <c r="H3" t="n">
-        <v>0.638153150629753</v>
+        <v>0.660895290455039</v>
       </c>
       <c r="I3" t="n">
-        <v>0.482307457063291</v>
+        <v>0.492840339678858</v>
       </c>
       <c r="J3" t="n">
-        <v>0.503541540200215</v>
+        <v>0.489628625368052</v>
       </c>
       <c r="K3" t="n">
-        <v>0.555572144813399</v>
+        <v>0.564279292048458</v>
       </c>
       <c r="L3" t="n">
-        <v>0.250356760848417</v>
+        <v>0.198051341625148</v>
       </c>
       <c r="M3" t="n">
-        <v>0.289780918230744</v>
+        <v>0.25283117021525</v>
       </c>
       <c r="N3" t="n">
-        <v>0.383021592362611</v>
+        <v>0.378225330764708</v>
       </c>
       <c r="O3" t="n">
-        <v>0.36856754428464</v>
+        <v>0.415571194740238</v>
       </c>
       <c r="P3" t="n">
-        <v>0.392892978679295</v>
+        <v>0.49524820998746</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.405002079827941</v>
+        <v>0.460192393238629</v>
       </c>
       <c r="R3" t="n">
-        <v>0.338176864954786</v>
+        <v>0.413344718738891</v>
       </c>
       <c r="S3" t="n">
-        <v>0.308981894640224</v>
+        <v>0.317923590674284</v>
       </c>
       <c r="T3" t="n">
-        <v>0.360423628466529</v>
+        <v>0.383597759729229</v>
       </c>
       <c r="U3" t="n">
-        <v>0.098914257461055</v>
+        <v>0.0140998717034119</v>
       </c>
       <c r="V3" t="n">
-        <v>0.34804461852049</v>
+        <v>0.308210429514966</v>
       </c>
       <c r="W3" t="n">
-        <v>0.28441338043829</v>
+        <v>0.245183911657346</v>
       </c>
       <c r="X3" t="n">
-        <v>0.374780554775159</v>
+        <v>0.323871841229985</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.338343973003982</v>
+        <v>0.303228849989014</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.349407224787969</v>
+        <v>0.341286764427152</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.24269953492374</v>
+        <v>0.227299121680478</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.331542772714929</v>
+        <v>0.347079883779876</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.259892001357059</v>
+        <v>0.263036756785703</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.251357192998495</v>
+        <v>0.278541452167201</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.271751462139807</v>
+        <v>0.312108247337968</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.299913616927582</v>
+        <v>0.280898399557068</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.245766576359896</v>
+        <v>0.187822570924726</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.250593600754847</v>
+        <v>0.182774648061316</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.23149330261107</v>
+        <v>0.180568465096126</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.230927718836964</v>
+        <v>0.175057637399552</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.214518257610008</v>
+        <v>0.20467258503988</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.481826694109741</v>
+        <v>0.67741253284327</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.257674957250013</v>
+        <v>0.240400478422615</v>
       </c>
     </row>
     <row r="4">
@@ -15476,118 +15476,118 @@
         <v>149</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.503904157344022</v>
+        <v>0.666882741898576</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.169657905504366</v>
+        <v>-0.247244978053527</v>
       </c>
       <c r="E4" t="n">
-        <v>0.597167696387007</v>
+        <v>0.643144368352392</v>
       </c>
       <c r="F4" t="n">
-        <v>0.637345205375673</v>
+        <v>0.707111095512997</v>
       </c>
       <c r="G4" t="n">
-        <v>0.61898976525886</v>
+        <v>0.666686419675645</v>
       </c>
       <c r="H4" t="n">
-        <v>0.614039877072675</v>
+        <v>0.613457218706329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.545806043991785</v>
+        <v>0.531783556223493</v>
       </c>
       <c r="J4" t="n">
-        <v>0.623364423200868</v>
+        <v>0.578835163889981</v>
       </c>
       <c r="K4" t="n">
-        <v>0.629573981392636</v>
+        <v>0.608905949314496</v>
       </c>
       <c r="L4" t="n">
-        <v>0.636126144125787</v>
+        <v>0.572740666583791</v>
       </c>
       <c r="M4" t="n">
-        <v>0.714814437213349</v>
+        <v>0.664276993383135</v>
       </c>
       <c r="N4" t="n">
-        <v>0.652793589068983</v>
+        <v>0.702041464310658</v>
       </c>
       <c r="O4" t="n">
-        <v>0.684570063723412</v>
+        <v>0.849184539632369</v>
       </c>
       <c r="P4" t="n">
-        <v>0.718818763335399</v>
+        <v>0.912101406511699</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.726627757299202</v>
+        <v>0.842433747497941</v>
       </c>
       <c r="R4" t="n">
-        <v>0.627735430860111</v>
+        <v>0.835602014863872</v>
       </c>
       <c r="S4" t="n">
-        <v>0.597547083378712</v>
+        <v>0.776513538295936</v>
       </c>
       <c r="T4" t="n">
-        <v>0.695445061576603</v>
+        <v>0.851667833172564</v>
       </c>
       <c r="U4" t="n">
-        <v>0.782831557261801</v>
+        <v>0.816640525084861</v>
       </c>
       <c r="V4" t="n">
-        <v>0.738504460914825</v>
+        <v>0.646079348095738</v>
       </c>
       <c r="W4" t="n">
-        <v>0.71905083760602</v>
+        <v>0.604217000970868</v>
       </c>
       <c r="X4" t="n">
-        <v>0.592372425852885</v>
+        <v>0.505007641117465</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.586337517184775</v>
+        <v>0.552556573040205</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.709205699968716</v>
+        <v>0.80609352997936</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.700406198546634</v>
+        <v>0.701361002318812</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.750474328522252</v>
+        <v>0.81702998349044</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.620639269541468</v>
+        <v>0.970792255913596</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.563912324200485</v>
+        <v>0.748866702048144</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.540543631479494</v>
+        <v>0.848919810583926</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.606702586342545</v>
+        <v>0.741790974921698</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.714560125626292</v>
+        <v>0.78856494662275</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.7020106681442</v>
+        <v>0.592758673312471</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.743612123867899</v>
+        <v>0.731423860594118</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.484536436601087</v>
+        <v>0.535633806170235</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.541090748606368</v>
+        <v>0.746031546788487</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.50972177735789</v>
+        <v>0.665319765601511</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.663812457915978</v>
+        <v>0.788980235380392</v>
       </c>
     </row>
     <row r="5">
@@ -15595,118 +15595,118 @@
         <v>151</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.96015906684522</v>
+        <v>-2.90564353462198</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.38344607775983</v>
+        <v>-1.24750922253435</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.27387687364705</v>
+        <v>-0.566402491241396</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.11639649425073</v>
+        <v>-1.67585719545504</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.01116475904036</v>
+        <v>-1.92369119498721</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.21235402872972</v>
+        <v>-2.59321969735042</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.37238345267531</v>
+        <v>-2.05785487809093</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.88168933878274</v>
+        <v>-2.98305477062428</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.80778176366102</v>
+        <v>-2.98063245003017</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.13772471847246</v>
+        <v>-3.10697067299784</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.44774525177845</v>
+        <v>-3.48819312691183</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.60699619655418</v>
+        <v>-3.23131873103309</v>
       </c>
       <c r="O5" t="n">
-        <v>-2.91985977141963</v>
+        <v>-3.01264185163693</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.8572737338258</v>
+        <v>-2.55473104964823</v>
       </c>
       <c r="Q5" t="n">
-        <v>-2.83698255492569</v>
+        <v>-3.47858860547356</v>
       </c>
       <c r="R5" t="n">
-        <v>-2.00535809952579</v>
+        <v>-2.16491211494114</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.86936407982121</v>
+        <v>-2.9493863817829</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.8569725311114</v>
+        <v>-3.10764534189384</v>
       </c>
       <c r="U5" t="n">
-        <v>-2.53116069124798</v>
+        <v>-3.76669736434522</v>
       </c>
       <c r="V5" t="n">
-        <v>-2.9687692078349</v>
+        <v>-4.1179548562989</v>
       </c>
       <c r="W5" t="n">
-        <v>-3.35576761166691</v>
+        <v>-4.26759573664715</v>
       </c>
       <c r="X5" t="n">
-        <v>-3.35363461728754</v>
+        <v>-4.27678131110968</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.94930804800494</v>
+        <v>-4.17901209034066</v>
       </c>
       <c r="Z5" t="n">
-        <v>-2.65910959817198</v>
+        <v>-3.94039905451569</v>
       </c>
       <c r="AA5" t="n">
-        <v>-2.96902144662102</v>
+        <v>-4.18047347762304</v>
       </c>
       <c r="AB5" t="n">
-        <v>-2.96723940224113</v>
+        <v>-4.12124767213248</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.02360338397157</v>
+        <v>-3.0943645788427</v>
       </c>
       <c r="AD5" t="n">
-        <v>-1.82095838875594</v>
+        <v>-3.7442039410595</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1.27705123947802</v>
+        <v>-3.12703092705234</v>
       </c>
       <c r="AF5" t="n">
-        <v>-1.82620846610483</v>
+        <v>-4.00428567279558</v>
       </c>
       <c r="AG5" t="n">
-        <v>-2.04567250884134</v>
+        <v>-3.91114692994197</v>
       </c>
       <c r="AH5" t="n">
-        <v>-2.95533353920059</v>
+        <v>-4.37565229515948</v>
       </c>
       <c r="AI5" t="n">
-        <v>-2.34641337491473</v>
+        <v>-4.18807305291148</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-1.17709983863054</v>
+        <v>-3.78697620387944</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.682883003933189</v>
+        <v>-3.01947339047943</v>
       </c>
       <c r="AL5" t="n">
-        <v>-1.42310522020745</v>
+        <v>-3.26504143972603</v>
       </c>
       <c r="AM5" t="n">
-        <v>-2.05504958917668</v>
+        <v>-3.25555907314248</v>
       </c>
     </row>
     <row r="6">
@@ -15714,118 +15714,118 @@
         <v>160</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.598958914910989</v>
+        <v>0.890591239428844</v>
       </c>
       <c r="D6" t="n">
-        <v>0.481489750803344</v>
+        <v>0.581978765568983</v>
       </c>
       <c r="E6" t="n">
-        <v>0.564936442366924</v>
+        <v>0.60694315856013</v>
       </c>
       <c r="F6" t="n">
-        <v>0.474888444353306</v>
+        <v>0.504963399415994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.607730024927397</v>
+        <v>0.668339450662212</v>
       </c>
       <c r="H6" t="n">
-        <v>0.60191881005427</v>
+        <v>0.620066674859277</v>
       </c>
       <c r="I6" t="n">
-        <v>0.516924996035842</v>
+        <v>0.53553208183547</v>
       </c>
       <c r="J6" t="n">
-        <v>0.480763602274864</v>
+        <v>0.467427804728806</v>
       </c>
       <c r="K6" t="n">
-        <v>0.305672134796987</v>
+        <v>0.304886153192708</v>
       </c>
       <c r="L6" t="n">
-        <v>0.317532198830614</v>
+        <v>0.276469432399001</v>
       </c>
       <c r="M6" t="n">
-        <v>0.347486649771238</v>
+        <v>0.31710600389885</v>
       </c>
       <c r="N6" t="n">
-        <v>0.433676324861738</v>
+        <v>0.448382040157835</v>
       </c>
       <c r="O6" t="n">
-        <v>0.448245221061097</v>
+        <v>0.538617255378813</v>
       </c>
       <c r="P6" t="n">
-        <v>0.512457859133723</v>
+        <v>0.662034854219963</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.461682092376658</v>
+        <v>0.529953182561569</v>
       </c>
       <c r="R6" t="n">
-        <v>0.383821430808011</v>
+        <v>0.48684447945585</v>
       </c>
       <c r="S6" t="n">
-        <v>0.360815458244711</v>
+        <v>0.41235114897598</v>
       </c>
       <c r="T6" t="n">
-        <v>0.393326648174645</v>
+        <v>0.439450808834519</v>
       </c>
       <c r="U6" t="n">
-        <v>0.442369285399127</v>
+        <v>0.447400222547083</v>
       </c>
       <c r="V6" t="n">
-        <v>0.305372720001345</v>
+        <v>0.265847711389694</v>
       </c>
       <c r="W6" t="n">
-        <v>0.309790251586681</v>
+        <v>0.274059833659863</v>
       </c>
       <c r="X6" t="n">
-        <v>0.266657191498507</v>
+        <v>0.213781413812458</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.25100444788416</v>
+        <v>0.208748471105493</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.327079747475627</v>
+        <v>0.314274913242541</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.316240601103541</v>
+        <v>0.312334288346583</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.343829581932892</v>
+        <v>0.36493120607929</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.36789849088301</v>
+        <v>0.487584803623823</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.307948273750382</v>
+        <v>0.37200867816939</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.287431710518534</v>
+        <v>0.350120821651828</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.298952729577917</v>
+        <v>0.283942949725307</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.309305396988717</v>
+        <v>0.281623016723919</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.226867114717663</v>
+        <v>0.162788760424814</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.146229550498836</v>
+        <v>0.089755514048748</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.173648445320598</v>
+        <v>0.0954468299836668</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.281482277999795</v>
+        <v>0.326895684736148</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.297698964623169</v>
+        <v>0.324617521562253</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.59355251631122</v>
+        <v>0.742676814722561</v>
       </c>
     </row>
     <row r="7">
@@ -15833,118 +15833,118 @@
         <v>166</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0737342611631326</v>
+        <v>-0.218558401811398</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.22547571994195</v>
+        <v>-0.170705551818383</v>
       </c>
       <c r="E7" t="n">
-        <v>0.350478252552688</v>
+        <v>0.245920791595946</v>
       </c>
       <c r="F7" t="n">
-        <v>0.597767778085714</v>
+        <v>0.795578796942821</v>
       </c>
       <c r="G7" t="n">
-        <v>0.532710968636921</v>
+        <v>0.707655233503661</v>
       </c>
       <c r="H7" t="n">
-        <v>0.521442377857037</v>
+        <v>0.65679004798484</v>
       </c>
       <c r="I7" t="n">
-        <v>0.579938967308877</v>
+        <v>0.588718673074732</v>
       </c>
       <c r="J7" t="n">
-        <v>0.447896329843623</v>
+        <v>0.586536157578907</v>
       </c>
       <c r="K7" t="n">
-        <v>0.508549743108916</v>
+        <v>0.558899156449614</v>
       </c>
       <c r="L7" t="n">
-        <v>0.753194748131429</v>
+        <v>1.01748543634418</v>
       </c>
       <c r="M7" t="n">
-        <v>0.468868587136217</v>
+        <v>0.528480713455926</v>
       </c>
       <c r="N7" t="n">
-        <v>0.320173735645678</v>
+        <v>0.512450739234954</v>
       </c>
       <c r="O7" t="n">
-        <v>0.573607351212477</v>
+        <v>0.694206729841871</v>
       </c>
       <c r="P7" t="n">
-        <v>0.467795090056448</v>
+        <v>0.798763372672578</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.473813671527795</v>
+        <v>0.552486501408313</v>
       </c>
       <c r="R7" t="n">
-        <v>0.325698433441075</v>
+        <v>0.582962731089098</v>
       </c>
       <c r="S7" t="n">
-        <v>0.308896751733265</v>
+        <v>0.571458002836073</v>
       </c>
       <c r="T7" t="n">
-        <v>0.317997569276122</v>
+        <v>0.524916439875958</v>
       </c>
       <c r="U7" t="n">
-        <v>0.500404125809687</v>
+        <v>0.561196843019303</v>
       </c>
       <c r="V7" t="n">
-        <v>0.314902525128948</v>
+        <v>0.450206761803696</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4194320593795</v>
+        <v>0.473598315808745</v>
       </c>
       <c r="X7" t="n">
-        <v>0.240902214706046</v>
+        <v>0.417603126332784</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.021202866886596</v>
+        <v>0.0340634284500856</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.144166217246684</v>
+        <v>0.262461576756983</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.419919702214395</v>
+        <v>0.463957653256917</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.370441276564108</v>
+        <v>0.649134749428181</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.32884521177906</v>
+        <v>0.467637754114706</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.357705187965196</v>
+        <v>0.663430335369693</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.298169517747892</v>
+        <v>0.669439469535099</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.34303756437349</v>
+        <v>0.619031033262379</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.477389165944551</v>
+        <v>0.671319944124866</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.327777759023749</v>
+        <v>0.479057590070313</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0494402909784931</v>
+        <v>0.188482293539221</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.0637833667163329</v>
+        <v>0.293202843254494</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.284103739406017</v>
+        <v>-0.40284280104778</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.106904489759694</v>
+        <v>0.330332109314975</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.538844643879973</v>
+        <v>0.820953503259188</v>
       </c>
     </row>
     <row r="8">
@@ -15952,118 +15952,118 @@
         <v>158</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.154887758313789</v>
+        <v>-0.451102343918106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.473655351226997</v>
+        <v>0.555676407081991</v>
       </c>
       <c r="E8" t="n">
-        <v>0.352959558247265</v>
+        <v>0.331930851304204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.20434802904374</v>
+        <v>0.164150502896138</v>
       </c>
       <c r="G8" t="n">
-        <v>0.469064631987722</v>
+        <v>0.515284834625333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.526582097788836</v>
+        <v>0.535762889489358</v>
       </c>
       <c r="I8" t="n">
-        <v>0.547776076869346</v>
+        <v>0.568726928013433</v>
       </c>
       <c r="J8" t="n">
-        <v>0.546617257578555</v>
+        <v>0.531912249517135</v>
       </c>
       <c r="K8" t="n">
-        <v>0.506074644669986</v>
+        <v>0.503763536858697</v>
       </c>
       <c r="L8" t="n">
-        <v>0.438412389043761</v>
+        <v>0.391065184022445</v>
       </c>
       <c r="M8" t="n">
-        <v>0.346289045059164</v>
+        <v>0.310775294220102</v>
       </c>
       <c r="N8" t="n">
-        <v>0.388821041927706</v>
+        <v>0.382123417240958</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0212147952864516</v>
+        <v>-0.103318418863897</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0792425279578459</v>
+        <v>0.0462841192013858</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.311175458256614</v>
+        <v>0.368928846890061</v>
       </c>
       <c r="R8" t="n">
-        <v>0.235634253361033</v>
+        <v>0.258868367341034</v>
       </c>
       <c r="S8" t="n">
-        <v>0.322517992612581</v>
+        <v>0.346047215629045</v>
       </c>
       <c r="T8" t="n">
-        <v>0.404337467838974</v>
+        <v>0.451739914776835</v>
       </c>
       <c r="U8" t="n">
-        <v>0.525502980232541</v>
+        <v>0.546962308423651</v>
       </c>
       <c r="V8" t="n">
-        <v>0.560198515074695</v>
+        <v>0.532816540858593</v>
       </c>
       <c r="W8" t="n">
-        <v>0.454140056126699</v>
+        <v>0.40853848795811</v>
       </c>
       <c r="X8" t="n">
-        <v>0.419872445543027</v>
+        <v>0.356592219418224</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.378427418448192</v>
+        <v>0.342468290209901</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.335934602614245</v>
+        <v>0.320072286166633</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.125772405634017</v>
+        <v>0.0989014146742953</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.052758378421743</v>
+        <v>-0.122457890731967</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.186180319602795</v>
+        <v>0.153579063182048</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.25986001918491</v>
+        <v>0.318429020829111</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.318191259169011</v>
+        <v>0.415972126182064</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.354198158891914</v>
+        <v>0.364833656193271</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.404093559579408</v>
+        <v>0.393559901272996</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.384212042168603</v>
+        <v>0.311021282679022</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.417317694861524</v>
+        <v>0.380888688615444</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.379483186194864</v>
+        <v>0.365496236969664</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.445175517913988</v>
+        <v>0.583391493760119</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.315583148263491</v>
+        <v>0.353373033606275</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0832602050353186</v>
+        <v>-0.0165981692511586</v>
       </c>
     </row>
     <row r="9">
@@ -16071,118 +16071,118 @@
         <v>154</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.300496366886432</v>
+        <v>0.357156454002938</v>
       </c>
       <c r="D9" t="n">
-        <v>0.134764397877634</v>
+        <v>0.217038443439895</v>
       </c>
       <c r="E9" t="n">
-        <v>0.248323590489392</v>
+        <v>0.152534240431508</v>
       </c>
       <c r="F9" t="n">
-        <v>0.38584328033354</v>
+        <v>0.385739360145224</v>
       </c>
       <c r="G9" t="n">
-        <v>0.600697140282484</v>
+        <v>0.635186224114055</v>
       </c>
       <c r="H9" t="n">
-        <v>0.612713634551445</v>
+        <v>0.605977987005525</v>
       </c>
       <c r="I9" t="n">
-        <v>0.757738318639828</v>
+        <v>0.759694408532352</v>
       </c>
       <c r="J9" t="n">
-        <v>0.737273246524364</v>
+        <v>0.66801238520552</v>
       </c>
       <c r="K9" t="n">
-        <v>0.662799718114738</v>
+        <v>0.6208003049349</v>
       </c>
       <c r="L9" t="n">
-        <v>0.632868160307256</v>
+        <v>0.55814132761004</v>
       </c>
       <c r="M9" t="n">
-        <v>0.654928933677502</v>
+        <v>0.588111895043843</v>
       </c>
       <c r="N9" t="n">
-        <v>0.614425804531706</v>
+        <v>0.643813660335839</v>
       </c>
       <c r="O9" t="n">
-        <v>0.635414802321587</v>
+        <v>0.786040317897828</v>
       </c>
       <c r="P9" t="n">
-        <v>0.581981148397255</v>
+        <v>0.7873227632267</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.57801963751094</v>
+        <v>0.653400997993475</v>
       </c>
       <c r="R9" t="n">
-        <v>0.526538531465152</v>
+        <v>0.677823611703417</v>
       </c>
       <c r="S9" t="n">
-        <v>0.521525008184929</v>
+        <v>0.637028395013522</v>
       </c>
       <c r="T9" t="n">
-        <v>0.562129456689609</v>
+        <v>0.640604840949695</v>
       </c>
       <c r="U9" t="n">
-        <v>0.664902093658568</v>
+        <v>0.649816346050447</v>
       </c>
       <c r="V9" t="n">
-        <v>0.721766433742936</v>
+        <v>0.63534849156547</v>
       </c>
       <c r="W9" t="n">
-        <v>0.628503921463768</v>
+        <v>0.530933022459895</v>
       </c>
       <c r="X9" t="n">
-        <v>0.587281106688959</v>
+        <v>0.487566706002316</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.561826544490405</v>
+        <v>0.500509086813452</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.506549959376482</v>
+        <v>0.511619445096054</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.454451950155386</v>
+        <v>0.451121967142537</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.435498553609791</v>
+        <v>0.507229012458084</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.437024552601531</v>
+        <v>0.606270115338205</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.403934271045771</v>
+        <v>0.515351078341329</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.385605082909597</v>
+        <v>0.534965065194363</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.415384976082666</v>
+        <v>0.449314191426648</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.462470949590491</v>
+        <v>0.461242600344524</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.477566073070902</v>
+        <v>0.366469771928927</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.549999208958469</v>
+        <v>0.463314649733238</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.548581575565558</v>
+        <v>0.576337504180122</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.540445789952866</v>
+        <v>0.66113965989337</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.532808255910738</v>
+        <v>0.704599879121504</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.442412641016957</v>
+        <v>0.492215377353983</v>
       </c>
     </row>
     <row r="10">
@@ -16190,118 +16190,118 @@
         <v>153</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.775177575740808</v>
+        <v>1.20944393895634</v>
       </c>
       <c r="D10" t="n">
-        <v>1.33887239376439</v>
+        <v>1.6338680186325</v>
       </c>
       <c r="E10" t="n">
-        <v>0.937520737322887</v>
+        <v>1.12087776321937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.582876182119267</v>
+        <v>0.640256765954976</v>
       </c>
       <c r="G10" t="n">
-        <v>0.634055382911413</v>
+        <v>0.692135502877018</v>
       </c>
       <c r="H10" t="n">
-        <v>0.645427124853394</v>
+        <v>0.659913772373629</v>
       </c>
       <c r="I10" t="n">
-        <v>0.76417953788773</v>
+        <v>0.802936169579027</v>
       </c>
       <c r="J10" t="n">
-        <v>0.725270732798045</v>
+        <v>0.691405206583898</v>
       </c>
       <c r="K10" t="n">
-        <v>0.514851882828066</v>
+        <v>0.498609468356782</v>
       </c>
       <c r="L10" t="n">
-        <v>0.490977359163247</v>
+        <v>0.449931350824197</v>
       </c>
       <c r="M10" t="n">
-        <v>0.500261426471068</v>
+        <v>0.471959026987132</v>
       </c>
       <c r="N10" t="n">
-        <v>0.460851831028172</v>
+        <v>0.48539778367253</v>
       </c>
       <c r="O10" t="n">
-        <v>0.432920733017697</v>
+        <v>0.514838850751739</v>
       </c>
       <c r="P10" t="n">
-        <v>0.358004921362081</v>
+        <v>0.44581488584131</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.397635439232763</v>
+        <v>0.446409854861869</v>
       </c>
       <c r="R10" t="n">
-        <v>0.383213344492979</v>
+        <v>0.480648607529869</v>
       </c>
       <c r="S10" t="n">
-        <v>0.400422096836175</v>
+        <v>0.471091577234944</v>
       </c>
       <c r="T10" t="n">
-        <v>0.416961905050668</v>
+        <v>0.461841967481498</v>
       </c>
       <c r="U10" t="n">
-        <v>0.423074280191287</v>
+        <v>0.40474731288332</v>
       </c>
       <c r="V10" t="n">
-        <v>0.446470801991784</v>
+        <v>0.393827579289734</v>
       </c>
       <c r="W10" t="n">
-        <v>0.390349513116468</v>
+        <v>0.337583881694397</v>
       </c>
       <c r="X10" t="n">
-        <v>0.331856444815731</v>
+        <v>0.270875180947109</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.337796417816337</v>
+        <v>0.297573853795821</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.329024265544657</v>
+        <v>0.316067748826758</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.365821904857159</v>
+        <v>0.365983971372054</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.365008854615809</v>
+        <v>0.386511286350852</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.338929198624342</v>
+        <v>0.417418283736331</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.34207604642359</v>
+        <v>0.421740364335549</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.354122104352605</v>
+        <v>0.482754543260689</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.380224320799379</v>
+        <v>0.406231604146817</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.41594999046734</v>
+        <v>0.411624822590542</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.418433417971288</v>
+        <v>0.336790913959481</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.389724861586273</v>
+        <v>0.344309379329855</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.304939721085297</v>
+        <v>0.277962438110489</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.337895083980961</v>
+        <v>0.408018318109366</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.333845854083567</v>
+        <v>0.391729995943539</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.386196846149933</v>
+        <v>0.432550291701741</v>
       </c>
     </row>
     <row r="11">
@@ -16309,118 +16309,118 @@
         <v>162</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.328458496188255</v>
+        <v>0.40426672084997</v>
       </c>
       <c r="D11" t="n">
-        <v>0.314259927972895</v>
+        <v>0.376092821489366</v>
       </c>
       <c r="E11" t="n">
-        <v>0.570094293983828</v>
+        <v>0.614554221925317</v>
       </c>
       <c r="F11" t="n">
-        <v>0.578267964905633</v>
+        <v>0.638116720630725</v>
       </c>
       <c r="G11" t="n">
-        <v>0.643120215300064</v>
+        <v>0.708385283776178</v>
       </c>
       <c r="H11" t="n">
-        <v>0.617825289025532</v>
+        <v>0.637368730870915</v>
       </c>
       <c r="I11" t="n">
-        <v>0.663297496667362</v>
+        <v>0.704328435917921</v>
       </c>
       <c r="J11" t="n">
-        <v>0.640352820589467</v>
+        <v>0.629718294973436</v>
       </c>
       <c r="K11" t="n">
-        <v>0.550985528886197</v>
+        <v>0.559476389903203</v>
       </c>
       <c r="L11" t="n">
-        <v>0.502055059839236</v>
+        <v>0.476176274146164</v>
       </c>
       <c r="M11" t="n">
-        <v>0.50148483709745</v>
+        <v>0.481465387185519</v>
       </c>
       <c r="N11" t="n">
-        <v>0.493267669296672</v>
+        <v>0.525051263950258</v>
       </c>
       <c r="O11" t="n">
-        <v>0.49194988389447</v>
+        <v>0.600416696234587</v>
       </c>
       <c r="P11" t="n">
-        <v>0.46338235362754</v>
+        <v>0.592248018033605</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.468977749855502</v>
+        <v>0.537321439378832</v>
       </c>
       <c r="R11" t="n">
-        <v>0.422523475119486</v>
+        <v>0.545358998134681</v>
       </c>
       <c r="S11" t="n">
-        <v>0.431436676073208</v>
+        <v>0.532384684861556</v>
       </c>
       <c r="T11" t="n">
-        <v>0.450665180163821</v>
+        <v>0.526310160226999</v>
       </c>
       <c r="U11" t="n">
-        <v>0.556318088533426</v>
+        <v>0.585953699671443</v>
       </c>
       <c r="V11" t="n">
-        <v>0.536919949143137</v>
+        <v>0.50837284414428</v>
       </c>
       <c r="W11" t="n">
-        <v>0.486557872109317</v>
+        <v>0.447805259439194</v>
       </c>
       <c r="X11" t="n">
-        <v>0.455406780149886</v>
+        <v>0.409068193781714</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.446746765515498</v>
+        <v>0.424368053464795</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.444420603985436</v>
+        <v>0.47464256276226</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.448654625974028</v>
+        <v>0.456273796791632</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.461055168074968</v>
+        <v>0.502206605427763</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.399316832440765</v>
+        <v>0.547339611979753</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.394756412327909</v>
+        <v>0.508183078778698</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.396874772926507</v>
+        <v>0.579040018772591</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.432296130404297</v>
+        <v>0.500863790581353</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.500413760952375</v>
+        <v>0.541979612593018</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.517944591240519</v>
+        <v>0.451906937006212</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.56187614669388</v>
+        <v>0.555845401320441</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.539819035482491</v>
+        <v>0.659306924350032</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.52337347651907</v>
+        <v>0.733178712513686</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.472624091415996</v>
+        <v>0.659517769406339</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.549407991677346</v>
+        <v>0.672034024329188</v>
       </c>
     </row>
     <row r="12">
@@ -16428,118 +16428,118 @@
         <v>148</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.145890727172327</v>
+        <v>0.0782980764738053</v>
       </c>
       <c r="D12" t="n">
-        <v>0.18000830162918</v>
+        <v>0.210829198904089</v>
       </c>
       <c r="E12" t="n">
-        <v>0.450524332243699</v>
+        <v>0.446375076522306</v>
       </c>
       <c r="F12" t="n">
-        <v>0.531217277436966</v>
+        <v>0.577518445303639</v>
       </c>
       <c r="G12" t="n">
-        <v>0.61300578344463</v>
+        <v>0.673501079764711</v>
       </c>
       <c r="H12" t="n">
-        <v>0.596489927390678</v>
+        <v>0.612665813906062</v>
       </c>
       <c r="I12" t="n">
-        <v>0.664221188116379</v>
+        <v>0.705404985277231</v>
       </c>
       <c r="J12" t="n">
-        <v>0.641166854020725</v>
+        <v>0.630549326557717</v>
       </c>
       <c r="K12" t="n">
-        <v>0.54292562373556</v>
+        <v>0.551023343028312</v>
       </c>
       <c r="L12" t="n">
-        <v>0.559592633936916</v>
+        <v>0.539739899098285</v>
       </c>
       <c r="M12" t="n">
-        <v>0.471530163209753</v>
+        <v>0.449118658400356</v>
       </c>
       <c r="N12" t="n">
-        <v>0.455945217653947</v>
+        <v>0.475355658261942</v>
       </c>
       <c r="O12" t="n">
-        <v>0.408833200832013</v>
+        <v>0.475948866107821</v>
       </c>
       <c r="P12" t="n">
-        <v>0.431589170955626</v>
+        <v>0.548526622942251</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.418221315965684</v>
+        <v>0.476150240596383</v>
       </c>
       <c r="R12" t="n">
-        <v>0.398586587573016</v>
+        <v>0.507905604707149</v>
       </c>
       <c r="S12" t="n">
-        <v>0.394194780338284</v>
+        <v>0.467175828346025</v>
       </c>
       <c r="T12" t="n">
-        <v>0.438457365497192</v>
+        <v>0.507008200701961</v>
       </c>
       <c r="U12" t="n">
-        <v>0.550907441600084</v>
+        <v>0.579190275214338</v>
       </c>
       <c r="V12" t="n">
-        <v>0.505577792557785</v>
+        <v>0.47516424039261</v>
       </c>
       <c r="W12" t="n">
-        <v>0.45817331428204</v>
+        <v>0.419358658534475</v>
       </c>
       <c r="X12" t="n">
-        <v>0.446058791064169</v>
+        <v>0.399192498354967</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.38012530538123</v>
+        <v>0.349934290570791</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.393542468014167</v>
+        <v>0.40324987899512</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.339589073806284</v>
+        <v>0.335053911997897</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.414395709820212</v>
+        <v>0.446339564567048</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.34029296582339</v>
+        <v>0.427014325891427</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.336947551627136</v>
+        <v>0.415632161005695</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.341440361810852</v>
+        <v>0.460805666427913</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.398945410450937</v>
+        <v>0.445459575748408</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.453634741541854</v>
+        <v>0.476933648732884</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.460703661152996</v>
+        <v>0.39429599191155</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.487002481936819</v>
+        <v>0.470812831873045</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.438759422790052</v>
+        <v>0.500912230431266</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.390190919442881</v>
+        <v>0.505322437131709</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.407902667999028</v>
+        <v>0.532876636127725</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.450537990365314</v>
+        <v>0.525816964721206</v>
       </c>
     </row>
     <row r="13">
@@ -16547,118 +16547,118 @@
         <v>159</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.177439726487593</v>
+        <v>-0.571551166353965</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0965041643498893</v>
+        <v>0.0986851178371809</v>
       </c>
       <c r="E13" t="n">
-        <v>0.265045861399518</v>
+        <v>0.187458864136977</v>
       </c>
       <c r="F13" t="n">
-        <v>0.324423858895541</v>
+        <v>0.304551147519004</v>
       </c>
       <c r="G13" t="n">
-        <v>0.425250118915179</v>
+        <v>0.449331223138882</v>
       </c>
       <c r="H13" t="n">
-        <v>0.464160081074628</v>
+        <v>0.463666838105788</v>
       </c>
       <c r="I13" t="n">
-        <v>0.50756568111923</v>
+        <v>0.535292765248639</v>
       </c>
       <c r="J13" t="n">
-        <v>0.493589325971034</v>
+        <v>0.487206410744057</v>
       </c>
       <c r="K13" t="n">
-        <v>0.421278610440408</v>
+        <v>0.430632069855794</v>
       </c>
       <c r="L13" t="n">
-        <v>0.319384865493943</v>
+        <v>0.283012969120963</v>
       </c>
       <c r="M13" t="n">
-        <v>0.328891524282891</v>
+        <v>0.306771355787288</v>
       </c>
       <c r="N13" t="n">
-        <v>0.435257103141287</v>
+        <v>0.454548917708516</v>
       </c>
       <c r="O13" t="n">
-        <v>0.376384556666381</v>
+        <v>0.408579995026013</v>
       </c>
       <c r="P13" t="n">
-        <v>0.43127272907826</v>
+        <v>0.545464779674762</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.455621735358564</v>
+        <v>0.521908737978481</v>
       </c>
       <c r="R13" t="n">
-        <v>0.424996706212931</v>
+        <v>0.537219893031802</v>
       </c>
       <c r="S13" t="n">
-        <v>0.433033086018365</v>
+        <v>0.512614689051601</v>
       </c>
       <c r="T13" t="n">
-        <v>0.457952546609038</v>
+        <v>0.53984999202688</v>
       </c>
       <c r="U13" t="n">
-        <v>0.521260575961105</v>
+        <v>0.54607780799829</v>
       </c>
       <c r="V13" t="n">
-        <v>0.560363344715672</v>
+        <v>0.54908978912316</v>
       </c>
       <c r="W13" t="n">
-        <v>0.50311800453371</v>
+        <v>0.474578314279843</v>
       </c>
       <c r="X13" t="n">
-        <v>0.48518565072861</v>
+        <v>0.442937764732364</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.484624607879233</v>
+        <v>0.484055221457818</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.527233730397732</v>
+        <v>0.603645224949008</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.494956884571122</v>
+        <v>0.499825135867217</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.515318565763542</v>
+        <v>0.567419571021427</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.440554017817083</v>
+        <v>0.631918760936177</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.422447411053711</v>
+        <v>0.548083619418011</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.410998795505174</v>
+        <v>0.575771274768382</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.440607391136404</v>
+        <v>0.516743433709384</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.491049536414766</v>
+        <v>0.539201838463142</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.522004119443952</v>
+        <v>0.476218030939915</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.572737880955206</v>
+        <v>0.589311037412393</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.564350298095174</v>
+        <v>0.741305894372209</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.57747953724723</v>
+        <v>0.860956555990327</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.50696086178791</v>
+        <v>0.746306577249754</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.411498610027108</v>
+        <v>0.471951437506103</v>
       </c>
     </row>
     <row r="14">
@@ -16666,118 +16666,118 @@
         <v>163</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.185251675345801</v>
+        <v>-0.48554756866091</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.963899971861078</v>
+        <v>-1.88837616354531</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.50788239511026</v>
+        <v>-2.42424924695859</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.6767332256062</v>
+        <v>-2.23806880054239</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.66498573617429</v>
+        <v>-1.88339977696663</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.63005356474881</v>
+        <v>-1.88353519027799</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.459950832778383</v>
+        <v>-0.546924526880192</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.100746569061933</v>
+        <v>-0.145722316575185</v>
       </c>
       <c r="K14" t="n">
-        <v>0.208444261222317</v>
+        <v>0.25499991068495</v>
       </c>
       <c r="L14" t="n">
-        <v>0.736142004148632</v>
+        <v>0.927417538637627</v>
       </c>
       <c r="M14" t="n">
-        <v>0.890399433579548</v>
+        <v>1.03780852876711</v>
       </c>
       <c r="N14" t="n">
-        <v>0.752719609229149</v>
+        <v>0.968407799914453</v>
       </c>
       <c r="O14" t="n">
-        <v>0.740631425364499</v>
+        <v>0.932872894692693</v>
       </c>
       <c r="P14" t="n">
-        <v>0.543506802645892</v>
+        <v>0.345018750772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.388228448445641</v>
+        <v>0.252752160506186</v>
       </c>
       <c r="R14" t="n">
-        <v>0.467420867300894</v>
+        <v>0.504409988049966</v>
       </c>
       <c r="S14" t="n">
-        <v>0.382874138194982</v>
+        <v>0.429554962951412</v>
       </c>
       <c r="T14" t="n">
-        <v>0.280017344713396</v>
+        <v>0.269426290938019</v>
       </c>
       <c r="U14" t="n">
-        <v>0.253670026583577</v>
+        <v>0.231653977135078</v>
       </c>
       <c r="V14" t="n">
-        <v>0.104986777969894</v>
+        <v>0.0193313441371781</v>
       </c>
       <c r="W14" t="n">
-        <v>0.118727164010719</v>
+        <v>0.0814346362279376</v>
       </c>
       <c r="X14" t="n">
-        <v>0.407178262083364</v>
+        <v>0.370547055000358</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.435942464065473</v>
+        <v>0.368927563180167</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.355610222365228</v>
+        <v>0.2408222443703</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.456191256959447</v>
+        <v>0.30241419167992</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.505756247398134</v>
+        <v>0.155928030573366</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.353006863447973</v>
+        <v>-0.0110091882025986</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.100092421911839</v>
+        <v>-0.125658740328473</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0181498548115814</v>
+        <v>-0.31686481668349</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.134695710875974</v>
+        <v>-0.0472689172687275</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0879231513370861</v>
+        <v>-0.0732950948966295</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.0304117043369162</v>
+        <v>-0.181524772001959</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.1876468433727</v>
+        <v>-0.367979865682274</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.155560605522842</v>
+        <v>-0.548222470024632</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.140151350632734</v>
+        <v>-0.158276040073575</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.227872218521672</v>
+        <v>-0.132432495300328</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0.543198535343511</v>
+        <v>-1.2848150904941</v>
       </c>
     </row>
     <row r="15">
@@ -16785,118 +16785,118 @@
         <v>150</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.485207065525995</v>
+        <v>-1.05584040121454</v>
       </c>
       <c r="D15" t="n">
-        <v>0.158483193632879</v>
+        <v>0.189138440713365</v>
       </c>
       <c r="E15" t="n">
-        <v>0.356118081157501</v>
+        <v>0.320764714428186</v>
       </c>
       <c r="F15" t="n">
-        <v>0.453815020097613</v>
+        <v>0.484093808816254</v>
       </c>
       <c r="G15" t="n">
-        <v>0.577687400304789</v>
+        <v>0.634451202076889</v>
       </c>
       <c r="H15" t="n">
-        <v>0.562670319293604</v>
+        <v>0.575348156882788</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0384299755482956</v>
+        <v>-0.0203628556556565</v>
       </c>
       <c r="J15" t="n">
-        <v>0.370072680031237</v>
+        <v>0.351467347830549</v>
       </c>
       <c r="K15" t="n">
-        <v>0.396602771758686</v>
+        <v>0.400294714354557</v>
       </c>
       <c r="L15" t="n">
-        <v>0.552348566455917</v>
+        <v>0.522495231293047</v>
       </c>
       <c r="M15" t="n">
-        <v>0.882542209445945</v>
+        <v>0.888641651187097</v>
       </c>
       <c r="N15" t="n">
-        <v>0.591408682406378</v>
+        <v>0.656395575498933</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0182314793492276</v>
+        <v>-0.11194717704895</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0332699224735241</v>
+        <v>0.002474232794863</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.176461354588328</v>
+        <v>0.191241070974852</v>
       </c>
       <c r="R15" t="n">
-        <v>0.255688152316182</v>
+        <v>0.295483819665696</v>
       </c>
       <c r="S15" t="n">
-        <v>0.374793417115265</v>
+        <v>0.439964312385393</v>
       </c>
       <c r="T15" t="n">
-        <v>0.370281024470997</v>
+        <v>0.404651259495188</v>
       </c>
       <c r="U15" t="n">
-        <v>0.268257798720261</v>
+        <v>0.234238810722884</v>
       </c>
       <c r="V15" t="n">
-        <v>0.161436780029526</v>
+        <v>0.110115013778057</v>
       </c>
       <c r="W15" t="n">
-        <v>0.329553512182748</v>
+        <v>0.292012491388422</v>
       </c>
       <c r="X15" t="n">
-        <v>0.606817706545782</v>
+        <v>0.546323914676924</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.879476900497695</v>
+        <v>0.897118769296236</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.818576109105934</v>
+        <v>0.997433698731569</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.240991510747006</v>
+        <v>0.223504410523668</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.0402736740957132</v>
+        <v>-0.0999022477653644</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0684850824223089</v>
+        <v>-0.116991460983007</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.181790162747868</v>
+        <v>0.177046816322032</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.320508656400047</v>
+        <v>0.424703315791792</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.289061377704863</v>
+        <v>0.269216829561883</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.200331864350261</v>
+        <v>0.134634242577612</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0474689141741426</v>
+        <v>-0.0202666378611454</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.163492762321862</v>
+        <v>0.104019605306611</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.481662183155053</v>
+        <v>0.527467527825891</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.612419646443948</v>
+        <v>0.858151080447827</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.361644276019678</v>
+        <v>0.43144297340168</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.0255097313919742</v>
+        <v>-0.184444800911837</v>
       </c>
     </row>
     <row r="16">
@@ -16904,118 +16904,118 @@
         <v>164</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.319873974023437</v>
+        <v>0.388941775062782</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.13851821031735</v>
+        <v>-0.181058118347848</v>
       </c>
       <c r="E16" t="n">
-        <v>0.103045559767759</v>
+        <v>-0.0422995973501399</v>
       </c>
       <c r="F16" t="n">
-        <v>0.37233183892466</v>
+        <v>0.372898627430997</v>
       </c>
       <c r="G16" t="n">
-        <v>0.631139046813798</v>
+        <v>0.694507647140737</v>
       </c>
       <c r="H16" t="n">
-        <v>0.621819592773899</v>
+        <v>0.641993196652921</v>
       </c>
       <c r="I16" t="n">
-        <v>0.564559564953127</v>
+        <v>0.588987086272937</v>
       </c>
       <c r="J16" t="n">
-        <v>0.536235166380094</v>
+        <v>0.523139327920827</v>
       </c>
       <c r="K16" t="n">
-        <v>0.419512703679142</v>
+        <v>0.421580350146332</v>
       </c>
       <c r="L16" t="n">
-        <v>0.320785865076144</v>
+        <v>0.275923303341701</v>
       </c>
       <c r="M16" t="n">
-        <v>0.35008090214404</v>
+        <v>0.317982433358863</v>
       </c>
       <c r="N16" t="n">
-        <v>0.356047563209379</v>
+        <v>0.342349776065166</v>
       </c>
       <c r="O16" t="n">
-        <v>0.687487895518719</v>
+        <v>0.893217765562892</v>
       </c>
       <c r="P16" t="n">
-        <v>0.646796962533498</v>
+        <v>0.8444248302851</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.569033880236063</v>
+        <v>0.657904764769356</v>
       </c>
       <c r="R16" t="n">
-        <v>0.510042481920467</v>
+        <v>0.682293130850913</v>
       </c>
       <c r="S16" t="n">
-        <v>0.491675960290623</v>
+        <v>0.637855665208495</v>
       </c>
       <c r="T16" t="n">
-        <v>0.452157770621968</v>
+        <v>0.528669913315479</v>
       </c>
       <c r="U16" t="n">
-        <v>0.490518892020524</v>
+        <v>0.503709341565888</v>
       </c>
       <c r="V16" t="n">
-        <v>0.419319766635615</v>
+        <v>0.38378231877679</v>
       </c>
       <c r="W16" t="n">
-        <v>0.369213267663893</v>
+        <v>0.330210671422693</v>
       </c>
       <c r="X16" t="n">
-        <v>0.294349250804207</v>
+        <v>0.23895346853589</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.162938319652952</v>
+        <v>0.107293230713445</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.125691099152662</v>
+        <v>0.0274095370733488</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.12119930845951</v>
+        <v>0.0923388946979786</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.291891140441281</v>
+        <v>0.299673391021207</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.433866823925157</v>
+        <v>0.617769675053502</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.360087774849252</v>
+        <v>0.452682635880395</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.341670495351274</v>
+        <v>0.461302133848518</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.327547889664048</v>
+        <v>0.326856221904234</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.353869235808319</v>
+        <v>0.338218052382127</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.323731924167565</v>
+        <v>0.256444798706621</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.325258539042255</v>
+        <v>0.287137430763811</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.247656422236672</v>
+        <v>0.201426312885842</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.175882983874042</v>
+        <v>0.13871971879858</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.0474817647572048</v>
+        <v>-0.357913692844849</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.138042163148455</v>
+        <v>0.0637432951015156</v>
       </c>
     </row>
     <row r="17">
@@ -17023,118 +17023,118 @@
         <v>155</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.450825680930454</v>
+        <v>-1.98626914745867</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0844947505743112</v>
+        <v>-2.92248238104564</v>
       </c>
       <c r="E17" t="n">
-        <v>1.08493213434313</v>
+        <v>1.22154216890602</v>
       </c>
       <c r="F17" t="n">
-        <v>1.05459009500741</v>
+        <v>0.982809738708909</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.298030789979341</v>
+        <v>-1.6478973337988</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.236554993957992</v>
+        <v>-0.172194526908613</v>
       </c>
       <c r="I17" t="n">
-        <v>0.121758978348808</v>
+        <v>0.237380118841006</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.632735511623859</v>
+        <v>-0.49718199719918</v>
       </c>
       <c r="K17" t="n">
-        <v>0.303035438825613</v>
+        <v>0.395354586620561</v>
       </c>
       <c r="L17" t="n">
-        <v>0.362699627880559</v>
+        <v>0.312675721859656</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.024544098922948</v>
+        <v>0.112127001698276</v>
       </c>
       <c r="N17" t="n">
-        <v>0.018743720893058</v>
+        <v>0.0588531166099332</v>
       </c>
       <c r="O17" t="n">
-        <v>0.348621651459093</v>
+        <v>0.247505955436142</v>
       </c>
       <c r="P17" t="n">
-        <v>0.063176414849279</v>
+        <v>-1.71229177364379</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0628208111520947</v>
+        <v>-1.40543818745831</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0021426982303082</v>
+        <v>-1.92248995165824</v>
       </c>
       <c r="S17" t="n">
-        <v>0.111914388485448</v>
+        <v>-0.0310666042276281</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0826889651561376</v>
+        <v>0.0436778982073383</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.654801582240202</v>
+        <v>-0.709957902914167</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.347939496101781</v>
+        <v>-0.210873772546081</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.0971116396670176</v>
+        <v>-0.0316780870425072</v>
       </c>
       <c r="X17" t="n">
-        <v>0.345128354372179</v>
+        <v>0.308670795625278</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.316112852331481</v>
+        <v>0.490941871443014</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.305574541095396</v>
+        <v>-0.430787570851478</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.658722424812497</v>
+        <v>0.709526329893477</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.421611407473606</v>
+        <v>0.24476444719385</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.446600671226263</v>
+        <v>0.475636339741467</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.153773608187362</v>
+        <v>-1.1342954962812</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.120732810675143</v>
+        <v>-1.75047907017762</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.0805803968915958</v>
+        <v>-0.0455088687514438</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.594625553803402</v>
+        <v>-0.713298998157729</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.418270686368533</v>
+        <v>-0.249925890332267</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.130183292077903</v>
+        <v>-0.0375402071145534</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.221440575936451</v>
+        <v>0.237211812220458</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.796394633570604</v>
+        <v>-1.69349965411477</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0171082258314187</v>
+        <v>-0.023581307267186</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.603780892211289</v>
+        <v>0.73450306533942</v>
       </c>
     </row>
     <row r="18">
@@ -17142,118 +17142,118 @@
         <v>157</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1.23746754923342</v>
+        <v>1.67867041166699</v>
       </c>
       <c r="D18" t="n">
-        <v>0.374256439379682</v>
+        <v>0.31196208116072</v>
       </c>
       <c r="E18" t="n">
-        <v>0.216158170201422</v>
+        <v>0.0947149423251784</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.19546852058032</v>
+        <v>-0.348707853198834</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.301520532006739</v>
+        <v>-0.346068788657971</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.12332673344002</v>
+        <v>-0.16040975050865</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.540494045031524</v>
+        <v>-0.63176764999332</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.568240670341432</v>
+        <v>-0.534140986304066</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.482956512843433</v>
+        <v>-0.456106616738649</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.506504865937394</v>
+        <v>-0.552993632447283</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.739913209634683</v>
+        <v>-0.827386275492196</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.261704358353775</v>
+        <v>-0.428482352083307</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.404868250863109</v>
+        <v>-0.782282768090083</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.275441811314279</v>
+        <v>-0.458767205738938</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.0868022000778559</v>
+        <v>-0.112159516330133</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.103128179519964</v>
+        <v>-0.211408452769797</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.0319840869819184</v>
+        <v>-0.135579042295232</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0566736965895914</v>
+        <v>-0.104744112711143</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.132849330250974</v>
+        <v>-0.134402404494129</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.337334454577432</v>
+        <v>-0.294637695263369</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.474162705980861</v>
+        <v>-0.422901164377425</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.477779059863984</v>
+        <v>-0.48169612176467</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.3752372278009</v>
+        <v>-0.421575092381696</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.223932746254725</v>
+        <v>-0.362908389656499</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.724134344378335</v>
+        <v>-0.835155528269304</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.562878927789515</v>
+        <v>-0.717350042802511</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.378550212484553</v>
+        <v>-0.96489216052968</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.196462515030965</v>
+        <v>-0.355546937513791</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.195932555315203</v>
+        <v>-0.509149492985492</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.19426436032778</v>
+        <v>-0.32573587792905</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.175594896838753</v>
+        <v>-0.176253094563928</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.338321131600125</v>
+        <v>0.446096335138868</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.0561762910656874</v>
+        <v>0.0469299661127653</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.0664882039779899</v>
+        <v>-0.00337206652497485</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.120351970768214</v>
+        <v>-0.151227982561489</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.219973076928068</v>
+        <v>0.373413321490023</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.438045663872685</v>
+        <v>0.602467091607509</v>
       </c>
     </row>
     <row r="19">
@@ -17261,118 +17261,118 @@
         <v>165</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.148031149137907</v>
+        <v>-0.432306353998307</v>
       </c>
       <c r="D19" t="n">
-        <v>0.428133570414049</v>
+        <v>0.518138659291438</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.132962371670545</v>
+        <v>-0.373150245995297</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.263858721375567</v>
+        <v>-0.453969922620985</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0426328821234923</v>
+        <v>-0.0925519756499288</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0350608150105827</v>
+        <v>-0.119718844593247</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.286439923186696</v>
+        <v>-0.404136401877787</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0239765535409531</v>
+        <v>-0.0465133301441798</v>
       </c>
       <c r="K19" t="n">
-        <v>0.169674151287231</v>
+        <v>0.160007627327661</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0762540677225293</v>
+        <v>0.0100805281484698</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0360791939709767</v>
+        <v>-0.00940632130853552</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.130875252657585</v>
+        <v>-0.30404441899378</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.353065200602657</v>
+        <v>-0.656775989706218</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.156799445490565</v>
+        <v>-0.250882849364649</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.149383660159528</v>
+        <v>0.155418053957387</v>
       </c>
       <c r="R19" t="n">
-        <v>0.027421804306835</v>
+        <v>-0.0789941516622565</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0526947460397002</v>
+        <v>-0.322818346847307</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.113075196507264</v>
+        <v>-0.364821822074599</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.135665054413819</v>
+        <v>-0.276294983881761</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0141276280313366</v>
+        <v>-0.0381664491495691</v>
       </c>
       <c r="W19" t="n">
-        <v>0.229204598754026</v>
+        <v>0.194468485699597</v>
       </c>
       <c r="X19" t="n">
-        <v>0.116943857126001</v>
+        <v>0.0574334880028914</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.000869917749519817</v>
+        <v>-0.0652263412972565</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.109188212076729</v>
+        <v>-0.297493825198869</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.225911191448237</v>
+        <v>-0.286940814668838</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.159788817628921</v>
+        <v>-0.226628021136373</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.147578382571343</v>
+        <v>0.0450242233246183</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.120948310469882</v>
+        <v>0.0671756800251481</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0852200046549948</v>
+        <v>-0.0898553736186535</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0168944782782183</v>
+        <v>-0.187289279959845</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.04799339181136</v>
+        <v>-0.215761304599449</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.024816734120283</v>
+        <v>-0.0352176908003727</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.227227221376374</v>
+        <v>0.185220829513412</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.0863096841119394</v>
+        <v>-0.0365680867827991</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.0192039453046981</v>
+        <v>-0.174794528594784</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.235158014987286</v>
+        <v>-0.716227963835922</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.335894431649479</v>
+        <v>-0.627085854081372</v>
       </c>
     </row>
     <row r="20">
@@ -17380,118 +17380,118 @@
         <v>147</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>0.267650599869832</v>
+        <v>0.294965276135522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.154494825096794</v>
+        <v>0.178376155051656</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.100320925487512</v>
+        <v>-0.329003906569543</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.397827487010907</v>
+        <v>-0.620213828024358</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.583813820599926</v>
+        <v>-0.714523387968411</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.08015757504822</v>
+        <v>-1.33176357269925</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.88143299898798</v>
+        <v>-2.27336232674209</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.32372301803728</v>
+        <v>-2.40903390219762</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.16972889455987</v>
+        <v>-2.29792373851481</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.61609939230586</v>
+        <v>-1.86703357334432</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.39314457815573</v>
+        <v>-1.56708663933055</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.87576912345071</v>
+        <v>-1.30006265291293</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.0287074797479</v>
+        <v>-1.68078136555307</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.24444511359485</v>
+        <v>-1.76204778009632</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.916142564364886</v>
+        <v>-1.13391786712587</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.74512405596722</v>
+        <v>-1.28327620098027</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.604264943745607</v>
+        <v>-1.28197427481955</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.624359173843267</v>
+        <v>-1.17369702282385</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.51165646486307</v>
+        <v>-0.748655588076166</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.458878870074471</v>
+        <v>-0.545925511487797</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.397418268962458</v>
+        <v>-0.437808713584214</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.293065316168386</v>
+        <v>-0.381697883101174</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.0770522209027096</v>
+        <v>-0.160847824142318</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.339584599649571</v>
+        <v>0.327950946176894</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.42672589539059</v>
+        <v>0.43209907544248</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.434301717887481</v>
+        <v>0.470486473239557</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.329507422144709</v>
+        <v>0.40609419686224</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.346560789162652</v>
+        <v>0.431550804657055</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.340667007374863</v>
+        <v>0.46002677661639</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.314446457774826</v>
+        <v>0.306130823930227</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.263719096050435</v>
+        <v>0.214241624280986</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.234552076813803</v>
+        <v>0.168083661193053</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.260774294477243</v>
+        <v>0.215171796229418</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.322350852962458</v>
+        <v>0.319517249178433</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.326899469743279</v>
+        <v>0.397930702805304</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.257847405056635</v>
+        <v>0.240007639085192</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.129896741067199</v>
+        <v>0.0517593037484707</v>
       </c>
     </row>
     <row r="21">
@@ -17502,115 +17502,115 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.34604487156454</v>
+        <v>1.32121858944943</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.70636494231424</v>
+        <v>-0.341085157801372</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.8863478413762</v>
+        <v>-2.36484637485557</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.96817134074543</v>
+        <v>-2.40641525910799</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.04189828403242</v>
+        <v>-2.07814092914791</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.746280770465</v>
+        <v>-1.79948485548301</v>
       </c>
       <c r="I21" t="n">
-        <v>-3.2353708097589</v>
+        <v>-2.16073082507967</v>
       </c>
       <c r="J21" t="n">
-        <v>-2.77481489434625</v>
+        <v>-1.47727800887262</v>
       </c>
       <c r="K21" t="n">
-        <v>-3.03029759900745</v>
+        <v>-1.66845094446634</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.07065721570556</v>
+        <v>-1.47375261394007</v>
       </c>
       <c r="M21" t="n">
-        <v>-2.83429419545558</v>
+        <v>-1.02827731026354</v>
       </c>
       <c r="N21" t="n">
-        <v>-3.30935733937383</v>
+        <v>-2.18042014998121</v>
       </c>
       <c r="O21" t="n">
-        <v>-2.93621040939437</v>
+        <v>-1.88408691154296</v>
       </c>
       <c r="P21" t="n">
-        <v>-3.01584152429849</v>
+        <v>-2.03631284513662</v>
       </c>
       <c r="Q21" t="n">
-        <v>-3.27774307760157</v>
+        <v>-1.82826131715361</v>
       </c>
       <c r="R21" t="n">
-        <v>-3.91227602635452</v>
+        <v>-2.76698928142648</v>
       </c>
       <c r="S21" t="n">
-        <v>-4.03835680415234</v>
+        <v>-2.81070510013548</v>
       </c>
       <c r="T21" t="n">
-        <v>-3.99544557735051</v>
+        <v>-2.6751398531053</v>
       </c>
       <c r="U21" t="n">
-        <v>-3.45922478844275</v>
+        <v>-1.79955751250701</v>
       </c>
       <c r="V21" t="n">
-        <v>-3.13636416885564</v>
+        <v>-1.39815550265929</v>
       </c>
       <c r="W21" t="n">
-        <v>-2.74736124961411</v>
+        <v>-1.0523265735434</v>
       </c>
       <c r="X21" t="n">
-        <v>-2.82898572431785</v>
+        <v>-1.05355977659018</v>
       </c>
       <c r="Y21" t="n">
-        <v>-3.21639688356456</v>
+        <v>-1.25259924927599</v>
       </c>
       <c r="Z21" t="n">
-        <v>-3.49040525099971</v>
+        <v>-1.60927019280224</v>
       </c>
       <c r="AA21" t="n">
-        <v>-3.2018627383858</v>
+        <v>-1.29288291760946</v>
       </c>
       <c r="AB21" t="n">
-        <v>-3.23906119636847</v>
+        <v>-1.41513737214168</v>
       </c>
       <c r="AC21" t="n">
-        <v>-4.03417560809848</v>
+        <v>-2.84225865978205</v>
       </c>
       <c r="AD21" t="n">
-        <v>-4.15961003428798</v>
+        <v>-1.89643473605808</v>
       </c>
       <c r="AE21" t="n">
-        <v>-4.36933893229541</v>
+        <v>-2.17324488564293</v>
       </c>
       <c r="AF21" t="n">
-        <v>-4.1335752667641</v>
+        <v>-1.7793916844939</v>
       </c>
       <c r="AG21" t="n">
-        <v>-3.89517226637275</v>
+        <v>-1.64863372923055</v>
       </c>
       <c r="AH21" t="n">
-        <v>-3.27787138157372</v>
+        <v>-0.864235307636701</v>
       </c>
       <c r="AI21" t="n">
-        <v>-3.71042419685112</v>
+        <v>-1.18376042131083</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-4.31119445272425</v>
+        <v>-1.70928977775176</v>
       </c>
       <c r="AK21" t="n">
-        <v>-4.26221365613121</v>
+        <v>-1.76468687557895</v>
       </c>
       <c r="AL21" t="n">
-        <v>-4.21409055771755</v>
+        <v>-2.13102197031377</v>
       </c>
       <c r="AM21" t="n">
-        <v>-3.68175511441923</v>
+        <v>-1.55104458095953</v>
       </c>
     </row>
     <row r="22">
@@ -17618,118 +17618,118 @@
         <v>161</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0413206361884287</v>
+        <v>-0.256129659848471</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.15517859843098</v>
+        <v>-1.43413422116702</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.48227832749201</v>
+        <v>-2.27418273627021</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.21155472965077</v>
+        <v>-1.66842286105915</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.08788751137776</v>
+        <v>-1.29756048846349</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.11804170893321</v>
+        <v>-1.37316444101943</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.06446060095701</v>
+        <v>-1.31495515963358</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.558184794967491</v>
+        <v>-0.597993407908916</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.969651536214116</v>
+        <v>-1.03630345312126</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.23130044484677</v>
+        <v>-1.43948260808627</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.20653847700066</v>
+        <v>-1.36320691197875</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.714358072092988</v>
+        <v>-1.08306404488151</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.449727047557591</v>
+        <v>-0.809940255668184</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.22059992525653</v>
+        <v>-0.348761514193896</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.14590889294267</v>
+        <v>-0.203944534827938</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.184600747029285</v>
+        <v>-0.404739398916354</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.176365160708581</v>
+        <v>-0.531916960228238</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.20466677414134</v>
+        <v>-0.509850401607726</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.113112880067006</v>
+        <v>-0.25098519518568</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.0834166108529202</v>
+        <v>-0.149213517334331</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.271445083237368</v>
+        <v>-0.312161156104492</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.395814173010072</v>
+        <v>-0.490300142356841</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.513057747883079</v>
+        <v>-0.648096394684801</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.401425142755058</v>
+        <v>-0.712323516946062</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.204998366197118</v>
+        <v>-0.270301144689378</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.211261921952341</v>
+        <v>-0.30315931752244</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.152213085156848</v>
+        <v>-0.57727721432699</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.170213688941867</v>
+        <v>-0.396500318480739</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.101007997378425</v>
+        <v>-0.482978598569143</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.18738963541884</v>
+        <v>-0.528680009032603</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.222522231085648</v>
+        <v>-0.463480927171865</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.205685148749715</v>
+        <v>-0.276773460992689</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.379612096608644</v>
+        <v>-0.513835726284037</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.578178790796493</v>
+        <v>-1.09342527043775</v>
       </c>
       <c r="AK22" t="n">
-        <v>-0.637042778204635</v>
+        <v>-1.25236605094413</v>
       </c>
       <c r="AL22" t="n">
-        <v>-0.69915436495512</v>
+        <v>-1.6334504481994</v>
       </c>
       <c r="AM22" t="n">
-        <v>-1.00101526241834</v>
+        <v>-1.62269479041969</v>
       </c>
     </row>
     <row r="23">
@@ -17737,118 +17737,118 @@
         <v>156</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224740549586969</v>
+        <v>0.219090881270626</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235637829983193</v>
+        <v>0.279328639956569</v>
       </c>
       <c r="E23" t="n">
-        <v>0.580292290504562</v>
+        <v>0.628893015618317</v>
       </c>
       <c r="F23" t="n">
-        <v>0.544854661858724</v>
+        <v>0.595084131323893</v>
       </c>
       <c r="G23" t="n">
-        <v>0.608812964763207</v>
+        <v>0.668646930829115</v>
       </c>
       <c r="H23" t="n">
-        <v>0.558880595984117</v>
+        <v>0.56912397205625</v>
       </c>
       <c r="I23" t="n">
-        <v>0.560035864197727</v>
+        <v>0.583700706466911</v>
       </c>
       <c r="J23" t="n">
-        <v>0.537562301829285</v>
+        <v>0.524496089908499</v>
       </c>
       <c r="K23" t="n">
-        <v>0.411578214138718</v>
+        <v>0.413257206308353</v>
       </c>
       <c r="L23" t="n">
-        <v>0.363805081871349</v>
+        <v>0.323446092730907</v>
       </c>
       <c r="M23" t="n">
-        <v>0.362008440230718</v>
+        <v>0.330859990905542</v>
       </c>
       <c r="N23" t="n">
-        <v>0.39755110328897</v>
+        <v>0.397607833742685</v>
       </c>
       <c r="O23" t="n">
-        <v>0.363973631543492</v>
+        <v>0.4087799444847</v>
       </c>
       <c r="P23" t="n">
-        <v>0.367523120552479</v>
+        <v>0.460447264548296</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.398616489327622</v>
+        <v>0.452524167256265</v>
       </c>
       <c r="R23" t="n">
-        <v>0.355715678185657</v>
+        <v>0.440829085421973</v>
       </c>
       <c r="S23" t="n">
-        <v>0.353418139089779</v>
+        <v>0.395782995044111</v>
       </c>
       <c r="T23" t="n">
-        <v>0.372269052858151</v>
+        <v>0.402367984039999</v>
       </c>
       <c r="U23" t="n">
-        <v>0.460060964670735</v>
+        <v>0.465637850279676</v>
       </c>
       <c r="V23" t="n">
-        <v>0.426514484518909</v>
+        <v>0.391402920473448</v>
       </c>
       <c r="W23" t="n">
-        <v>0.348081423570938</v>
+        <v>0.309032490640573</v>
       </c>
       <c r="X23" t="n">
-        <v>0.300333673983654</v>
+        <v>0.245272663075913</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.26830860952153</v>
+        <v>0.22501272256715</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.253057778028699</v>
+        <v>0.206124653038731</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.266890913979484</v>
+        <v>0.254258840879566</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.28440248386359</v>
+        <v>0.290704314091758</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.299753493369786</v>
+        <v>0.344377465411566</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.305626788185976</v>
+        <v>0.365495401644179</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.313873464113353</v>
+        <v>0.40201575118398</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.345380688303203</v>
+        <v>0.356478739987942</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.403234443801478</v>
+        <v>0.406856181414365</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.384338892292873</v>
+        <v>0.317440543060105</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.375590635393739</v>
+        <v>0.344293692525118</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.331649619298828</v>
+        <v>0.333057554960674</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.304683386633112</v>
+        <v>0.3590562415289</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.309011257783374</v>
+        <v>0.339448421909254</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.39879526159143</v>
+        <v>0.44931602105697</v>
       </c>
     </row>
     <row r="24">
@@ -17856,118 +17856,118 @@
         <v>152</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.328465741920295</v>
+        <v>0.404278215481467</v>
       </c>
       <c r="D24" t="n">
-        <v>0.536425277402066</v>
+        <v>0.64946909380773</v>
       </c>
       <c r="E24" t="n">
-        <v>0.570642233521676</v>
+        <v>0.615324200671067</v>
       </c>
       <c r="F24" t="n">
-        <v>0.558759305002648</v>
+        <v>0.612992193977141</v>
       </c>
       <c r="G24" t="n">
-        <v>0.648752448333592</v>
+        <v>0.714908888325015</v>
       </c>
       <c r="H24" t="n">
-        <v>0.624201670115562</v>
+        <v>0.644751028708507</v>
       </c>
       <c r="I24" t="n">
-        <v>0.626658299338197</v>
+        <v>0.661527726438634</v>
       </c>
       <c r="J24" t="n">
-        <v>0.645168965859416</v>
+        <v>0.634648110459689</v>
       </c>
       <c r="K24" t="n">
-        <v>0.49462438149504</v>
+        <v>0.500361582015275</v>
       </c>
       <c r="L24" t="n">
-        <v>0.50640046160775</v>
+        <v>0.48097656674955</v>
       </c>
       <c r="M24" t="n">
-        <v>0.489385176621596</v>
+        <v>0.468400232126133</v>
       </c>
       <c r="N24" t="n">
-        <v>0.43742456962446</v>
+        <v>0.450698463666896</v>
       </c>
       <c r="O24" t="n">
-        <v>0.464040602879074</v>
+        <v>0.558624339464715</v>
       </c>
       <c r="P24" t="n">
-        <v>0.464957596781463</v>
+        <v>0.59441306504999</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.402627903807086</v>
+        <v>0.45735916277336</v>
       </c>
       <c r="R24" t="n">
-        <v>0.370784104937502</v>
+        <v>0.464406272516939</v>
       </c>
       <c r="S24" t="n">
-        <v>0.383830027127028</v>
+        <v>0.449031386987378</v>
       </c>
       <c r="T24" t="n">
-        <v>0.410977207302088</v>
+        <v>0.463564968471568</v>
       </c>
       <c r="U24" t="n">
-        <v>0.522689904307363</v>
+        <v>0.543920596914211</v>
       </c>
       <c r="V24" t="n">
-        <v>0.515459384714611</v>
+        <v>0.485636222973795</v>
       </c>
       <c r="W24" t="n">
-        <v>0.458300424891352</v>
+        <v>0.419487426393621</v>
       </c>
       <c r="X24" t="n">
-        <v>0.447956507581323</v>
+        <v>0.401198686358646</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.399746403752637</v>
+        <v>0.371858276363592</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.387300377524479</v>
+        <v>0.394492548516742</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.393661045815465</v>
+        <v>0.395153423002034</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.407068856333249</v>
+        <v>0.437570283499074</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.346536300010951</v>
+        <v>0.439745952681708</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.337966892371658</v>
+        <v>0.417269471329133</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.34694945535197</v>
+        <v>0.472560439222236</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.381342098610943</v>
+        <v>0.416218656833313</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.475081929359114</v>
+        <v>0.506756922152028</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.485565527457147</v>
+        <v>0.419319373616515</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.497008375946894</v>
+        <v>0.482179595001378</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.509694180281456</v>
+        <v>0.612093471021346</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.487093644132937</v>
+        <v>0.671112042329743</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.468368009712401</v>
+        <v>0.651186840327012</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.653570883176097</v>
+        <v>0.826059711668484</v>
       </c>
     </row>
     <row r="25">
@@ -17975,118 +17975,118 @@
         <v>167</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1.24264552552673</v>
+        <v>0.356636794137979</v>
       </c>
       <c r="D25" t="n">
-        <v>1.50911444923548</v>
+        <v>1.09066687144938</v>
       </c>
       <c r="E25" t="n">
-        <v>0.175473149929376</v>
+        <v>0.126925618380933</v>
       </c>
       <c r="F25" t="n">
-        <v>0.630014961214113</v>
+        <v>0.685294960472915</v>
       </c>
       <c r="G25" t="n">
-        <v>0.457068497150784</v>
+        <v>0.507212442226824</v>
       </c>
       <c r="H25" t="n">
-        <v>0.706196554168507</v>
+        <v>0.717472270089269</v>
       </c>
       <c r="I25" t="n">
-        <v>0.776413979518979</v>
+        <v>1.08168533436274</v>
       </c>
       <c r="J25" t="n">
-        <v>0.814260285649091</v>
+        <v>0.866088543299129</v>
       </c>
       <c r="K25" t="n">
-        <v>0.974571537410589</v>
+        <v>0.954275415631533</v>
       </c>
       <c r="L25" t="n">
-        <v>0.709290464025544</v>
+        <v>0.952645253182943</v>
       </c>
       <c r="M25" t="n">
-        <v>0.766943865780705</v>
+        <v>0.605196287172002</v>
       </c>
       <c r="N25" t="n">
-        <v>0.37501378595455</v>
+        <v>0.355641839989612</v>
       </c>
       <c r="O25" t="n">
-        <v>0.577760303416214</v>
+        <v>0.188245645688367</v>
       </c>
       <c r="P25" t="n">
-        <v>0.71549275927872</v>
+        <v>0.399235043269357</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.180311983176445</v>
+        <v>0.182555205265907</v>
       </c>
       <c r="R25" t="n">
-        <v>0.673723821710769</v>
+        <v>0.882561357956286</v>
       </c>
       <c r="S25" t="n">
-        <v>0.474945329385768</v>
+        <v>0.702843288441212</v>
       </c>
       <c r="T25" t="n">
-        <v>0.527010616785874</v>
+        <v>0.691222284372412</v>
       </c>
       <c r="U25" t="n">
-        <v>0.413742370667308</v>
+        <v>0.650542822783121</v>
       </c>
       <c r="V25" t="n">
-        <v>0.695517360069197</v>
+        <v>0.795716519752947</v>
       </c>
       <c r="W25" t="n">
-        <v>0.870518978106877</v>
+        <v>0.879279917341068</v>
       </c>
       <c r="X25" t="n">
-        <v>0.582173643587217</v>
+        <v>0.786073092168328</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.725366847729223</v>
+        <v>0.720466913850254</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.6107264441967</v>
+        <v>0.6638116247843</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.632743474494956</v>
+        <v>0.36244996481045</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.611112817675544</v>
+        <v>0.234206948137167</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.188666862357407</v>
+        <v>0.0521401335960032</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.567636016937276</v>
+        <v>0.718687287198405</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.515622822134268</v>
+        <v>0.937999963024953</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.511134096969007</v>
+        <v>0.698349891547278</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.654989611558548</v>
+        <v>1.00782174009836</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.789684011620577</v>
+        <v>0.862181099075644</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.863114548143691</v>
+        <v>1.01003064166348</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.417335804653394</v>
+        <v>1.00442120839555</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.750692127591137</v>
+        <v>1.18916567331001</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.467454661350689</v>
+        <v>0.542632791907228</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.607844707937344</v>
+        <v>0.377521682791167</v>
       </c>
     </row>
   </sheetData>
@@ -18122,13 +18122,13 @@
         <v>151</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0506104328798694</v>
+        <v>0.115225525295147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -18136,7 +18136,7 @@
         <v>151</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0559512417652377</v>
+        <v>0.0222900884184587</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18150,7 +18150,7 @@
         <v>151</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0408364071990652</v>
+        <v>-0.0317004512458316</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18164,13 +18164,13 @@
         <v>151</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0716829198753344</v>
+        <v>-0.0604445592373846</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -18178,7 +18178,7 @@
         <v>151</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0596336862976078</v>
+        <v>-0.0451375369850298</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18192,7 +18192,7 @@
         <v>151</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0540607836973307</v>
+        <v>-0.0646376690989325</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18206,7 +18206,7 @@
         <v>151</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0157081255411495</v>
+        <v>-0.0733675281355078</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -18248,7 +18248,7 @@
         <v>169</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00000254791552955238</v>
+        <v>0.0972481210140512</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18262,7 +18262,7 @@
         <v>169</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0190677877019813</v>
+        <v>0.0686238703913637</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18276,7 +18276,7 @@
         <v>169</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0177012228603464</v>
+        <v>0.126720318786197</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18290,13 +18290,13 @@
         <v>169</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0153741084780115</v>
+        <v>0.144533261920399</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -18304,13 +18304,13 @@
         <v>169</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0203689229799539</v>
+        <v>0.0548118345707277</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -18318,7 +18318,7 @@
         <v>169</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0198784237307329</v>
+        <v>0.0124292993037287</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18332,7 +18332,7 @@
         <v>169</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.017945718389208</v>
+        <v>0.014990537660802</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -18374,7 +18374,7 @@
         <v>161</v>
       </c>
       <c r="B2" t="n">
-        <v>0.141666710197828</v>
+        <v>0.141666913321703</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18388,7 +18388,7 @@
         <v>161</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0885698887064939</v>
+        <v>0.0885696063035549</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18402,7 +18402,7 @@
         <v>161</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0901312680809082</v>
+        <v>0.0901306285733788</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18416,7 +18416,7 @@
         <v>161</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0179335197138523</v>
+        <v>-0.0179338918910527</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -18430,7 +18430,7 @@
         <v>161</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.12415619809355</v>
+        <v>-0.124162724603093</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18444,7 +18444,7 @@
         <v>161</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.102106292170843</v>
+        <v>-0.102115150359226</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18458,7 +18458,7 @@
         <v>161</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0515672975918212</v>
+        <v>-0.0515721463127722</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -18500,7 +18500,7 @@
         <v>147</v>
       </c>
       <c r="B2" t="n">
-        <v>0.065182661664932</v>
+        <v>0.0646671731744851</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18514,7 +18514,7 @@
         <v>147</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0804957283603967</v>
+        <v>-0.0809145870799701</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18528,7 +18528,7 @@
         <v>147</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.054468112267756</v>
+        <v>-0.0548206785974642</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18542,7 +18542,7 @@
         <v>147</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0124778229933941</v>
+        <v>-0.0126224227411012</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -18556,7 +18556,7 @@
         <v>147</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0423320146763952</v>
+        <v>-0.0421720662291272</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18570,7 +18570,7 @@
         <v>147</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.023929965168474</v>
+        <v>-0.0237950160296822</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18584,7 +18584,7 @@
         <v>147</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0262939949998652</v>
+        <v>-0.0261900768905948</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -18626,7 +18626,7 @@
         <v>163</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201914779288592</v>
+        <v>0.238464966508072</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18640,7 +18640,7 @@
         <v>163</v>
       </c>
       <c r="B3" t="n">
-        <v>0.148300551439477</v>
+        <v>0.145034559063835</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18654,7 +18654,7 @@
         <v>163</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0744599694531033</v>
+        <v>0.0746226310983506</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18668,7 +18668,7 @@
         <v>163</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0239669879883275</v>
+        <v>-0.000357773499271564</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -18682,7 +18682,7 @@
         <v>163</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0862158866845298</v>
+        <v>-0.0519014124157323</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18696,7 +18696,7 @@
         <v>163</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.075411300118445</v>
+        <v>-0.041890783798348</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18710,7 +18710,7 @@
         <v>163</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0331661625624169</v>
+        <v>-0.0317326546192377</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -18752,7 +18752,7 @@
         <v>165</v>
       </c>
       <c r="B2" t="n">
-        <v>0.235308755899629</v>
+        <v>0.227751294861966</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18766,7 +18766,7 @@
         <v>165</v>
       </c>
       <c r="B3" t="n">
-        <v>0.124677278565456</v>
+        <v>0.123847655244487</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18780,7 +18780,7 @@
         <v>165</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0591319186818869</v>
+        <v>0.0596153168159192</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18794,7 +18794,7 @@
         <v>165</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00332057981768737</v>
+        <v>0.00425519595852678</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -18808,7 +18808,7 @@
         <v>165</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.083179897526407</v>
+        <v>-0.0806589033810604</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18822,7 +18822,7 @@
         <v>165</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0858295665581221</v>
+        <v>-0.0870968022587186</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18836,7 +18836,7 @@
         <v>165</v>
       </c>
       <c r="B8" t="n">
-        <v>0.000293829369945932</v>
+        <v>-0.000768468927348064</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>

--- a/outcome/appendix/Figure Data/Fig.7 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.7 data.xlsx
@@ -12018,7 +12018,7 @@
         <v>157</v>
       </c>
       <c r="B2" t="n">
-        <v>0.417402132826157</v>
+        <v>0.417171812500383</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>157</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0645657491140729</v>
+        <v>0.0646624181076861</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -12046,7 +12046,7 @@
         <v>157</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00552447850340591</v>
+        <v>0.00569852309217882</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -12060,7 +12060,7 @@
         <v>157</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143589892917742</v>
+        <v>0.143600942973709</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -12074,7 +12074,7 @@
         <v>157</v>
       </c>
       <c r="B6" t="n">
-        <v>0.101229611648715</v>
+        <v>0.101120934179203</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -12088,7 +12088,7 @@
         <v>157</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0587029751998855</v>
+        <v>0.0585108042716456</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -12102,7 +12102,7 @@
         <v>157</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0756398444406429</v>
+        <v>0.075551344086478</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -12249,118 +12249,118 @@
         <v>168</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.426046949694894</v>
+        <v>0.416886025540267</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0625102112142</v>
+        <v>1.04177095181641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.378647979510593</v>
+        <v>0.368792612404784</v>
       </c>
       <c r="F2" t="n">
-        <v>0.269838230393359</v>
+        <v>0.26934900121237</v>
       </c>
       <c r="G2" t="n">
-        <v>0.367074336730702</v>
+        <v>0.366661516383172</v>
       </c>
       <c r="H2" t="n">
-        <v>0.218236990694101</v>
+        <v>0.218225582483639</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0315553081898409</v>
+        <v>0.0267107670710617</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0298476752598454</v>
+        <v>0.0356189288223613</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.261989854160963</v>
+        <v>-0.257159355587354</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.128241016902339</v>
+        <v>-0.130072873648636</v>
       </c>
       <c r="M2" t="n">
-        <v>0.151643961492976</v>
+        <v>0.153923741426319</v>
       </c>
       <c r="N2" t="n">
-        <v>0.290047668759947</v>
+        <v>0.30698198384737</v>
       </c>
       <c r="O2" t="n">
-        <v>0.529123747169501</v>
+        <v>0.549847510011804</v>
       </c>
       <c r="P2" t="n">
-        <v>0.643972798790711</v>
+        <v>0.642673577502105</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.423369500460557</v>
+        <v>0.409227627286231</v>
       </c>
       <c r="R2" t="n">
-        <v>0.236246871297102</v>
+        <v>0.225918600243554</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0361745716006398</v>
+        <v>-0.0418962214653243</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.194669962399694</v>
+        <v>-0.198929642541404</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0952376605928651</v>
+        <v>-0.0956150876534038</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.196020771330821</v>
+        <v>-0.184662926144222</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.197311374277463</v>
+        <v>-0.194286793888312</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0969345142510729</v>
+        <v>-0.095733579543379</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0482315258114928</v>
+        <v>0.0523963021585817</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.141723366077089</v>
+        <v>0.161377479425458</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.181896488482023</v>
+        <v>0.204363841001312</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.284666813873878</v>
+        <v>0.297483868173848</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.253413544494156</v>
+        <v>0.221298077128418</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.232465582202618</v>
+        <v>0.221417740286472</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0610977413269705</v>
+        <v>0.0522867885420218</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0642004628060649</v>
+        <v>-0.0704925242819754</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.160531586736722</v>
+        <v>-0.160453951767204</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.220052356300212</v>
+        <v>-0.206227266013697</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.378506405375448</v>
+        <v>-0.370776005281862</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.278003606308568</v>
+        <v>-0.268666715809871</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.0265751297885489</v>
+        <v>-0.0148922283250284</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.295451508589945</v>
+        <v>0.323787242190577</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.249293060549643</v>
+        <v>0.284710100658465</v>
       </c>
     </row>
     <row r="3">
@@ -12368,118 +12368,118 @@
         <v>146</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.333539486623809</v>
+        <v>-0.332828558314859</v>
       </c>
       <c r="D3" t="n">
-        <v>0.478836868714389</v>
+        <v>0.47564011494234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.637582623352301</v>
+        <v>0.638534027366661</v>
       </c>
       <c r="F3" t="n">
-        <v>0.690657794563761</v>
+        <v>0.692219005318821</v>
       </c>
       <c r="G3" t="n">
-        <v>0.680527176173379</v>
+        <v>0.679999599038065</v>
       </c>
       <c r="H3" t="n">
-        <v>0.660895290455039</v>
+        <v>0.660238635383868</v>
       </c>
       <c r="I3" t="n">
-        <v>0.492840339678858</v>
+        <v>0.49276607410966</v>
       </c>
       <c r="J3" t="n">
-        <v>0.489628625368052</v>
+        <v>0.492672175678157</v>
       </c>
       <c r="K3" t="n">
-        <v>0.564279292048458</v>
+        <v>0.565109347924868</v>
       </c>
       <c r="L3" t="n">
-        <v>0.198051341625148</v>
+        <v>0.196192406529893</v>
       </c>
       <c r="M3" t="n">
-        <v>0.25283117021525</v>
+        <v>0.25413555163301</v>
       </c>
       <c r="N3" t="n">
-        <v>0.378225330764708</v>
+        <v>0.38310940027918</v>
       </c>
       <c r="O3" t="n">
-        <v>0.415571194740238</v>
+        <v>0.422291584555957</v>
       </c>
       <c r="P3" t="n">
-        <v>0.49524820998746</v>
+        <v>0.499835943507499</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.460192393238629</v>
+        <v>0.457656812887577</v>
       </c>
       <c r="R3" t="n">
-        <v>0.413344718738891</v>
+        <v>0.408208680401924</v>
       </c>
       <c r="S3" t="n">
-        <v>0.317923590674284</v>
+        <v>0.311841246512169</v>
       </c>
       <c r="T3" t="n">
-        <v>0.383597759729229</v>
+        <v>0.380115584963796</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0140998717034119</v>
+        <v>0.0148060994227606</v>
       </c>
       <c r="V3" t="n">
-        <v>0.308210429514966</v>
+        <v>0.311321812875162</v>
       </c>
       <c r="W3" t="n">
-        <v>0.245183911657346</v>
+        <v>0.245971435875916</v>
       </c>
       <c r="X3" t="n">
-        <v>0.323871841229985</v>
+        <v>0.323998795143067</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.303228849989014</v>
+        <v>0.305286965633013</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.341286764427152</v>
+        <v>0.345815916898454</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.227299121680478</v>
+        <v>0.232561516110412</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.347079883779876</v>
+        <v>0.355445203537106</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.263036756785703</v>
+        <v>0.260658497713109</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.278541452167201</v>
+        <v>0.275323902796699</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.312108247337968</v>
+        <v>0.306966716152251</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.280898399557068</v>
+        <v>0.278171110751189</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.187822570924726</v>
+        <v>0.189434428983817</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.182774648061316</v>
+        <v>0.186641687141813</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.180568465096126</v>
+        <v>0.184923693834545</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.175057637399552</v>
+        <v>0.17937037009371</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.20467258503988</v>
+        <v>0.212101827308508</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.67741253284327</v>
+        <v>0.683426661816326</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.240400478422615</v>
+        <v>0.24390545273017</v>
       </c>
     </row>
     <row r="4">
@@ -12487,118 +12487,118 @@
         <v>149</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.666882741898576</v>
+        <v>0.686699775196428</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.247244978053527</v>
+        <v>-0.238639622295243</v>
       </c>
       <c r="E4" t="n">
-        <v>0.643144368352392</v>
+        <v>0.643175940243096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.707111095512997</v>
+        <v>0.709153673631925</v>
       </c>
       <c r="G4" t="n">
-        <v>0.666686419675645</v>
+        <v>0.669368397470079</v>
       </c>
       <c r="H4" t="n">
-        <v>0.613457218706329</v>
+        <v>0.622340170745643</v>
       </c>
       <c r="I4" t="n">
-        <v>0.531783556223493</v>
+        <v>0.543874034780947</v>
       </c>
       <c r="J4" t="n">
-        <v>0.578835163889981</v>
+        <v>0.582447147343045</v>
       </c>
       <c r="K4" t="n">
-        <v>0.608905949314496</v>
+        <v>0.604128853596632</v>
       </c>
       <c r="L4" t="n">
-        <v>0.572740666583791</v>
+        <v>0.56904208695147</v>
       </c>
       <c r="M4" t="n">
-        <v>0.664276993383135</v>
+        <v>0.673480650835253</v>
       </c>
       <c r="N4" t="n">
-        <v>0.702041464310658</v>
+        <v>0.718358626737276</v>
       </c>
       <c r="O4" t="n">
-        <v>0.849184539632369</v>
+        <v>0.87454568422653</v>
       </c>
       <c r="P4" t="n">
-        <v>0.912101406511699</v>
+        <v>0.92143827139688</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.842433747497941</v>
+        <v>0.842690154565314</v>
       </c>
       <c r="R4" t="n">
-        <v>0.835602014863872</v>
+        <v>0.846811604264981</v>
       </c>
       <c r="S4" t="n">
-        <v>0.776513538295936</v>
+        <v>0.790450885946377</v>
       </c>
       <c r="T4" t="n">
-        <v>0.851667833172564</v>
+        <v>0.868737902902099</v>
       </c>
       <c r="U4" t="n">
-        <v>0.816640525084861</v>
+        <v>0.831600358557074</v>
       </c>
       <c r="V4" t="n">
-        <v>0.646079348095738</v>
+        <v>0.658840478004056</v>
       </c>
       <c r="W4" t="n">
-        <v>0.604217000970868</v>
+        <v>0.600370385776617</v>
       </c>
       <c r="X4" t="n">
-        <v>0.505007641117465</v>
+        <v>0.4678603008457</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.552556573040205</v>
+        <v>0.519133244535432</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.80609352997936</v>
+        <v>0.813399351355074</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.701361002318812</v>
+        <v>0.714600529211669</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.81702998349044</v>
+        <v>0.829081180890452</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.970792255913596</v>
+        <v>0.957680130042452</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.748866702048144</v>
+        <v>0.780247306417611</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.848919810583926</v>
+        <v>0.854817538636181</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.741790974921698</v>
+        <v>0.749853707774614</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.78856494662275</v>
+        <v>0.780947213448753</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.592758673312471</v>
+        <v>0.588827240184941</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.731423860594118</v>
+        <v>0.661264349073232</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.535633806170235</v>
+        <v>0.367913042382299</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.746031546788487</v>
+        <v>0.59315023129243</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.665319765601511</v>
+        <v>0.638351297756851</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.788980235380392</v>
+        <v>0.788878816838511</v>
       </c>
     </row>
     <row r="5">
@@ -12606,118 +12606,118 @@
         <v>151</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.90564353462198</v>
+        <v>-2.89496654228519</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.24750922253435</v>
+        <v>-1.23755006939896</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.566402491241396</v>
+        <v>-0.571384563738083</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.67585719545504</v>
+        <v>-1.68422837132799</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.92369119498721</v>
+        <v>-1.92701483953628</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.59321969735042</v>
+        <v>-2.59387203587957</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.05785487809093</v>
+        <v>-2.05406206106728</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.98305477062428</v>
+        <v>-2.97784422396084</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.98063245003017</v>
+        <v>-2.98107518874706</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.10697067299784</v>
+        <v>-3.10638484895509</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.48819312691183</v>
+        <v>-3.48998285532444</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.23131873103309</v>
+        <v>-3.23645936803724</v>
       </c>
       <c r="O5" t="n">
-        <v>-3.01264185163693</v>
+        <v>-3.01983667555127</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.55473104964823</v>
+        <v>-2.54383732463891</v>
       </c>
       <c r="Q5" t="n">
-        <v>-3.47858860547356</v>
+        <v>-3.47717388717362</v>
       </c>
       <c r="R5" t="n">
-        <v>-2.16491211494114</v>
+        <v>-2.16015531366746</v>
       </c>
       <c r="S5" t="n">
-        <v>-2.9493863817829</v>
+        <v>-2.94500090422548</v>
       </c>
       <c r="T5" t="n">
-        <v>-3.10764534189384</v>
+        <v>-3.10475380664934</v>
       </c>
       <c r="U5" t="n">
-        <v>-3.76669736434522</v>
+        <v>-3.76265567855026</v>
       </c>
       <c r="V5" t="n">
-        <v>-4.1179548562989</v>
+        <v>-4.1146553042586</v>
       </c>
       <c r="W5" t="n">
-        <v>-4.26759573664715</v>
+        <v>-4.26828864539279</v>
       </c>
       <c r="X5" t="n">
-        <v>-4.27678131110968</v>
+        <v>-4.27723469457725</v>
       </c>
       <c r="Y5" t="n">
-        <v>-4.17901209034066</v>
+        <v>-4.18107420802655</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.94039905451569</v>
+        <v>-3.94014360388756</v>
       </c>
       <c r="AA5" t="n">
-        <v>-4.18047347762304</v>
+        <v>-4.17997170740608</v>
       </c>
       <c r="AB5" t="n">
-        <v>-4.12124767213248</v>
+        <v>-4.11584105365788</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.0943645788427</v>
+        <v>-3.09929546544256</v>
       </c>
       <c r="AD5" t="n">
-        <v>-3.7442039410595</v>
+        <v>-3.7434006149528</v>
       </c>
       <c r="AE5" t="n">
-        <v>-3.12703092705234</v>
+        <v>-3.12588866236002</v>
       </c>
       <c r="AF5" t="n">
-        <v>-4.00428567279558</v>
+        <v>-4.00175633342464</v>
       </c>
       <c r="AG5" t="n">
-        <v>-3.91114692994197</v>
+        <v>-3.90707391279896</v>
       </c>
       <c r="AH5" t="n">
-        <v>-4.37565229515948</v>
+        <v>-4.37084886163023</v>
       </c>
       <c r="AI5" t="n">
-        <v>-4.18807305291148</v>
+        <v>-4.19338834466062</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-3.78697620387944</v>
+        <v>-3.7937451004689</v>
       </c>
       <c r="AK5" t="n">
-        <v>-3.01947339047943</v>
+        <v>-3.03025519107438</v>
       </c>
       <c r="AL5" t="n">
-        <v>-3.26504143972603</v>
+        <v>-3.26067126250847</v>
       </c>
       <c r="AM5" t="n">
-        <v>-3.25555907314248</v>
+        <v>-3.22053713338045</v>
       </c>
     </row>
     <row r="6">
@@ -12725,118 +12725,118 @@
         <v>160</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.890591239428844</v>
+        <v>0.886559060551371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.581978765568983</v>
+        <v>0.577996001853647</v>
       </c>
       <c r="E6" t="n">
-        <v>0.60694315856013</v>
+        <v>0.607743565238683</v>
       </c>
       <c r="F6" t="n">
-        <v>0.504963399415994</v>
+        <v>0.50574524112626</v>
       </c>
       <c r="G6" t="n">
-        <v>0.668339450662212</v>
+        <v>0.66779878794908</v>
       </c>
       <c r="H6" t="n">
-        <v>0.620066674859277</v>
+        <v>0.619410073946744</v>
       </c>
       <c r="I6" t="n">
-        <v>0.53553208183547</v>
+        <v>0.535393091758302</v>
       </c>
       <c r="J6" t="n">
-        <v>0.467427804728806</v>
+        <v>0.470485208618947</v>
       </c>
       <c r="K6" t="n">
-        <v>0.304886153192708</v>
+        <v>0.305623074399287</v>
       </c>
       <c r="L6" t="n">
-        <v>0.276469432399001</v>
+        <v>0.27455249062689</v>
       </c>
       <c r="M6" t="n">
-        <v>0.31710600389885</v>
+        <v>0.318463545461786</v>
       </c>
       <c r="N6" t="n">
-        <v>0.448382040157835</v>
+        <v>0.453460954342419</v>
       </c>
       <c r="O6" t="n">
-        <v>0.538617255378813</v>
+        <v>0.545837092635303</v>
       </c>
       <c r="P6" t="n">
-        <v>0.662034854219963</v>
+        <v>0.666277747637981</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.529953182561569</v>
+        <v>0.527347637429016</v>
       </c>
       <c r="R6" t="n">
-        <v>0.48684447945585</v>
+        <v>0.481426420594514</v>
       </c>
       <c r="S6" t="n">
-        <v>0.41235114897598</v>
+        <v>0.405966277397107</v>
       </c>
       <c r="T6" t="n">
-        <v>0.439450808834519</v>
+        <v>0.435866667197171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.447400222547083</v>
+        <v>0.447724188255497</v>
       </c>
       <c r="V6" t="n">
-        <v>0.265847711389694</v>
+        <v>0.268960895707658</v>
       </c>
       <c r="W6" t="n">
-        <v>0.274059833659863</v>
+        <v>0.27485683072447</v>
       </c>
       <c r="X6" t="n">
-        <v>0.213781413812458</v>
+        <v>0.213894480655994</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.208748471105493</v>
+        <v>0.210719737066203</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.314274913242541</v>
+        <v>0.318777104231128</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.312334288346583</v>
+        <v>0.31768852518995</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.36493120607929</v>
+        <v>0.373308346082355</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.487584803623823</v>
+        <v>0.485377268116346</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.37200867816939</v>
+        <v>0.368697705019798</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.350120821651828</v>
+        <v>0.344909836092305</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.283942949725307</v>
+        <v>0.281211926174798</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.281623016723919</v>
+        <v>0.28317855384205</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.162788760424814</v>
+        <v>0.166659905016811</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.089755514048748</v>
+        <v>0.0939097172509637</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0954468299836668</v>
+        <v>0.0995368948536473</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.326895684736148</v>
+        <v>0.335015283497439</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.324617521562253</v>
+        <v>0.33048453962871</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.742676814722561</v>
+        <v>0.741653639975108</v>
       </c>
     </row>
     <row r="7">
@@ -12844,118 +12844,118 @@
         <v>166</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.218558401811398</v>
+        <v>-0.218292987693106</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.170705551818383</v>
+        <v>-0.168952359771176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.245920791595946</v>
+        <v>0.244942008724413</v>
       </c>
       <c r="F7" t="n">
-        <v>0.795578796942821</v>
+        <v>0.79758036660768</v>
       </c>
       <c r="G7" t="n">
-        <v>0.707655233503661</v>
+        <v>0.70715678291086</v>
       </c>
       <c r="H7" t="n">
-        <v>0.65679004798484</v>
+        <v>0.656133398359221</v>
       </c>
       <c r="I7" t="n">
-        <v>0.588718673074732</v>
+        <v>0.588499047357633</v>
       </c>
       <c r="J7" t="n">
-        <v>0.586536157578907</v>
+        <v>0.589519236419268</v>
       </c>
       <c r="K7" t="n">
-        <v>0.558899156449614</v>
+        <v>0.559727280597394</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01748543634418</v>
+        <v>1.01502035733152</v>
       </c>
       <c r="M7" t="n">
-        <v>0.528480713455926</v>
+        <v>0.530013077878803</v>
       </c>
       <c r="N7" t="n">
-        <v>0.512450739234954</v>
+        <v>0.517707589993877</v>
       </c>
       <c r="O7" t="n">
-        <v>0.694206729841871</v>
+        <v>0.702058109176409</v>
       </c>
       <c r="P7" t="n">
-        <v>0.798763372672578</v>
+        <v>0.802723572734246</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.552486501408313</v>
+        <v>0.549858357065732</v>
       </c>
       <c r="R7" t="n">
-        <v>0.582962731089098</v>
+        <v>0.57717586395597</v>
       </c>
       <c r="S7" t="n">
-        <v>0.571458002836073</v>
+        <v>0.564563384035601</v>
       </c>
       <c r="T7" t="n">
-        <v>0.524916439875958</v>
+        <v>0.521176269817724</v>
       </c>
       <c r="U7" t="n">
-        <v>0.561196843019303</v>
+        <v>0.561420416182697</v>
       </c>
       <c r="V7" t="n">
-        <v>0.450206761803696</v>
+        <v>0.453312108502199</v>
       </c>
       <c r="W7" t="n">
-        <v>0.473598315808745</v>
+        <v>0.474460772162221</v>
       </c>
       <c r="X7" t="n">
-        <v>0.417603126332784</v>
+        <v>0.417741903734114</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0340634284500856</v>
+        <v>0.0358741177830405</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.262461576756983</v>
+        <v>0.2669120510244</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.463957653256917</v>
+        <v>0.469475651239495</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.649134749428181</v>
+        <v>0.657700074692445</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.467637754114706</v>
+        <v>0.465415052893461</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.663430335369693</v>
+        <v>0.659828076026116</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.669439469535099</v>
+        <v>0.663645043439558</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.619031033262379</v>
+        <v>0.615888957716927</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.671319944124866</v>
+        <v>0.672641494107293</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.479057590070313</v>
+        <v>0.482863766553775</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.188482293539221</v>
+        <v>0.192855040501504</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.293202843254494</v>
+        <v>0.29784602274072</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.40284280104778</v>
+        <v>-0.398845006616914</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.330332109314975</v>
+        <v>0.336201510289802</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.820953503259188</v>
+        <v>0.819224644234754</v>
       </c>
     </row>
     <row r="8">
@@ -12963,118 +12963,118 @@
         <v>158</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.451102343918106</v>
+        <v>-0.449935897892444</v>
       </c>
       <c r="D8" t="n">
-        <v>0.555676407081991</v>
+        <v>0.551894084854869</v>
       </c>
       <c r="E8" t="n">
-        <v>0.331930851304204</v>
+        <v>0.331375942999562</v>
       </c>
       <c r="F8" t="n">
-        <v>0.164150502896138</v>
+        <v>0.163501935134956</v>
       </c>
       <c r="G8" t="n">
-        <v>0.515284834625333</v>
+        <v>0.514579841981515</v>
       </c>
       <c r="H8" t="n">
-        <v>0.535762889489358</v>
+        <v>0.535106400404721</v>
       </c>
       <c r="I8" t="n">
-        <v>0.568726928013433</v>
+        <v>0.568537611573893</v>
       </c>
       <c r="J8" t="n">
-        <v>0.531912249517135</v>
+        <v>0.53492941433542</v>
       </c>
       <c r="K8" t="n">
-        <v>0.503763536858697</v>
+        <v>0.504571864655082</v>
       </c>
       <c r="L8" t="n">
-        <v>0.391065184022445</v>
+        <v>0.389063474581702</v>
       </c>
       <c r="M8" t="n">
-        <v>0.310775294220102</v>
+        <v>0.312127599807676</v>
       </c>
       <c r="N8" t="n">
-        <v>0.382123417240958</v>
+        <v>0.387018312824385</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.103318418863897</v>
+        <v>-0.0987042166677706</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0462841192013858</v>
+        <v>0.05180010943876</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.368928846890061</v>
+        <v>0.366484796955182</v>
       </c>
       <c r="R8" t="n">
-        <v>0.258868367341034</v>
+        <v>0.25432505884698</v>
       </c>
       <c r="S8" t="n">
-        <v>0.346047215629045</v>
+        <v>0.339874768876538</v>
       </c>
       <c r="T8" t="n">
-        <v>0.451739914776835</v>
+        <v>0.448133337807636</v>
       </c>
       <c r="U8" t="n">
-        <v>0.546962308423651</v>
+        <v>0.547198439439373</v>
       </c>
       <c r="V8" t="n">
-        <v>0.532816540858593</v>
+        <v>0.535918375584071</v>
       </c>
       <c r="W8" t="n">
-        <v>0.40853848795811</v>
+        <v>0.409379601210149</v>
       </c>
       <c r="X8" t="n">
-        <v>0.356592219418224</v>
+        <v>0.356723300757987</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.342468290209901</v>
+        <v>0.344562476125802</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.320072286166633</v>
+        <v>0.324580263717896</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0989014146742953</v>
+        <v>0.104025132886459</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.122457890731967</v>
+        <v>-0.11440347522209</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.153579063182048</v>
+        <v>0.151117583578504</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.318429020829111</v>
+        <v>0.315171602431116</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.415972126182064</v>
+        <v>0.410640820933518</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.364833656193271</v>
+        <v>0.36200340414763</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.393559901272996</v>
+        <v>0.395048227722647</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.311021282679022</v>
+        <v>0.314861977268706</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.380888688615444</v>
+        <v>0.385687350585368</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.365496236969664</v>
+        <v>0.370341617805223</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.583391493760119</v>
+        <v>0.592959865687368</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.353373033606275</v>
+        <v>0.35925204234525</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.0165981692511586</v>
+        <v>-0.0107762867010713</v>
       </c>
     </row>
     <row r="9">
@@ -13082,118 +13082,118 @@
         <v>154</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.357156454002938</v>
+        <v>0.355191160883983</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217038443439895</v>
+        <v>0.215836768017944</v>
       </c>
       <c r="E9" t="n">
-        <v>0.152534240431508</v>
+        <v>0.151095230185844</v>
       </c>
       <c r="F9" t="n">
-        <v>0.385739360145224</v>
+        <v>0.386020812355156</v>
       </c>
       <c r="G9" t="n">
-        <v>0.635186224114055</v>
+        <v>0.634609965823595</v>
       </c>
       <c r="H9" t="n">
-        <v>0.605977987005525</v>
+        <v>0.605321404781456</v>
       </c>
       <c r="I9" t="n">
-        <v>0.759694408532352</v>
+        <v>0.759215568274141</v>
       </c>
       <c r="J9" t="n">
-        <v>0.66801238520552</v>
+        <v>0.670944621896448</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6208003049349</v>
+        <v>0.621650654585836</v>
       </c>
       <c r="L9" t="n">
-        <v>0.55814132761004</v>
+        <v>0.556016030209226</v>
       </c>
       <c r="M9" t="n">
-        <v>0.588111895043843</v>
+        <v>0.58969357896066</v>
       </c>
       <c r="N9" t="n">
-        <v>0.643813660335839</v>
+        <v>0.649435342416646</v>
       </c>
       <c r="O9" t="n">
-        <v>0.786040317897828</v>
+        <v>0.794264452364006</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7873227632267</v>
+        <v>0.791306617346201</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.653400997993475</v>
+        <v>0.650671644063498</v>
       </c>
       <c r="R9" t="n">
-        <v>0.677823611703417</v>
+        <v>0.671672760864329</v>
       </c>
       <c r="S9" t="n">
-        <v>0.637028395013522</v>
+        <v>0.629923701509034</v>
       </c>
       <c r="T9" t="n">
-        <v>0.640604840949695</v>
+        <v>0.636653466945333</v>
       </c>
       <c r="U9" t="n">
-        <v>0.649816346050447</v>
+        <v>0.649961738179899</v>
       </c>
       <c r="V9" t="n">
-        <v>0.63534849156547</v>
+        <v>0.638445967370622</v>
       </c>
       <c r="W9" t="n">
-        <v>0.530933022459895</v>
+        <v>0.531814287662093</v>
       </c>
       <c r="X9" t="n">
-        <v>0.487566706002316</v>
+        <v>0.487714308776746</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.500509086813452</v>
+        <v>0.502748549381437</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.511619445096054</v>
+        <v>0.516318612632007</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.451121967142537</v>
+        <v>0.456626101914904</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.507229012458084</v>
+        <v>0.515700374896049</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.606270115338205</v>
+        <v>0.604152816106788</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.515351078341329</v>
+        <v>0.511896829422243</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.534965065194363</v>
+        <v>0.529416342940641</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.449314191426648</v>
+        <v>0.446380307248898</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.461242600344524</v>
+        <v>0.462690287826354</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.366469771928927</v>
+        <v>0.370299076260925</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.463314649733238</v>
+        <v>0.468295771614878</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.576337504180122</v>
+        <v>0.581772598494796</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.66113965989337</v>
+        <v>0.671147179178328</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.704599879121504</v>
+        <v>0.710625344862459</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.492215377353983</v>
+        <v>0.493450176233739</v>
       </c>
     </row>
     <row r="10">
@@ -13201,118 +13201,118 @@
         <v>153</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.20944393895634</v>
+        <v>1.20417630989503</v>
       </c>
       <c r="D10" t="n">
-        <v>1.6338680186325</v>
+        <v>1.62186915828371</v>
       </c>
       <c r="E10" t="n">
-        <v>1.12087776321937</v>
+        <v>1.12421094116561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.640256765954976</v>
+        <v>0.641606440968787</v>
       </c>
       <c r="G10" t="n">
-        <v>0.692135502877018</v>
+        <v>0.691620389237232</v>
       </c>
       <c r="H10" t="n">
-        <v>0.659913772373629</v>
+        <v>0.659257118604429</v>
       </c>
       <c r="I10" t="n">
-        <v>0.802936169579027</v>
+        <v>0.802391770934906</v>
       </c>
       <c r="J10" t="n">
-        <v>0.691405206583898</v>
+        <v>0.694322845871942</v>
       </c>
       <c r="K10" t="n">
-        <v>0.498609468356782</v>
+        <v>0.499415945593547</v>
       </c>
       <c r="L10" t="n">
-        <v>0.449931350824197</v>
+        <v>0.447886097467991</v>
       </c>
       <c r="M10" t="n">
-        <v>0.471959026987132</v>
+        <v>0.473444643703541</v>
       </c>
       <c r="N10" t="n">
-        <v>0.48539778367253</v>
+        <v>0.490579500859086</v>
       </c>
       <c r="O10" t="n">
-        <v>0.514838850751739</v>
+        <v>0.521962170791221</v>
       </c>
       <c r="P10" t="n">
-        <v>0.44581488584131</v>
+        <v>0.450504825342051</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.446409854861869</v>
+        <v>0.443888097351634</v>
       </c>
       <c r="R10" t="n">
-        <v>0.480648607529869</v>
+        <v>0.475254322392862</v>
       </c>
       <c r="S10" t="n">
-        <v>0.471091577234944</v>
+        <v>0.464518512819785</v>
       </c>
       <c r="T10" t="n">
-        <v>0.461841967481498</v>
+        <v>0.458216947925355</v>
       </c>
       <c r="U10" t="n">
-        <v>0.40474731288332</v>
+        <v>0.405108907425841</v>
       </c>
       <c r="V10" t="n">
-        <v>0.393827579289734</v>
+        <v>0.396935322825154</v>
       </c>
       <c r="W10" t="n">
-        <v>0.337583881694397</v>
+        <v>0.338401718042563</v>
       </c>
       <c r="X10" t="n">
-        <v>0.270875180947109</v>
+        <v>0.270995449734842</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.297573853795821</v>
+        <v>0.299626771168664</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.316067748826758</v>
+        <v>0.320571729307865</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.365983971372054</v>
+        <v>0.371396152670194</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.386511286350852</v>
+        <v>0.394902715595334</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.417418283736331</v>
+        <v>0.415157400722182</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.421740364335549</v>
+        <v>0.418379682616858</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.482754543260689</v>
+        <v>0.477301217048208</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.406231604146817</v>
+        <v>0.403350569307251</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.411624822590542</v>
+        <v>0.413102302254143</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.336790913959481</v>
+        <v>0.340626314938018</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.344309379329855</v>
+        <v>0.349027068540076</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.277962438110489</v>
+        <v>0.282562990873496</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.408018318109366</v>
+        <v>0.41659612433545</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.391729995943539</v>
+        <v>0.397624999034258</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.432550291701741</v>
+        <v>0.434322986519823</v>
       </c>
     </row>
     <row r="11">
@@ -13320,118 +13320,118 @@
         <v>162</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.40426672084997</v>
+        <v>0.402118890816876</v>
       </c>
       <c r="D11" t="n">
-        <v>0.376092821489366</v>
+        <v>0.373679045781472</v>
       </c>
       <c r="E11" t="n">
-        <v>0.614554221925317</v>
+        <v>0.615392137427819</v>
       </c>
       <c r="F11" t="n">
-        <v>0.638116720630725</v>
+        <v>0.639457413762886</v>
       </c>
       <c r="G11" t="n">
-        <v>0.708385283776178</v>
+        <v>0.707887617015409</v>
       </c>
       <c r="H11" t="n">
-        <v>0.637368730870915</v>
+        <v>0.636712107007425</v>
       </c>
       <c r="I11" t="n">
-        <v>0.704328435917921</v>
+        <v>0.703933535437165</v>
       </c>
       <c r="J11" t="n">
-        <v>0.629718294973436</v>
+        <v>0.632674427638867</v>
       </c>
       <c r="K11" t="n">
-        <v>0.559476389903203</v>
+        <v>0.560304721305683</v>
       </c>
       <c r="L11" t="n">
-        <v>0.476176274146164</v>
+        <v>0.474111607147376</v>
       </c>
       <c r="M11" t="n">
-        <v>0.481465387185519</v>
+        <v>0.482958866380278</v>
       </c>
       <c r="N11" t="n">
-        <v>0.525051263950258</v>
+        <v>0.530343109866488</v>
       </c>
       <c r="O11" t="n">
-        <v>0.600416696234587</v>
+        <v>0.607887379169647</v>
       </c>
       <c r="P11" t="n">
-        <v>0.592248018033605</v>
+        <v>0.596635199381996</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.537321439378832</v>
+        <v>0.534708504443451</v>
       </c>
       <c r="R11" t="n">
-        <v>0.545358998134681</v>
+        <v>0.539716417518715</v>
       </c>
       <c r="S11" t="n">
-        <v>0.532384684861556</v>
+        <v>0.525615249324991</v>
       </c>
       <c r="T11" t="n">
-        <v>0.526310160226999</v>
+        <v>0.522567445754328</v>
       </c>
       <c r="U11" t="n">
-        <v>0.585953699671443</v>
+        <v>0.586155432082136</v>
       </c>
       <c r="V11" t="n">
-        <v>0.50837284414428</v>
+        <v>0.511475718039751</v>
       </c>
       <c r="W11" t="n">
-        <v>0.447805259439194</v>
+        <v>0.448659254291362</v>
       </c>
       <c r="X11" t="n">
-        <v>0.409068193781714</v>
+        <v>0.40920589456626</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.424368053464795</v>
+        <v>0.426537524520153</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.47464256276226</v>
+        <v>0.479304822365949</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.456273796791632</v>
+        <v>0.461783495808618</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.502206605427763</v>
+        <v>0.510674642280945</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.547339611979753</v>
+        <v>0.545177507969273</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.508183078778698</v>
+        <v>0.504735994527232</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.579040018772591</v>
+        <v>0.573410765316851</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.500863790581353</v>
+        <v>0.497866670596028</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.541979612593018</v>
+        <v>0.543378822858547</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.451906937006212</v>
+        <v>0.455718690791038</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.555845401320441</v>
+        <v>0.56103135129916</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.659306924350032</v>
+        <v>0.664974080376704</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.733178712513686</v>
+        <v>0.743593132194929</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.659517769406339</v>
+        <v>0.665524436497031</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.672034024329188</v>
+        <v>0.671647712323307</v>
       </c>
     </row>
     <row r="12">
@@ -13439,118 +13439,118 @@
         <v>148</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0782980764738053</v>
+        <v>0.0774132685892311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210829198904089</v>
+        <v>0.209674842060662</v>
       </c>
       <c r="E12" t="n">
-        <v>0.446375076522306</v>
+        <v>0.446384171969808</v>
       </c>
       <c r="F12" t="n">
-        <v>0.577518445303639</v>
+        <v>0.578604804319145</v>
       </c>
       <c r="G12" t="n">
-        <v>0.673501079764711</v>
+        <v>0.672965958930515</v>
       </c>
       <c r="H12" t="n">
-        <v>0.612665813906062</v>
+        <v>0.612009222810677</v>
       </c>
       <c r="I12" t="n">
-        <v>0.705404985277231</v>
+        <v>0.705008452651145</v>
       </c>
       <c r="J12" t="n">
-        <v>0.630549326557717</v>
+        <v>0.633504940649409</v>
       </c>
       <c r="K12" t="n">
-        <v>0.551023343028312</v>
+        <v>0.551848639378542</v>
       </c>
       <c r="L12" t="n">
-        <v>0.539739899098285</v>
+        <v>0.537628213425413</v>
       </c>
       <c r="M12" t="n">
-        <v>0.449118658400356</v>
+        <v>0.45058538440573</v>
       </c>
       <c r="N12" t="n">
-        <v>0.475355658261942</v>
+        <v>0.480509485676732</v>
       </c>
       <c r="O12" t="n">
-        <v>0.475948866107821</v>
+        <v>0.482914330599541</v>
       </c>
       <c r="P12" t="n">
-        <v>0.548526622942251</v>
+        <v>0.553004200559559</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.476150240596383</v>
+        <v>0.473598655734568</v>
       </c>
       <c r="R12" t="n">
-        <v>0.507905604707149</v>
+        <v>0.502406733751607</v>
       </c>
       <c r="S12" t="n">
-        <v>0.467175828346025</v>
+        <v>0.46061530922397</v>
       </c>
       <c r="T12" t="n">
-        <v>0.507008200701961</v>
+        <v>0.503300724420689</v>
       </c>
       <c r="U12" t="n">
-        <v>0.579190275214338</v>
+        <v>0.579397974387414</v>
       </c>
       <c r="V12" t="n">
-        <v>0.47516424039261</v>
+        <v>0.478268526078814</v>
       </c>
       <c r="W12" t="n">
-        <v>0.419358658534475</v>
+        <v>0.420203321380877</v>
       </c>
       <c r="X12" t="n">
-        <v>0.399192498354967</v>
+        <v>0.399328953395697</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.349934290570791</v>
+        <v>0.352035339496498</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.40324987899512</v>
+        <v>0.407840879039583</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.335053911997897</v>
+        <v>0.340432687219329</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.446339564567048</v>
+        <v>0.454770609081736</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.427014325891427</v>
+        <v>0.424760738734671</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.415632161005695</v>
+        <v>0.412277584651023</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.460805666427913</v>
+        <v>0.455392443931734</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.445459575748408</v>
+        <v>0.442530420021301</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.476933648732884</v>
+        <v>0.478371914781774</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.39429599191155</v>
+        <v>0.398119580166873</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.470812831873045</v>
+        <v>0.475810551894794</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.500912230431266</v>
+        <v>0.506136363669942</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.505322437131709</v>
+        <v>0.514449849205597</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.532876636127725</v>
+        <v>0.538830495521785</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.525816964721206</v>
+        <v>0.526748836735634</v>
       </c>
     </row>
     <row r="13">
@@ -13558,118 +13558,118 @@
         <v>159</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.571551166353965</v>
+        <v>-0.486411229030161</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0986851178371809</v>
+        <v>0.0894074994840127</v>
       </c>
       <c r="E13" t="n">
-        <v>0.187458864136977</v>
+        <v>0.170881716299325</v>
       </c>
       <c r="F13" t="n">
-        <v>0.304551147519004</v>
+        <v>0.301869538734892</v>
       </c>
       <c r="G13" t="n">
-        <v>0.449331223138882</v>
+        <v>0.458842494022098</v>
       </c>
       <c r="H13" t="n">
-        <v>0.463666838105788</v>
+        <v>0.471765198899257</v>
       </c>
       <c r="I13" t="n">
-        <v>0.535292765248639</v>
+        <v>0.546309755274137</v>
       </c>
       <c r="J13" t="n">
-        <v>0.487206410744057</v>
+        <v>0.492149337093997</v>
       </c>
       <c r="K13" t="n">
-        <v>0.430632069855794</v>
+        <v>0.430942970799403</v>
       </c>
       <c r="L13" t="n">
-        <v>0.283012969120963</v>
+        <v>0.311714323767828</v>
       </c>
       <c r="M13" t="n">
-        <v>0.306771355787288</v>
+        <v>0.293945423499739</v>
       </c>
       <c r="N13" t="n">
-        <v>0.454548917708516</v>
+        <v>0.430081597192272</v>
       </c>
       <c r="O13" t="n">
-        <v>0.408579995026013</v>
+        <v>0.400870781713492</v>
       </c>
       <c r="P13" t="n">
-        <v>0.545464779674762</v>
+        <v>0.537131152901868</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.521908737978481</v>
+        <v>0.508347029760247</v>
       </c>
       <c r="R13" t="n">
-        <v>0.537219893031802</v>
+        <v>0.524923037624228</v>
       </c>
       <c r="S13" t="n">
-        <v>0.512614689051601</v>
+        <v>0.539868246979507</v>
       </c>
       <c r="T13" t="n">
-        <v>0.53984999202688</v>
+        <v>0.557964557672571</v>
       </c>
       <c r="U13" t="n">
-        <v>0.54607780799829</v>
+        <v>0.553732589013856</v>
       </c>
       <c r="V13" t="n">
-        <v>0.54908978912316</v>
+        <v>0.539441512215126</v>
       </c>
       <c r="W13" t="n">
-        <v>0.474578314279843</v>
+        <v>0.471204232686068</v>
       </c>
       <c r="X13" t="n">
-        <v>0.442937764732364</v>
+        <v>0.456696144690588</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.484055221457818</v>
+        <v>0.471788418995595</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.603645224949008</v>
+        <v>0.574624009443022</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.499825135867217</v>
+        <v>0.49236740847733</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.567419571021427</v>
+        <v>0.556343410090671</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.631918760936177</v>
+        <v>0.622447348702177</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.548083619418011</v>
+        <v>0.520925969532789</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.575771274768382</v>
+        <v>0.611682041536979</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.516743433709384</v>
+        <v>0.542206665583012</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.539201838463142</v>
+        <v>0.555000969157331</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.476218030939915</v>
+        <v>0.462506892211668</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.589311037412393</v>
+        <v>0.583195383780115</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.741305894372209</v>
+        <v>0.745435250391852</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.860956555990327</v>
+        <v>0.856062077116858</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.746306577249754</v>
+        <v>0.710306540448201</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.471951437506103</v>
+        <v>0.450216850018908</v>
       </c>
     </row>
     <row r="14">
@@ -13677,118 +13677,118 @@
         <v>163</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.48554756866091</v>
+        <v>-0.57794796735515</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.88837616354531</v>
+        <v>-1.89429130668013</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.42424924695859</v>
+        <v>-2.38133325318026</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.23806880054239</v>
+        <v>-2.20806379209447</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.88339977696663</v>
+        <v>-1.86319093348366</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.88353519027799</v>
+        <v>-1.88003036896929</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.546924526880192</v>
+        <v>-0.57724243569282</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.145722316575185</v>
+        <v>-0.223765757680509</v>
       </c>
       <c r="K14" t="n">
-        <v>0.25499991068495</v>
+        <v>0.246376192385231</v>
       </c>
       <c r="L14" t="n">
-        <v>0.927417538637627</v>
+        <v>0.930203445645262</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03780852876711</v>
+        <v>1.0191410898862</v>
       </c>
       <c r="N14" t="n">
-        <v>0.968407799914453</v>
+        <v>0.910177941540425</v>
       </c>
       <c r="O14" t="n">
-        <v>0.932872894692693</v>
+        <v>0.792536814713</v>
       </c>
       <c r="P14" t="n">
-        <v>0.345018750772408</v>
+        <v>0.237489992335452</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.252752160506186</v>
+        <v>0.320574825076241</v>
       </c>
       <c r="R14" t="n">
-        <v>0.504409988049966</v>
+        <v>0.590508882091218</v>
       </c>
       <c r="S14" t="n">
-        <v>0.429554962951412</v>
+        <v>0.497276222378015</v>
       </c>
       <c r="T14" t="n">
-        <v>0.269426290938019</v>
+        <v>0.294354642795408</v>
       </c>
       <c r="U14" t="n">
-        <v>0.231653977135078</v>
+        <v>0.197571838418917</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0193313441371781</v>
+        <v>-0.0547075866553748</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0814346362279376</v>
+        <v>0.0697709099821956</v>
       </c>
       <c r="X14" t="n">
-        <v>0.370547055000358</v>
+        <v>0.379462694176598</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.368927563180167</v>
+        <v>0.363272174485323</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.2408222443703</v>
+        <v>0.162785087119223</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.30241419167992</v>
+        <v>0.167824596190221</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.155928030573366</v>
+        <v>-0.0019389893691651</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.0110091882025986</v>
+        <v>0.0972110386608728</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.125658740328473</v>
+        <v>-0.0532717697070595</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.31686481668349</v>
+        <v>-0.258195225718027</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.0472689172687275</v>
+        <v>-0.0289016844164773</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.0732950948966295</v>
+        <v>-0.111960216194199</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.181524772001959</v>
+        <v>-0.25219297316098</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.367979865682274</v>
+        <v>-0.386219240291234</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.548222470024632</v>
+        <v>-0.529098874073975</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.158276040073575</v>
+        <v>-0.157337541064753</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.132432495300328</v>
+        <v>-0.20796674096776</v>
       </c>
       <c r="AM14" t="n">
-        <v>-1.2848150904941</v>
+        <v>-1.41100370379706</v>
       </c>
     </row>
     <row r="15">
@@ -13796,118 +13796,118 @@
         <v>150</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.05584040121454</v>
+        <v>-1.05233079251481</v>
       </c>
       <c r="D15" t="n">
-        <v>0.189138440713365</v>
+        <v>0.188149381892713</v>
       </c>
       <c r="E15" t="n">
-        <v>0.320764714428186</v>
+        <v>0.320154777194972</v>
       </c>
       <c r="F15" t="n">
-        <v>0.484093808816254</v>
+        <v>0.484788059768177</v>
       </c>
       <c r="G15" t="n">
-        <v>0.634451202076889</v>
+        <v>0.633874154616369</v>
       </c>
       <c r="H15" t="n">
-        <v>0.575348156882788</v>
+        <v>0.574691615288798</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0203628556556565</v>
+        <v>-0.0196590591775169</v>
       </c>
       <c r="J15" t="n">
-        <v>0.351467347830549</v>
+        <v>0.354597112445403</v>
       </c>
       <c r="K15" t="n">
-        <v>0.400294714354557</v>
+        <v>0.401065891844406</v>
       </c>
       <c r="L15" t="n">
-        <v>0.522495231293047</v>
+        <v>0.520396301680199</v>
       </c>
       <c r="M15" t="n">
-        <v>0.888641651187097</v>
+        <v>0.890471895925482</v>
       </c>
       <c r="N15" t="n">
-        <v>0.656395575498933</v>
+        <v>0.662052201053151</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.11194717704895</v>
+        <v>-0.107367999226381</v>
       </c>
       <c r="P15" t="n">
-        <v>0.002474232794863</v>
+        <v>0.00808080226157231</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.191241070974852</v>
+        <v>0.188975228404568</v>
       </c>
       <c r="R15" t="n">
-        <v>0.295483819665696</v>
+        <v>0.290800016713376</v>
       </c>
       <c r="S15" t="n">
-        <v>0.439964312385393</v>
+        <v>0.433490973635018</v>
       </c>
       <c r="T15" t="n">
-        <v>0.404651259495188</v>
+        <v>0.401130648878027</v>
       </c>
       <c r="U15" t="n">
-        <v>0.234238810722884</v>
+        <v>0.23475082961376</v>
       </c>
       <c r="V15" t="n">
-        <v>0.110115013778057</v>
+        <v>0.113234818729067</v>
       </c>
       <c r="W15" t="n">
-        <v>0.292012491388422</v>
+        <v>0.292815377884458</v>
       </c>
       <c r="X15" t="n">
-        <v>0.546323914676924</v>
+        <v>0.54647892922604</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.897118769296236</v>
+        <v>0.899722809416941</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.997433698731569</v>
+        <v>1.00261777463282</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.223504410523668</v>
+        <v>0.22876270646771</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.0999022477653644</v>
+        <v>-0.0918328970456253</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.116991460983007</v>
+        <v>-0.119658654976642</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.177046816322032</v>
+        <v>0.173930714409036</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.424703315791792</v>
+        <v>0.419356057419368</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.269216829561883</v>
+        <v>0.266503870518494</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.134634242577612</v>
+        <v>0.136278036697081</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.0202666378611454</v>
+        <v>-0.0163578899334137</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.104019605306611</v>
+        <v>0.108205383813455</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.527467527825891</v>
+        <v>0.532765935029159</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.858151080447827</v>
+        <v>0.869271385398066</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.43144297340168</v>
+        <v>0.437354536284717</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.184444800911837</v>
+        <v>-0.177109738242337</v>
       </c>
     </row>
     <row r="16">
@@ -13915,118 +13915,118 @@
         <v>164</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.388941775062782</v>
+        <v>0.386853324194794</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.181058118347848</v>
+        <v>-0.179226032849203</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0422995973501399</v>
+        <v>-0.0446987872409024</v>
       </c>
       <c r="F16" t="n">
-        <v>0.372898627430997</v>
+        <v>0.373126186417162</v>
       </c>
       <c r="G16" t="n">
-        <v>0.694507647140737</v>
+        <v>0.69399508039769</v>
       </c>
       <c r="H16" t="n">
-        <v>0.641993196652921</v>
+        <v>0.641336566655136</v>
       </c>
       <c r="I16" t="n">
-        <v>0.588987086272937</v>
+        <v>0.588767053617369</v>
       </c>
       <c r="J16" t="n">
-        <v>0.523139327920827</v>
+        <v>0.526161967148075</v>
       </c>
       <c r="K16" t="n">
-        <v>0.421580350146332</v>
+        <v>0.422359170207879</v>
       </c>
       <c r="L16" t="n">
-        <v>0.275923303341701</v>
+        <v>0.27400676554693</v>
       </c>
       <c r="M16" t="n">
-        <v>0.317982433358863</v>
+        <v>0.319340699795201</v>
       </c>
       <c r="N16" t="n">
-        <v>0.342349776065166</v>
+        <v>0.347134209198728</v>
       </c>
       <c r="O16" t="n">
-        <v>0.893217765562892</v>
+        <v>0.901876936320901</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8444248302851</v>
+        <v>0.848290622897214</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.657904764769356</v>
+        <v>0.655170893902838</v>
       </c>
       <c r="R16" t="n">
-        <v>0.682293130850913</v>
+        <v>0.676125130348732</v>
       </c>
       <c r="S16" t="n">
-        <v>0.637855665208495</v>
+        <v>0.630748321292204</v>
       </c>
       <c r="T16" t="n">
-        <v>0.528669913315479</v>
+        <v>0.524922890812274</v>
       </c>
       <c r="U16" t="n">
-        <v>0.503709341565888</v>
+        <v>0.503983630792324</v>
       </c>
       <c r="V16" t="n">
-        <v>0.38378231877679</v>
+        <v>0.386890489364363</v>
       </c>
       <c r="W16" t="n">
-        <v>0.330210671422693</v>
+        <v>0.33102608896374</v>
       </c>
       <c r="X16" t="n">
-        <v>0.23895346853589</v>
+        <v>0.239069710642551</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.107293230713445</v>
+        <v>0.109171235453145</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0274095370733488</v>
+        <v>0.0316253975980211</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0923388946979786</v>
+        <v>0.0974555250464211</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.299673391021207</v>
+        <v>0.308007320588444</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.617769675053502</v>
+        <v>0.61566111892121</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.452682635880395</v>
+        <v>0.449291026273234</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.461302133848518</v>
+        <v>0.455888004235826</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.326856221904234</v>
+        <v>0.324072556714092</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.338218052382127</v>
+        <v>0.339739607938286</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.256444798706621</v>
+        <v>0.26029670442621</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.287137430763811</v>
+        <v>0.291728562897274</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.201426312885842</v>
+        <v>0.205812797571563</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.13871971879858</v>
+        <v>0.145776437464613</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.357913692844849</v>
+        <v>-0.352331281370103</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.0637432951015156</v>
+        <v>0.0688408788949334</v>
       </c>
     </row>
     <row r="17">
@@ -14034,118 +14034,118 @@
         <v>155</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.98626914745867</v>
+        <v>-2.00583661277895</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.92248238104564</v>
+        <v>-2.94446129853449</v>
       </c>
       <c r="E17" t="n">
-        <v>1.22154216890602</v>
+        <v>1.24989569281109</v>
       </c>
       <c r="F17" t="n">
-        <v>0.982809738708909</v>
+        <v>0.980205144083477</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.6478973337988</v>
+        <v>-1.65803556566921</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.172194526908613</v>
+        <v>-0.174987506430941</v>
       </c>
       <c r="I17" t="n">
-        <v>0.237380118841006</v>
+        <v>0.229994478896129</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.49718199719918</v>
+        <v>-0.492336352959839</v>
       </c>
       <c r="K17" t="n">
-        <v>0.395354586620561</v>
+        <v>0.403162832811894</v>
       </c>
       <c r="L17" t="n">
-        <v>0.312675721859656</v>
+        <v>0.327259681539276</v>
       </c>
       <c r="M17" t="n">
-        <v>0.112127001698276</v>
+        <v>0.117949131063731</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0588531166099332</v>
+        <v>0.0585465736272026</v>
       </c>
       <c r="O17" t="n">
-        <v>0.247505955436142</v>
+        <v>0.248094400499296</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.71229177364379</v>
+        <v>-1.74111918942313</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.40543818745831</v>
+        <v>-1.41175393727925</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.92248995165824</v>
+        <v>-1.93220089395658</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0310666042276281</v>
+        <v>-0.0494269031416202</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0436778982073383</v>
+        <v>0.0354328160056077</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.709957902914167</v>
+        <v>-0.716111286418034</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.210873772546081</v>
+        <v>-0.207111780628879</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.0316780870425072</v>
+        <v>-0.0234306350325772</v>
       </c>
       <c r="X17" t="n">
-        <v>0.308670795625278</v>
+        <v>0.331162392311948</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.490941871443014</v>
+        <v>0.500712771975697</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.430787570851478</v>
+        <v>-0.433021750588549</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.709526329893477</v>
+        <v>0.711307200677564</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.24476444719385</v>
+        <v>0.22454881380805</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.475636339741467</v>
+        <v>0.454570935539323</v>
       </c>
       <c r="AD17" t="n">
-        <v>-1.1342954962812</v>
+        <v>-1.14910697250717</v>
       </c>
       <c r="AE17" t="n">
-        <v>-1.75047907017762</v>
+        <v>-1.76337444739917</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.0455088687514438</v>
+        <v>-0.0545584927425488</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.713298998157729</v>
+        <v>-0.716818527581184</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.249925890332267</v>
+        <v>-0.247327200950293</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.0375402071145534</v>
+        <v>-0.0240474682139207</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.237211812220458</v>
+        <v>0.302331489472359</v>
       </c>
       <c r="AK17" t="n">
-        <v>-1.69349965411477</v>
+        <v>-1.68202070027311</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.023581307267186</v>
+        <v>-0.0195831621984482</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.73450306533942</v>
+        <v>0.725588500263891</v>
       </c>
     </row>
     <row r="18">
@@ -14153,118 +14153,118 @@
         <v>157</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1.67867041166699</v>
+        <v>1.67214509868369</v>
       </c>
       <c r="D18" t="n">
-        <v>0.31196208116072</v>
+        <v>0.310834788044604</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0947149423251784</v>
+        <v>0.0932220807916756</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.348707853198834</v>
+        <v>-0.351886985058186</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.346068788657971</v>
+        <v>-0.348118160725028</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.16040975050865</v>
+        <v>-0.161315155475604</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.63176764999332</v>
+        <v>-0.629939479520719</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.534140986304066</v>
+        <v>-0.529920720839861</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.456106616738649</v>
+        <v>-0.455013816904014</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.552993632447283</v>
+        <v>-0.553849352873326</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.827386275492196</v>
+        <v>-0.826380682564197</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.428482352083307</v>
+        <v>-0.425278148006779</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.782282768090083</v>
+        <v>-0.779947910765435</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.458767205738938</v>
+        <v>-0.451619468418688</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.112159516330133</v>
+        <v>-0.113790715518036</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.211408452769797</v>
+        <v>-0.214207467555544</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.135579042295232</v>
+        <v>-0.140554966508003</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.104744112711143</v>
+        <v>-0.107608853689439</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.134402404494129</v>
+        <v>-0.133508584990426</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.294637695263369</v>
+        <v>-0.291145775569182</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.422901164377425</v>
+        <v>-0.421876321506888</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.48169612176467</v>
+        <v>-0.481227667640935</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.421575092381696</v>
+        <v>-0.419674355982462</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.362908389656499</v>
+        <v>-0.358422261222094</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.835155528269304</v>
+        <v>-0.830697024753087</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.717350042802511</v>
+        <v>-0.709227443831072</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.96489216052968</v>
+        <v>-0.967504398988093</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.355546937513791</v>
+        <v>-0.357936516006102</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.509149492985492</v>
+        <v>-0.512781265329986</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.32573587792905</v>
+        <v>-0.32776282022483</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.176253094563928</v>
+        <v>-0.174352687263024</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.446096335138868</v>
+        <v>0.450141305011209</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.0469299661127653</v>
+        <v>0.0514766275563783</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.00337206652497485</v>
+        <v>0.0013099668402542</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.151227982561489</v>
+        <v>-0.144936237774945</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.373413321490023</v>
+        <v>0.38018364786091</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.602467091607509</v>
+        <v>0.603163584945091</v>
       </c>
     </row>
     <row r="19">
@@ -14272,118 +14272,118 @@
         <v>165</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.432306353998307</v>
+        <v>-0.443497892671995</v>
       </c>
       <c r="D19" t="n">
-        <v>0.518138659291438</v>
+        <v>0.508183424915001</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.373150245995297</v>
+        <v>-0.379664144041077</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.453969922620985</v>
+        <v>-0.457201483701563</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0925519756499288</v>
+        <v>-0.094215822897241</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.119718844593247</v>
+        <v>-0.120563362569462</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.404136401877787</v>
+        <v>-0.406240632772502</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0465133301441798</v>
+        <v>-0.0461610791419203</v>
       </c>
       <c r="K19" t="n">
-        <v>0.160007627327661</v>
+        <v>0.156563912473763</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0100805281484698</v>
+        <v>0.00171138774102488</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.00940632130853552</v>
+        <v>-0.0168725880232338</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.30404441899378</v>
+        <v>-0.309603915297946</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.656775989706218</v>
+        <v>-0.666944921069663</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.250882849364649</v>
+        <v>-0.254178194531038</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.155418053957387</v>
+        <v>0.150337830120918</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0789941516622565</v>
+        <v>-0.0841587488618664</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.322818346847307</v>
+        <v>-0.328834922694273</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.364821822074599</v>
+        <v>-0.369948463388559</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.276294983881761</v>
+        <v>-0.280894065950604</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.0381664491495691</v>
+        <v>-0.0433168093741324</v>
       </c>
       <c r="W19" t="n">
-        <v>0.194468485699597</v>
+        <v>0.187057733181438</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0574334880028914</v>
+        <v>0.0486271618158914</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.0652263412972565</v>
+        <v>-0.0733647193811544</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.297493825198869</v>
+        <v>-0.305799622900583</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.286940814668838</v>
+        <v>-0.292910938083281</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.226628021136373</v>
+        <v>-0.233945360536771</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0450242233246183</v>
+        <v>0.0316869735968982</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0671756800251481</v>
+        <v>0.0613288008323535</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.0898553736186535</v>
+        <v>-0.0971306165321616</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.187289279959845</v>
+        <v>-0.193361955455596</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.215761304599449</v>
+        <v>-0.221002450498695</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.0352176908003727</v>
+        <v>-0.0419002390411982</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.185220829513412</v>
+        <v>0.173317600971487</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.0365680867827991</v>
+        <v>-0.0585666287628153</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.174794528594784</v>
+        <v>-0.192799693576548</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.716227963835922</v>
+        <v>-0.731642908852488</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.627085854081372</v>
+        <v>-0.632659926729016</v>
       </c>
     </row>
     <row r="20">
@@ -14391,118 +14391,118 @@
         <v>147</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.294965276135522</v>
+        <v>0.293240953540709</v>
       </c>
       <c r="D20" t="n">
-        <v>0.178376155051656</v>
+        <v>0.17746911201509</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.329003906569543</v>
+        <v>-0.332816031939116</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.620213828024358</v>
+        <v>-0.624154413721102</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.714523387968411</v>
+        <v>-0.716548787047593</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.33176357269925</v>
+        <v>-1.33241758453387</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.27336232674209</v>
+        <v>-2.26924278110833</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.40903390219762</v>
+        <v>-2.40418155148433</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.29792373851481</v>
+        <v>-2.29812135181814</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.86703357334432</v>
+        <v>-1.86736494366262</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.56708663933055</v>
+        <v>-1.56728746748582</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.30006265291293</v>
+        <v>-1.2998396553239</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.68078136555307</v>
+        <v>-1.68257013007968</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.76204778009632</v>
+        <v>-1.75279296916673</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1.13391786712587</v>
+        <v>-1.1348546757724</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.28327620098027</v>
+        <v>-1.28190226000889</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.28197427481955</v>
+        <v>-1.28293085933026</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.17369702282385</v>
+        <v>-1.1743361571435</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.748655588076166</v>
+        <v>-0.747276449671795</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.545925511487797</v>
+        <v>-0.542777816417064</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.437808713584214</v>
+        <v>-0.437245247457444</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.381697883101174</v>
+        <v>-0.381659931438887</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.160847824142318</v>
+        <v>-0.159216304079823</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.327950946176894</v>
+        <v>0.332466787696985</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.43209907544248</v>
+        <v>0.437582664500024</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.470486473239557</v>
+        <v>0.478933506620049</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.40609419686224</v>
+        <v>0.403824704160721</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.431550804657055</v>
+        <v>0.428180317058287</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.46002677661639</v>
+        <v>0.454614977262554</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.306130823930227</v>
+        <v>0.303372582551321</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.214241624280986</v>
+        <v>0.21583761945231</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.168083661193053</v>
+        <v>0.171953718103763</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.215171796229418</v>
+        <v>0.219603623659051</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.319517249178433</v>
+        <v>0.324234028866715</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.397930702805304</v>
+        <v>0.406451530843648</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.240007639085192</v>
+        <v>0.245839375937005</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.0517593037484707</v>
+        <v>0.056964926275149</v>
       </c>
     </row>
     <row r="21">
@@ -14513,115 +14513,115 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.32121858944943</v>
+        <v>1.31551787008434</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.341085157801372</v>
+        <v>-0.338033559689124</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.36484637485557</v>
+        <v>-2.37869153412178</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.40641525910799</v>
+        <v>-2.4178526252113</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.07814092914791</v>
+        <v>-2.08163040152216</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.79948485548301</v>
+        <v>-1.8001382468913</v>
       </c>
       <c r="I21" t="n">
-        <v>-2.16073082507967</v>
+        <v>-2.15678203889865</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.47727800887262</v>
+        <v>-1.47300708508278</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.66845094446634</v>
+        <v>-1.66842254662265</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.47375261394007</v>
+        <v>-1.47437489827196</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.02827731026354</v>
+        <v>-1.0280325023819</v>
       </c>
       <c r="N21" t="n">
-        <v>-2.18042014998121</v>
+        <v>-2.18264214970721</v>
       </c>
       <c r="O21" t="n">
-        <v>-1.88408691154296</v>
+        <v>-1.88670089903171</v>
       </c>
       <c r="P21" t="n">
-        <v>-2.03631284513662</v>
+        <v>-2.02649097685393</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1.82826131715361</v>
+        <v>-1.82850175197411</v>
       </c>
       <c r="R21" t="n">
-        <v>-2.76698928142648</v>
+        <v>-2.75992229415292</v>
       </c>
       <c r="S21" t="n">
-        <v>-2.81070510013548</v>
+        <v>-2.8067639302637</v>
       </c>
       <c r="T21" t="n">
-        <v>-2.6751398531053</v>
+        <v>-2.67303791184867</v>
       </c>
       <c r="U21" t="n">
-        <v>-1.79955751250701</v>
+        <v>-1.79725125765294</v>
       </c>
       <c r="V21" t="n">
-        <v>-1.39815550265929</v>
+        <v>-1.39497157690529</v>
       </c>
       <c r="W21" t="n">
-        <v>-1.0523265735434</v>
+        <v>-1.05196470212496</v>
       </c>
       <c r="X21" t="n">
-        <v>-1.05355977659018</v>
+        <v>-1.05360657519236</v>
       </c>
       <c r="Y21" t="n">
-        <v>-1.25259924927599</v>
+        <v>-1.25197130547584</v>
       </c>
       <c r="Z21" t="n">
-        <v>-1.60927019280224</v>
+        <v>-1.60668796012278</v>
       </c>
       <c r="AA21" t="n">
-        <v>-1.29288291760946</v>
+        <v>-1.28926239903889</v>
       </c>
       <c r="AB21" t="n">
-        <v>-1.41513737214168</v>
+        <v>-1.40793890382722</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.84225865978205</v>
+        <v>-2.84699787060518</v>
       </c>
       <c r="AD21" t="n">
-        <v>-1.89643473605808</v>
+        <v>-1.89747832024713</v>
       </c>
       <c r="AE21" t="n">
-        <v>-2.17324488564293</v>
+        <v>-2.17384532355485</v>
       </c>
       <c r="AF21" t="n">
-        <v>-1.7793916844939</v>
+        <v>-1.77959161887921</v>
       </c>
       <c r="AG21" t="n">
-        <v>-1.64863372923055</v>
+        <v>-1.64591920107245</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.864235307636701</v>
+        <v>-0.860153191223055</v>
       </c>
       <c r="AI21" t="n">
-        <v>-1.18376042131083</v>
+        <v>-1.18242530085856</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-1.70928977775176</v>
+        <v>-1.71024747946902</v>
       </c>
       <c r="AK21" t="n">
-        <v>-1.76468687557895</v>
+        <v>-1.76838122691416</v>
       </c>
       <c r="AL21" t="n">
-        <v>-2.13102197031377</v>
+        <v>-2.12617892180578</v>
       </c>
       <c r="AM21" t="n">
-        <v>-1.55104458095953</v>
+        <v>-1.5313892733265</v>
       </c>
     </row>
     <row r="22">
@@ -14629,118 +14629,118 @@
         <v>161</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.256129659848471</v>
+        <v>-0.255718669363043</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.43413422116702</v>
+        <v>-1.42275286125567</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.27418273627021</v>
+        <v>-2.28758108721343</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.66842286105915</v>
+        <v>-1.67676283464356</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.29756048846349</v>
+        <v>-1.30021187615245</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.37316444101943</v>
+        <v>-1.37381839793632</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.31495515963358</v>
+        <v>-1.31228864517617</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.597993407908916</v>
+        <v>-0.594271168322776</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.03630345312126</v>
+        <v>-1.03604808378499</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.43948260808627</v>
+        <v>-1.44013024229771</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.36320691197875</v>
+        <v>-1.36323911619082</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.08306404488151</v>
+        <v>-1.08223838188012</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.809940255668184</v>
+        <v>-0.808194251496053</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.348761514193896</v>
+        <v>-0.342428746467233</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.203944534827938</v>
+        <v>-0.205814036203826</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.404739398916354</v>
+        <v>-0.406736426873029</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.531916960228238</v>
+        <v>-0.535276581584171</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.509850401607726</v>
+        <v>-0.511701472687878</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.25098519518568</v>
+        <v>-0.250045106703144</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.149213517334331</v>
+        <v>-0.146082687601311</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.312161156104492</v>
+        <v>-0.31155647086213</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.490300142356841</v>
+        <v>-0.490275890043011</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.648096394684801</v>
+        <v>-0.646912770625</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.712323516946062</v>
+        <v>-0.708846010109657</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.270301144689378</v>
+        <v>-0.265576184490247</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.30315931752244</v>
+        <v>-0.295224553389174</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.57727721432699</v>
+        <v>-0.580294362933414</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.396500318480739</v>
+        <v>-0.399043139864168</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.482978598569143</v>
+        <v>-0.486667393127569</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.528680009032603</v>
+        <v>-0.530414189350708</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.463480927171865</v>
+        <v>-0.46147800459756</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.276773460992689</v>
+        <v>-0.272812021299083</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.513835726284037</v>
+        <v>-0.511017645863168</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-1.09342527043775</v>
+        <v>-1.09266042700965</v>
       </c>
       <c r="AK22" t="n">
-        <v>-1.25236605094413</v>
+        <v>-1.25316664481049</v>
       </c>
       <c r="AL22" t="n">
-        <v>-1.6334504481994</v>
+        <v>-1.62839991887287</v>
       </c>
       <c r="AM22" t="n">
-        <v>-1.62269479041969</v>
+        <v>-1.60239353790571</v>
       </c>
     </row>
     <row r="23">
@@ -14748,118 +14748,118 @@
         <v>156</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.219090881270626</v>
+        <v>0.264161556481095</v>
       </c>
       <c r="D23" t="n">
-        <v>0.279328639956569</v>
+        <v>0.353722362069764</v>
       </c>
       <c r="E23" t="n">
-        <v>0.628893015618317</v>
+        <v>0.628842242083953</v>
       </c>
       <c r="F23" t="n">
-        <v>0.595084131323893</v>
+        <v>0.595861781019599</v>
       </c>
       <c r="G23" t="n">
-        <v>0.668646930829115</v>
+        <v>0.66868879299552</v>
       </c>
       <c r="H23" t="n">
-        <v>0.56912397205625</v>
+        <v>0.56368522829339</v>
       </c>
       <c r="I23" t="n">
-        <v>0.583700706466911</v>
+        <v>0.592139849009519</v>
       </c>
       <c r="J23" t="n">
-        <v>0.524496089908499</v>
+        <v>0.524962230574075</v>
       </c>
       <c r="K23" t="n">
-        <v>0.413257206308353</v>
+        <v>0.4065748035997</v>
       </c>
       <c r="L23" t="n">
-        <v>0.323446092730907</v>
+        <v>0.318236003465175</v>
       </c>
       <c r="M23" t="n">
-        <v>0.330859990905542</v>
+        <v>0.33544532468447</v>
       </c>
       <c r="N23" t="n">
-        <v>0.397607833742685</v>
+        <v>0.394317788717964</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4087799444847</v>
+        <v>0.445311056399331</v>
       </c>
       <c r="P23" t="n">
-        <v>0.460447264548296</v>
+        <v>0.502457175177183</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.452524167256265</v>
+        <v>0.457226410976358</v>
       </c>
       <c r="R23" t="n">
-        <v>0.440829085421973</v>
+        <v>0.439310642840777</v>
       </c>
       <c r="S23" t="n">
-        <v>0.395782995044111</v>
+        <v>0.397875453279504</v>
       </c>
       <c r="T23" t="n">
-        <v>0.402367984039999</v>
+        <v>0.404627098930888</v>
       </c>
       <c r="U23" t="n">
-        <v>0.465637850279676</v>
+        <v>0.475098090452709</v>
       </c>
       <c r="V23" t="n">
-        <v>0.391402920473448</v>
+        <v>0.398838996927138</v>
       </c>
       <c r="W23" t="n">
-        <v>0.309032490640573</v>
+        <v>0.312049276011804</v>
       </c>
       <c r="X23" t="n">
-        <v>0.245272663075913</v>
+        <v>0.243184174245567</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.22501272256715</v>
+        <v>0.241737177408297</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.206124653038731</v>
+        <v>0.226166434072823</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.254258840879566</v>
+        <v>0.281709081133992</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.290704314091758</v>
+        <v>0.324959559977913</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.344377465411566</v>
+        <v>0.370449984879981</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.365495401644179</v>
+        <v>0.369661025969941</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.40201575118398</v>
+        <v>0.408713762694854</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.356478739987942</v>
+        <v>0.364990983087359</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.406856181414365</v>
+        <v>0.41629094830765</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.317440543060105</v>
+        <v>0.329256389493184</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.344293692525118</v>
+        <v>0.364117465126605</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.333057554960674</v>
+        <v>0.361959569524697</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.3590562415289</v>
+        <v>0.402727999813417</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.339448421909254</v>
+        <v>0.363200773082147</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.44931602105697</v>
+        <v>0.472477200030225</v>
       </c>
     </row>
     <row r="24">
@@ -14867,118 +14867,118 @@
         <v>152</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.404278215481467</v>
+        <v>0.402130340910425</v>
       </c>
       <c r="D24" t="n">
-        <v>0.64946909380773</v>
+        <v>0.644972008844782</v>
       </c>
       <c r="E24" t="n">
-        <v>0.615324200671067</v>
+        <v>0.61616591078095</v>
       </c>
       <c r="F24" t="n">
-        <v>0.612992193977141</v>
+        <v>0.614227438162804</v>
       </c>
       <c r="G24" t="n">
-        <v>0.714908888325015</v>
+        <v>0.71441822575341</v>
       </c>
       <c r="H24" t="n">
-        <v>0.644751028708507</v>
+        <v>0.644094395052493</v>
       </c>
       <c r="I24" t="n">
-        <v>0.661527726438634</v>
+        <v>0.661197715670078</v>
       </c>
       <c r="J24" t="n">
-        <v>0.634648110459689</v>
+        <v>0.637601166860756</v>
       </c>
       <c r="K24" t="n">
-        <v>0.500361582015275</v>
+        <v>0.5011686883455</v>
       </c>
       <c r="L24" t="n">
-        <v>0.48097656674955</v>
+        <v>0.478908348924428</v>
       </c>
       <c r="M24" t="n">
-        <v>0.468400232126133</v>
+        <v>0.469882905450228</v>
       </c>
       <c r="N24" t="n">
-        <v>0.450698463666896</v>
+        <v>0.455783811203021</v>
       </c>
       <c r="O24" t="n">
-        <v>0.558624339464715</v>
+        <v>0.565925386041455</v>
       </c>
       <c r="P24" t="n">
-        <v>0.59441306504999</v>
+        <v>0.598795770050545</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.45735916277336</v>
+        <v>0.454826423937612</v>
       </c>
       <c r="R24" t="n">
-        <v>0.464406272516939</v>
+        <v>0.459074309648638</v>
       </c>
       <c r="S24" t="n">
-        <v>0.449031386987378</v>
+        <v>0.44252899910446</v>
       </c>
       <c r="T24" t="n">
-        <v>0.463564968471568</v>
+        <v>0.459936803357141</v>
       </c>
       <c r="U24" t="n">
-        <v>0.543920596914211</v>
+        <v>0.544159411359005</v>
       </c>
       <c r="V24" t="n">
-        <v>0.485636222973795</v>
+        <v>0.488740063466697</v>
       </c>
       <c r="W24" t="n">
-        <v>0.419487426393621</v>
+        <v>0.420332131482764</v>
       </c>
       <c r="X24" t="n">
-        <v>0.401198686358646</v>
+        <v>0.401335394464724</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.371858276363592</v>
+        <v>0.373979478587212</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.394492548516742</v>
+        <v>0.399074807560348</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.395153423002034</v>
+        <v>0.400597108828727</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.437570283499074</v>
+        <v>0.445995521437852</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.439745952681708</v>
+        <v>0.437502045362947</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.417269471329133</v>
+        <v>0.413913258425218</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.472560439222236</v>
+        <v>0.467125739086134</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.416218656833313</v>
+        <v>0.413325370892822</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.506756922152028</v>
+        <v>0.508177281304984</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.419319373616515</v>
+        <v>0.423137821555671</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.482179595001378</v>
+        <v>0.48720247673879</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.612093471021346</v>
+        <v>0.61762857315652</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.671112042329743</v>
+        <v>0.681175888929091</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.651186840327012</v>
+        <v>0.657190033529213</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.826059711668484</v>
+        <v>0.824284818875162</v>
       </c>
     </row>
     <row r="25">
@@ -14986,118 +14986,118 @@
         <v>167</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.356636794137979</v>
+        <v>0.354673514531459</v>
       </c>
       <c r="D25" t="n">
-        <v>1.09066687144938</v>
+        <v>1.08280756559698</v>
       </c>
       <c r="E25" t="n">
-        <v>0.126925618380933</v>
+        <v>0.125360403786415</v>
       </c>
       <c r="F25" t="n">
-        <v>0.685294960472915</v>
+        <v>0.686833663134075</v>
       </c>
       <c r="G25" t="n">
-        <v>0.507212442226824</v>
+        <v>0.506498782509005</v>
       </c>
       <c r="H25" t="n">
-        <v>0.717472270089269</v>
+        <v>0.716815539969456</v>
       </c>
       <c r="I25" t="n">
-        <v>1.08168533436274</v>
+        <v>1.08071832699791</v>
       </c>
       <c r="J25" t="n">
-        <v>0.866088543299129</v>
+        <v>0.868897178076688</v>
       </c>
       <c r="K25" t="n">
-        <v>0.954275415631533</v>
+        <v>0.955245498959575</v>
       </c>
       <c r="L25" t="n">
-        <v>0.952645253182943</v>
+        <v>0.950228137127744</v>
       </c>
       <c r="M25" t="n">
-        <v>0.605196287172002</v>
+        <v>0.606792101172301</v>
       </c>
       <c r="N25" t="n">
-        <v>0.355641839989612</v>
+        <v>0.36046318887696</v>
       </c>
       <c r="O25" t="n">
-        <v>0.188245645688367</v>
+        <v>0.194043314670064</v>
       </c>
       <c r="P25" t="n">
-        <v>0.399235043269357</v>
+        <v>0.404021289028544</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.182555205265907</v>
+        <v>0.180298073960251</v>
       </c>
       <c r="R25" t="n">
-        <v>0.882561357956286</v>
+        <v>0.875624922973886</v>
       </c>
       <c r="S25" t="n">
-        <v>0.702843288441212</v>
+        <v>0.695527736898552</v>
       </c>
       <c r="T25" t="n">
-        <v>0.691222284372412</v>
+        <v>0.687178501762739</v>
       </c>
       <c r="U25" t="n">
-        <v>0.650542822783121</v>
+        <v>0.650687574007353</v>
       </c>
       <c r="V25" t="n">
-        <v>0.795716519752947</v>
+        <v>0.798807177864171</v>
       </c>
       <c r="W25" t="n">
-        <v>0.879279917341068</v>
+        <v>0.880275458946359</v>
       </c>
       <c r="X25" t="n">
-        <v>0.786073092168328</v>
+        <v>0.786258349251508</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.720466913850254</v>
+        <v>0.722908569379794</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.6638116247843</v>
+        <v>0.668662700710162</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.36244996481045</v>
+        <v>0.367858329197253</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.234206948137167</v>
+        <v>0.242497529125745</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0521401335960032</v>
+        <v>0.0496015301165469</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.718687287198405</v>
+        <v>0.715029796588408</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.937999963024953</v>
+        <v>0.931714838752798</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.698349891547278</v>
+        <v>0.695110515690248</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.00782174009836</v>
+        <v>1.00894124309026</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.862181099075644</v>
+        <v>0.865908574127342</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.01003064166348</v>
+        <v>1.01622198603168</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.00442120839555</v>
+        <v>1.01105363345057</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.18916567331001</v>
+        <v>1.20215565816459</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.542632791907228</v>
+        <v>0.548590719490678</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.377521682791167</v>
+        <v>0.379790474529268</v>
       </c>
     </row>
   </sheetData>
@@ -15238,118 +15238,118 @@
         <v>168</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.426046949694894</v>
+        <v>0.416886025540267</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0625102112142</v>
+        <v>1.04177095181641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.378647979510593</v>
+        <v>0.368792612404784</v>
       </c>
       <c r="F2" t="n">
-        <v>0.269838230393359</v>
+        <v>0.26934900121237</v>
       </c>
       <c r="G2" t="n">
-        <v>0.367074336730702</v>
+        <v>0.366661516383172</v>
       </c>
       <c r="H2" t="n">
-        <v>0.218236990694101</v>
+        <v>0.218225582483639</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0315553081898409</v>
+        <v>0.0267107670710617</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0298476752598454</v>
+        <v>0.0356189288223613</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.261989854160963</v>
+        <v>-0.257159355587354</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.128241016902339</v>
+        <v>-0.130072873648636</v>
       </c>
       <c r="M2" t="n">
-        <v>0.151643961492976</v>
+        <v>0.153923741426319</v>
       </c>
       <c r="N2" t="n">
-        <v>0.290047668759947</v>
+        <v>0.30698198384737</v>
       </c>
       <c r="O2" t="n">
-        <v>0.529123747169501</v>
+        <v>0.549847510011804</v>
       </c>
       <c r="P2" t="n">
-        <v>0.643972798790711</v>
+        <v>0.642673577502105</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.423369500460557</v>
+        <v>0.409227627286231</v>
       </c>
       <c r="R2" t="n">
-        <v>0.236246871297102</v>
+        <v>0.225918600243554</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0361745716006398</v>
+        <v>-0.0418962214653243</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.194669962399694</v>
+        <v>-0.198929642541404</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0952376605928651</v>
+        <v>-0.0956150876534038</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.196020771330821</v>
+        <v>-0.184662926144222</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.197311374277463</v>
+        <v>-0.194286793888312</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0969345142510729</v>
+        <v>-0.095733579543379</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0482315258114928</v>
+        <v>0.0523963021585817</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.141723366077089</v>
+        <v>0.161377479425458</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.181896488482023</v>
+        <v>0.204363841001312</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.284666813873878</v>
+        <v>0.297483868173848</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.253413544494156</v>
+        <v>0.221298077128418</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.232465582202618</v>
+        <v>0.221417740286472</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0610977413269705</v>
+        <v>0.0522867885420218</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0642004628060649</v>
+        <v>-0.0704925242819754</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.160531586736722</v>
+        <v>-0.160453951767204</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.220052356300212</v>
+        <v>-0.206227266013697</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.378506405375448</v>
+        <v>-0.370776005281862</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.278003606308568</v>
+        <v>-0.268666715809871</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.0265751297885489</v>
+        <v>-0.0148922283250284</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.295451508589945</v>
+        <v>0.323787242190577</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.249293060549643</v>
+        <v>0.284710100658465</v>
       </c>
     </row>
     <row r="3">
@@ -15357,118 +15357,118 @@
         <v>146</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.333539486623809</v>
+        <v>-0.332828558314859</v>
       </c>
       <c r="D3" t="n">
-        <v>0.478836868714389</v>
+        <v>0.47564011494234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.637582623352301</v>
+        <v>0.638534027366661</v>
       </c>
       <c r="F3" t="n">
-        <v>0.690657794563761</v>
+        <v>0.692219005318821</v>
       </c>
       <c r="G3" t="n">
-        <v>0.680527176173379</v>
+        <v>0.679999599038065</v>
       </c>
       <c r="H3" t="n">
-        <v>0.660895290455039</v>
+        <v>0.660238635383868</v>
       </c>
       <c r="I3" t="n">
-        <v>0.492840339678858</v>
+        <v>0.49276607410966</v>
       </c>
       <c r="J3" t="n">
-        <v>0.489628625368052</v>
+        <v>0.492672175678157</v>
       </c>
       <c r="K3" t="n">
-        <v>0.564279292048458</v>
+        <v>0.565109347924868</v>
       </c>
       <c r="L3" t="n">
-        <v>0.198051341625148</v>
+        <v>0.196192406529893</v>
       </c>
       <c r="M3" t="n">
-        <v>0.25283117021525</v>
+        <v>0.25413555163301</v>
       </c>
       <c r="N3" t="n">
-        <v>0.378225330764708</v>
+        <v>0.38310940027918</v>
       </c>
       <c r="O3" t="n">
-        <v>0.415571194740238</v>
+        <v>0.422291584555957</v>
       </c>
       <c r="P3" t="n">
-        <v>0.49524820998746</v>
+        <v>0.499835943507499</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.460192393238629</v>
+        <v>0.457656812887577</v>
       </c>
       <c r="R3" t="n">
-        <v>0.413344718738891</v>
+        <v>0.408208680401924</v>
       </c>
       <c r="S3" t="n">
-        <v>0.317923590674284</v>
+        <v>0.311841246512169</v>
       </c>
       <c r="T3" t="n">
-        <v>0.383597759729229</v>
+        <v>0.380115584963796</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0140998717034119</v>
+        <v>0.0148060994227606</v>
       </c>
       <c r="V3" t="n">
-        <v>0.308210429514966</v>
+        <v>0.311321812875162</v>
       </c>
       <c r="W3" t="n">
-        <v>0.245183911657346</v>
+        <v>0.245971435875916</v>
       </c>
       <c r="X3" t="n">
-        <v>0.323871841229985</v>
+        <v>0.323998795143067</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.303228849989014</v>
+        <v>0.305286965633013</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.341286764427152</v>
+        <v>0.345815916898454</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.227299121680478</v>
+        <v>0.232561516110412</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.347079883779876</v>
+        <v>0.355445203537106</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.263036756785703</v>
+        <v>0.260658497713109</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.278541452167201</v>
+        <v>0.275323902796699</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.312108247337968</v>
+        <v>0.306966716152251</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.280898399557068</v>
+        <v>0.278171110751189</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.187822570924726</v>
+        <v>0.189434428983817</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.182774648061316</v>
+        <v>0.186641687141813</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.180568465096126</v>
+        <v>0.184923693834545</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.175057637399552</v>
+        <v>0.17937037009371</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.20467258503988</v>
+        <v>0.212101827308508</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.67741253284327</v>
+        <v>0.683426661816326</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.240400478422615</v>
+        <v>0.24390545273017</v>
       </c>
     </row>
     <row r="4">
@@ -15476,118 +15476,118 @@
         <v>149</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.666882741898576</v>
+        <v>0.686699775196428</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.247244978053527</v>
+        <v>-0.238639622295243</v>
       </c>
       <c r="E4" t="n">
-        <v>0.643144368352392</v>
+        <v>0.643175940243096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.707111095512997</v>
+        <v>0.709153673631925</v>
       </c>
       <c r="G4" t="n">
-        <v>0.666686419675645</v>
+        <v>0.669368397470079</v>
       </c>
       <c r="H4" t="n">
-        <v>0.613457218706329</v>
+        <v>0.622340170745643</v>
       </c>
       <c r="I4" t="n">
-        <v>0.531783556223493</v>
+        <v>0.543874034780947</v>
       </c>
       <c r="J4" t="n">
-        <v>0.578835163889981</v>
+        <v>0.582447147343045</v>
       </c>
       <c r="K4" t="n">
-        <v>0.608905949314496</v>
+        <v>0.604128853596632</v>
       </c>
       <c r="L4" t="n">
-        <v>0.572740666583791</v>
+        <v>0.56904208695147</v>
       </c>
       <c r="M4" t="n">
-        <v>0.664276993383135</v>
+        <v>0.673480650835253</v>
       </c>
       <c r="N4" t="n">
-        <v>0.702041464310658</v>
+        <v>0.718358626737276</v>
       </c>
       <c r="O4" t="n">
-        <v>0.849184539632369</v>
+        <v>0.87454568422653</v>
       </c>
       <c r="P4" t="n">
-        <v>0.912101406511699</v>
+        <v>0.92143827139688</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.842433747497941</v>
+        <v>0.842690154565314</v>
       </c>
       <c r="R4" t="n">
-        <v>0.835602014863872</v>
+        <v>0.846811604264981</v>
       </c>
       <c r="S4" t="n">
-        <v>0.776513538295936</v>
+        <v>0.790450885946377</v>
       </c>
       <c r="T4" t="n">
-        <v>0.851667833172564</v>
+        <v>0.868737902902099</v>
       </c>
       <c r="U4" t="n">
-        <v>0.816640525084861</v>
+        <v>0.831600358557074</v>
       </c>
       <c r="V4" t="n">
-        <v>0.646079348095738</v>
+        <v>0.658840478004056</v>
       </c>
       <c r="W4" t="n">
-        <v>0.604217000970868</v>
+        <v>0.600370385776617</v>
       </c>
       <c r="X4" t="n">
-        <v>0.505007641117465</v>
+        <v>0.4678603008457</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.552556573040205</v>
+        <v>0.519133244535432</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.80609352997936</v>
+        <v>0.813399351355074</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.701361002318812</v>
+        <v>0.714600529211669</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.81702998349044</v>
+        <v>0.829081180890452</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.970792255913596</v>
+        <v>0.957680130042452</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.748866702048144</v>
+        <v>0.780247306417611</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.848919810583926</v>
+        <v>0.854817538636181</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.741790974921698</v>
+        <v>0.749853707774614</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.78856494662275</v>
+        <v>0.780947213448753</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.592758673312471</v>
+        <v>0.588827240184941</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.731423860594118</v>
+        <v>0.661264349073232</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.535633806170235</v>
+        <v>0.367913042382299</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.746031546788487</v>
+        <v>0.59315023129243</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.665319765601511</v>
+        <v>0.638351297756851</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.788980235380392</v>
+        <v>0.788878816838511</v>
       </c>
     </row>
     <row r="5">
@@ -15595,118 +15595,118 @@
         <v>151</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.90564353462198</v>
+        <v>-2.89496654228519</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.24750922253435</v>
+        <v>-1.23755006939896</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.566402491241396</v>
+        <v>-0.571384563738083</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.67585719545504</v>
+        <v>-1.68422837132799</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.92369119498721</v>
+        <v>-1.92701483953628</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.59321969735042</v>
+        <v>-2.59387203587957</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.05785487809093</v>
+        <v>-2.05406206106728</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.98305477062428</v>
+        <v>-2.97784422396084</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.98063245003017</v>
+        <v>-2.98107518874706</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.10697067299784</v>
+        <v>-3.10638484895509</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.48819312691183</v>
+        <v>-3.48998285532444</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.23131873103309</v>
+        <v>-3.23645936803724</v>
       </c>
       <c r="O5" t="n">
-        <v>-3.01264185163693</v>
+        <v>-3.01983667555127</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.55473104964823</v>
+        <v>-2.54383732463891</v>
       </c>
       <c r="Q5" t="n">
-        <v>-3.47858860547356</v>
+        <v>-3.47717388717362</v>
       </c>
       <c r="R5" t="n">
-        <v>-2.16491211494114</v>
+        <v>-2.16015531366746</v>
       </c>
       <c r="S5" t="n">
-        <v>-2.9493863817829</v>
+        <v>-2.94500090422548</v>
       </c>
       <c r="T5" t="n">
-        <v>-3.10764534189384</v>
+        <v>-3.10475380664934</v>
       </c>
       <c r="U5" t="n">
-        <v>-3.76669736434522</v>
+        <v>-3.76265567855026</v>
       </c>
       <c r="V5" t="n">
-        <v>-4.1179548562989</v>
+        <v>-4.1146553042586</v>
       </c>
       <c r="W5" t="n">
-        <v>-4.26759573664715</v>
+        <v>-4.26828864539279</v>
       </c>
       <c r="X5" t="n">
-        <v>-4.27678131110968</v>
+        <v>-4.27723469457725</v>
       </c>
       <c r="Y5" t="n">
-        <v>-4.17901209034066</v>
+        <v>-4.18107420802655</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.94039905451569</v>
+        <v>-3.94014360388756</v>
       </c>
       <c r="AA5" t="n">
-        <v>-4.18047347762304</v>
+        <v>-4.17997170740608</v>
       </c>
       <c r="AB5" t="n">
-        <v>-4.12124767213248</v>
+        <v>-4.11584105365788</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.0943645788427</v>
+        <v>-3.09929546544256</v>
       </c>
       <c r="AD5" t="n">
-        <v>-3.7442039410595</v>
+        <v>-3.7434006149528</v>
       </c>
       <c r="AE5" t="n">
-        <v>-3.12703092705234</v>
+        <v>-3.12588866236002</v>
       </c>
       <c r="AF5" t="n">
-        <v>-4.00428567279558</v>
+        <v>-4.00175633342464</v>
       </c>
       <c r="AG5" t="n">
-        <v>-3.91114692994197</v>
+        <v>-3.90707391279896</v>
       </c>
       <c r="AH5" t="n">
-        <v>-4.37565229515948</v>
+        <v>-4.37084886163023</v>
       </c>
       <c r="AI5" t="n">
-        <v>-4.18807305291148</v>
+        <v>-4.19338834466062</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-3.78697620387944</v>
+        <v>-3.7937451004689</v>
       </c>
       <c r="AK5" t="n">
-        <v>-3.01947339047943</v>
+        <v>-3.03025519107438</v>
       </c>
       <c r="AL5" t="n">
-        <v>-3.26504143972603</v>
+        <v>-3.26067126250847</v>
       </c>
       <c r="AM5" t="n">
-        <v>-3.25555907314248</v>
+        <v>-3.22053713338045</v>
       </c>
     </row>
     <row r="6">
@@ -15714,118 +15714,118 @@
         <v>160</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.890591239428844</v>
+        <v>0.886559060551371</v>
       </c>
       <c r="D6" t="n">
-        <v>0.581978765568983</v>
+        <v>0.577996001853647</v>
       </c>
       <c r="E6" t="n">
-        <v>0.60694315856013</v>
+        <v>0.607743565238683</v>
       </c>
       <c r="F6" t="n">
-        <v>0.504963399415994</v>
+        <v>0.50574524112626</v>
       </c>
       <c r="G6" t="n">
-        <v>0.668339450662212</v>
+        <v>0.66779878794908</v>
       </c>
       <c r="H6" t="n">
-        <v>0.620066674859277</v>
+        <v>0.619410073946744</v>
       </c>
       <c r="I6" t="n">
-        <v>0.53553208183547</v>
+        <v>0.535393091758302</v>
       </c>
       <c r="J6" t="n">
-        <v>0.467427804728806</v>
+        <v>0.470485208618947</v>
       </c>
       <c r="K6" t="n">
-        <v>0.304886153192708</v>
+        <v>0.305623074399287</v>
       </c>
       <c r="L6" t="n">
-        <v>0.276469432399001</v>
+        <v>0.27455249062689</v>
       </c>
       <c r="M6" t="n">
-        <v>0.31710600389885</v>
+        <v>0.318463545461786</v>
       </c>
       <c r="N6" t="n">
-        <v>0.448382040157835</v>
+        <v>0.453460954342419</v>
       </c>
       <c r="O6" t="n">
-        <v>0.538617255378813</v>
+        <v>0.545837092635303</v>
       </c>
       <c r="P6" t="n">
-        <v>0.662034854219963</v>
+        <v>0.666277747637981</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.529953182561569</v>
+        <v>0.527347637429016</v>
       </c>
       <c r="R6" t="n">
-        <v>0.48684447945585</v>
+        <v>0.481426420594514</v>
       </c>
       <c r="S6" t="n">
-        <v>0.41235114897598</v>
+        <v>0.405966277397107</v>
       </c>
       <c r="T6" t="n">
-        <v>0.439450808834519</v>
+        <v>0.435866667197171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.447400222547083</v>
+        <v>0.447724188255497</v>
       </c>
       <c r="V6" t="n">
-        <v>0.265847711389694</v>
+        <v>0.268960895707658</v>
       </c>
       <c r="W6" t="n">
-        <v>0.274059833659863</v>
+        <v>0.27485683072447</v>
       </c>
       <c r="X6" t="n">
-        <v>0.213781413812458</v>
+        <v>0.213894480655994</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.208748471105493</v>
+        <v>0.210719737066203</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.314274913242541</v>
+        <v>0.318777104231128</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.312334288346583</v>
+        <v>0.31768852518995</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.36493120607929</v>
+        <v>0.373308346082355</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.487584803623823</v>
+        <v>0.485377268116346</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.37200867816939</v>
+        <v>0.368697705019798</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.350120821651828</v>
+        <v>0.344909836092305</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.283942949725307</v>
+        <v>0.281211926174798</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.281623016723919</v>
+        <v>0.28317855384205</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.162788760424814</v>
+        <v>0.166659905016811</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.089755514048748</v>
+        <v>0.0939097172509637</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0954468299836668</v>
+        <v>0.0995368948536473</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.326895684736148</v>
+        <v>0.335015283497439</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.324617521562253</v>
+        <v>0.33048453962871</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.742676814722561</v>
+        <v>0.741653639975108</v>
       </c>
     </row>
     <row r="7">
@@ -15833,118 +15833,118 @@
         <v>166</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.218558401811398</v>
+        <v>-0.218292987693106</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.170705551818383</v>
+        <v>-0.168952359771176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.245920791595946</v>
+        <v>0.244942008724413</v>
       </c>
       <c r="F7" t="n">
-        <v>0.795578796942821</v>
+        <v>0.79758036660768</v>
       </c>
       <c r="G7" t="n">
-        <v>0.707655233503661</v>
+        <v>0.70715678291086</v>
       </c>
       <c r="H7" t="n">
-        <v>0.65679004798484</v>
+        <v>0.656133398359221</v>
       </c>
       <c r="I7" t="n">
-        <v>0.588718673074732</v>
+        <v>0.588499047357633</v>
       </c>
       <c r="J7" t="n">
-        <v>0.586536157578907</v>
+        <v>0.589519236419268</v>
       </c>
       <c r="K7" t="n">
-        <v>0.558899156449614</v>
+        <v>0.559727280597394</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01748543634418</v>
+        <v>1.01502035733152</v>
       </c>
       <c r="M7" t="n">
-        <v>0.528480713455926</v>
+        <v>0.530013077878803</v>
       </c>
       <c r="N7" t="n">
-        <v>0.512450739234954</v>
+        <v>0.517707589993877</v>
       </c>
       <c r="O7" t="n">
-        <v>0.694206729841871</v>
+        <v>0.702058109176409</v>
       </c>
       <c r="P7" t="n">
-        <v>0.798763372672578</v>
+        <v>0.802723572734246</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.552486501408313</v>
+        <v>0.549858357065732</v>
       </c>
       <c r="R7" t="n">
-        <v>0.582962731089098</v>
+        <v>0.57717586395597</v>
       </c>
       <c r="S7" t="n">
-        <v>0.571458002836073</v>
+        <v>0.564563384035601</v>
       </c>
       <c r="T7" t="n">
-        <v>0.524916439875958</v>
+        <v>0.521176269817724</v>
       </c>
       <c r="U7" t="n">
-        <v>0.561196843019303</v>
+        <v>0.561420416182697</v>
       </c>
       <c r="V7" t="n">
-        <v>0.450206761803696</v>
+        <v>0.453312108502199</v>
       </c>
       <c r="W7" t="n">
-        <v>0.473598315808745</v>
+        <v>0.474460772162221</v>
       </c>
       <c r="X7" t="n">
-        <v>0.417603126332784</v>
+        <v>0.417741903734114</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0340634284500856</v>
+        <v>0.0358741177830405</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.262461576756983</v>
+        <v>0.2669120510244</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.463957653256917</v>
+        <v>0.469475651239495</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.649134749428181</v>
+        <v>0.657700074692445</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.467637754114706</v>
+        <v>0.465415052893461</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.663430335369693</v>
+        <v>0.659828076026116</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.669439469535099</v>
+        <v>0.663645043439558</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.619031033262379</v>
+        <v>0.615888957716927</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.671319944124866</v>
+        <v>0.672641494107293</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.479057590070313</v>
+        <v>0.482863766553775</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.188482293539221</v>
+        <v>0.192855040501504</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.293202843254494</v>
+        <v>0.29784602274072</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.40284280104778</v>
+        <v>-0.398845006616914</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.330332109314975</v>
+        <v>0.336201510289802</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.820953503259188</v>
+        <v>0.819224644234754</v>
       </c>
     </row>
     <row r="8">
@@ -15952,118 +15952,118 @@
         <v>158</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.451102343918106</v>
+        <v>-0.449935897892444</v>
       </c>
       <c r="D8" t="n">
-        <v>0.555676407081991</v>
+        <v>0.551894084854869</v>
       </c>
       <c r="E8" t="n">
-        <v>0.331930851304204</v>
+        <v>0.331375942999562</v>
       </c>
       <c r="F8" t="n">
-        <v>0.164150502896138</v>
+        <v>0.163501935134956</v>
       </c>
       <c r="G8" t="n">
-        <v>0.515284834625333</v>
+        <v>0.514579841981515</v>
       </c>
       <c r="H8" t="n">
-        <v>0.535762889489358</v>
+        <v>0.535106400404721</v>
       </c>
       <c r="I8" t="n">
-        <v>0.568726928013433</v>
+        <v>0.568537611573893</v>
       </c>
       <c r="J8" t="n">
-        <v>0.531912249517135</v>
+        <v>0.53492941433542</v>
       </c>
       <c r="K8" t="n">
-        <v>0.503763536858697</v>
+        <v>0.504571864655082</v>
       </c>
       <c r="L8" t="n">
-        <v>0.391065184022445</v>
+        <v>0.389063474581702</v>
       </c>
       <c r="M8" t="n">
-        <v>0.310775294220102</v>
+        <v>0.312127599807676</v>
       </c>
       <c r="N8" t="n">
-        <v>0.382123417240958</v>
+        <v>0.387018312824385</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.103318418863897</v>
+        <v>-0.0987042166677706</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0462841192013858</v>
+        <v>0.05180010943876</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.368928846890061</v>
+        <v>0.366484796955182</v>
       </c>
       <c r="R8" t="n">
-        <v>0.258868367341034</v>
+        <v>0.25432505884698</v>
       </c>
       <c r="S8" t="n">
-        <v>0.346047215629045</v>
+        <v>0.339874768876538</v>
       </c>
       <c r="T8" t="n">
-        <v>0.451739914776835</v>
+        <v>0.448133337807636</v>
       </c>
       <c r="U8" t="n">
-        <v>0.546962308423651</v>
+        <v>0.547198439439373</v>
       </c>
       <c r="V8" t="n">
-        <v>0.532816540858593</v>
+        <v>0.535918375584071</v>
       </c>
       <c r="W8" t="n">
-        <v>0.40853848795811</v>
+        <v>0.409379601210149</v>
       </c>
       <c r="X8" t="n">
-        <v>0.356592219418224</v>
+        <v>0.356723300757987</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.342468290209901</v>
+        <v>0.344562476125802</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.320072286166633</v>
+        <v>0.324580263717896</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0989014146742953</v>
+        <v>0.104025132886459</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.122457890731967</v>
+        <v>-0.11440347522209</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.153579063182048</v>
+        <v>0.151117583578504</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.318429020829111</v>
+        <v>0.315171602431116</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.415972126182064</v>
+        <v>0.410640820933518</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.364833656193271</v>
+        <v>0.36200340414763</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.393559901272996</v>
+        <v>0.395048227722647</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.311021282679022</v>
+        <v>0.314861977268706</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.380888688615444</v>
+        <v>0.385687350585368</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.365496236969664</v>
+        <v>0.370341617805223</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.583391493760119</v>
+        <v>0.592959865687368</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.353373033606275</v>
+        <v>0.35925204234525</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.0165981692511586</v>
+        <v>-0.0107762867010713</v>
       </c>
     </row>
     <row r="9">
@@ -16071,118 +16071,118 @@
         <v>154</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.357156454002938</v>
+        <v>0.355191160883983</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217038443439895</v>
+        <v>0.215836768017944</v>
       </c>
       <c r="E9" t="n">
-        <v>0.152534240431508</v>
+        <v>0.151095230185844</v>
       </c>
       <c r="F9" t="n">
-        <v>0.385739360145224</v>
+        <v>0.386020812355156</v>
       </c>
       <c r="G9" t="n">
-        <v>0.635186224114055</v>
+        <v>0.634609965823595</v>
       </c>
       <c r="H9" t="n">
-        <v>0.605977987005525</v>
+        <v>0.605321404781456</v>
       </c>
       <c r="I9" t="n">
-        <v>0.759694408532352</v>
+        <v>0.759215568274141</v>
       </c>
       <c r="J9" t="n">
-        <v>0.66801238520552</v>
+        <v>0.670944621896448</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6208003049349</v>
+        <v>0.621650654585836</v>
       </c>
       <c r="L9" t="n">
-        <v>0.55814132761004</v>
+        <v>0.556016030209226</v>
       </c>
       <c r="M9" t="n">
-        <v>0.588111895043843</v>
+        <v>0.58969357896066</v>
       </c>
       <c r="N9" t="n">
-        <v>0.643813660335839</v>
+        <v>0.649435342416646</v>
       </c>
       <c r="O9" t="n">
-        <v>0.786040317897828</v>
+        <v>0.794264452364006</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7873227632267</v>
+        <v>0.791306617346201</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.653400997993475</v>
+        <v>0.650671644063498</v>
       </c>
       <c r="R9" t="n">
-        <v>0.677823611703417</v>
+        <v>0.671672760864329</v>
       </c>
       <c r="S9" t="n">
-        <v>0.637028395013522</v>
+        <v>0.629923701509034</v>
       </c>
       <c r="T9" t="n">
-        <v>0.640604840949695</v>
+        <v>0.636653466945333</v>
       </c>
       <c r="U9" t="n">
-        <v>0.649816346050447</v>
+        <v>0.649961738179899</v>
       </c>
       <c r="V9" t="n">
-        <v>0.63534849156547</v>
+        <v>0.638445967370622</v>
       </c>
       <c r="W9" t="n">
-        <v>0.530933022459895</v>
+        <v>0.531814287662093</v>
       </c>
       <c r="X9" t="n">
-        <v>0.487566706002316</v>
+        <v>0.487714308776746</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.500509086813452</v>
+        <v>0.502748549381437</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.511619445096054</v>
+        <v>0.516318612632007</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.451121967142537</v>
+        <v>0.456626101914904</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.507229012458084</v>
+        <v>0.515700374896049</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.606270115338205</v>
+        <v>0.604152816106788</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.515351078341329</v>
+        <v>0.511896829422243</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.534965065194363</v>
+        <v>0.529416342940641</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.449314191426648</v>
+        <v>0.446380307248898</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.461242600344524</v>
+        <v>0.462690287826354</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.366469771928927</v>
+        <v>0.370299076260925</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.463314649733238</v>
+        <v>0.468295771614878</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.576337504180122</v>
+        <v>0.581772598494796</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.66113965989337</v>
+        <v>0.671147179178328</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.704599879121504</v>
+        <v>0.710625344862459</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.492215377353983</v>
+        <v>0.493450176233739</v>
       </c>
     </row>
     <row r="10">
@@ -16190,118 +16190,118 @@
         <v>153</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1.20944393895634</v>
+        <v>1.20417630989503</v>
       </c>
       <c r="D10" t="n">
-        <v>1.6338680186325</v>
+        <v>1.62186915828371</v>
       </c>
       <c r="E10" t="n">
-        <v>1.12087776321937</v>
+        <v>1.12421094116561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.640256765954976</v>
+        <v>0.641606440968787</v>
       </c>
       <c r="G10" t="n">
-        <v>0.692135502877018</v>
+        <v>0.691620389237232</v>
       </c>
       <c r="H10" t="n">
-        <v>0.659913772373629</v>
+        <v>0.659257118604429</v>
       </c>
       <c r="I10" t="n">
-        <v>0.802936169579027</v>
+        <v>0.802391770934906</v>
       </c>
       <c r="J10" t="n">
-        <v>0.691405206583898</v>
+        <v>0.694322845871942</v>
       </c>
       <c r="K10" t="n">
-        <v>0.498609468356782</v>
+        <v>0.499415945593547</v>
       </c>
       <c r="L10" t="n">
-        <v>0.449931350824197</v>
+        <v>0.447886097467991</v>
       </c>
       <c r="M10" t="n">
-        <v>0.471959026987132</v>
+        <v>0.473444643703541</v>
       </c>
       <c r="N10" t="n">
-        <v>0.48539778367253</v>
+        <v>0.490579500859086</v>
       </c>
       <c r="O10" t="n">
-        <v>0.514838850751739</v>
+        <v>0.521962170791221</v>
       </c>
       <c r="P10" t="n">
-        <v>0.44581488584131</v>
+        <v>0.450504825342051</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.446409854861869</v>
+        <v>0.443888097351634</v>
       </c>
       <c r="R10" t="n">
-        <v>0.480648607529869</v>
+        <v>0.475254322392862</v>
       </c>
       <c r="S10" t="n">
-        <v>0.471091577234944</v>
+        <v>0.464518512819785</v>
       </c>
       <c r="T10" t="n">
-        <v>0.461841967481498</v>
+        <v>0.458216947925355</v>
       </c>
       <c r="U10" t="n">
-        <v>0.40474731288332</v>
+        <v>0.405108907425841</v>
       </c>
       <c r="V10" t="n">
-        <v>0.393827579289734</v>
+        <v>0.396935322825154</v>
       </c>
       <c r="W10" t="n">
-        <v>0.337583881694397</v>
+        <v>0.338401718042563</v>
       </c>
       <c r="X10" t="n">
-        <v>0.270875180947109</v>
+        <v>0.270995449734842</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.297573853795821</v>
+        <v>0.299626771168664</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.316067748826758</v>
+        <v>0.320571729307865</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.365983971372054</v>
+        <v>0.371396152670194</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.386511286350852</v>
+        <v>0.394902715595334</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.417418283736331</v>
+        <v>0.415157400722182</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.421740364335549</v>
+        <v>0.418379682616858</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.482754543260689</v>
+        <v>0.477301217048208</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.406231604146817</v>
+        <v>0.403350569307251</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.411624822590542</v>
+        <v>0.413102302254143</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.336790913959481</v>
+        <v>0.340626314938018</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.344309379329855</v>
+        <v>0.349027068540076</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.277962438110489</v>
+        <v>0.282562990873496</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.408018318109366</v>
+        <v>0.41659612433545</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.391729995943539</v>
+        <v>0.397624999034258</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.432550291701741</v>
+        <v>0.434322986519823</v>
       </c>
     </row>
     <row r="11">
@@ -16309,118 +16309,118 @@
         <v>162</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0.40426672084997</v>
+        <v>0.402118890816876</v>
       </c>
       <c r="D11" t="n">
-        <v>0.376092821489366</v>
+        <v>0.373679045781472</v>
       </c>
       <c r="E11" t="n">
-        <v>0.614554221925317</v>
+        <v>0.615392137427819</v>
       </c>
       <c r="F11" t="n">
-        <v>0.638116720630725</v>
+        <v>0.639457413762886</v>
       </c>
       <c r="G11" t="n">
-        <v>0.708385283776178</v>
+        <v>0.707887617015409</v>
       </c>
       <c r="H11" t="n">
-        <v>0.637368730870915</v>
+        <v>0.636712107007425</v>
       </c>
       <c r="I11" t="n">
-        <v>0.704328435917921</v>
+        <v>0.703933535437165</v>
       </c>
       <c r="J11" t="n">
-        <v>0.629718294973436</v>
+        <v>0.632674427638867</v>
       </c>
       <c r="K11" t="n">
-        <v>0.559476389903203</v>
+        <v>0.560304721305683</v>
       </c>
       <c r="L11" t="n">
-        <v>0.476176274146164</v>
+        <v>0.474111607147376</v>
       </c>
       <c r="M11" t="n">
-        <v>0.481465387185519</v>
+        <v>0.482958866380278</v>
       </c>
       <c r="N11" t="n">
-        <v>0.525051263950258</v>
+        <v>0.530343109866488</v>
       </c>
       <c r="O11" t="n">
-        <v>0.600416696234587</v>
+        <v>0.607887379169647</v>
       </c>
       <c r="P11" t="n">
-        <v>0.592248018033605</v>
+        <v>0.596635199381996</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.537321439378832</v>
+        <v>0.534708504443451</v>
       </c>
       <c r="R11" t="n">
-        <v>0.545358998134681</v>
+        <v>0.539716417518715</v>
       </c>
       <c r="S11" t="n">
-        <v>0.532384684861556</v>
+        <v>0.525615249324991</v>
       </c>
       <c r="T11" t="n">
-        <v>0.526310160226999</v>
+        <v>0.522567445754328</v>
       </c>
       <c r="U11" t="n">
-        <v>0.585953699671443</v>
+        <v>0.586155432082136</v>
       </c>
       <c r="V11" t="n">
-        <v>0.50837284414428</v>
+        <v>0.511475718039751</v>
       </c>
       <c r="W11" t="n">
-        <v>0.447805259439194</v>
+        <v>0.448659254291362</v>
       </c>
       <c r="X11" t="n">
-        <v>0.409068193781714</v>
+        <v>0.40920589456626</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.424368053464795</v>
+        <v>0.426537524520153</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.47464256276226</v>
+        <v>0.479304822365949</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.456273796791632</v>
+        <v>0.461783495808618</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.502206605427763</v>
+        <v>0.510674642280945</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.547339611979753</v>
+        <v>0.545177507969273</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.508183078778698</v>
+        <v>0.504735994527232</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.579040018772591</v>
+        <v>0.573410765316851</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.500863790581353</v>
+        <v>0.497866670596028</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.541979612593018</v>
+        <v>0.543378822858547</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.451906937006212</v>
+        <v>0.455718690791038</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.555845401320441</v>
+        <v>0.56103135129916</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.659306924350032</v>
+        <v>0.664974080376704</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.733178712513686</v>
+        <v>0.743593132194929</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.659517769406339</v>
+        <v>0.665524436497031</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.672034024329188</v>
+        <v>0.671647712323307</v>
       </c>
     </row>
     <row r="12">
@@ -16428,118 +16428,118 @@
         <v>148</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0782980764738053</v>
+        <v>0.0774132685892311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210829198904089</v>
+        <v>0.209674842060662</v>
       </c>
       <c r="E12" t="n">
-        <v>0.446375076522306</v>
+        <v>0.446384171969808</v>
       </c>
       <c r="F12" t="n">
-        <v>0.577518445303639</v>
+        <v>0.578604804319145</v>
       </c>
       <c r="G12" t="n">
-        <v>0.673501079764711</v>
+        <v>0.672965958930515</v>
       </c>
       <c r="H12" t="n">
-        <v>0.612665813906062</v>
+        <v>0.612009222810677</v>
       </c>
       <c r="I12" t="n">
-        <v>0.705404985277231</v>
+        <v>0.705008452651145</v>
       </c>
       <c r="J12" t="n">
-        <v>0.630549326557717</v>
+        <v>0.633504940649409</v>
       </c>
       <c r="K12" t="n">
-        <v>0.551023343028312</v>
+        <v>0.551848639378542</v>
       </c>
       <c r="L12" t="n">
-        <v>0.539739899098285</v>
+        <v>0.537628213425413</v>
       </c>
       <c r="M12" t="n">
-        <v>0.449118658400356</v>
+        <v>0.45058538440573</v>
       </c>
       <c r="N12" t="n">
-        <v>0.475355658261942</v>
+        <v>0.480509485676732</v>
       </c>
       <c r="O12" t="n">
-        <v>0.475948866107821</v>
+        <v>0.482914330599541</v>
       </c>
       <c r="P12" t="n">
-        <v>0.548526622942251</v>
+        <v>0.553004200559559</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.476150240596383</v>
+        <v>0.473598655734568</v>
       </c>
       <c r="R12" t="n">
-        <v>0.507905604707149</v>
+        <v>0.502406733751607</v>
       </c>
       <c r="S12" t="n">
-        <v>0.467175828346025</v>
+        <v>0.46061530922397</v>
       </c>
       <c r="T12" t="n">
-        <v>0.507008200701961</v>
+        <v>0.503300724420689</v>
       </c>
       <c r="U12" t="n">
-        <v>0.579190275214338</v>
+        <v>0.579397974387414</v>
       </c>
       <c r="V12" t="n">
-        <v>0.47516424039261</v>
+        <v>0.478268526078814</v>
       </c>
       <c r="W12" t="n">
-        <v>0.419358658534475</v>
+        <v>0.420203321380877</v>
       </c>
       <c r="X12" t="n">
-        <v>0.399192498354967</v>
+        <v>0.399328953395697</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.349934290570791</v>
+        <v>0.352035339496498</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.40324987899512</v>
+        <v>0.407840879039583</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.335053911997897</v>
+        <v>0.340432687219329</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.446339564567048</v>
+        <v>0.454770609081736</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.427014325891427</v>
+        <v>0.424760738734671</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.415632161005695</v>
+        <v>0.412277584651023</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.460805666427913</v>
+        <v>0.455392443931734</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.445459575748408</v>
+        <v>0.442530420021301</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.476933648732884</v>
+        <v>0.478371914781774</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.39429599191155</v>
+        <v>0.398119580166873</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.470812831873045</v>
+        <v>0.475810551894794</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.500912230431266</v>
+        <v>0.506136363669942</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.505322437131709</v>
+        <v>0.514449849205597</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.532876636127725</v>
+        <v>0.538830495521785</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.525816964721206</v>
+        <v>0.526748836735634</v>
       </c>
     </row>
     <row r="13">
@@ -16547,118 +16547,118 @@
         <v>159</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.571551166353965</v>
+        <v>-0.486411229030161</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0986851178371809</v>
+        <v>0.0894074994840127</v>
       </c>
       <c r="E13" t="n">
-        <v>0.187458864136977</v>
+        <v>0.170881716299325</v>
       </c>
       <c r="F13" t="n">
-        <v>0.304551147519004</v>
+        <v>0.301869538734892</v>
       </c>
       <c r="G13" t="n">
-        <v>0.449331223138882</v>
+        <v>0.458842494022098</v>
       </c>
       <c r="H13" t="n">
-        <v>0.463666838105788</v>
+        <v>0.471765198899257</v>
       </c>
       <c r="I13" t="n">
-        <v>0.535292765248639</v>
+        <v>0.546309755274137</v>
       </c>
       <c r="J13" t="n">
-        <v>0.487206410744057</v>
+        <v>0.492149337093997</v>
       </c>
       <c r="K13" t="n">
-        <v>0.430632069855794</v>
+        <v>0.430942970799403</v>
       </c>
       <c r="L13" t="n">
-        <v>0.283012969120963</v>
+        <v>0.311714323767828</v>
       </c>
       <c r="M13" t="n">
-        <v>0.306771355787288</v>
+        <v>0.293945423499739</v>
       </c>
       <c r="N13" t="n">
-        <v>0.454548917708516</v>
+        <v>0.430081597192272</v>
       </c>
       <c r="O13" t="n">
-        <v>0.408579995026013</v>
+        <v>0.400870781713492</v>
       </c>
       <c r="P13" t="n">
-        <v>0.545464779674762</v>
+        <v>0.537131152901868</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.521908737978481</v>
+        <v>0.508347029760247</v>
       </c>
       <c r="R13" t="n">
-        <v>0.537219893031802</v>
+        <v>0.524923037624228</v>
       </c>
       <c r="S13" t="n">
-        <v>0.512614689051601</v>
+        <v>0.539868246979507</v>
       </c>
       <c r="T13" t="n">
-        <v>0.53984999202688</v>
+        <v>0.557964557672571</v>
       </c>
       <c r="U13" t="n">
-        <v>0.54607780799829</v>
+        <v>0.553732589013856</v>
       </c>
       <c r="V13" t="n">
-        <v>0.54908978912316</v>
+        <v>0.539441512215126</v>
       </c>
       <c r="W13" t="n">
-        <v>0.474578314279843</v>
+        <v>0.471204232686068</v>
       </c>
       <c r="X13" t="n">
-        <v>0.442937764732364</v>
+        <v>0.456696144690588</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.484055221457818</v>
+        <v>0.471788418995595</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.603645224949008</v>
+        <v>0.574624009443022</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.499825135867217</v>
+        <v>0.49236740847733</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.567419571021427</v>
+        <v>0.556343410090671</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.631918760936177</v>
+        <v>0.622447348702177</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.548083619418011</v>
+        <v>0.520925969532789</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.575771274768382</v>
+        <v>0.611682041536979</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.516743433709384</v>
+        <v>0.542206665583012</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.539201838463142</v>
+        <v>0.555000969157331</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.476218030939915</v>
+        <v>0.462506892211668</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.589311037412393</v>
+        <v>0.583195383780115</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.741305894372209</v>
+        <v>0.745435250391852</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.860956555990327</v>
+        <v>0.856062077116858</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.746306577249754</v>
+        <v>0.710306540448201</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.471951437506103</v>
+        <v>0.450216850018908</v>
       </c>
     </row>
     <row r="14">
@@ -16666,118 +16666,118 @@
         <v>163</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.48554756866091</v>
+        <v>-0.57794796735515</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.88837616354531</v>
+        <v>-1.89429130668013</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.42424924695859</v>
+        <v>-2.38133325318026</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.23806880054239</v>
+        <v>-2.20806379209447</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.88339977696663</v>
+        <v>-1.86319093348366</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.88353519027799</v>
+        <v>-1.88003036896929</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.546924526880192</v>
+        <v>-0.57724243569282</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.145722316575185</v>
+        <v>-0.223765757680509</v>
       </c>
       <c r="K14" t="n">
-        <v>0.25499991068495</v>
+        <v>0.246376192385231</v>
       </c>
       <c r="L14" t="n">
-        <v>0.927417538637627</v>
+        <v>0.930203445645262</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03780852876711</v>
+        <v>1.0191410898862</v>
       </c>
       <c r="N14" t="n">
-        <v>0.968407799914453</v>
+        <v>0.910177941540425</v>
       </c>
       <c r="O14" t="n">
-        <v>0.932872894692693</v>
+        <v>0.792536814713</v>
       </c>
       <c r="P14" t="n">
-        <v>0.345018750772408</v>
+        <v>0.237489992335452</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.252752160506186</v>
+        <v>0.320574825076241</v>
       </c>
       <c r="R14" t="n">
-        <v>0.504409988049966</v>
+        <v>0.590508882091218</v>
       </c>
       <c r="S14" t="n">
-        <v>0.429554962951412</v>
+        <v>0.497276222378015</v>
       </c>
       <c r="T14" t="n">
-        <v>0.269426290938019</v>
+        <v>0.294354642795408</v>
       </c>
       <c r="U14" t="n">
-        <v>0.231653977135078</v>
+        <v>0.197571838418917</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0193313441371781</v>
+        <v>-0.0547075866553748</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0814346362279376</v>
+        <v>0.0697709099821956</v>
       </c>
       <c r="X14" t="n">
-        <v>0.370547055000358</v>
+        <v>0.379462694176598</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.368927563180167</v>
+        <v>0.363272174485323</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.2408222443703</v>
+        <v>0.162785087119223</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.30241419167992</v>
+        <v>0.167824596190221</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.155928030573366</v>
+        <v>-0.0019389893691651</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.0110091882025986</v>
+        <v>0.0972110386608728</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.125658740328473</v>
+        <v>-0.0532717697070595</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.31686481668349</v>
+        <v>-0.258195225718027</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.0472689172687275</v>
+        <v>-0.0289016844164773</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.0732950948966295</v>
+        <v>-0.111960216194199</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.181524772001959</v>
+        <v>-0.25219297316098</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.367979865682274</v>
+        <v>-0.386219240291234</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.548222470024632</v>
+        <v>-0.529098874073975</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.158276040073575</v>
+        <v>-0.157337541064753</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.132432495300328</v>
+        <v>-0.20796674096776</v>
       </c>
       <c r="AM14" t="n">
-        <v>-1.2848150904941</v>
+        <v>-1.41100370379706</v>
       </c>
     </row>
     <row r="15">
@@ -16785,118 +16785,118 @@
         <v>150</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.05584040121454</v>
+        <v>-1.05233079251481</v>
       </c>
       <c r="D15" t="n">
-        <v>0.189138440713365</v>
+        <v>0.188149381892713</v>
       </c>
       <c r="E15" t="n">
-        <v>0.320764714428186</v>
+        <v>0.320154777194972</v>
       </c>
       <c r="F15" t="n">
-        <v>0.484093808816254</v>
+        <v>0.484788059768177</v>
       </c>
       <c r="G15" t="n">
-        <v>0.634451202076889</v>
+        <v>0.633874154616369</v>
       </c>
       <c r="H15" t="n">
-        <v>0.575348156882788</v>
+        <v>0.574691615288798</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0203628556556565</v>
+        <v>-0.0196590591775169</v>
       </c>
       <c r="J15" t="n">
-        <v>0.351467347830549</v>
+        <v>0.354597112445403</v>
       </c>
       <c r="K15" t="n">
-        <v>0.400294714354557</v>
+        <v>0.401065891844406</v>
       </c>
       <c r="L15" t="n">
-        <v>0.522495231293047</v>
+        <v>0.520396301680199</v>
       </c>
       <c r="M15" t="n">
-        <v>0.888641651187097</v>
+        <v>0.890471895925482</v>
       </c>
       <c r="N15" t="n">
-        <v>0.656395575498933</v>
+        <v>0.662052201053151</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.11194717704895</v>
+        <v>-0.107367999226381</v>
       </c>
       <c r="P15" t="n">
-        <v>0.002474232794863</v>
+        <v>0.00808080226157231</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.191241070974852</v>
+        <v>0.188975228404568</v>
       </c>
       <c r="R15" t="n">
-        <v>0.295483819665696</v>
+        <v>0.290800016713376</v>
       </c>
       <c r="S15" t="n">
-        <v>0.439964312385393</v>
+        <v>0.433490973635018</v>
       </c>
       <c r="T15" t="n">
-        <v>0.404651259495188</v>
+        <v>0.401130648878027</v>
       </c>
       <c r="U15" t="n">
-        <v>0.234238810722884</v>
+        <v>0.23475082961376</v>
       </c>
       <c r="V15" t="n">
-        <v>0.110115013778057</v>
+        <v>0.113234818729067</v>
       </c>
       <c r="W15" t="n">
-        <v>0.292012491388422</v>
+        <v>0.292815377884458</v>
       </c>
       <c r="X15" t="n">
-        <v>0.546323914676924</v>
+        <v>0.54647892922604</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.897118769296236</v>
+        <v>0.899722809416941</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.997433698731569</v>
+        <v>1.00261777463282</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.223504410523668</v>
+        <v>0.22876270646771</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.0999022477653644</v>
+        <v>-0.0918328970456253</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.116991460983007</v>
+        <v>-0.119658654976642</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.177046816322032</v>
+        <v>0.173930714409036</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.424703315791792</v>
+        <v>0.419356057419368</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.269216829561883</v>
+        <v>0.266503870518494</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.134634242577612</v>
+        <v>0.136278036697081</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.0202666378611454</v>
+        <v>-0.0163578899334137</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.104019605306611</v>
+        <v>0.108205383813455</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.527467527825891</v>
+        <v>0.532765935029159</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.858151080447827</v>
+        <v>0.869271385398066</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.43144297340168</v>
+        <v>0.437354536284717</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.184444800911837</v>
+        <v>-0.177109738242337</v>
       </c>
     </row>
     <row r="16">
@@ -16904,118 +16904,118 @@
         <v>164</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.388941775062782</v>
+        <v>0.386853324194794</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.181058118347848</v>
+        <v>-0.179226032849203</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0422995973501399</v>
+        <v>-0.0446987872409024</v>
       </c>
       <c r="F16" t="n">
-        <v>0.372898627430997</v>
+        <v>0.373126186417162</v>
       </c>
       <c r="G16" t="n">
-        <v>0.694507647140737</v>
+        <v>0.69399508039769</v>
       </c>
       <c r="H16" t="n">
-        <v>0.641993196652921</v>
+        <v>0.641336566655136</v>
       </c>
       <c r="I16" t="n">
-        <v>0.588987086272937</v>
+        <v>0.588767053617369</v>
       </c>
       <c r="J16" t="n">
-        <v>0.523139327920827</v>
+        <v>0.526161967148075</v>
       </c>
       <c r="K16" t="n">
-        <v>0.421580350146332</v>
+        <v>0.422359170207879</v>
       </c>
       <c r="L16" t="n">
-        <v>0.275923303341701</v>
+        <v>0.27400676554693</v>
       </c>
       <c r="M16" t="n">
-        <v>0.317982433358863</v>
+        <v>0.319340699795201</v>
       </c>
       <c r="N16" t="n">
-        <v>0.342349776065166</v>
+        <v>0.347134209198728</v>
       </c>
       <c r="O16" t="n">
-        <v>0.893217765562892</v>
+        <v>0.901876936320901</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8444248302851</v>
+        <v>0.848290622897214</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.657904764769356</v>
+        <v>0.655170893902838</v>
       </c>
       <c r="R16" t="n">
-        <v>0.682293130850913</v>
+        <v>0.676125130348732</v>
       </c>
       <c r="S16" t="n">
-        <v>0.637855665208495</v>
+        <v>0.630748321292204</v>
       </c>
       <c r="T16" t="n">
-        <v>0.528669913315479</v>
+        <v>0.524922890812274</v>
       </c>
       <c r="U16" t="n">
-        <v>0.503709341565888</v>
+        <v>0.503983630792324</v>
       </c>
       <c r="V16" t="n">
-        <v>0.38378231877679</v>
+        <v>0.386890489364363</v>
       </c>
       <c r="W16" t="n">
-        <v>0.330210671422693</v>
+        <v>0.33102608896374</v>
       </c>
       <c r="X16" t="n">
-        <v>0.23895346853589</v>
+        <v>0.239069710642551</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.107293230713445</v>
+        <v>0.109171235453145</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0274095370733488</v>
+        <v>0.0316253975980211</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0923388946979786</v>
+        <v>0.0974555250464211</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.299673391021207</v>
+        <v>0.308007320588444</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.617769675053502</v>
+        <v>0.61566111892121</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.452682635880395</v>
+        <v>0.449291026273234</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.461302133848518</v>
+        <v>0.455888004235826</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.326856221904234</v>
+        <v>0.324072556714092</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.338218052382127</v>
+        <v>0.339739607938286</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.256444798706621</v>
+        <v>0.26029670442621</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.287137430763811</v>
+        <v>0.291728562897274</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.201426312885842</v>
+        <v>0.205812797571563</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.13871971879858</v>
+        <v>0.145776437464613</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.357913692844849</v>
+        <v>-0.352331281370103</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.0637432951015156</v>
+        <v>0.0688408788949334</v>
       </c>
     </row>
     <row r="17">
@@ -17023,118 +17023,118 @@
         <v>155</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.98626914745867</v>
+        <v>-2.00583661277895</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.92248238104564</v>
+        <v>-2.94446129853449</v>
       </c>
       <c r="E17" t="n">
-        <v>1.22154216890602</v>
+        <v>1.24989569281109</v>
       </c>
       <c r="F17" t="n">
-        <v>0.982809738708909</v>
+        <v>0.980205144083477</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.6478973337988</v>
+        <v>-1.65803556566921</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.172194526908613</v>
+        <v>-0.174987506430941</v>
       </c>
       <c r="I17" t="n">
-        <v>0.237380118841006</v>
+        <v>0.229994478896129</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.49718199719918</v>
+        <v>-0.492336352959839</v>
       </c>
       <c r="K17" t="n">
-        <v>0.395354586620561</v>
+        <v>0.403162832811894</v>
       </c>
       <c r="L17" t="n">
-        <v>0.312675721859656</v>
+        <v>0.327259681539276</v>
       </c>
       <c r="M17" t="n">
-        <v>0.112127001698276</v>
+        <v>0.117949131063731</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0588531166099332</v>
+        <v>0.0585465736272026</v>
       </c>
       <c r="O17" t="n">
-        <v>0.247505955436142</v>
+        <v>0.248094400499296</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.71229177364379</v>
+        <v>-1.74111918942313</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.40543818745831</v>
+        <v>-1.41175393727925</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.92248995165824</v>
+        <v>-1.93220089395658</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0310666042276281</v>
+        <v>-0.0494269031416202</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0436778982073383</v>
+        <v>0.0354328160056077</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.709957902914167</v>
+        <v>-0.716111286418034</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.210873772546081</v>
+        <v>-0.207111780628879</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.0316780870425072</v>
+        <v>-0.0234306350325772</v>
       </c>
       <c r="X17" t="n">
-        <v>0.308670795625278</v>
+        <v>0.331162392311948</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.490941871443014</v>
+        <v>0.500712771975697</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.430787570851478</v>
+        <v>-0.433021750588549</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.709526329893477</v>
+        <v>0.711307200677564</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.24476444719385</v>
+        <v>0.22454881380805</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.475636339741467</v>
+        <v>0.454570935539323</v>
       </c>
       <c r="AD17" t="n">
-        <v>-1.1342954962812</v>
+        <v>-1.14910697250717</v>
       </c>
       <c r="AE17" t="n">
-        <v>-1.75047907017762</v>
+        <v>-1.76337444739917</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.0455088687514438</v>
+        <v>-0.0545584927425488</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.713298998157729</v>
+        <v>-0.716818527581184</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.249925890332267</v>
+        <v>-0.247327200950293</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.0375402071145534</v>
+        <v>-0.0240474682139207</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.237211812220458</v>
+        <v>0.302331489472359</v>
       </c>
       <c r="AK17" t="n">
-        <v>-1.69349965411477</v>
+        <v>-1.68202070027311</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.023581307267186</v>
+        <v>-0.0195831621984482</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.73450306533942</v>
+        <v>0.725588500263891</v>
       </c>
     </row>
     <row r="18">
@@ -17142,118 +17142,118 @@
         <v>157</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1.67867041166699</v>
+        <v>1.67214509868369</v>
       </c>
       <c r="D18" t="n">
-        <v>0.31196208116072</v>
+        <v>0.310834788044604</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0947149423251784</v>
+        <v>0.0932220807916756</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.348707853198834</v>
+        <v>-0.351886985058186</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.346068788657971</v>
+        <v>-0.348118160725028</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.16040975050865</v>
+        <v>-0.161315155475604</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.63176764999332</v>
+        <v>-0.629939479520719</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.534140986304066</v>
+        <v>-0.529920720839861</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.456106616738649</v>
+        <v>-0.455013816904014</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.552993632447283</v>
+        <v>-0.553849352873326</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.827386275492196</v>
+        <v>-0.826380682564197</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.428482352083307</v>
+        <v>-0.425278148006779</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.782282768090083</v>
+        <v>-0.779947910765435</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.458767205738938</v>
+        <v>-0.451619468418688</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.112159516330133</v>
+        <v>-0.113790715518036</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.211408452769797</v>
+        <v>-0.214207467555544</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.135579042295232</v>
+        <v>-0.140554966508003</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.104744112711143</v>
+        <v>-0.107608853689439</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.134402404494129</v>
+        <v>-0.133508584990426</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.294637695263369</v>
+        <v>-0.291145775569182</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.422901164377425</v>
+        <v>-0.421876321506888</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.48169612176467</v>
+        <v>-0.481227667640935</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.421575092381696</v>
+        <v>-0.419674355982462</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.362908389656499</v>
+        <v>-0.358422261222094</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.835155528269304</v>
+        <v>-0.830697024753087</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.717350042802511</v>
+        <v>-0.709227443831072</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.96489216052968</v>
+        <v>-0.967504398988093</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.355546937513791</v>
+        <v>-0.357936516006102</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.509149492985492</v>
+        <v>-0.512781265329986</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.32573587792905</v>
+        <v>-0.32776282022483</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.176253094563928</v>
+        <v>-0.174352687263024</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.446096335138868</v>
+        <v>0.450141305011209</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.0469299661127653</v>
+        <v>0.0514766275563783</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.00337206652497485</v>
+        <v>0.0013099668402542</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.151227982561489</v>
+        <v>-0.144936237774945</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.373413321490023</v>
+        <v>0.38018364786091</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.602467091607509</v>
+        <v>0.603163584945091</v>
       </c>
     </row>
     <row r="19">
@@ -17261,118 +17261,118 @@
         <v>165</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.432306353998307</v>
+        <v>-0.443497892671995</v>
       </c>
       <c r="D19" t="n">
-        <v>0.518138659291438</v>
+        <v>0.508183424915001</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.373150245995297</v>
+        <v>-0.379664144041077</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.453969922620985</v>
+        <v>-0.457201483701563</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0925519756499288</v>
+        <v>-0.094215822897241</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.119718844593247</v>
+        <v>-0.120563362569462</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.404136401877787</v>
+        <v>-0.406240632772502</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0465133301441798</v>
+        <v>-0.0461610791419203</v>
       </c>
       <c r="K19" t="n">
-        <v>0.160007627327661</v>
+        <v>0.156563912473763</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0100805281484698</v>
+        <v>0.00171138774102488</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.00940632130853552</v>
+        <v>-0.0168725880232338</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.30404441899378</v>
+        <v>-0.309603915297946</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.656775989706218</v>
+        <v>-0.666944921069663</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.250882849364649</v>
+        <v>-0.254178194531038</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.155418053957387</v>
+        <v>0.150337830120918</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0789941516622565</v>
+        <v>-0.0841587488618664</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.322818346847307</v>
+        <v>-0.328834922694273</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.364821822074599</v>
+        <v>-0.369948463388559</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.276294983881761</v>
+        <v>-0.280894065950604</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.0381664491495691</v>
+        <v>-0.0433168093741324</v>
       </c>
       <c r="W19" t="n">
-        <v>0.194468485699597</v>
+        <v>0.187057733181438</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0574334880028914</v>
+        <v>0.0486271618158914</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.0652263412972565</v>
+        <v>-0.0733647193811544</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.297493825198869</v>
+        <v>-0.305799622900583</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.286940814668838</v>
+        <v>-0.292910938083281</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.226628021136373</v>
+        <v>-0.233945360536771</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0450242233246183</v>
+        <v>0.0316869735968982</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0671756800251481</v>
+        <v>0.0613288008323535</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.0898553736186535</v>
+        <v>-0.0971306165321616</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.187289279959845</v>
+        <v>-0.193361955455596</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.215761304599449</v>
+        <v>-0.221002450498695</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.0352176908003727</v>
+        <v>-0.0419002390411982</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.185220829513412</v>
+        <v>0.173317600971487</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.0365680867827991</v>
+        <v>-0.0585666287628153</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.174794528594784</v>
+        <v>-0.192799693576548</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.716227963835922</v>
+        <v>-0.731642908852488</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.627085854081372</v>
+        <v>-0.632659926729016</v>
       </c>
     </row>
     <row r="20">
@@ -17380,118 +17380,118 @@
         <v>147</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.294965276135522</v>
+        <v>0.293240953540709</v>
       </c>
       <c r="D20" t="n">
-        <v>0.178376155051656</v>
+        <v>0.17746911201509</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.329003906569543</v>
+        <v>-0.332816031939116</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.620213828024358</v>
+        <v>-0.624154413721102</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.714523387968411</v>
+        <v>-0.716548787047593</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.33176357269925</v>
+        <v>-1.33241758453387</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.27336232674209</v>
+        <v>-2.26924278110833</v>
       </c>
       <c r="J20" t="n">
-        <v>-2.40903390219762</v>
+        <v>-2.40418155148433</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.29792373851481</v>
+        <v>-2.29812135181814</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.86703357334432</v>
+        <v>-1.86736494366262</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.56708663933055</v>
+        <v>-1.56728746748582</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.30006265291293</v>
+        <v>-1.2998396553239</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.68078136555307</v>
+        <v>-1.68257013007968</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.76204778009632</v>
+        <v>-1.75279296916673</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1.13391786712587</v>
+        <v>-1.1348546757724</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.28327620098027</v>
+        <v>-1.28190226000889</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.28197427481955</v>
+        <v>-1.28293085933026</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.17369702282385</v>
+        <v>-1.1743361571435</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.748655588076166</v>
+        <v>-0.747276449671795</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.545925511487797</v>
+        <v>-0.542777816417064</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.437808713584214</v>
+        <v>-0.437245247457444</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.381697883101174</v>
+        <v>-0.381659931438887</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.160847824142318</v>
+        <v>-0.159216304079823</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.327950946176894</v>
+        <v>0.332466787696985</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.43209907544248</v>
+        <v>0.437582664500024</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.470486473239557</v>
+        <v>0.478933506620049</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.40609419686224</v>
+        <v>0.403824704160721</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.431550804657055</v>
+        <v>0.428180317058287</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.46002677661639</v>
+        <v>0.454614977262554</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.306130823930227</v>
+        <v>0.303372582551321</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.214241624280986</v>
+        <v>0.21583761945231</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.168083661193053</v>
+        <v>0.171953718103763</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.215171796229418</v>
+        <v>0.219603623659051</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.319517249178433</v>
+        <v>0.324234028866715</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.397930702805304</v>
+        <v>0.406451530843648</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.240007639085192</v>
+        <v>0.245839375937005</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.0517593037484707</v>
+        <v>0.056964926275149</v>
       </c>
     </row>
     <row r="21">
@@ -17502,115 +17502,115 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.32121858944943</v>
+        <v>1.31551787008434</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.341085157801372</v>
+        <v>-0.338033559689124</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.36484637485557</v>
+        <v>-2.37869153412178</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.40641525910799</v>
+        <v>-2.4178526252113</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.07814092914791</v>
+        <v>-2.08163040152216</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.79948485548301</v>
+        <v>-1.8001382468913</v>
       </c>
       <c r="I21" t="n">
-        <v>-2.16073082507967</v>
+        <v>-2.15678203889865</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.47727800887262</v>
+        <v>-1.47300708508278</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.66845094446634</v>
+        <v>-1.66842254662265</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.47375261394007</v>
+        <v>-1.47437489827196</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.02827731026354</v>
+        <v>-1.0280325023819</v>
       </c>
       <c r="N21" t="n">
-        <v>-2.18042014998121</v>
+        <v>-2.18264214970721</v>
       </c>
       <c r="O21" t="n">
-        <v>-1.88408691154296</v>
+        <v>-1.88670089903171</v>
       </c>
       <c r="P21" t="n">
-        <v>-2.03631284513662</v>
+        <v>-2.02649097685393</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1.82826131715361</v>
+        <v>-1.82850175197411</v>
       </c>
       <c r="R21" t="n">
-        <v>-2.76698928142648</v>
+        <v>-2.75992229415292</v>
       </c>
       <c r="S21" t="n">
-        <v>-2.81070510013548</v>
+        <v>-2.8067639302637</v>
       </c>
       <c r="T21" t="n">
-        <v>-2.6751398531053</v>
+        <v>-2.67303791184867</v>
       </c>
       <c r="U21" t="n">
-        <v>-1.79955751250701</v>
+        <v>-1.79725125765294</v>
       </c>
       <c r="V21" t="n">
-        <v>-1.39815550265929</v>
+        <v>-1.39497157690529</v>
       </c>
       <c r="W21" t="n">
-        <v>-1.0523265735434</v>
+        <v>-1.05196470212496</v>
       </c>
       <c r="X21" t="n">
-        <v>-1.05355977659018</v>
+        <v>-1.05360657519236</v>
       </c>
       <c r="Y21" t="n">
-        <v>-1.25259924927599</v>
+        <v>-1.25197130547584</v>
       </c>
       <c r="Z21" t="n">
-        <v>-1.60927019280224</v>
+        <v>-1.60668796012278</v>
       </c>
       <c r="AA21" t="n">
-        <v>-1.29288291760946</v>
+        <v>-1.28926239903889</v>
       </c>
       <c r="AB21" t="n">
-        <v>-1.41513737214168</v>
+        <v>-1.40793890382722</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.84225865978205</v>
+        <v>-2.84699787060518</v>
       </c>
       <c r="AD21" t="n">
-        <v>-1.89643473605808</v>
+        <v>-1.89747832024713</v>
       </c>
       <c r="AE21" t="n">
-        <v>-2.17324488564293</v>
+        <v>-2.17384532355485</v>
       </c>
       <c r="AF21" t="n">
-        <v>-1.7793916844939</v>
+        <v>-1.77959161887921</v>
       </c>
       <c r="AG21" t="n">
-        <v>-1.64863372923055</v>
+        <v>-1.64591920107245</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.864235307636701</v>
+        <v>-0.860153191223055</v>
       </c>
       <c r="AI21" t="n">
-        <v>-1.18376042131083</v>
+        <v>-1.18242530085856</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-1.70928977775176</v>
+        <v>-1.71024747946902</v>
       </c>
       <c r="AK21" t="n">
-        <v>-1.76468687557895</v>
+        <v>-1.76838122691416</v>
       </c>
       <c r="AL21" t="n">
-        <v>-2.13102197031377</v>
+        <v>-2.12617892180578</v>
       </c>
       <c r="AM21" t="n">
-        <v>-1.55104458095953</v>
+        <v>-1.5313892733265</v>
       </c>
     </row>
     <row r="22">
@@ -17618,118 +17618,118 @@
         <v>161</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.256129659848471</v>
+        <v>-0.255718669363043</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.43413422116702</v>
+        <v>-1.42275286125567</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.27418273627021</v>
+        <v>-2.28758108721343</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.66842286105915</v>
+        <v>-1.67676283464356</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.29756048846349</v>
+        <v>-1.30021187615245</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.37316444101943</v>
+        <v>-1.37381839793632</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.31495515963358</v>
+        <v>-1.31228864517617</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.597993407908916</v>
+        <v>-0.594271168322776</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.03630345312126</v>
+        <v>-1.03604808378499</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.43948260808627</v>
+        <v>-1.44013024229771</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.36320691197875</v>
+        <v>-1.36323911619082</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.08306404488151</v>
+        <v>-1.08223838188012</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.809940255668184</v>
+        <v>-0.808194251496053</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.348761514193896</v>
+        <v>-0.342428746467233</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.203944534827938</v>
+        <v>-0.205814036203826</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.404739398916354</v>
+        <v>-0.406736426873029</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.531916960228238</v>
+        <v>-0.535276581584171</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.509850401607726</v>
+        <v>-0.511701472687878</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.25098519518568</v>
+        <v>-0.250045106703144</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.149213517334331</v>
+        <v>-0.146082687601311</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.312161156104492</v>
+        <v>-0.31155647086213</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.490300142356841</v>
+        <v>-0.490275890043011</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.648096394684801</v>
+        <v>-0.646912770625</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.712323516946062</v>
+        <v>-0.708846010109657</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.270301144689378</v>
+        <v>-0.265576184490247</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.30315931752244</v>
+        <v>-0.295224553389174</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.57727721432699</v>
+        <v>-0.580294362933414</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.396500318480739</v>
+        <v>-0.399043139864168</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.482978598569143</v>
+        <v>-0.486667393127569</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.528680009032603</v>
+        <v>-0.530414189350708</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.463480927171865</v>
+        <v>-0.46147800459756</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.276773460992689</v>
+        <v>-0.272812021299083</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.513835726284037</v>
+        <v>-0.511017645863168</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-1.09342527043775</v>
+        <v>-1.09266042700965</v>
       </c>
       <c r="AK22" t="n">
-        <v>-1.25236605094413</v>
+        <v>-1.25316664481049</v>
       </c>
       <c r="AL22" t="n">
-        <v>-1.6334504481994</v>
+        <v>-1.62839991887287</v>
       </c>
       <c r="AM22" t="n">
-        <v>-1.62269479041969</v>
+        <v>-1.60239353790571</v>
       </c>
     </row>
     <row r="23">
@@ -17737,118 +17737,118 @@
         <v>156</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.219090881270626</v>
+        <v>0.264161556481095</v>
       </c>
       <c r="D23" t="n">
-        <v>0.279328639956569</v>
+        <v>0.353722362069764</v>
       </c>
       <c r="E23" t="n">
-        <v>0.628893015618317</v>
+        <v>0.628842242083953</v>
       </c>
       <c r="F23" t="n">
-        <v>0.595084131323893</v>
+        <v>0.595861781019599</v>
       </c>
       <c r="G23" t="n">
-        <v>0.668646930829115</v>
+        <v>0.66868879299552</v>
       </c>
       <c r="H23" t="n">
-        <v>0.56912397205625</v>
+        <v>0.56368522829339</v>
       </c>
       <c r="I23" t="n">
-        <v>0.583700706466911</v>
+        <v>0.592139849009519</v>
       </c>
       <c r="J23" t="n">
-        <v>0.524496089908499</v>
+        <v>0.524962230574075</v>
       </c>
       <c r="K23" t="n">
-        <v>0.413257206308353</v>
+        <v>0.4065748035997</v>
       </c>
       <c r="L23" t="n">
-        <v>0.323446092730907</v>
+        <v>0.318236003465175</v>
       </c>
       <c r="M23" t="n">
-        <v>0.330859990905542</v>
+        <v>0.33544532468447</v>
       </c>
       <c r="N23" t="n">
-        <v>0.397607833742685</v>
+        <v>0.394317788717964</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4087799444847</v>
+        <v>0.445311056399331</v>
       </c>
       <c r="P23" t="n">
-        <v>0.460447264548296</v>
+        <v>0.502457175177183</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.452524167256265</v>
+        <v>0.457226410976358</v>
       </c>
       <c r="R23" t="n">
-        <v>0.440829085421973</v>
+        <v>0.439310642840777</v>
       </c>
       <c r="S23" t="n">
-        <v>0.395782995044111</v>
+        <v>0.397875453279504</v>
       </c>
       <c r="T23" t="n">
-        <v>0.402367984039999</v>
+        <v>0.404627098930888</v>
       </c>
       <c r="U23" t="n">
-        <v>0.465637850279676</v>
+        <v>0.475098090452709</v>
       </c>
       <c r="V23" t="n">
-        <v>0.391402920473448</v>
+        <v>0.398838996927138</v>
       </c>
       <c r="W23" t="n">
-        <v>0.309032490640573</v>
+        <v>0.312049276011804</v>
       </c>
       <c r="X23" t="n">
-        <v>0.245272663075913</v>
+        <v>0.243184174245567</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.22501272256715</v>
+        <v>0.241737177408297</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.206124653038731</v>
+        <v>0.226166434072823</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.254258840879566</v>
+        <v>0.281709081133992</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.290704314091758</v>
+        <v>0.324959559977913</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.344377465411566</v>
+        <v>0.370449984879981</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.365495401644179</v>
+        <v>0.369661025969941</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.40201575118398</v>
+        <v>0.408713762694854</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.356478739987942</v>
+        <v>0.364990983087359</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.406856181414365</v>
+        <v>0.41629094830765</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.317440543060105</v>
+        <v>0.329256389493184</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.344293692525118</v>
+        <v>0.364117465126605</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.333057554960674</v>
+        <v>0.361959569524697</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.3590562415289</v>
+        <v>0.402727999813417</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.339448421909254</v>
+        <v>0.363200773082147</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.44931602105697</v>
+        <v>0.472477200030225</v>
       </c>
     </row>
     <row r="24">
@@ -17856,118 +17856,118 @@
         <v>152</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0.404278215481467</v>
+        <v>0.402130340910425</v>
       </c>
       <c r="D24" t="n">
-        <v>0.64946909380773</v>
+        <v>0.644972008844782</v>
       </c>
       <c r="E24" t="n">
-        <v>0.615324200671067</v>
+        <v>0.61616591078095</v>
       </c>
       <c r="F24" t="n">
-        <v>0.612992193977141</v>
+        <v>0.614227438162804</v>
       </c>
       <c r="G24" t="n">
-        <v>0.714908888325015</v>
+        <v>0.71441822575341</v>
       </c>
       <c r="H24" t="n">
-        <v>0.644751028708507</v>
+        <v>0.644094395052493</v>
       </c>
       <c r="I24" t="n">
-        <v>0.661527726438634</v>
+        <v>0.661197715670078</v>
       </c>
       <c r="J24" t="n">
-        <v>0.634648110459689</v>
+        <v>0.637601166860756</v>
       </c>
       <c r="K24" t="n">
-        <v>0.500361582015275</v>
+        <v>0.5011686883455</v>
       </c>
       <c r="L24" t="n">
-        <v>0.48097656674955</v>
+        <v>0.478908348924428</v>
       </c>
       <c r="M24" t="n">
-        <v>0.468400232126133</v>
+        <v>0.469882905450228</v>
       </c>
       <c r="N24" t="n">
-        <v>0.450698463666896</v>
+        <v>0.455783811203021</v>
       </c>
       <c r="O24" t="n">
-        <v>0.558624339464715</v>
+        <v>0.565925386041455</v>
       </c>
       <c r="P24" t="n">
-        <v>0.59441306504999</v>
+        <v>0.598795770050545</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.45735916277336</v>
+        <v>0.454826423937612</v>
       </c>
       <c r="R24" t="n">
-        <v>0.464406272516939</v>
+        <v>0.459074309648638</v>
       </c>
       <c r="S24" t="n">
-        <v>0.449031386987378</v>
+        <v>0.44252899910446</v>
       </c>
       <c r="T24" t="n">
-        <v>0.463564968471568</v>
+        <v>0.459936803357141</v>
       </c>
       <c r="U24" t="n">
-        <v>0.543920596914211</v>
+        <v>0.544159411359005</v>
       </c>
       <c r="V24" t="n">
-        <v>0.485636222973795</v>
+        <v>0.488740063466697</v>
       </c>
       <c r="W24" t="n">
-        <v>0.419487426393621</v>
+        <v>0.420332131482764</v>
       </c>
       <c r="X24" t="n">
-        <v>0.401198686358646</v>
+        <v>0.401335394464724</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.371858276363592</v>
+        <v>0.373979478587212</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.394492548516742</v>
+        <v>0.399074807560348</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.395153423002034</v>
+        <v>0.400597108828727</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.437570283499074</v>
+        <v>0.445995521437852</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.439745952681708</v>
+        <v>0.437502045362947</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.417269471329133</v>
+        <v>0.413913258425218</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.472560439222236</v>
+        <v>0.467125739086134</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.416218656833313</v>
+        <v>0.413325370892822</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.506756922152028</v>
+        <v>0.508177281304984</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.419319373616515</v>
+        <v>0.423137821555671</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.482179595001378</v>
+        <v>0.48720247673879</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.612093471021346</v>
+        <v>0.61762857315652</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.671112042329743</v>
+        <v>0.681175888929091</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.651186840327012</v>
+        <v>0.657190033529213</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.826059711668484</v>
+        <v>0.824284818875162</v>
       </c>
     </row>
     <row r="25">
@@ -17975,118 +17975,118 @@
         <v>167</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.356636794137979</v>
+        <v>0.354673514531459</v>
       </c>
       <c r="D25" t="n">
-        <v>1.09066687144938</v>
+        <v>1.08280756559698</v>
       </c>
       <c r="E25" t="n">
-        <v>0.126925618380933</v>
+        <v>0.125360403786415</v>
       </c>
       <c r="F25" t="n">
-        <v>0.685294960472915</v>
+        <v>0.686833663134075</v>
       </c>
       <c r="G25" t="n">
-        <v>0.507212442226824</v>
+        <v>0.506498782509005</v>
       </c>
       <c r="H25" t="n">
-        <v>0.717472270089269</v>
+        <v>0.716815539969456</v>
       </c>
       <c r="I25" t="n">
-        <v>1.08168533436274</v>
+        <v>1.08071832699791</v>
       </c>
       <c r="J25" t="n">
-        <v>0.866088543299129</v>
+        <v>0.868897178076688</v>
       </c>
       <c r="K25" t="n">
-        <v>0.954275415631533</v>
+        <v>0.955245498959575</v>
       </c>
       <c r="L25" t="n">
-        <v>0.952645253182943</v>
+        <v>0.950228137127744</v>
       </c>
       <c r="M25" t="n">
-        <v>0.605196287172002</v>
+        <v>0.606792101172301</v>
       </c>
       <c r="N25" t="n">
-        <v>0.355641839989612</v>
+        <v>0.36046318887696</v>
       </c>
       <c r="O25" t="n">
-        <v>0.188245645688367</v>
+        <v>0.194043314670064</v>
       </c>
       <c r="P25" t="n">
-        <v>0.399235043269357</v>
+        <v>0.404021289028544</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.182555205265907</v>
+        <v>0.180298073960251</v>
       </c>
       <c r="R25" t="n">
-        <v>0.882561357956286</v>
+        <v>0.875624922973886</v>
       </c>
       <c r="S25" t="n">
-        <v>0.702843288441212</v>
+        <v>0.695527736898552</v>
       </c>
       <c r="T25" t="n">
-        <v>0.691222284372412</v>
+        <v>0.687178501762739</v>
       </c>
       <c r="U25" t="n">
-        <v>0.650542822783121</v>
+        <v>0.650687574007353</v>
       </c>
       <c r="V25" t="n">
-        <v>0.795716519752947</v>
+        <v>0.798807177864171</v>
       </c>
       <c r="W25" t="n">
-        <v>0.879279917341068</v>
+        <v>0.880275458946359</v>
       </c>
       <c r="X25" t="n">
-        <v>0.786073092168328</v>
+        <v>0.786258349251508</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.720466913850254</v>
+        <v>0.722908569379794</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.6638116247843</v>
+        <v>0.668662700710162</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.36244996481045</v>
+        <v>0.367858329197253</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.234206948137167</v>
+        <v>0.242497529125745</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0521401335960032</v>
+        <v>0.0496015301165469</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.718687287198405</v>
+        <v>0.715029796588408</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.937999963024953</v>
+        <v>0.931714838752798</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.698349891547278</v>
+        <v>0.695110515690248</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.00782174009836</v>
+        <v>1.00894124309026</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.862181099075644</v>
+        <v>0.865908574127342</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.01003064166348</v>
+        <v>1.01622198603168</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.00442120839555</v>
+        <v>1.01105363345057</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.18916567331001</v>
+        <v>1.20215565816459</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.542632791907228</v>
+        <v>0.548590719490678</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.377521682791167</v>
+        <v>0.379790474529268</v>
       </c>
     </row>
   </sheetData>
@@ -18626,7 +18626,7 @@
         <v>163</v>
       </c>
       <c r="B2" t="n">
-        <v>0.238464966508072</v>
+        <v>0.260853011453758</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18640,7 +18640,7 @@
         <v>163</v>
       </c>
       <c r="B3" t="n">
-        <v>0.145034559063835</v>
+        <v>0.150485040294569</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18654,7 +18654,7 @@
         <v>163</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0746226310983506</v>
+        <v>0.0682098479464351</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18668,7 +18668,7 @@
         <v>163</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.000357773499271564</v>
+        <v>-0.0117256381894928</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -18682,7 +18682,7 @@
         <v>163</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0519014124157323</v>
+        <v>-0.0660193093276084</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18696,7 +18696,7 @@
         <v>163</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.041890783798348</v>
+        <v>-0.0504524825917571</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18710,7 +18710,7 @@
         <v>163</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0317326546192377</v>
+        <v>-0.0311328961730898</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
@@ -18752,7 +18752,7 @@
         <v>165</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227751294861966</v>
+        <v>0.234800302113708</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -18766,7 +18766,7 @@
         <v>165</v>
       </c>
       <c r="B3" t="n">
-        <v>0.123847655244487</v>
+        <v>0.125596124704373</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -18780,7 +18780,7 @@
         <v>165</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0596153168159192</v>
+        <v>0.0594324754629002</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -18794,7 +18794,7 @@
         <v>165</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00425519595852678</v>
+        <v>0.00437097828596799</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -18808,7 +18808,7 @@
         <v>165</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0806589033810604</v>
+        <v>-0.0817307803739884</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -18822,7 +18822,7 @@
         <v>165</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0870968022587186</v>
+        <v>-0.0869879379674059</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -18836,7 +18836,7 @@
         <v>165</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.000768468927348064</v>
+        <v>0.000194215538942508</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>

--- a/outcome/appendix/Figure Data/Fig.7 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.7 data.xlsx
@@ -16,6 +16,7 @@
     <sheet name="panel H" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="panel I" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="panel J" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="panel K" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -12117,6 +12118,132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.224236157383487</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.0191351859397688</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.0324486171166603</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.00954477439894338</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.00427857268010465</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0425216614527529</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.045421131249258</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>

--- a/outcome/appendix/Figure Data/Fig.7 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.7 data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t xml:space="preserve">disease</t>
   </si>
@@ -634,15 +634,6 @@
   </si>
   <si>
     <t xml:space="preserve">X2022.10.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2022.11.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2022.12.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2023.01.01</t>
   </si>
   <si>
     <t xml:space="preserve">diseasename</t>
@@ -12002,16 +11993,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
         <v>207</v>
-      </c>
-      <c r="B1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -12128,16 +12119,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
         <v>207</v>
-      </c>
-      <c r="B1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -12361,15 +12352,6 @@
       <c r="AJ1" t="s">
         <v>203</v>
       </c>
-      <c r="AK1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -12480,15 +12462,6 @@
       <c r="AJ2" t="n">
         <v>-0.268666715809871</v>
       </c>
-      <c r="AK2" t="n">
-        <v>-0.0148922283250284</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.323787242190577</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.284710100658465</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -12599,15 +12572,6 @@
       <c r="AJ3" t="n">
         <v>0.17937037009371</v>
       </c>
-      <c r="AK3" t="n">
-        <v>0.212101827308508</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.683426661816326</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.24390545273017</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -12718,15 +12682,6 @@
       <c r="AJ4" t="n">
         <v>0.367913042382299</v>
       </c>
-      <c r="AK4" t="n">
-        <v>0.59315023129243</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.638351297756851</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.788878816838511</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -12837,15 +12792,6 @@
       <c r="AJ5" t="n">
         <v>-3.7937451004689</v>
       </c>
-      <c r="AK5" t="n">
-        <v>-3.03025519107438</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>-3.26067126250847</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>-3.22053713338045</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -12956,15 +12902,6 @@
       <c r="AJ6" t="n">
         <v>0.0995368948536473</v>
       </c>
-      <c r="AK6" t="n">
-        <v>0.335015283497439</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.33048453962871</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.741653639975108</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -13075,15 +13012,6 @@
       <c r="AJ7" t="n">
         <v>0.29784602274072</v>
       </c>
-      <c r="AK7" t="n">
-        <v>-0.398845006616914</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.336201510289802</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.819224644234754</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -13194,15 +13122,6 @@
       <c r="AJ8" t="n">
         <v>0.370341617805223</v>
       </c>
-      <c r="AK8" t="n">
-        <v>0.592959865687368</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.35925204234525</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>-0.0107762867010713</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -13313,15 +13232,6 @@
       <c r="AJ9" t="n">
         <v>0.581772598494796</v>
       </c>
-      <c r="AK9" t="n">
-        <v>0.671147179178328</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.710625344862459</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.493450176233739</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -13432,15 +13342,6 @@
       <c r="AJ10" t="n">
         <v>0.282562990873496</v>
       </c>
-      <c r="AK10" t="n">
-        <v>0.41659612433545</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0.397624999034258</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0.434322986519823</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -13551,15 +13452,6 @@
       <c r="AJ11" t="n">
         <v>0.664974080376704</v>
       </c>
-      <c r="AK11" t="n">
-        <v>0.743593132194929</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0.665524436497031</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0.671647712323307</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -13670,15 +13562,6 @@
       <c r="AJ12" t="n">
         <v>0.506136363669942</v>
       </c>
-      <c r="AK12" t="n">
-        <v>0.514449849205597</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.538830495521785</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0.526748836735634</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -13789,15 +13672,6 @@
       <c r="AJ13" t="n">
         <v>0.745435250391852</v>
       </c>
-      <c r="AK13" t="n">
-        <v>0.856062077116858</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.710306540448201</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0.450216850018908</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -13908,15 +13782,6 @@
       <c r="AJ14" t="n">
         <v>-0.529098874073975</v>
       </c>
-      <c r="AK14" t="n">
-        <v>-0.157337541064753</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>-0.20796674096776</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>-1.41100370379706</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -14027,15 +13892,6 @@
       <c r="AJ15" t="n">
         <v>0.532765935029159</v>
       </c>
-      <c r="AK15" t="n">
-        <v>0.869271385398066</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0.437354536284717</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>-0.177109738242337</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -14146,15 +14002,6 @@
       <c r="AJ16" t="n">
         <v>0.205812797571563</v>
       </c>
-      <c r="AK16" t="n">
-        <v>0.145776437464613</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>-0.352331281370103</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0.0688408788949334</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -14265,15 +14112,6 @@
       <c r="AJ17" t="n">
         <v>0.302331489472359</v>
       </c>
-      <c r="AK17" t="n">
-        <v>-1.68202070027311</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>-0.0195831621984482</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0.725588500263891</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -14384,15 +14222,6 @@
       <c r="AJ18" t="n">
         <v>0.0013099668402542</v>
       </c>
-      <c r="AK18" t="n">
-        <v>-0.144936237774945</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0.38018364786091</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0.603163584945091</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -14503,15 +14332,6 @@
       <c r="AJ19" t="n">
         <v>-0.0585666287628153</v>
       </c>
-      <c r="AK19" t="n">
-        <v>-0.192799693576548</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>-0.731642908852488</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>-0.632659926729016</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -14622,15 +14442,6 @@
       <c r="AJ20" t="n">
         <v>0.324234028866715</v>
       </c>
-      <c r="AK20" t="n">
-        <v>0.406451530843648</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0.245839375937005</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0.056964926275149</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -14741,15 +14552,6 @@
       <c r="AJ21" t="n">
         <v>-1.71024747946902</v>
       </c>
-      <c r="AK21" t="n">
-        <v>-1.76838122691416</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>-2.12617892180578</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>-1.5313892733265</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -14860,15 +14662,6 @@
       <c r="AJ22" t="n">
         <v>-1.09266042700965</v>
       </c>
-      <c r="AK22" t="n">
-        <v>-1.25316664481049</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>-1.62839991887287</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>-1.60239353790571</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -14979,15 +14772,6 @@
       <c r="AJ23" t="n">
         <v>0.361959569524697</v>
       </c>
-      <c r="AK23" t="n">
-        <v>0.402727999813417</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0.363200773082147</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0.472477200030225</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -15098,15 +14882,6 @@
       <c r="AJ24" t="n">
         <v>0.61762857315652</v>
       </c>
-      <c r="AK24" t="n">
-        <v>0.681175888929091</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0.657190033529213</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0.824284818875162</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -15216,15 +14991,6 @@
       </c>
       <c r="AJ25" t="n">
         <v>1.01105363345057</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1.20215565816459</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0.548590719490678</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0.379790474529268</v>
       </c>
     </row>
   </sheetData>
@@ -15350,15 +15116,6 @@
       <c r="AJ1" t="s">
         <v>203</v>
       </c>
-      <c r="AK1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -15469,15 +15226,6 @@
       <c r="AJ2" t="n">
         <v>-0.268666715809871</v>
       </c>
-      <c r="AK2" t="n">
-        <v>-0.0148922283250284</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.323787242190577</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.284710100658465</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -15588,15 +15336,6 @@
       <c r="AJ3" t="n">
         <v>0.17937037009371</v>
       </c>
-      <c r="AK3" t="n">
-        <v>0.212101827308508</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.683426661816326</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.24390545273017</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -15707,15 +15446,6 @@
       <c r="AJ4" t="n">
         <v>0.367913042382299</v>
       </c>
-      <c r="AK4" t="n">
-        <v>0.59315023129243</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.638351297756851</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.788878816838511</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -15826,15 +15556,6 @@
       <c r="AJ5" t="n">
         <v>-3.7937451004689</v>
       </c>
-      <c r="AK5" t="n">
-        <v>-3.03025519107438</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>-3.26067126250847</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>-3.22053713338045</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -15945,15 +15666,6 @@
       <c r="AJ6" t="n">
         <v>0.0995368948536473</v>
       </c>
-      <c r="AK6" t="n">
-        <v>0.335015283497439</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.33048453962871</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0.741653639975108</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -16064,15 +15776,6 @@
       <c r="AJ7" t="n">
         <v>0.29784602274072</v>
       </c>
-      <c r="AK7" t="n">
-        <v>-0.398845006616914</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.336201510289802</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.819224644234754</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -16183,15 +15886,6 @@
       <c r="AJ8" t="n">
         <v>0.370341617805223</v>
       </c>
-      <c r="AK8" t="n">
-        <v>0.592959865687368</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.35925204234525</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>-0.0107762867010713</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -16302,15 +15996,6 @@
       <c r="AJ9" t="n">
         <v>0.581772598494796</v>
       </c>
-      <c r="AK9" t="n">
-        <v>0.671147179178328</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.710625344862459</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.493450176233739</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -16421,15 +16106,6 @@
       <c r="AJ10" t="n">
         <v>0.282562990873496</v>
       </c>
-      <c r="AK10" t="n">
-        <v>0.41659612433545</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0.397624999034258</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0.434322986519823</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -16540,15 +16216,6 @@
       <c r="AJ11" t="n">
         <v>0.664974080376704</v>
       </c>
-      <c r="AK11" t="n">
-        <v>0.743593132194929</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0.665524436497031</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0.671647712323307</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -16659,15 +16326,6 @@
       <c r="AJ12" t="n">
         <v>0.506136363669942</v>
       </c>
-      <c r="AK12" t="n">
-        <v>0.514449849205597</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.538830495521785</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0.526748836735634</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -16778,15 +16436,6 @@
       <c r="AJ13" t="n">
         <v>0.745435250391852</v>
       </c>
-      <c r="AK13" t="n">
-        <v>0.856062077116858</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.710306540448201</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0.450216850018908</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -16897,15 +16546,6 @@
       <c r="AJ14" t="n">
         <v>-0.529098874073975</v>
       </c>
-      <c r="AK14" t="n">
-        <v>-0.157337541064753</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>-0.20796674096776</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>-1.41100370379706</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -17016,15 +16656,6 @@
       <c r="AJ15" t="n">
         <v>0.532765935029159</v>
       </c>
-      <c r="AK15" t="n">
-        <v>0.869271385398066</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0.437354536284717</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>-0.177109738242337</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -17135,15 +16766,6 @@
       <c r="AJ16" t="n">
         <v>0.205812797571563</v>
       </c>
-      <c r="AK16" t="n">
-        <v>0.145776437464613</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>-0.352331281370103</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0.0688408788949334</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -17254,15 +16876,6 @@
       <c r="AJ17" t="n">
         <v>0.302331489472359</v>
       </c>
-      <c r="AK17" t="n">
-        <v>-1.68202070027311</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>-0.0195831621984482</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0.725588500263891</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -17373,15 +16986,6 @@
       <c r="AJ18" t="n">
         <v>0.0013099668402542</v>
       </c>
-      <c r="AK18" t="n">
-        <v>-0.144936237774945</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0.38018364786091</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0.603163584945091</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -17492,15 +17096,6 @@
       <c r="AJ19" t="n">
         <v>-0.0585666287628153</v>
       </c>
-      <c r="AK19" t="n">
-        <v>-0.192799693576548</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>-0.731642908852488</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>-0.632659926729016</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -17611,15 +17206,6 @@
       <c r="AJ20" t="n">
         <v>0.324234028866715</v>
       </c>
-      <c r="AK20" t="n">
-        <v>0.406451530843648</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0.245839375937005</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0.056964926275149</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -17730,15 +17316,6 @@
       <c r="AJ21" t="n">
         <v>-1.71024747946902</v>
       </c>
-      <c r="AK21" t="n">
-        <v>-1.76838122691416</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>-2.12617892180578</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>-1.5313892733265</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -17849,15 +17426,6 @@
       <c r="AJ22" t="n">
         <v>-1.09266042700965</v>
       </c>
-      <c r="AK22" t="n">
-        <v>-1.25316664481049</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>-1.62839991887287</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>-1.60239353790571</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -17968,15 +17536,6 @@
       <c r="AJ23" t="n">
         <v>0.361959569524697</v>
       </c>
-      <c r="AK23" t="n">
-        <v>0.402727999813417</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0.363200773082147</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0.472477200030225</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -18087,15 +17646,6 @@
       <c r="AJ24" t="n">
         <v>0.61762857315652</v>
       </c>
-      <c r="AK24" t="n">
-        <v>0.681175888929091</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0.657190033529213</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0.824284818875162</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -18205,15 +17755,6 @@
       </c>
       <c r="AJ25" t="n">
         <v>1.01105363345057</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1.20215565816459</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0.548590719490678</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0.379790474529268</v>
       </c>
     </row>
   </sheetData>
@@ -18232,16 +17773,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
         <v>207</v>
-      </c>
-      <c r="B1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -18358,16 +17899,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
         <v>207</v>
-      </c>
-      <c r="B1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -18484,16 +18025,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
         <v>207</v>
-      </c>
-      <c r="B1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -18610,16 +18151,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
         <v>207</v>
-      </c>
-      <c r="B1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -18736,16 +18277,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
         <v>207</v>
-      </c>
-      <c r="B1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -18862,16 +18403,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
         <v>207</v>
-      </c>
-      <c r="B1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2">
